--- a/public/excel_templates/BUY_RECOMMENDATIONS.xlsx
+++ b/public/excel_templates/BUY_RECOMMENDATIONS.xlsx
@@ -20,7 +20,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="$#,##0.00"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -33,12 +35,24 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9D9D9"/>
+        <bgColor rgb="00D9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2F2F2"/>
+        <bgColor rgb="00F2F2F2"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -59,9 +73,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -429,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL201"/>
+  <dimension ref="A1:AL203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,271 +464,405 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Min Est Qty</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Min Sell Price</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Max BSR</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Profit</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Overall ROI</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Total Sales</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Max Order Qty</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Days of Stock</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Supplier Commission</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Discount</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Total Units</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Total Amount</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>AMZ Less</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Case Pk Default</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Min ROI</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Max BSR 30</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Max Chng 30</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Max BSR 90</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Max Chng 90</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Min Est Qty</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Var Opp</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Max AMZ OOS</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Max Bbox OOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E2" s="2">
+        <f>SUM(F4:F204)</f>
+        <v/>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <f>SUM(P4:P204)</f>
+        <v/>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>240</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <f>SUM(O4:O204)</f>
+        <v/>
+      </c>
+      <c r="P2" s="2">
+        <f>SUM(P4:P204)</f>
+        <v/>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>Min Profit</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="X2" s="2" t="n">
+        <v>125000</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z2" s="2" t="n">
+        <v>150000</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AB2" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>AMZ Title</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Est. Qty</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>Sell Price</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>Current BSR</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>Profit</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>ROI</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H3" s="5" t="inlineStr">
         <is>
           <t>Sales Opp.</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I3" s="5" t="inlineStr">
         <is>
           <t>Suggested Pk</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J3" s="5" t="inlineStr">
         <is>
           <t>Pack Qty</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K3" s="5" t="inlineStr">
         <is>
           <t>Odr Qty (Pk)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L3" s="5" t="inlineStr">
         <is>
           <t>Item Code</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M3" s="5" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N3" s="5" t="inlineStr">
         <is>
           <t>Cost</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O3" s="5" t="inlineStr">
         <is>
           <t>Order Qty (Unit)</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P3" s="5" t="inlineStr">
         <is>
           <t>Order Amount</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q3" s="5" t="inlineStr">
         <is>
           <t>Var Weight</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R3" s="5" t="inlineStr">
         <is>
           <t>Case Pack</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S3" s="5" t="inlineStr">
         <is>
           <t>Offers 90d</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T3" s="5" t="inlineStr">
         <is>
           <t>ROI/Profit</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U3" s="5" t="inlineStr">
         <is>
           <t>Visible</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V3" s="5" t="inlineStr">
         <is>
           <t>Var. Opp.</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W3" s="5" t="inlineStr">
         <is>
           <t>Use Qty</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X3" s="5" t="inlineStr">
         <is>
           <t>BSR 30 Avg</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y3" s="5" t="inlineStr">
         <is>
           <t>% Chng30</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z3" s="5" t="inlineStr">
         <is>
           <t>BSR 90 Avg</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA3" s="5" t="inlineStr">
         <is>
           <t>% Chng90</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB3" s="5" t="inlineStr">
         <is>
           <t>Avail. Qty</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC3" s="5" t="inlineStr">
         <is>
           <t>AMZ Boss</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD3" s="5" t="inlineStr">
         <is>
           <t>AMZ OOS</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE3" s="5" t="inlineStr">
         <is>
           <t>Bbox OOS</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF3" s="5" t="inlineStr">
         <is>
           <t>Brand</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG3" s="5" t="inlineStr">
         <is>
           <t>Keepa Link</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH3" s="5" t="inlineStr">
         <is>
           <t>AMZ Product Page</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI3" s="5" t="inlineStr">
         <is>
           <t>Check Gated in SC</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ3" s="5" t="inlineStr">
         <is>
           <t>Extra1</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK3" s="5" t="inlineStr">
         <is>
           <t>Extra2</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL3" s="5" t="inlineStr">
         <is>
           <t>Extra3</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="F2">
-        <f>D2-N2</f>
-        <v/>
-      </c>
-      <c r="G2">
-        <f>IF(N2=0,0,F2/N2)</f>
-        <v/>
-      </c>
-      <c r="L2">
-        <f>IF(Y2=0,0,Z2/Y2)</f>
-        <v/>
-      </c>
-      <c r="O2">
-        <f>MAX(0,(30*Y2)-P2)</f>
-        <v/>
-      </c>
-      <c r="X2">
-        <f>MAX([@[BSR 30 Avg]],C2)</f>
-        <v/>
-      </c>
-      <c r="Y2">
-        <f>IF(C2=0,0,(C2-X2)/C2)</f>
-        <v/>
-      </c>
-      <c r="Z2">
-        <f>MAX([@[BSR 90 Avg]],C2)</f>
-        <v/>
-      </c>
-      <c r="AA2">
-        <f>IF(C2=0,0,(C2-Z2)/C2)</f>
-        <v/>
-      </c>
-      <c r="AB2">
-        <f>IF(D2=0,0,F2/D2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="F3">
-        <f>D3-N3</f>
-        <v/>
-      </c>
-      <c r="G3">
-        <f>IF(N3=0,0,F3/N3)</f>
-        <v/>
-      </c>
-      <c r="L3">
-        <f>IF(Y3=0,0,Z3/Y3)</f>
-        <v/>
-      </c>
-      <c r="O3">
-        <f>MAX(0,(30*Y3)-P3)</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>MAX([@[BSR 30 Avg]],C3)</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>IF(C3=0,0,(C3-X3)/C3)</f>
-        <v/>
-      </c>
-      <c r="Z3">
-        <f>MAX([@[BSR 90 Avg]],C3)</f>
-        <v/>
-      </c>
-      <c r="AA3">
-        <f>IF(C3=0,0,(C3-Z3)/C3)</f>
-        <v/>
-      </c>
-      <c r="AB3">
-        <f>IF(D3=0,0,F3/D3)</f>
-        <v/>
       </c>
     </row>
     <row r="4">
@@ -715,23 +875,19 @@
         <v/>
       </c>
       <c r="L4">
-        <f>IF(Y4=0,0,Z4/Y4)</f>
+        <f>IF(H4=0,0,AB4/(H4/30))</f>
         <v/>
       </c>
       <c r="O4">
-        <f>MAX(0,(30*Y4)-P4)</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>MAX([@[BSR 30 Avg]],C4)</f>
+        <f>MAX(0,(30*H4/30)-AB4)</f>
+        <v/>
+      </c>
+      <c r="P4">
+        <f>N4*O4</f>
         <v/>
       </c>
       <c r="Y4">
         <f>IF(C4=0,0,(C4-X4)/C4)</f>
-        <v/>
-      </c>
-      <c r="Z4">
-        <f>MAX([@[BSR 90 Avg]],C4)</f>
         <v/>
       </c>
       <c r="AA4">
@@ -753,23 +909,19 @@
         <v/>
       </c>
       <c r="L5">
-        <f>IF(Y5=0,0,Z5/Y5)</f>
+        <f>IF(H5=0,0,AB5/(H5/30))</f>
         <v/>
       </c>
       <c r="O5">
-        <f>MAX(0,(30*Y5)-P5)</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>MAX([@[BSR 30 Avg]],C5)</f>
+        <f>MAX(0,(30*H5/30)-AB5)</f>
+        <v/>
+      </c>
+      <c r="P5">
+        <f>N5*O5</f>
         <v/>
       </c>
       <c r="Y5">
         <f>IF(C5=0,0,(C5-X5)/C5)</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>MAX([@[BSR 90 Avg]],C5)</f>
         <v/>
       </c>
       <c r="AA5">
@@ -791,23 +943,19 @@
         <v/>
       </c>
       <c r="L6">
-        <f>IF(Y6=0,0,Z6/Y6)</f>
+        <f>IF(H6=0,0,AB6/(H6/30))</f>
         <v/>
       </c>
       <c r="O6">
-        <f>MAX(0,(30*Y6)-P6)</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>MAX([@[BSR 30 Avg]],C6)</f>
+        <f>MAX(0,(30*H6/30)-AB6)</f>
+        <v/>
+      </c>
+      <c r="P6">
+        <f>N6*O6</f>
         <v/>
       </c>
       <c r="Y6">
         <f>IF(C6=0,0,(C6-X6)/C6)</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>MAX([@[BSR 90 Avg]],C6)</f>
         <v/>
       </c>
       <c r="AA6">
@@ -829,23 +977,19 @@
         <v/>
       </c>
       <c r="L7">
-        <f>IF(Y7=0,0,Z7/Y7)</f>
+        <f>IF(H7=0,0,AB7/(H7/30))</f>
         <v/>
       </c>
       <c r="O7">
-        <f>MAX(0,(30*Y7)-P7)</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>MAX([@[BSR 30 Avg]],C7)</f>
+        <f>MAX(0,(30*H7/30)-AB7)</f>
+        <v/>
+      </c>
+      <c r="P7">
+        <f>N7*O7</f>
         <v/>
       </c>
       <c r="Y7">
         <f>IF(C7=0,0,(C7-X7)/C7)</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>MAX([@[BSR 90 Avg]],C7)</f>
         <v/>
       </c>
       <c r="AA7">
@@ -867,23 +1011,19 @@
         <v/>
       </c>
       <c r="L8">
-        <f>IF(Y8=0,0,Z8/Y8)</f>
+        <f>IF(H8=0,0,AB8/(H8/30))</f>
         <v/>
       </c>
       <c r="O8">
-        <f>MAX(0,(30*Y8)-P8)</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>MAX([@[BSR 30 Avg]],C8)</f>
+        <f>MAX(0,(30*H8/30)-AB8)</f>
+        <v/>
+      </c>
+      <c r="P8">
+        <f>N8*O8</f>
         <v/>
       </c>
       <c r="Y8">
         <f>IF(C8=0,0,(C8-X8)/C8)</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>MAX([@[BSR 90 Avg]],C8)</f>
         <v/>
       </c>
       <c r="AA8">
@@ -905,23 +1045,19 @@
         <v/>
       </c>
       <c r="L9">
-        <f>IF(Y9=0,0,Z9/Y9)</f>
+        <f>IF(H9=0,0,AB9/(H9/30))</f>
         <v/>
       </c>
       <c r="O9">
-        <f>MAX(0,(30*Y9)-P9)</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>MAX([@[BSR 30 Avg]],C9)</f>
+        <f>MAX(0,(30*H9/30)-AB9)</f>
+        <v/>
+      </c>
+      <c r="P9">
+        <f>N9*O9</f>
         <v/>
       </c>
       <c r="Y9">
         <f>IF(C9=0,0,(C9-X9)/C9)</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>MAX([@[BSR 90 Avg]],C9)</f>
         <v/>
       </c>
       <c r="AA9">
@@ -943,23 +1079,19 @@
         <v/>
       </c>
       <c r="L10">
-        <f>IF(Y10=0,0,Z10/Y10)</f>
+        <f>IF(H10=0,0,AB10/(H10/30))</f>
         <v/>
       </c>
       <c r="O10">
-        <f>MAX(0,(30*Y10)-P10)</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>MAX([@[BSR 30 Avg]],C10)</f>
+        <f>MAX(0,(30*H10/30)-AB10)</f>
+        <v/>
+      </c>
+      <c r="P10">
+        <f>N10*O10</f>
         <v/>
       </c>
       <c r="Y10">
         <f>IF(C10=0,0,(C10-X10)/C10)</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>MAX([@[BSR 90 Avg]],C10)</f>
         <v/>
       </c>
       <c r="AA10">
@@ -981,23 +1113,19 @@
         <v/>
       </c>
       <c r="L11">
-        <f>IF(Y11=0,0,Z11/Y11)</f>
+        <f>IF(H11=0,0,AB11/(H11/30))</f>
         <v/>
       </c>
       <c r="O11">
-        <f>MAX(0,(30*Y11)-P11)</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>MAX([@[BSR 30 Avg]],C11)</f>
+        <f>MAX(0,(30*H11/30)-AB11)</f>
+        <v/>
+      </c>
+      <c r="P11">
+        <f>N11*O11</f>
         <v/>
       </c>
       <c r="Y11">
         <f>IF(C11=0,0,(C11-X11)/C11)</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>MAX([@[BSR 90 Avg]],C11)</f>
         <v/>
       </c>
       <c r="AA11">
@@ -1019,23 +1147,19 @@
         <v/>
       </c>
       <c r="L12">
-        <f>IF(Y12=0,0,Z12/Y12)</f>
+        <f>IF(H12=0,0,AB12/(H12/30))</f>
         <v/>
       </c>
       <c r="O12">
-        <f>MAX(0,(30*Y12)-P12)</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>MAX([@[BSR 30 Avg]],C12)</f>
+        <f>MAX(0,(30*H12/30)-AB12)</f>
+        <v/>
+      </c>
+      <c r="P12">
+        <f>N12*O12</f>
         <v/>
       </c>
       <c r="Y12">
         <f>IF(C12=0,0,(C12-X12)/C12)</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>MAX([@[BSR 90 Avg]],C12)</f>
         <v/>
       </c>
       <c r="AA12">
@@ -1057,23 +1181,19 @@
         <v/>
       </c>
       <c r="L13">
-        <f>IF(Y13=0,0,Z13/Y13)</f>
+        <f>IF(H13=0,0,AB13/(H13/30))</f>
         <v/>
       </c>
       <c r="O13">
-        <f>MAX(0,(30*Y13)-P13)</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>MAX([@[BSR 30 Avg]],C13)</f>
+        <f>MAX(0,(30*H13/30)-AB13)</f>
+        <v/>
+      </c>
+      <c r="P13">
+        <f>N13*O13</f>
         <v/>
       </c>
       <c r="Y13">
         <f>IF(C13=0,0,(C13-X13)/C13)</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>MAX([@[BSR 90 Avg]],C13)</f>
         <v/>
       </c>
       <c r="AA13">
@@ -1095,23 +1215,19 @@
         <v/>
       </c>
       <c r="L14">
-        <f>IF(Y14=0,0,Z14/Y14)</f>
+        <f>IF(H14=0,0,AB14/(H14/30))</f>
         <v/>
       </c>
       <c r="O14">
-        <f>MAX(0,(30*Y14)-P14)</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>MAX([@[BSR 30 Avg]],C14)</f>
+        <f>MAX(0,(30*H14/30)-AB14)</f>
+        <v/>
+      </c>
+      <c r="P14">
+        <f>N14*O14</f>
         <v/>
       </c>
       <c r="Y14">
         <f>IF(C14=0,0,(C14-X14)/C14)</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>MAX([@[BSR 90 Avg]],C14)</f>
         <v/>
       </c>
       <c r="AA14">
@@ -1133,23 +1249,19 @@
         <v/>
       </c>
       <c r="L15">
-        <f>IF(Y15=0,0,Z15/Y15)</f>
+        <f>IF(H15=0,0,AB15/(H15/30))</f>
         <v/>
       </c>
       <c r="O15">
-        <f>MAX(0,(30*Y15)-P15)</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>MAX([@[BSR 30 Avg]],C15)</f>
+        <f>MAX(0,(30*H15/30)-AB15)</f>
+        <v/>
+      </c>
+      <c r="P15">
+        <f>N15*O15</f>
         <v/>
       </c>
       <c r="Y15">
         <f>IF(C15=0,0,(C15-X15)/C15)</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>MAX([@[BSR 90 Avg]],C15)</f>
         <v/>
       </c>
       <c r="AA15">
@@ -1171,23 +1283,19 @@
         <v/>
       </c>
       <c r="L16">
-        <f>IF(Y16=0,0,Z16/Y16)</f>
+        <f>IF(H16=0,0,AB16/(H16/30))</f>
         <v/>
       </c>
       <c r="O16">
-        <f>MAX(0,(30*Y16)-P16)</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>MAX([@[BSR 30 Avg]],C16)</f>
+        <f>MAX(0,(30*H16/30)-AB16)</f>
+        <v/>
+      </c>
+      <c r="P16">
+        <f>N16*O16</f>
         <v/>
       </c>
       <c r="Y16">
         <f>IF(C16=0,0,(C16-X16)/C16)</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>MAX([@[BSR 90 Avg]],C16)</f>
         <v/>
       </c>
       <c r="AA16">
@@ -1209,23 +1317,19 @@
         <v/>
       </c>
       <c r="L17">
-        <f>IF(Y17=0,0,Z17/Y17)</f>
+        <f>IF(H17=0,0,AB17/(H17/30))</f>
         <v/>
       </c>
       <c r="O17">
-        <f>MAX(0,(30*Y17)-P17)</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>MAX([@[BSR 30 Avg]],C17)</f>
+        <f>MAX(0,(30*H17/30)-AB17)</f>
+        <v/>
+      </c>
+      <c r="P17">
+        <f>N17*O17</f>
         <v/>
       </c>
       <c r="Y17">
         <f>IF(C17=0,0,(C17-X17)/C17)</f>
-        <v/>
-      </c>
-      <c r="Z17">
-        <f>MAX([@[BSR 90 Avg]],C17)</f>
         <v/>
       </c>
       <c r="AA17">
@@ -1247,23 +1351,19 @@
         <v/>
       </c>
       <c r="L18">
-        <f>IF(Y18=0,0,Z18/Y18)</f>
+        <f>IF(H18=0,0,AB18/(H18/30))</f>
         <v/>
       </c>
       <c r="O18">
-        <f>MAX(0,(30*Y18)-P18)</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>MAX([@[BSR 30 Avg]],C18)</f>
+        <f>MAX(0,(30*H18/30)-AB18)</f>
+        <v/>
+      </c>
+      <c r="P18">
+        <f>N18*O18</f>
         <v/>
       </c>
       <c r="Y18">
         <f>IF(C18=0,0,(C18-X18)/C18)</f>
-        <v/>
-      </c>
-      <c r="Z18">
-        <f>MAX([@[BSR 90 Avg]],C18)</f>
         <v/>
       </c>
       <c r="AA18">
@@ -1285,23 +1385,19 @@
         <v/>
       </c>
       <c r="L19">
-        <f>IF(Y19=0,0,Z19/Y19)</f>
+        <f>IF(H19=0,0,AB19/(H19/30))</f>
         <v/>
       </c>
       <c r="O19">
-        <f>MAX(0,(30*Y19)-P19)</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>MAX([@[BSR 30 Avg]],C19)</f>
+        <f>MAX(0,(30*H19/30)-AB19)</f>
+        <v/>
+      </c>
+      <c r="P19">
+        <f>N19*O19</f>
         <v/>
       </c>
       <c r="Y19">
         <f>IF(C19=0,0,(C19-X19)/C19)</f>
-        <v/>
-      </c>
-      <c r="Z19">
-        <f>MAX([@[BSR 90 Avg]],C19)</f>
         <v/>
       </c>
       <c r="AA19">
@@ -1323,23 +1419,19 @@
         <v/>
       </c>
       <c r="L20">
-        <f>IF(Y20=0,0,Z20/Y20)</f>
+        <f>IF(H20=0,0,AB20/(H20/30))</f>
         <v/>
       </c>
       <c r="O20">
-        <f>MAX(0,(30*Y20)-P20)</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>MAX([@[BSR 30 Avg]],C20)</f>
+        <f>MAX(0,(30*H20/30)-AB20)</f>
+        <v/>
+      </c>
+      <c r="P20">
+        <f>N20*O20</f>
         <v/>
       </c>
       <c r="Y20">
         <f>IF(C20=0,0,(C20-X20)/C20)</f>
-        <v/>
-      </c>
-      <c r="Z20">
-        <f>MAX([@[BSR 90 Avg]],C20)</f>
         <v/>
       </c>
       <c r="AA20">
@@ -1361,23 +1453,19 @@
         <v/>
       </c>
       <c r="L21">
-        <f>IF(Y21=0,0,Z21/Y21)</f>
+        <f>IF(H21=0,0,AB21/(H21/30))</f>
         <v/>
       </c>
       <c r="O21">
-        <f>MAX(0,(30*Y21)-P21)</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>MAX([@[BSR 30 Avg]],C21)</f>
+        <f>MAX(0,(30*H21/30)-AB21)</f>
+        <v/>
+      </c>
+      <c r="P21">
+        <f>N21*O21</f>
         <v/>
       </c>
       <c r="Y21">
         <f>IF(C21=0,0,(C21-X21)/C21)</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>MAX([@[BSR 90 Avg]],C21)</f>
         <v/>
       </c>
       <c r="AA21">
@@ -1399,23 +1487,19 @@
         <v/>
       </c>
       <c r="L22">
-        <f>IF(Y22=0,0,Z22/Y22)</f>
+        <f>IF(H22=0,0,AB22/(H22/30))</f>
         <v/>
       </c>
       <c r="O22">
-        <f>MAX(0,(30*Y22)-P22)</f>
-        <v/>
-      </c>
-      <c r="X22">
-        <f>MAX([@[BSR 30 Avg]],C22)</f>
+        <f>MAX(0,(30*H22/30)-AB22)</f>
+        <v/>
+      </c>
+      <c r="P22">
+        <f>N22*O22</f>
         <v/>
       </c>
       <c r="Y22">
         <f>IF(C22=0,0,(C22-X22)/C22)</f>
-        <v/>
-      </c>
-      <c r="Z22">
-        <f>MAX([@[BSR 90 Avg]],C22)</f>
         <v/>
       </c>
       <c r="AA22">
@@ -1437,23 +1521,19 @@
         <v/>
       </c>
       <c r="L23">
-        <f>IF(Y23=0,0,Z23/Y23)</f>
+        <f>IF(H23=0,0,AB23/(H23/30))</f>
         <v/>
       </c>
       <c r="O23">
-        <f>MAX(0,(30*Y23)-P23)</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>MAX([@[BSR 30 Avg]],C23)</f>
+        <f>MAX(0,(30*H23/30)-AB23)</f>
+        <v/>
+      </c>
+      <c r="P23">
+        <f>N23*O23</f>
         <v/>
       </c>
       <c r="Y23">
         <f>IF(C23=0,0,(C23-X23)/C23)</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>MAX([@[BSR 90 Avg]],C23)</f>
         <v/>
       </c>
       <c r="AA23">
@@ -1475,23 +1555,19 @@
         <v/>
       </c>
       <c r="L24">
-        <f>IF(Y24=0,0,Z24/Y24)</f>
+        <f>IF(H24=0,0,AB24/(H24/30))</f>
         <v/>
       </c>
       <c r="O24">
-        <f>MAX(0,(30*Y24)-P24)</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>MAX([@[BSR 30 Avg]],C24)</f>
+        <f>MAX(0,(30*H24/30)-AB24)</f>
+        <v/>
+      </c>
+      <c r="P24">
+        <f>N24*O24</f>
         <v/>
       </c>
       <c r="Y24">
         <f>IF(C24=0,0,(C24-X24)/C24)</f>
-        <v/>
-      </c>
-      <c r="Z24">
-        <f>MAX([@[BSR 90 Avg]],C24)</f>
         <v/>
       </c>
       <c r="AA24">
@@ -1513,23 +1589,19 @@
         <v/>
       </c>
       <c r="L25">
-        <f>IF(Y25=0,0,Z25/Y25)</f>
+        <f>IF(H25=0,0,AB25/(H25/30))</f>
         <v/>
       </c>
       <c r="O25">
-        <f>MAX(0,(30*Y25)-P25)</f>
-        <v/>
-      </c>
-      <c r="X25">
-        <f>MAX([@[BSR 30 Avg]],C25)</f>
+        <f>MAX(0,(30*H25/30)-AB25)</f>
+        <v/>
+      </c>
+      <c r="P25">
+        <f>N25*O25</f>
         <v/>
       </c>
       <c r="Y25">
         <f>IF(C25=0,0,(C25-X25)/C25)</f>
-        <v/>
-      </c>
-      <c r="Z25">
-        <f>MAX([@[BSR 90 Avg]],C25)</f>
         <v/>
       </c>
       <c r="AA25">
@@ -1551,23 +1623,19 @@
         <v/>
       </c>
       <c r="L26">
-        <f>IF(Y26=0,0,Z26/Y26)</f>
+        <f>IF(H26=0,0,AB26/(H26/30))</f>
         <v/>
       </c>
       <c r="O26">
-        <f>MAX(0,(30*Y26)-P26)</f>
-        <v/>
-      </c>
-      <c r="X26">
-        <f>MAX([@[BSR 30 Avg]],C26)</f>
+        <f>MAX(0,(30*H26/30)-AB26)</f>
+        <v/>
+      </c>
+      <c r="P26">
+        <f>N26*O26</f>
         <v/>
       </c>
       <c r="Y26">
         <f>IF(C26=0,0,(C26-X26)/C26)</f>
-        <v/>
-      </c>
-      <c r="Z26">
-        <f>MAX([@[BSR 90 Avg]],C26)</f>
         <v/>
       </c>
       <c r="AA26">
@@ -1589,23 +1657,19 @@
         <v/>
       </c>
       <c r="L27">
-        <f>IF(Y27=0,0,Z27/Y27)</f>
+        <f>IF(H27=0,0,AB27/(H27/30))</f>
         <v/>
       </c>
       <c r="O27">
-        <f>MAX(0,(30*Y27)-P27)</f>
-        <v/>
-      </c>
-      <c r="X27">
-        <f>MAX([@[BSR 30 Avg]],C27)</f>
+        <f>MAX(0,(30*H27/30)-AB27)</f>
+        <v/>
+      </c>
+      <c r="P27">
+        <f>N27*O27</f>
         <v/>
       </c>
       <c r="Y27">
         <f>IF(C27=0,0,(C27-X27)/C27)</f>
-        <v/>
-      </c>
-      <c r="Z27">
-        <f>MAX([@[BSR 90 Avg]],C27)</f>
         <v/>
       </c>
       <c r="AA27">
@@ -1627,23 +1691,19 @@
         <v/>
       </c>
       <c r="L28">
-        <f>IF(Y28=0,0,Z28/Y28)</f>
+        <f>IF(H28=0,0,AB28/(H28/30))</f>
         <v/>
       </c>
       <c r="O28">
-        <f>MAX(0,(30*Y28)-P28)</f>
-        <v/>
-      </c>
-      <c r="X28">
-        <f>MAX([@[BSR 30 Avg]],C28)</f>
+        <f>MAX(0,(30*H28/30)-AB28)</f>
+        <v/>
+      </c>
+      <c r="P28">
+        <f>N28*O28</f>
         <v/>
       </c>
       <c r="Y28">
         <f>IF(C28=0,0,(C28-X28)/C28)</f>
-        <v/>
-      </c>
-      <c r="Z28">
-        <f>MAX([@[BSR 90 Avg]],C28)</f>
         <v/>
       </c>
       <c r="AA28">
@@ -1665,23 +1725,19 @@
         <v/>
       </c>
       <c r="L29">
-        <f>IF(Y29=0,0,Z29/Y29)</f>
+        <f>IF(H29=0,0,AB29/(H29/30))</f>
         <v/>
       </c>
       <c r="O29">
-        <f>MAX(0,(30*Y29)-P29)</f>
-        <v/>
-      </c>
-      <c r="X29">
-        <f>MAX([@[BSR 30 Avg]],C29)</f>
+        <f>MAX(0,(30*H29/30)-AB29)</f>
+        <v/>
+      </c>
+      <c r="P29">
+        <f>N29*O29</f>
         <v/>
       </c>
       <c r="Y29">
         <f>IF(C29=0,0,(C29-X29)/C29)</f>
-        <v/>
-      </c>
-      <c r="Z29">
-        <f>MAX([@[BSR 90 Avg]],C29)</f>
         <v/>
       </c>
       <c r="AA29">
@@ -1703,23 +1759,19 @@
         <v/>
       </c>
       <c r="L30">
-        <f>IF(Y30=0,0,Z30/Y30)</f>
+        <f>IF(H30=0,0,AB30/(H30/30))</f>
         <v/>
       </c>
       <c r="O30">
-        <f>MAX(0,(30*Y30)-P30)</f>
-        <v/>
-      </c>
-      <c r="X30">
-        <f>MAX([@[BSR 30 Avg]],C30)</f>
+        <f>MAX(0,(30*H30/30)-AB30)</f>
+        <v/>
+      </c>
+      <c r="P30">
+        <f>N30*O30</f>
         <v/>
       </c>
       <c r="Y30">
         <f>IF(C30=0,0,(C30-X30)/C30)</f>
-        <v/>
-      </c>
-      <c r="Z30">
-        <f>MAX([@[BSR 90 Avg]],C30)</f>
         <v/>
       </c>
       <c r="AA30">
@@ -1741,23 +1793,19 @@
         <v/>
       </c>
       <c r="L31">
-        <f>IF(Y31=0,0,Z31/Y31)</f>
+        <f>IF(H31=0,0,AB31/(H31/30))</f>
         <v/>
       </c>
       <c r="O31">
-        <f>MAX(0,(30*Y31)-P31)</f>
-        <v/>
-      </c>
-      <c r="X31">
-        <f>MAX([@[BSR 30 Avg]],C31)</f>
+        <f>MAX(0,(30*H31/30)-AB31)</f>
+        <v/>
+      </c>
+      <c r="P31">
+        <f>N31*O31</f>
         <v/>
       </c>
       <c r="Y31">
         <f>IF(C31=0,0,(C31-X31)/C31)</f>
-        <v/>
-      </c>
-      <c r="Z31">
-        <f>MAX([@[BSR 90 Avg]],C31)</f>
         <v/>
       </c>
       <c r="AA31">
@@ -1779,23 +1827,19 @@
         <v/>
       </c>
       <c r="L32">
-        <f>IF(Y32=0,0,Z32/Y32)</f>
+        <f>IF(H32=0,0,AB32/(H32/30))</f>
         <v/>
       </c>
       <c r="O32">
-        <f>MAX(0,(30*Y32)-P32)</f>
-        <v/>
-      </c>
-      <c r="X32">
-        <f>MAX([@[BSR 30 Avg]],C32)</f>
+        <f>MAX(0,(30*H32/30)-AB32)</f>
+        <v/>
+      </c>
+      <c r="P32">
+        <f>N32*O32</f>
         <v/>
       </c>
       <c r="Y32">
         <f>IF(C32=0,0,(C32-X32)/C32)</f>
-        <v/>
-      </c>
-      <c r="Z32">
-        <f>MAX([@[BSR 90 Avg]],C32)</f>
         <v/>
       </c>
       <c r="AA32">
@@ -1817,23 +1861,19 @@
         <v/>
       </c>
       <c r="L33">
-        <f>IF(Y33=0,0,Z33/Y33)</f>
+        <f>IF(H33=0,0,AB33/(H33/30))</f>
         <v/>
       </c>
       <c r="O33">
-        <f>MAX(0,(30*Y33)-P33)</f>
-        <v/>
-      </c>
-      <c r="X33">
-        <f>MAX([@[BSR 30 Avg]],C33)</f>
+        <f>MAX(0,(30*H33/30)-AB33)</f>
+        <v/>
+      </c>
+      <c r="P33">
+        <f>N33*O33</f>
         <v/>
       </c>
       <c r="Y33">
         <f>IF(C33=0,0,(C33-X33)/C33)</f>
-        <v/>
-      </c>
-      <c r="Z33">
-        <f>MAX([@[BSR 90 Avg]],C33)</f>
         <v/>
       </c>
       <c r="AA33">
@@ -1855,23 +1895,19 @@
         <v/>
       </c>
       <c r="L34">
-        <f>IF(Y34=0,0,Z34/Y34)</f>
+        <f>IF(H34=0,0,AB34/(H34/30))</f>
         <v/>
       </c>
       <c r="O34">
-        <f>MAX(0,(30*Y34)-P34)</f>
-        <v/>
-      </c>
-      <c r="X34">
-        <f>MAX([@[BSR 30 Avg]],C34)</f>
+        <f>MAX(0,(30*H34/30)-AB34)</f>
+        <v/>
+      </c>
+      <c r="P34">
+        <f>N34*O34</f>
         <v/>
       </c>
       <c r="Y34">
         <f>IF(C34=0,0,(C34-X34)/C34)</f>
-        <v/>
-      </c>
-      <c r="Z34">
-        <f>MAX([@[BSR 90 Avg]],C34)</f>
         <v/>
       </c>
       <c r="AA34">
@@ -1893,23 +1929,19 @@
         <v/>
       </c>
       <c r="L35">
-        <f>IF(Y35=0,0,Z35/Y35)</f>
+        <f>IF(H35=0,0,AB35/(H35/30))</f>
         <v/>
       </c>
       <c r="O35">
-        <f>MAX(0,(30*Y35)-P35)</f>
-        <v/>
-      </c>
-      <c r="X35">
-        <f>MAX([@[BSR 30 Avg]],C35)</f>
+        <f>MAX(0,(30*H35/30)-AB35)</f>
+        <v/>
+      </c>
+      <c r="P35">
+        <f>N35*O35</f>
         <v/>
       </c>
       <c r="Y35">
         <f>IF(C35=0,0,(C35-X35)/C35)</f>
-        <v/>
-      </c>
-      <c r="Z35">
-        <f>MAX([@[BSR 90 Avg]],C35)</f>
         <v/>
       </c>
       <c r="AA35">
@@ -1931,23 +1963,19 @@
         <v/>
       </c>
       <c r="L36">
-        <f>IF(Y36=0,0,Z36/Y36)</f>
+        <f>IF(H36=0,0,AB36/(H36/30))</f>
         <v/>
       </c>
       <c r="O36">
-        <f>MAX(0,(30*Y36)-P36)</f>
-        <v/>
-      </c>
-      <c r="X36">
-        <f>MAX([@[BSR 30 Avg]],C36)</f>
+        <f>MAX(0,(30*H36/30)-AB36)</f>
+        <v/>
+      </c>
+      <c r="P36">
+        <f>N36*O36</f>
         <v/>
       </c>
       <c r="Y36">
         <f>IF(C36=0,0,(C36-X36)/C36)</f>
-        <v/>
-      </c>
-      <c r="Z36">
-        <f>MAX([@[BSR 90 Avg]],C36)</f>
         <v/>
       </c>
       <c r="AA36">
@@ -1969,23 +1997,19 @@
         <v/>
       </c>
       <c r="L37">
-        <f>IF(Y37=0,0,Z37/Y37)</f>
+        <f>IF(H37=0,0,AB37/(H37/30))</f>
         <v/>
       </c>
       <c r="O37">
-        <f>MAX(0,(30*Y37)-P37)</f>
-        <v/>
-      </c>
-      <c r="X37">
-        <f>MAX([@[BSR 30 Avg]],C37)</f>
+        <f>MAX(0,(30*H37/30)-AB37)</f>
+        <v/>
+      </c>
+      <c r="P37">
+        <f>N37*O37</f>
         <v/>
       </c>
       <c r="Y37">
         <f>IF(C37=0,0,(C37-X37)/C37)</f>
-        <v/>
-      </c>
-      <c r="Z37">
-        <f>MAX([@[BSR 90 Avg]],C37)</f>
         <v/>
       </c>
       <c r="AA37">
@@ -2007,23 +2031,19 @@
         <v/>
       </c>
       <c r="L38">
-        <f>IF(Y38=0,0,Z38/Y38)</f>
+        <f>IF(H38=0,0,AB38/(H38/30))</f>
         <v/>
       </c>
       <c r="O38">
-        <f>MAX(0,(30*Y38)-P38)</f>
-        <v/>
-      </c>
-      <c r="X38">
-        <f>MAX([@[BSR 30 Avg]],C38)</f>
+        <f>MAX(0,(30*H38/30)-AB38)</f>
+        <v/>
+      </c>
+      <c r="P38">
+        <f>N38*O38</f>
         <v/>
       </c>
       <c r="Y38">
         <f>IF(C38=0,0,(C38-X38)/C38)</f>
-        <v/>
-      </c>
-      <c r="Z38">
-        <f>MAX([@[BSR 90 Avg]],C38)</f>
         <v/>
       </c>
       <c r="AA38">
@@ -2045,23 +2065,19 @@
         <v/>
       </c>
       <c r="L39">
-        <f>IF(Y39=0,0,Z39/Y39)</f>
+        <f>IF(H39=0,0,AB39/(H39/30))</f>
         <v/>
       </c>
       <c r="O39">
-        <f>MAX(0,(30*Y39)-P39)</f>
-        <v/>
-      </c>
-      <c r="X39">
-        <f>MAX([@[BSR 30 Avg]],C39)</f>
+        <f>MAX(0,(30*H39/30)-AB39)</f>
+        <v/>
+      </c>
+      <c r="P39">
+        <f>N39*O39</f>
         <v/>
       </c>
       <c r="Y39">
         <f>IF(C39=0,0,(C39-X39)/C39)</f>
-        <v/>
-      </c>
-      <c r="Z39">
-        <f>MAX([@[BSR 90 Avg]],C39)</f>
         <v/>
       </c>
       <c r="AA39">
@@ -2083,23 +2099,19 @@
         <v/>
       </c>
       <c r="L40">
-        <f>IF(Y40=0,0,Z40/Y40)</f>
+        <f>IF(H40=0,0,AB40/(H40/30))</f>
         <v/>
       </c>
       <c r="O40">
-        <f>MAX(0,(30*Y40)-P40)</f>
-        <v/>
-      </c>
-      <c r="X40">
-        <f>MAX([@[BSR 30 Avg]],C40)</f>
+        <f>MAX(0,(30*H40/30)-AB40)</f>
+        <v/>
+      </c>
+      <c r="P40">
+        <f>N40*O40</f>
         <v/>
       </c>
       <c r="Y40">
         <f>IF(C40=0,0,(C40-X40)/C40)</f>
-        <v/>
-      </c>
-      <c r="Z40">
-        <f>MAX([@[BSR 90 Avg]],C40)</f>
         <v/>
       </c>
       <c r="AA40">
@@ -2121,23 +2133,19 @@
         <v/>
       </c>
       <c r="L41">
-        <f>IF(Y41=0,0,Z41/Y41)</f>
+        <f>IF(H41=0,0,AB41/(H41/30))</f>
         <v/>
       </c>
       <c r="O41">
-        <f>MAX(0,(30*Y41)-P41)</f>
-        <v/>
-      </c>
-      <c r="X41">
-        <f>MAX([@[BSR 30 Avg]],C41)</f>
+        <f>MAX(0,(30*H41/30)-AB41)</f>
+        <v/>
+      </c>
+      <c r="P41">
+        <f>N41*O41</f>
         <v/>
       </c>
       <c r="Y41">
         <f>IF(C41=0,0,(C41-X41)/C41)</f>
-        <v/>
-      </c>
-      <c r="Z41">
-        <f>MAX([@[BSR 90 Avg]],C41)</f>
         <v/>
       </c>
       <c r="AA41">
@@ -2159,23 +2167,19 @@
         <v/>
       </c>
       <c r="L42">
-        <f>IF(Y42=0,0,Z42/Y42)</f>
+        <f>IF(H42=0,0,AB42/(H42/30))</f>
         <v/>
       </c>
       <c r="O42">
-        <f>MAX(0,(30*Y42)-P42)</f>
-        <v/>
-      </c>
-      <c r="X42">
-        <f>MAX([@[BSR 30 Avg]],C42)</f>
+        <f>MAX(0,(30*H42/30)-AB42)</f>
+        <v/>
+      </c>
+      <c r="P42">
+        <f>N42*O42</f>
         <v/>
       </c>
       <c r="Y42">
         <f>IF(C42=0,0,(C42-X42)/C42)</f>
-        <v/>
-      </c>
-      <c r="Z42">
-        <f>MAX([@[BSR 90 Avg]],C42)</f>
         <v/>
       </c>
       <c r="AA42">
@@ -2197,23 +2201,19 @@
         <v/>
       </c>
       <c r="L43">
-        <f>IF(Y43=0,0,Z43/Y43)</f>
+        <f>IF(H43=0,0,AB43/(H43/30))</f>
         <v/>
       </c>
       <c r="O43">
-        <f>MAX(0,(30*Y43)-P43)</f>
-        <v/>
-      </c>
-      <c r="X43">
-        <f>MAX([@[BSR 30 Avg]],C43)</f>
+        <f>MAX(0,(30*H43/30)-AB43)</f>
+        <v/>
+      </c>
+      <c r="P43">
+        <f>N43*O43</f>
         <v/>
       </c>
       <c r="Y43">
         <f>IF(C43=0,0,(C43-X43)/C43)</f>
-        <v/>
-      </c>
-      <c r="Z43">
-        <f>MAX([@[BSR 90 Avg]],C43)</f>
         <v/>
       </c>
       <c r="AA43">
@@ -2235,23 +2235,19 @@
         <v/>
       </c>
       <c r="L44">
-        <f>IF(Y44=0,0,Z44/Y44)</f>
+        <f>IF(H44=0,0,AB44/(H44/30))</f>
         <v/>
       </c>
       <c r="O44">
-        <f>MAX(0,(30*Y44)-P44)</f>
-        <v/>
-      </c>
-      <c r="X44">
-        <f>MAX([@[BSR 30 Avg]],C44)</f>
+        <f>MAX(0,(30*H44/30)-AB44)</f>
+        <v/>
+      </c>
+      <c r="P44">
+        <f>N44*O44</f>
         <v/>
       </c>
       <c r="Y44">
         <f>IF(C44=0,0,(C44-X44)/C44)</f>
-        <v/>
-      </c>
-      <c r="Z44">
-        <f>MAX([@[BSR 90 Avg]],C44)</f>
         <v/>
       </c>
       <c r="AA44">
@@ -2273,23 +2269,19 @@
         <v/>
       </c>
       <c r="L45">
-        <f>IF(Y45=0,0,Z45/Y45)</f>
+        <f>IF(H45=0,0,AB45/(H45/30))</f>
         <v/>
       </c>
       <c r="O45">
-        <f>MAX(0,(30*Y45)-P45)</f>
-        <v/>
-      </c>
-      <c r="X45">
-        <f>MAX([@[BSR 30 Avg]],C45)</f>
+        <f>MAX(0,(30*H45/30)-AB45)</f>
+        <v/>
+      </c>
+      <c r="P45">
+        <f>N45*O45</f>
         <v/>
       </c>
       <c r="Y45">
         <f>IF(C45=0,0,(C45-X45)/C45)</f>
-        <v/>
-      </c>
-      <c r="Z45">
-        <f>MAX([@[BSR 90 Avg]],C45)</f>
         <v/>
       </c>
       <c r="AA45">
@@ -2311,23 +2303,19 @@
         <v/>
       </c>
       <c r="L46">
-        <f>IF(Y46=0,0,Z46/Y46)</f>
+        <f>IF(H46=0,0,AB46/(H46/30))</f>
         <v/>
       </c>
       <c r="O46">
-        <f>MAX(0,(30*Y46)-P46)</f>
-        <v/>
-      </c>
-      <c r="X46">
-        <f>MAX([@[BSR 30 Avg]],C46)</f>
+        <f>MAX(0,(30*H46/30)-AB46)</f>
+        <v/>
+      </c>
+      <c r="P46">
+        <f>N46*O46</f>
         <v/>
       </c>
       <c r="Y46">
         <f>IF(C46=0,0,(C46-X46)/C46)</f>
-        <v/>
-      </c>
-      <c r="Z46">
-        <f>MAX([@[BSR 90 Avg]],C46)</f>
         <v/>
       </c>
       <c r="AA46">
@@ -2349,23 +2337,19 @@
         <v/>
       </c>
       <c r="L47">
-        <f>IF(Y47=0,0,Z47/Y47)</f>
+        <f>IF(H47=0,0,AB47/(H47/30))</f>
         <v/>
       </c>
       <c r="O47">
-        <f>MAX(0,(30*Y47)-P47)</f>
-        <v/>
-      </c>
-      <c r="X47">
-        <f>MAX([@[BSR 30 Avg]],C47)</f>
+        <f>MAX(0,(30*H47/30)-AB47)</f>
+        <v/>
+      </c>
+      <c r="P47">
+        <f>N47*O47</f>
         <v/>
       </c>
       <c r="Y47">
         <f>IF(C47=0,0,(C47-X47)/C47)</f>
-        <v/>
-      </c>
-      <c r="Z47">
-        <f>MAX([@[BSR 90 Avg]],C47)</f>
         <v/>
       </c>
       <c r="AA47">
@@ -2387,23 +2371,19 @@
         <v/>
       </c>
       <c r="L48">
-        <f>IF(Y48=0,0,Z48/Y48)</f>
+        <f>IF(H48=0,0,AB48/(H48/30))</f>
         <v/>
       </c>
       <c r="O48">
-        <f>MAX(0,(30*Y48)-P48)</f>
-        <v/>
-      </c>
-      <c r="X48">
-        <f>MAX([@[BSR 30 Avg]],C48)</f>
+        <f>MAX(0,(30*H48/30)-AB48)</f>
+        <v/>
+      </c>
+      <c r="P48">
+        <f>N48*O48</f>
         <v/>
       </c>
       <c r="Y48">
         <f>IF(C48=0,0,(C48-X48)/C48)</f>
-        <v/>
-      </c>
-      <c r="Z48">
-        <f>MAX([@[BSR 90 Avg]],C48)</f>
         <v/>
       </c>
       <c r="AA48">
@@ -2425,23 +2405,19 @@
         <v/>
       </c>
       <c r="L49">
-        <f>IF(Y49=0,0,Z49/Y49)</f>
+        <f>IF(H49=0,0,AB49/(H49/30))</f>
         <v/>
       </c>
       <c r="O49">
-        <f>MAX(0,(30*Y49)-P49)</f>
-        <v/>
-      </c>
-      <c r="X49">
-        <f>MAX([@[BSR 30 Avg]],C49)</f>
+        <f>MAX(0,(30*H49/30)-AB49)</f>
+        <v/>
+      </c>
+      <c r="P49">
+        <f>N49*O49</f>
         <v/>
       </c>
       <c r="Y49">
         <f>IF(C49=0,0,(C49-X49)/C49)</f>
-        <v/>
-      </c>
-      <c r="Z49">
-        <f>MAX([@[BSR 90 Avg]],C49)</f>
         <v/>
       </c>
       <c r="AA49">
@@ -2463,23 +2439,19 @@
         <v/>
       </c>
       <c r="L50">
-        <f>IF(Y50=0,0,Z50/Y50)</f>
+        <f>IF(H50=0,0,AB50/(H50/30))</f>
         <v/>
       </c>
       <c r="O50">
-        <f>MAX(0,(30*Y50)-P50)</f>
-        <v/>
-      </c>
-      <c r="X50">
-        <f>MAX([@[BSR 30 Avg]],C50)</f>
+        <f>MAX(0,(30*H50/30)-AB50)</f>
+        <v/>
+      </c>
+      <c r="P50">
+        <f>N50*O50</f>
         <v/>
       </c>
       <c r="Y50">
         <f>IF(C50=0,0,(C50-X50)/C50)</f>
-        <v/>
-      </c>
-      <c r="Z50">
-        <f>MAX([@[BSR 90 Avg]],C50)</f>
         <v/>
       </c>
       <c r="AA50">
@@ -2501,23 +2473,19 @@
         <v/>
       </c>
       <c r="L51">
-        <f>IF(Y51=0,0,Z51/Y51)</f>
+        <f>IF(H51=0,0,AB51/(H51/30))</f>
         <v/>
       </c>
       <c r="O51">
-        <f>MAX(0,(30*Y51)-P51)</f>
-        <v/>
-      </c>
-      <c r="X51">
-        <f>MAX([@[BSR 30 Avg]],C51)</f>
+        <f>MAX(0,(30*H51/30)-AB51)</f>
+        <v/>
+      </c>
+      <c r="P51">
+        <f>N51*O51</f>
         <v/>
       </c>
       <c r="Y51">
         <f>IF(C51=0,0,(C51-X51)/C51)</f>
-        <v/>
-      </c>
-      <c r="Z51">
-        <f>MAX([@[BSR 90 Avg]],C51)</f>
         <v/>
       </c>
       <c r="AA51">
@@ -2539,23 +2507,19 @@
         <v/>
       </c>
       <c r="L52">
-        <f>IF(Y52=0,0,Z52/Y52)</f>
+        <f>IF(H52=0,0,AB52/(H52/30))</f>
         <v/>
       </c>
       <c r="O52">
-        <f>MAX(0,(30*Y52)-P52)</f>
-        <v/>
-      </c>
-      <c r="X52">
-        <f>MAX([@[BSR 30 Avg]],C52)</f>
+        <f>MAX(0,(30*H52/30)-AB52)</f>
+        <v/>
+      </c>
+      <c r="P52">
+        <f>N52*O52</f>
         <v/>
       </c>
       <c r="Y52">
         <f>IF(C52=0,0,(C52-X52)/C52)</f>
-        <v/>
-      </c>
-      <c r="Z52">
-        <f>MAX([@[BSR 90 Avg]],C52)</f>
         <v/>
       </c>
       <c r="AA52">
@@ -2577,23 +2541,19 @@
         <v/>
       </c>
       <c r="L53">
-        <f>IF(Y53=0,0,Z53/Y53)</f>
+        <f>IF(H53=0,0,AB53/(H53/30))</f>
         <v/>
       </c>
       <c r="O53">
-        <f>MAX(0,(30*Y53)-P53)</f>
-        <v/>
-      </c>
-      <c r="X53">
-        <f>MAX([@[BSR 30 Avg]],C53)</f>
+        <f>MAX(0,(30*H53/30)-AB53)</f>
+        <v/>
+      </c>
+      <c r="P53">
+        <f>N53*O53</f>
         <v/>
       </c>
       <c r="Y53">
         <f>IF(C53=0,0,(C53-X53)/C53)</f>
-        <v/>
-      </c>
-      <c r="Z53">
-        <f>MAX([@[BSR 90 Avg]],C53)</f>
         <v/>
       </c>
       <c r="AA53">
@@ -2615,23 +2575,19 @@
         <v/>
       </c>
       <c r="L54">
-        <f>IF(Y54=0,0,Z54/Y54)</f>
+        <f>IF(H54=0,0,AB54/(H54/30))</f>
         <v/>
       </c>
       <c r="O54">
-        <f>MAX(0,(30*Y54)-P54)</f>
-        <v/>
-      </c>
-      <c r="X54">
-        <f>MAX([@[BSR 30 Avg]],C54)</f>
+        <f>MAX(0,(30*H54/30)-AB54)</f>
+        <v/>
+      </c>
+      <c r="P54">
+        <f>N54*O54</f>
         <v/>
       </c>
       <c r="Y54">
         <f>IF(C54=0,0,(C54-X54)/C54)</f>
-        <v/>
-      </c>
-      <c r="Z54">
-        <f>MAX([@[BSR 90 Avg]],C54)</f>
         <v/>
       </c>
       <c r="AA54">
@@ -2653,23 +2609,19 @@
         <v/>
       </c>
       <c r="L55">
-        <f>IF(Y55=0,0,Z55/Y55)</f>
+        <f>IF(H55=0,0,AB55/(H55/30))</f>
         <v/>
       </c>
       <c r="O55">
-        <f>MAX(0,(30*Y55)-P55)</f>
-        <v/>
-      </c>
-      <c r="X55">
-        <f>MAX([@[BSR 30 Avg]],C55)</f>
+        <f>MAX(0,(30*H55/30)-AB55)</f>
+        <v/>
+      </c>
+      <c r="P55">
+        <f>N55*O55</f>
         <v/>
       </c>
       <c r="Y55">
         <f>IF(C55=0,0,(C55-X55)/C55)</f>
-        <v/>
-      </c>
-      <c r="Z55">
-        <f>MAX([@[BSR 90 Avg]],C55)</f>
         <v/>
       </c>
       <c r="AA55">
@@ -2691,23 +2643,19 @@
         <v/>
       </c>
       <c r="L56">
-        <f>IF(Y56=0,0,Z56/Y56)</f>
+        <f>IF(H56=0,0,AB56/(H56/30))</f>
         <v/>
       </c>
       <c r="O56">
-        <f>MAX(0,(30*Y56)-P56)</f>
-        <v/>
-      </c>
-      <c r="X56">
-        <f>MAX([@[BSR 30 Avg]],C56)</f>
+        <f>MAX(0,(30*H56/30)-AB56)</f>
+        <v/>
+      </c>
+      <c r="P56">
+        <f>N56*O56</f>
         <v/>
       </c>
       <c r="Y56">
         <f>IF(C56=0,0,(C56-X56)/C56)</f>
-        <v/>
-      </c>
-      <c r="Z56">
-        <f>MAX([@[BSR 90 Avg]],C56)</f>
         <v/>
       </c>
       <c r="AA56">
@@ -2729,23 +2677,19 @@
         <v/>
       </c>
       <c r="L57">
-        <f>IF(Y57=0,0,Z57/Y57)</f>
+        <f>IF(H57=0,0,AB57/(H57/30))</f>
         <v/>
       </c>
       <c r="O57">
-        <f>MAX(0,(30*Y57)-P57)</f>
-        <v/>
-      </c>
-      <c r="X57">
-        <f>MAX([@[BSR 30 Avg]],C57)</f>
+        <f>MAX(0,(30*H57/30)-AB57)</f>
+        <v/>
+      </c>
+      <c r="P57">
+        <f>N57*O57</f>
         <v/>
       </c>
       <c r="Y57">
         <f>IF(C57=0,0,(C57-X57)/C57)</f>
-        <v/>
-      </c>
-      <c r="Z57">
-        <f>MAX([@[BSR 90 Avg]],C57)</f>
         <v/>
       </c>
       <c r="AA57">
@@ -2767,23 +2711,19 @@
         <v/>
       </c>
       <c r="L58">
-        <f>IF(Y58=0,0,Z58/Y58)</f>
+        <f>IF(H58=0,0,AB58/(H58/30))</f>
         <v/>
       </c>
       <c r="O58">
-        <f>MAX(0,(30*Y58)-P58)</f>
-        <v/>
-      </c>
-      <c r="X58">
-        <f>MAX([@[BSR 30 Avg]],C58)</f>
+        <f>MAX(0,(30*H58/30)-AB58)</f>
+        <v/>
+      </c>
+      <c r="P58">
+        <f>N58*O58</f>
         <v/>
       </c>
       <c r="Y58">
         <f>IF(C58=0,0,(C58-X58)/C58)</f>
-        <v/>
-      </c>
-      <c r="Z58">
-        <f>MAX([@[BSR 90 Avg]],C58)</f>
         <v/>
       </c>
       <c r="AA58">
@@ -2805,23 +2745,19 @@
         <v/>
       </c>
       <c r="L59">
-        <f>IF(Y59=0,0,Z59/Y59)</f>
+        <f>IF(H59=0,0,AB59/(H59/30))</f>
         <v/>
       </c>
       <c r="O59">
-        <f>MAX(0,(30*Y59)-P59)</f>
-        <v/>
-      </c>
-      <c r="X59">
-        <f>MAX([@[BSR 30 Avg]],C59)</f>
+        <f>MAX(0,(30*H59/30)-AB59)</f>
+        <v/>
+      </c>
+      <c r="P59">
+        <f>N59*O59</f>
         <v/>
       </c>
       <c r="Y59">
         <f>IF(C59=0,0,(C59-X59)/C59)</f>
-        <v/>
-      </c>
-      <c r="Z59">
-        <f>MAX([@[BSR 90 Avg]],C59)</f>
         <v/>
       </c>
       <c r="AA59">
@@ -2843,23 +2779,19 @@
         <v/>
       </c>
       <c r="L60">
-        <f>IF(Y60=0,0,Z60/Y60)</f>
+        <f>IF(H60=0,0,AB60/(H60/30))</f>
         <v/>
       </c>
       <c r="O60">
-        <f>MAX(0,(30*Y60)-P60)</f>
-        <v/>
-      </c>
-      <c r="X60">
-        <f>MAX([@[BSR 30 Avg]],C60)</f>
+        <f>MAX(0,(30*H60/30)-AB60)</f>
+        <v/>
+      </c>
+      <c r="P60">
+        <f>N60*O60</f>
         <v/>
       </c>
       <c r="Y60">
         <f>IF(C60=0,0,(C60-X60)/C60)</f>
-        <v/>
-      </c>
-      <c r="Z60">
-        <f>MAX([@[BSR 90 Avg]],C60)</f>
         <v/>
       </c>
       <c r="AA60">
@@ -2881,23 +2813,19 @@
         <v/>
       </c>
       <c r="L61">
-        <f>IF(Y61=0,0,Z61/Y61)</f>
+        <f>IF(H61=0,0,AB61/(H61/30))</f>
         <v/>
       </c>
       <c r="O61">
-        <f>MAX(0,(30*Y61)-P61)</f>
-        <v/>
-      </c>
-      <c r="X61">
-        <f>MAX([@[BSR 30 Avg]],C61)</f>
+        <f>MAX(0,(30*H61/30)-AB61)</f>
+        <v/>
+      </c>
+      <c r="P61">
+        <f>N61*O61</f>
         <v/>
       </c>
       <c r="Y61">
         <f>IF(C61=0,0,(C61-X61)/C61)</f>
-        <v/>
-      </c>
-      <c r="Z61">
-        <f>MAX([@[BSR 90 Avg]],C61)</f>
         <v/>
       </c>
       <c r="AA61">
@@ -2919,23 +2847,19 @@
         <v/>
       </c>
       <c r="L62">
-        <f>IF(Y62=0,0,Z62/Y62)</f>
+        <f>IF(H62=0,0,AB62/(H62/30))</f>
         <v/>
       </c>
       <c r="O62">
-        <f>MAX(0,(30*Y62)-P62)</f>
-        <v/>
-      </c>
-      <c r="X62">
-        <f>MAX([@[BSR 30 Avg]],C62)</f>
+        <f>MAX(0,(30*H62/30)-AB62)</f>
+        <v/>
+      </c>
+      <c r="P62">
+        <f>N62*O62</f>
         <v/>
       </c>
       <c r="Y62">
         <f>IF(C62=0,0,(C62-X62)/C62)</f>
-        <v/>
-      </c>
-      <c r="Z62">
-        <f>MAX([@[BSR 90 Avg]],C62)</f>
         <v/>
       </c>
       <c r="AA62">
@@ -2957,23 +2881,19 @@
         <v/>
       </c>
       <c r="L63">
-        <f>IF(Y63=0,0,Z63/Y63)</f>
+        <f>IF(H63=0,0,AB63/(H63/30))</f>
         <v/>
       </c>
       <c r="O63">
-        <f>MAX(0,(30*Y63)-P63)</f>
-        <v/>
-      </c>
-      <c r="X63">
-        <f>MAX([@[BSR 30 Avg]],C63)</f>
+        <f>MAX(0,(30*H63/30)-AB63)</f>
+        <v/>
+      </c>
+      <c r="P63">
+        <f>N63*O63</f>
         <v/>
       </c>
       <c r="Y63">
         <f>IF(C63=0,0,(C63-X63)/C63)</f>
-        <v/>
-      </c>
-      <c r="Z63">
-        <f>MAX([@[BSR 90 Avg]],C63)</f>
         <v/>
       </c>
       <c r="AA63">
@@ -2995,23 +2915,19 @@
         <v/>
       </c>
       <c r="L64">
-        <f>IF(Y64=0,0,Z64/Y64)</f>
+        <f>IF(H64=0,0,AB64/(H64/30))</f>
         <v/>
       </c>
       <c r="O64">
-        <f>MAX(0,(30*Y64)-P64)</f>
-        <v/>
-      </c>
-      <c r="X64">
-        <f>MAX([@[BSR 30 Avg]],C64)</f>
+        <f>MAX(0,(30*H64/30)-AB64)</f>
+        <v/>
+      </c>
+      <c r="P64">
+        <f>N64*O64</f>
         <v/>
       </c>
       <c r="Y64">
         <f>IF(C64=0,0,(C64-X64)/C64)</f>
-        <v/>
-      </c>
-      <c r="Z64">
-        <f>MAX([@[BSR 90 Avg]],C64)</f>
         <v/>
       </c>
       <c r="AA64">
@@ -3033,23 +2949,19 @@
         <v/>
       </c>
       <c r="L65">
-        <f>IF(Y65=0,0,Z65/Y65)</f>
+        <f>IF(H65=0,0,AB65/(H65/30))</f>
         <v/>
       </c>
       <c r="O65">
-        <f>MAX(0,(30*Y65)-P65)</f>
-        <v/>
-      </c>
-      <c r="X65">
-        <f>MAX([@[BSR 30 Avg]],C65)</f>
+        <f>MAX(0,(30*H65/30)-AB65)</f>
+        <v/>
+      </c>
+      <c r="P65">
+        <f>N65*O65</f>
         <v/>
       </c>
       <c r="Y65">
         <f>IF(C65=0,0,(C65-X65)/C65)</f>
-        <v/>
-      </c>
-      <c r="Z65">
-        <f>MAX([@[BSR 90 Avg]],C65)</f>
         <v/>
       </c>
       <c r="AA65">
@@ -3071,23 +2983,19 @@
         <v/>
       </c>
       <c r="L66">
-        <f>IF(Y66=0,0,Z66/Y66)</f>
+        <f>IF(H66=0,0,AB66/(H66/30))</f>
         <v/>
       </c>
       <c r="O66">
-        <f>MAX(0,(30*Y66)-P66)</f>
-        <v/>
-      </c>
-      <c r="X66">
-        <f>MAX([@[BSR 30 Avg]],C66)</f>
+        <f>MAX(0,(30*H66/30)-AB66)</f>
+        <v/>
+      </c>
+      <c r="P66">
+        <f>N66*O66</f>
         <v/>
       </c>
       <c r="Y66">
         <f>IF(C66=0,0,(C66-X66)/C66)</f>
-        <v/>
-      </c>
-      <c r="Z66">
-        <f>MAX([@[BSR 90 Avg]],C66)</f>
         <v/>
       </c>
       <c r="AA66">
@@ -3109,23 +3017,19 @@
         <v/>
       </c>
       <c r="L67">
-        <f>IF(Y67=0,0,Z67/Y67)</f>
+        <f>IF(H67=0,0,AB67/(H67/30))</f>
         <v/>
       </c>
       <c r="O67">
-        <f>MAX(0,(30*Y67)-P67)</f>
-        <v/>
-      </c>
-      <c r="X67">
-        <f>MAX([@[BSR 30 Avg]],C67)</f>
+        <f>MAX(0,(30*H67/30)-AB67)</f>
+        <v/>
+      </c>
+      <c r="P67">
+        <f>N67*O67</f>
         <v/>
       </c>
       <c r="Y67">
         <f>IF(C67=0,0,(C67-X67)/C67)</f>
-        <v/>
-      </c>
-      <c r="Z67">
-        <f>MAX([@[BSR 90 Avg]],C67)</f>
         <v/>
       </c>
       <c r="AA67">
@@ -3147,23 +3051,19 @@
         <v/>
       </c>
       <c r="L68">
-        <f>IF(Y68=0,0,Z68/Y68)</f>
+        <f>IF(H68=0,0,AB68/(H68/30))</f>
         <v/>
       </c>
       <c r="O68">
-        <f>MAX(0,(30*Y68)-P68)</f>
-        <v/>
-      </c>
-      <c r="X68">
-        <f>MAX([@[BSR 30 Avg]],C68)</f>
+        <f>MAX(0,(30*H68/30)-AB68)</f>
+        <v/>
+      </c>
+      <c r="P68">
+        <f>N68*O68</f>
         <v/>
       </c>
       <c r="Y68">
         <f>IF(C68=0,0,(C68-X68)/C68)</f>
-        <v/>
-      </c>
-      <c r="Z68">
-        <f>MAX([@[BSR 90 Avg]],C68)</f>
         <v/>
       </c>
       <c r="AA68">
@@ -3185,23 +3085,19 @@
         <v/>
       </c>
       <c r="L69">
-        <f>IF(Y69=0,0,Z69/Y69)</f>
+        <f>IF(H69=0,0,AB69/(H69/30))</f>
         <v/>
       </c>
       <c r="O69">
-        <f>MAX(0,(30*Y69)-P69)</f>
-        <v/>
-      </c>
-      <c r="X69">
-        <f>MAX([@[BSR 30 Avg]],C69)</f>
+        <f>MAX(0,(30*H69/30)-AB69)</f>
+        <v/>
+      </c>
+      <c r="P69">
+        <f>N69*O69</f>
         <v/>
       </c>
       <c r="Y69">
         <f>IF(C69=0,0,(C69-X69)/C69)</f>
-        <v/>
-      </c>
-      <c r="Z69">
-        <f>MAX([@[BSR 90 Avg]],C69)</f>
         <v/>
       </c>
       <c r="AA69">
@@ -3223,23 +3119,19 @@
         <v/>
       </c>
       <c r="L70">
-        <f>IF(Y70=0,0,Z70/Y70)</f>
+        <f>IF(H70=0,0,AB70/(H70/30))</f>
         <v/>
       </c>
       <c r="O70">
-        <f>MAX(0,(30*Y70)-P70)</f>
-        <v/>
-      </c>
-      <c r="X70">
-        <f>MAX([@[BSR 30 Avg]],C70)</f>
+        <f>MAX(0,(30*H70/30)-AB70)</f>
+        <v/>
+      </c>
+      <c r="P70">
+        <f>N70*O70</f>
         <v/>
       </c>
       <c r="Y70">
         <f>IF(C70=0,0,(C70-X70)/C70)</f>
-        <v/>
-      </c>
-      <c r="Z70">
-        <f>MAX([@[BSR 90 Avg]],C70)</f>
         <v/>
       </c>
       <c r="AA70">
@@ -3261,23 +3153,19 @@
         <v/>
       </c>
       <c r="L71">
-        <f>IF(Y71=0,0,Z71/Y71)</f>
+        <f>IF(H71=0,0,AB71/(H71/30))</f>
         <v/>
       </c>
       <c r="O71">
-        <f>MAX(0,(30*Y71)-P71)</f>
-        <v/>
-      </c>
-      <c r="X71">
-        <f>MAX([@[BSR 30 Avg]],C71)</f>
+        <f>MAX(0,(30*H71/30)-AB71)</f>
+        <v/>
+      </c>
+      <c r="P71">
+        <f>N71*O71</f>
         <v/>
       </c>
       <c r="Y71">
         <f>IF(C71=0,0,(C71-X71)/C71)</f>
-        <v/>
-      </c>
-      <c r="Z71">
-        <f>MAX([@[BSR 90 Avg]],C71)</f>
         <v/>
       </c>
       <c r="AA71">
@@ -3299,23 +3187,19 @@
         <v/>
       </c>
       <c r="L72">
-        <f>IF(Y72=0,0,Z72/Y72)</f>
+        <f>IF(H72=0,0,AB72/(H72/30))</f>
         <v/>
       </c>
       <c r="O72">
-        <f>MAX(0,(30*Y72)-P72)</f>
-        <v/>
-      </c>
-      <c r="X72">
-        <f>MAX([@[BSR 30 Avg]],C72)</f>
+        <f>MAX(0,(30*H72/30)-AB72)</f>
+        <v/>
+      </c>
+      <c r="P72">
+        <f>N72*O72</f>
         <v/>
       </c>
       <c r="Y72">
         <f>IF(C72=0,0,(C72-X72)/C72)</f>
-        <v/>
-      </c>
-      <c r="Z72">
-        <f>MAX([@[BSR 90 Avg]],C72)</f>
         <v/>
       </c>
       <c r="AA72">
@@ -3337,23 +3221,19 @@
         <v/>
       </c>
       <c r="L73">
-        <f>IF(Y73=0,0,Z73/Y73)</f>
+        <f>IF(H73=0,0,AB73/(H73/30))</f>
         <v/>
       </c>
       <c r="O73">
-        <f>MAX(0,(30*Y73)-P73)</f>
-        <v/>
-      </c>
-      <c r="X73">
-        <f>MAX([@[BSR 30 Avg]],C73)</f>
+        <f>MAX(0,(30*H73/30)-AB73)</f>
+        <v/>
+      </c>
+      <c r="P73">
+        <f>N73*O73</f>
         <v/>
       </c>
       <c r="Y73">
         <f>IF(C73=0,0,(C73-X73)/C73)</f>
-        <v/>
-      </c>
-      <c r="Z73">
-        <f>MAX([@[BSR 90 Avg]],C73)</f>
         <v/>
       </c>
       <c r="AA73">
@@ -3375,23 +3255,19 @@
         <v/>
       </c>
       <c r="L74">
-        <f>IF(Y74=0,0,Z74/Y74)</f>
+        <f>IF(H74=0,0,AB74/(H74/30))</f>
         <v/>
       </c>
       <c r="O74">
-        <f>MAX(0,(30*Y74)-P74)</f>
-        <v/>
-      </c>
-      <c r="X74">
-        <f>MAX([@[BSR 30 Avg]],C74)</f>
+        <f>MAX(0,(30*H74/30)-AB74)</f>
+        <v/>
+      </c>
+      <c r="P74">
+        <f>N74*O74</f>
         <v/>
       </c>
       <c r="Y74">
         <f>IF(C74=0,0,(C74-X74)/C74)</f>
-        <v/>
-      </c>
-      <c r="Z74">
-        <f>MAX([@[BSR 90 Avg]],C74)</f>
         <v/>
       </c>
       <c r="AA74">
@@ -3413,23 +3289,19 @@
         <v/>
       </c>
       <c r="L75">
-        <f>IF(Y75=0,0,Z75/Y75)</f>
+        <f>IF(H75=0,0,AB75/(H75/30))</f>
         <v/>
       </c>
       <c r="O75">
-        <f>MAX(0,(30*Y75)-P75)</f>
-        <v/>
-      </c>
-      <c r="X75">
-        <f>MAX([@[BSR 30 Avg]],C75)</f>
+        <f>MAX(0,(30*H75/30)-AB75)</f>
+        <v/>
+      </c>
+      <c r="P75">
+        <f>N75*O75</f>
         <v/>
       </c>
       <c r="Y75">
         <f>IF(C75=0,0,(C75-X75)/C75)</f>
-        <v/>
-      </c>
-      <c r="Z75">
-        <f>MAX([@[BSR 90 Avg]],C75)</f>
         <v/>
       </c>
       <c r="AA75">
@@ -3451,23 +3323,19 @@
         <v/>
       </c>
       <c r="L76">
-        <f>IF(Y76=0,0,Z76/Y76)</f>
+        <f>IF(H76=0,0,AB76/(H76/30))</f>
         <v/>
       </c>
       <c r="O76">
-        <f>MAX(0,(30*Y76)-P76)</f>
-        <v/>
-      </c>
-      <c r="X76">
-        <f>MAX([@[BSR 30 Avg]],C76)</f>
+        <f>MAX(0,(30*H76/30)-AB76)</f>
+        <v/>
+      </c>
+      <c r="P76">
+        <f>N76*O76</f>
         <v/>
       </c>
       <c r="Y76">
         <f>IF(C76=0,0,(C76-X76)/C76)</f>
-        <v/>
-      </c>
-      <c r="Z76">
-        <f>MAX([@[BSR 90 Avg]],C76)</f>
         <v/>
       </c>
       <c r="AA76">
@@ -3489,23 +3357,19 @@
         <v/>
       </c>
       <c r="L77">
-        <f>IF(Y77=0,0,Z77/Y77)</f>
+        <f>IF(H77=0,0,AB77/(H77/30))</f>
         <v/>
       </c>
       <c r="O77">
-        <f>MAX(0,(30*Y77)-P77)</f>
-        <v/>
-      </c>
-      <c r="X77">
-        <f>MAX([@[BSR 30 Avg]],C77)</f>
+        <f>MAX(0,(30*H77/30)-AB77)</f>
+        <v/>
+      </c>
+      <c r="P77">
+        <f>N77*O77</f>
         <v/>
       </c>
       <c r="Y77">
         <f>IF(C77=0,0,(C77-X77)/C77)</f>
-        <v/>
-      </c>
-      <c r="Z77">
-        <f>MAX([@[BSR 90 Avg]],C77)</f>
         <v/>
       </c>
       <c r="AA77">
@@ -3527,23 +3391,19 @@
         <v/>
       </c>
       <c r="L78">
-        <f>IF(Y78=0,0,Z78/Y78)</f>
+        <f>IF(H78=0,0,AB78/(H78/30))</f>
         <v/>
       </c>
       <c r="O78">
-        <f>MAX(0,(30*Y78)-P78)</f>
-        <v/>
-      </c>
-      <c r="X78">
-        <f>MAX([@[BSR 30 Avg]],C78)</f>
+        <f>MAX(0,(30*H78/30)-AB78)</f>
+        <v/>
+      </c>
+      <c r="P78">
+        <f>N78*O78</f>
         <v/>
       </c>
       <c r="Y78">
         <f>IF(C78=0,0,(C78-X78)/C78)</f>
-        <v/>
-      </c>
-      <c r="Z78">
-        <f>MAX([@[BSR 90 Avg]],C78)</f>
         <v/>
       </c>
       <c r="AA78">
@@ -3565,23 +3425,19 @@
         <v/>
       </c>
       <c r="L79">
-        <f>IF(Y79=0,0,Z79/Y79)</f>
+        <f>IF(H79=0,0,AB79/(H79/30))</f>
         <v/>
       </c>
       <c r="O79">
-        <f>MAX(0,(30*Y79)-P79)</f>
-        <v/>
-      </c>
-      <c r="X79">
-        <f>MAX([@[BSR 30 Avg]],C79)</f>
+        <f>MAX(0,(30*H79/30)-AB79)</f>
+        <v/>
+      </c>
+      <c r="P79">
+        <f>N79*O79</f>
         <v/>
       </c>
       <c r="Y79">
         <f>IF(C79=0,0,(C79-X79)/C79)</f>
-        <v/>
-      </c>
-      <c r="Z79">
-        <f>MAX([@[BSR 90 Avg]],C79)</f>
         <v/>
       </c>
       <c r="AA79">
@@ -3603,23 +3459,19 @@
         <v/>
       </c>
       <c r="L80">
-        <f>IF(Y80=0,0,Z80/Y80)</f>
+        <f>IF(H80=0,0,AB80/(H80/30))</f>
         <v/>
       </c>
       <c r="O80">
-        <f>MAX(0,(30*Y80)-P80)</f>
-        <v/>
-      </c>
-      <c r="X80">
-        <f>MAX([@[BSR 30 Avg]],C80)</f>
+        <f>MAX(0,(30*H80/30)-AB80)</f>
+        <v/>
+      </c>
+      <c r="P80">
+        <f>N80*O80</f>
         <v/>
       </c>
       <c r="Y80">
         <f>IF(C80=0,0,(C80-X80)/C80)</f>
-        <v/>
-      </c>
-      <c r="Z80">
-        <f>MAX([@[BSR 90 Avg]],C80)</f>
         <v/>
       </c>
       <c r="AA80">
@@ -3641,23 +3493,19 @@
         <v/>
       </c>
       <c r="L81">
-        <f>IF(Y81=0,0,Z81/Y81)</f>
+        <f>IF(H81=0,0,AB81/(H81/30))</f>
         <v/>
       </c>
       <c r="O81">
-        <f>MAX(0,(30*Y81)-P81)</f>
-        <v/>
-      </c>
-      <c r="X81">
-        <f>MAX([@[BSR 30 Avg]],C81)</f>
+        <f>MAX(0,(30*H81/30)-AB81)</f>
+        <v/>
+      </c>
+      <c r="P81">
+        <f>N81*O81</f>
         <v/>
       </c>
       <c r="Y81">
         <f>IF(C81=0,0,(C81-X81)/C81)</f>
-        <v/>
-      </c>
-      <c r="Z81">
-        <f>MAX([@[BSR 90 Avg]],C81)</f>
         <v/>
       </c>
       <c r="AA81">
@@ -3679,23 +3527,19 @@
         <v/>
       </c>
       <c r="L82">
-        <f>IF(Y82=0,0,Z82/Y82)</f>
+        <f>IF(H82=0,0,AB82/(H82/30))</f>
         <v/>
       </c>
       <c r="O82">
-        <f>MAX(0,(30*Y82)-P82)</f>
-        <v/>
-      </c>
-      <c r="X82">
-        <f>MAX([@[BSR 30 Avg]],C82)</f>
+        <f>MAX(0,(30*H82/30)-AB82)</f>
+        <v/>
+      </c>
+      <c r="P82">
+        <f>N82*O82</f>
         <v/>
       </c>
       <c r="Y82">
         <f>IF(C82=0,0,(C82-X82)/C82)</f>
-        <v/>
-      </c>
-      <c r="Z82">
-        <f>MAX([@[BSR 90 Avg]],C82)</f>
         <v/>
       </c>
       <c r="AA82">
@@ -3717,23 +3561,19 @@
         <v/>
       </c>
       <c r="L83">
-        <f>IF(Y83=0,0,Z83/Y83)</f>
+        <f>IF(H83=0,0,AB83/(H83/30))</f>
         <v/>
       </c>
       <c r="O83">
-        <f>MAX(0,(30*Y83)-P83)</f>
-        <v/>
-      </c>
-      <c r="X83">
-        <f>MAX([@[BSR 30 Avg]],C83)</f>
+        <f>MAX(0,(30*H83/30)-AB83)</f>
+        <v/>
+      </c>
+      <c r="P83">
+        <f>N83*O83</f>
         <v/>
       </c>
       <c r="Y83">
         <f>IF(C83=0,0,(C83-X83)/C83)</f>
-        <v/>
-      </c>
-      <c r="Z83">
-        <f>MAX([@[BSR 90 Avg]],C83)</f>
         <v/>
       </c>
       <c r="AA83">
@@ -3755,23 +3595,19 @@
         <v/>
       </c>
       <c r="L84">
-        <f>IF(Y84=0,0,Z84/Y84)</f>
+        <f>IF(H84=0,0,AB84/(H84/30))</f>
         <v/>
       </c>
       <c r="O84">
-        <f>MAX(0,(30*Y84)-P84)</f>
-        <v/>
-      </c>
-      <c r="X84">
-        <f>MAX([@[BSR 30 Avg]],C84)</f>
+        <f>MAX(0,(30*H84/30)-AB84)</f>
+        <v/>
+      </c>
+      <c r="P84">
+        <f>N84*O84</f>
         <v/>
       </c>
       <c r="Y84">
         <f>IF(C84=0,0,(C84-X84)/C84)</f>
-        <v/>
-      </c>
-      <c r="Z84">
-        <f>MAX([@[BSR 90 Avg]],C84)</f>
         <v/>
       </c>
       <c r="AA84">
@@ -3793,23 +3629,19 @@
         <v/>
       </c>
       <c r="L85">
-        <f>IF(Y85=0,0,Z85/Y85)</f>
+        <f>IF(H85=0,0,AB85/(H85/30))</f>
         <v/>
       </c>
       <c r="O85">
-        <f>MAX(0,(30*Y85)-P85)</f>
-        <v/>
-      </c>
-      <c r="X85">
-        <f>MAX([@[BSR 30 Avg]],C85)</f>
+        <f>MAX(0,(30*H85/30)-AB85)</f>
+        <v/>
+      </c>
+      <c r="P85">
+        <f>N85*O85</f>
         <v/>
       </c>
       <c r="Y85">
         <f>IF(C85=0,0,(C85-X85)/C85)</f>
-        <v/>
-      </c>
-      <c r="Z85">
-        <f>MAX([@[BSR 90 Avg]],C85)</f>
         <v/>
       </c>
       <c r="AA85">
@@ -3831,23 +3663,19 @@
         <v/>
       </c>
       <c r="L86">
-        <f>IF(Y86=0,0,Z86/Y86)</f>
+        <f>IF(H86=0,0,AB86/(H86/30))</f>
         <v/>
       </c>
       <c r="O86">
-        <f>MAX(0,(30*Y86)-P86)</f>
-        <v/>
-      </c>
-      <c r="X86">
-        <f>MAX([@[BSR 30 Avg]],C86)</f>
+        <f>MAX(0,(30*H86/30)-AB86)</f>
+        <v/>
+      </c>
+      <c r="P86">
+        <f>N86*O86</f>
         <v/>
       </c>
       <c r="Y86">
         <f>IF(C86=0,0,(C86-X86)/C86)</f>
-        <v/>
-      </c>
-      <c r="Z86">
-        <f>MAX([@[BSR 90 Avg]],C86)</f>
         <v/>
       </c>
       <c r="AA86">
@@ -3869,23 +3697,19 @@
         <v/>
       </c>
       <c r="L87">
-        <f>IF(Y87=0,0,Z87/Y87)</f>
+        <f>IF(H87=0,0,AB87/(H87/30))</f>
         <v/>
       </c>
       <c r="O87">
-        <f>MAX(0,(30*Y87)-P87)</f>
-        <v/>
-      </c>
-      <c r="X87">
-        <f>MAX([@[BSR 30 Avg]],C87)</f>
+        <f>MAX(0,(30*H87/30)-AB87)</f>
+        <v/>
+      </c>
+      <c r="P87">
+        <f>N87*O87</f>
         <v/>
       </c>
       <c r="Y87">
         <f>IF(C87=0,0,(C87-X87)/C87)</f>
-        <v/>
-      </c>
-      <c r="Z87">
-        <f>MAX([@[BSR 90 Avg]],C87)</f>
         <v/>
       </c>
       <c r="AA87">
@@ -3907,23 +3731,19 @@
         <v/>
       </c>
       <c r="L88">
-        <f>IF(Y88=0,0,Z88/Y88)</f>
+        <f>IF(H88=0,0,AB88/(H88/30))</f>
         <v/>
       </c>
       <c r="O88">
-        <f>MAX(0,(30*Y88)-P88)</f>
-        <v/>
-      </c>
-      <c r="X88">
-        <f>MAX([@[BSR 30 Avg]],C88)</f>
+        <f>MAX(0,(30*H88/30)-AB88)</f>
+        <v/>
+      </c>
+      <c r="P88">
+        <f>N88*O88</f>
         <v/>
       </c>
       <c r="Y88">
         <f>IF(C88=0,0,(C88-X88)/C88)</f>
-        <v/>
-      </c>
-      <c r="Z88">
-        <f>MAX([@[BSR 90 Avg]],C88)</f>
         <v/>
       </c>
       <c r="AA88">
@@ -3945,23 +3765,19 @@
         <v/>
       </c>
       <c r="L89">
-        <f>IF(Y89=0,0,Z89/Y89)</f>
+        <f>IF(H89=0,0,AB89/(H89/30))</f>
         <v/>
       </c>
       <c r="O89">
-        <f>MAX(0,(30*Y89)-P89)</f>
-        <v/>
-      </c>
-      <c r="X89">
-        <f>MAX([@[BSR 30 Avg]],C89)</f>
+        <f>MAX(0,(30*H89/30)-AB89)</f>
+        <v/>
+      </c>
+      <c r="P89">
+        <f>N89*O89</f>
         <v/>
       </c>
       <c r="Y89">
         <f>IF(C89=0,0,(C89-X89)/C89)</f>
-        <v/>
-      </c>
-      <c r="Z89">
-        <f>MAX([@[BSR 90 Avg]],C89)</f>
         <v/>
       </c>
       <c r="AA89">
@@ -3983,23 +3799,19 @@
         <v/>
       </c>
       <c r="L90">
-        <f>IF(Y90=0,0,Z90/Y90)</f>
+        <f>IF(H90=0,0,AB90/(H90/30))</f>
         <v/>
       </c>
       <c r="O90">
-        <f>MAX(0,(30*Y90)-P90)</f>
-        <v/>
-      </c>
-      <c r="X90">
-        <f>MAX([@[BSR 30 Avg]],C90)</f>
+        <f>MAX(0,(30*H90/30)-AB90)</f>
+        <v/>
+      </c>
+      <c r="P90">
+        <f>N90*O90</f>
         <v/>
       </c>
       <c r="Y90">
         <f>IF(C90=0,0,(C90-X90)/C90)</f>
-        <v/>
-      </c>
-      <c r="Z90">
-        <f>MAX([@[BSR 90 Avg]],C90)</f>
         <v/>
       </c>
       <c r="AA90">
@@ -4021,23 +3833,19 @@
         <v/>
       </c>
       <c r="L91">
-        <f>IF(Y91=0,0,Z91/Y91)</f>
+        <f>IF(H91=0,0,AB91/(H91/30))</f>
         <v/>
       </c>
       <c r="O91">
-        <f>MAX(0,(30*Y91)-P91)</f>
-        <v/>
-      </c>
-      <c r="X91">
-        <f>MAX([@[BSR 30 Avg]],C91)</f>
+        <f>MAX(0,(30*H91/30)-AB91)</f>
+        <v/>
+      </c>
+      <c r="P91">
+        <f>N91*O91</f>
         <v/>
       </c>
       <c r="Y91">
         <f>IF(C91=0,0,(C91-X91)/C91)</f>
-        <v/>
-      </c>
-      <c r="Z91">
-        <f>MAX([@[BSR 90 Avg]],C91)</f>
         <v/>
       </c>
       <c r="AA91">
@@ -4059,23 +3867,19 @@
         <v/>
       </c>
       <c r="L92">
-        <f>IF(Y92=0,0,Z92/Y92)</f>
+        <f>IF(H92=0,0,AB92/(H92/30))</f>
         <v/>
       </c>
       <c r="O92">
-        <f>MAX(0,(30*Y92)-P92)</f>
-        <v/>
-      </c>
-      <c r="X92">
-        <f>MAX([@[BSR 30 Avg]],C92)</f>
+        <f>MAX(0,(30*H92/30)-AB92)</f>
+        <v/>
+      </c>
+      <c r="P92">
+        <f>N92*O92</f>
         <v/>
       </c>
       <c r="Y92">
         <f>IF(C92=0,0,(C92-X92)/C92)</f>
-        <v/>
-      </c>
-      <c r="Z92">
-        <f>MAX([@[BSR 90 Avg]],C92)</f>
         <v/>
       </c>
       <c r="AA92">
@@ -4097,23 +3901,19 @@
         <v/>
       </c>
       <c r="L93">
-        <f>IF(Y93=0,0,Z93/Y93)</f>
+        <f>IF(H93=0,0,AB93/(H93/30))</f>
         <v/>
       </c>
       <c r="O93">
-        <f>MAX(0,(30*Y93)-P93)</f>
-        <v/>
-      </c>
-      <c r="X93">
-        <f>MAX([@[BSR 30 Avg]],C93)</f>
+        <f>MAX(0,(30*H93/30)-AB93)</f>
+        <v/>
+      </c>
+      <c r="P93">
+        <f>N93*O93</f>
         <v/>
       </c>
       <c r="Y93">
         <f>IF(C93=0,0,(C93-X93)/C93)</f>
-        <v/>
-      </c>
-      <c r="Z93">
-        <f>MAX([@[BSR 90 Avg]],C93)</f>
         <v/>
       </c>
       <c r="AA93">
@@ -4135,23 +3935,19 @@
         <v/>
       </c>
       <c r="L94">
-        <f>IF(Y94=0,0,Z94/Y94)</f>
+        <f>IF(H94=0,0,AB94/(H94/30))</f>
         <v/>
       </c>
       <c r="O94">
-        <f>MAX(0,(30*Y94)-P94)</f>
-        <v/>
-      </c>
-      <c r="X94">
-        <f>MAX([@[BSR 30 Avg]],C94)</f>
+        <f>MAX(0,(30*H94/30)-AB94)</f>
+        <v/>
+      </c>
+      <c r="P94">
+        <f>N94*O94</f>
         <v/>
       </c>
       <c r="Y94">
         <f>IF(C94=0,0,(C94-X94)/C94)</f>
-        <v/>
-      </c>
-      <c r="Z94">
-        <f>MAX([@[BSR 90 Avg]],C94)</f>
         <v/>
       </c>
       <c r="AA94">
@@ -4173,23 +3969,19 @@
         <v/>
       </c>
       <c r="L95">
-        <f>IF(Y95=0,0,Z95/Y95)</f>
+        <f>IF(H95=0,0,AB95/(H95/30))</f>
         <v/>
       </c>
       <c r="O95">
-        <f>MAX(0,(30*Y95)-P95)</f>
-        <v/>
-      </c>
-      <c r="X95">
-        <f>MAX([@[BSR 30 Avg]],C95)</f>
+        <f>MAX(0,(30*H95/30)-AB95)</f>
+        <v/>
+      </c>
+      <c r="P95">
+        <f>N95*O95</f>
         <v/>
       </c>
       <c r="Y95">
         <f>IF(C95=0,0,(C95-X95)/C95)</f>
-        <v/>
-      </c>
-      <c r="Z95">
-        <f>MAX([@[BSR 90 Avg]],C95)</f>
         <v/>
       </c>
       <c r="AA95">
@@ -4211,23 +4003,19 @@
         <v/>
       </c>
       <c r="L96">
-        <f>IF(Y96=0,0,Z96/Y96)</f>
+        <f>IF(H96=0,0,AB96/(H96/30))</f>
         <v/>
       </c>
       <c r="O96">
-        <f>MAX(0,(30*Y96)-P96)</f>
-        <v/>
-      </c>
-      <c r="X96">
-        <f>MAX([@[BSR 30 Avg]],C96)</f>
+        <f>MAX(0,(30*H96/30)-AB96)</f>
+        <v/>
+      </c>
+      <c r="P96">
+        <f>N96*O96</f>
         <v/>
       </c>
       <c r="Y96">
         <f>IF(C96=0,0,(C96-X96)/C96)</f>
-        <v/>
-      </c>
-      <c r="Z96">
-        <f>MAX([@[BSR 90 Avg]],C96)</f>
         <v/>
       </c>
       <c r="AA96">
@@ -4249,23 +4037,19 @@
         <v/>
       </c>
       <c r="L97">
-        <f>IF(Y97=0,0,Z97/Y97)</f>
+        <f>IF(H97=0,0,AB97/(H97/30))</f>
         <v/>
       </c>
       <c r="O97">
-        <f>MAX(0,(30*Y97)-P97)</f>
-        <v/>
-      </c>
-      <c r="X97">
-        <f>MAX([@[BSR 30 Avg]],C97)</f>
+        <f>MAX(0,(30*H97/30)-AB97)</f>
+        <v/>
+      </c>
+      <c r="P97">
+        <f>N97*O97</f>
         <v/>
       </c>
       <c r="Y97">
         <f>IF(C97=0,0,(C97-X97)/C97)</f>
-        <v/>
-      </c>
-      <c r="Z97">
-        <f>MAX([@[BSR 90 Avg]],C97)</f>
         <v/>
       </c>
       <c r="AA97">
@@ -4287,23 +4071,19 @@
         <v/>
       </c>
       <c r="L98">
-        <f>IF(Y98=0,0,Z98/Y98)</f>
+        <f>IF(H98=0,0,AB98/(H98/30))</f>
         <v/>
       </c>
       <c r="O98">
-        <f>MAX(0,(30*Y98)-P98)</f>
-        <v/>
-      </c>
-      <c r="X98">
-        <f>MAX([@[BSR 30 Avg]],C98)</f>
+        <f>MAX(0,(30*H98/30)-AB98)</f>
+        <v/>
+      </c>
+      <c r="P98">
+        <f>N98*O98</f>
         <v/>
       </c>
       <c r="Y98">
         <f>IF(C98=0,0,(C98-X98)/C98)</f>
-        <v/>
-      </c>
-      <c r="Z98">
-        <f>MAX([@[BSR 90 Avg]],C98)</f>
         <v/>
       </c>
       <c r="AA98">
@@ -4325,23 +4105,19 @@
         <v/>
       </c>
       <c r="L99">
-        <f>IF(Y99=0,0,Z99/Y99)</f>
+        <f>IF(H99=0,0,AB99/(H99/30))</f>
         <v/>
       </c>
       <c r="O99">
-        <f>MAX(0,(30*Y99)-P99)</f>
-        <v/>
-      </c>
-      <c r="X99">
-        <f>MAX([@[BSR 30 Avg]],C99)</f>
+        <f>MAX(0,(30*H99/30)-AB99)</f>
+        <v/>
+      </c>
+      <c r="P99">
+        <f>N99*O99</f>
         <v/>
       </c>
       <c r="Y99">
         <f>IF(C99=0,0,(C99-X99)/C99)</f>
-        <v/>
-      </c>
-      <c r="Z99">
-        <f>MAX([@[BSR 90 Avg]],C99)</f>
         <v/>
       </c>
       <c r="AA99">
@@ -4363,23 +4139,19 @@
         <v/>
       </c>
       <c r="L100">
-        <f>IF(Y100=0,0,Z100/Y100)</f>
+        <f>IF(H100=0,0,AB100/(H100/30))</f>
         <v/>
       </c>
       <c r="O100">
-        <f>MAX(0,(30*Y100)-P100)</f>
-        <v/>
-      </c>
-      <c r="X100">
-        <f>MAX([@[BSR 30 Avg]],C100)</f>
+        <f>MAX(0,(30*H100/30)-AB100)</f>
+        <v/>
+      </c>
+      <c r="P100">
+        <f>N100*O100</f>
         <v/>
       </c>
       <c r="Y100">
         <f>IF(C100=0,0,(C100-X100)/C100)</f>
-        <v/>
-      </c>
-      <c r="Z100">
-        <f>MAX([@[BSR 90 Avg]],C100)</f>
         <v/>
       </c>
       <c r="AA100">
@@ -4401,23 +4173,19 @@
         <v/>
       </c>
       <c r="L101">
-        <f>IF(Y101=0,0,Z101/Y101)</f>
+        <f>IF(H101=0,0,AB101/(H101/30))</f>
         <v/>
       </c>
       <c r="O101">
-        <f>MAX(0,(30*Y101)-P101)</f>
-        <v/>
-      </c>
-      <c r="X101">
-        <f>MAX([@[BSR 30 Avg]],C101)</f>
+        <f>MAX(0,(30*H101/30)-AB101)</f>
+        <v/>
+      </c>
+      <c r="P101">
+        <f>N101*O101</f>
         <v/>
       </c>
       <c r="Y101">
         <f>IF(C101=0,0,(C101-X101)/C101)</f>
-        <v/>
-      </c>
-      <c r="Z101">
-        <f>MAX([@[BSR 90 Avg]],C101)</f>
         <v/>
       </c>
       <c r="AA101">
@@ -4439,23 +4207,19 @@
         <v/>
       </c>
       <c r="L102">
-        <f>IF(Y102=0,0,Z102/Y102)</f>
+        <f>IF(H102=0,0,AB102/(H102/30))</f>
         <v/>
       </c>
       <c r="O102">
-        <f>MAX(0,(30*Y102)-P102)</f>
-        <v/>
-      </c>
-      <c r="X102">
-        <f>MAX([@[BSR 30 Avg]],C102)</f>
+        <f>MAX(0,(30*H102/30)-AB102)</f>
+        <v/>
+      </c>
+      <c r="P102">
+        <f>N102*O102</f>
         <v/>
       </c>
       <c r="Y102">
         <f>IF(C102=0,0,(C102-X102)/C102)</f>
-        <v/>
-      </c>
-      <c r="Z102">
-        <f>MAX([@[BSR 90 Avg]],C102)</f>
         <v/>
       </c>
       <c r="AA102">
@@ -4477,23 +4241,19 @@
         <v/>
       </c>
       <c r="L103">
-        <f>IF(Y103=0,0,Z103/Y103)</f>
+        <f>IF(H103=0,0,AB103/(H103/30))</f>
         <v/>
       </c>
       <c r="O103">
-        <f>MAX(0,(30*Y103)-P103)</f>
-        <v/>
-      </c>
-      <c r="X103">
-        <f>MAX([@[BSR 30 Avg]],C103)</f>
+        <f>MAX(0,(30*H103/30)-AB103)</f>
+        <v/>
+      </c>
+      <c r="P103">
+        <f>N103*O103</f>
         <v/>
       </c>
       <c r="Y103">
         <f>IF(C103=0,0,(C103-X103)/C103)</f>
-        <v/>
-      </c>
-      <c r="Z103">
-        <f>MAX([@[BSR 90 Avg]],C103)</f>
         <v/>
       </c>
       <c r="AA103">
@@ -4515,23 +4275,19 @@
         <v/>
       </c>
       <c r="L104">
-        <f>IF(Y104=0,0,Z104/Y104)</f>
+        <f>IF(H104=0,0,AB104/(H104/30))</f>
         <v/>
       </c>
       <c r="O104">
-        <f>MAX(0,(30*Y104)-P104)</f>
-        <v/>
-      </c>
-      <c r="X104">
-        <f>MAX([@[BSR 30 Avg]],C104)</f>
+        <f>MAX(0,(30*H104/30)-AB104)</f>
+        <v/>
+      </c>
+      <c r="P104">
+        <f>N104*O104</f>
         <v/>
       </c>
       <c r="Y104">
         <f>IF(C104=0,0,(C104-X104)/C104)</f>
-        <v/>
-      </c>
-      <c r="Z104">
-        <f>MAX([@[BSR 90 Avg]],C104)</f>
         <v/>
       </c>
       <c r="AA104">
@@ -4553,23 +4309,19 @@
         <v/>
       </c>
       <c r="L105">
-        <f>IF(Y105=0,0,Z105/Y105)</f>
+        <f>IF(H105=0,0,AB105/(H105/30))</f>
         <v/>
       </c>
       <c r="O105">
-        <f>MAX(0,(30*Y105)-P105)</f>
-        <v/>
-      </c>
-      <c r="X105">
-        <f>MAX([@[BSR 30 Avg]],C105)</f>
+        <f>MAX(0,(30*H105/30)-AB105)</f>
+        <v/>
+      </c>
+      <c r="P105">
+        <f>N105*O105</f>
         <v/>
       </c>
       <c r="Y105">
         <f>IF(C105=0,0,(C105-X105)/C105)</f>
-        <v/>
-      </c>
-      <c r="Z105">
-        <f>MAX([@[BSR 90 Avg]],C105)</f>
         <v/>
       </c>
       <c r="AA105">
@@ -4591,23 +4343,19 @@
         <v/>
       </c>
       <c r="L106">
-        <f>IF(Y106=0,0,Z106/Y106)</f>
+        <f>IF(H106=0,0,AB106/(H106/30))</f>
         <v/>
       </c>
       <c r="O106">
-        <f>MAX(0,(30*Y106)-P106)</f>
-        <v/>
-      </c>
-      <c r="X106">
-        <f>MAX([@[BSR 30 Avg]],C106)</f>
+        <f>MAX(0,(30*H106/30)-AB106)</f>
+        <v/>
+      </c>
+      <c r="P106">
+        <f>N106*O106</f>
         <v/>
       </c>
       <c r="Y106">
         <f>IF(C106=0,0,(C106-X106)/C106)</f>
-        <v/>
-      </c>
-      <c r="Z106">
-        <f>MAX([@[BSR 90 Avg]],C106)</f>
         <v/>
       </c>
       <c r="AA106">
@@ -4629,23 +4377,19 @@
         <v/>
       </c>
       <c r="L107">
-        <f>IF(Y107=0,0,Z107/Y107)</f>
+        <f>IF(H107=0,0,AB107/(H107/30))</f>
         <v/>
       </c>
       <c r="O107">
-        <f>MAX(0,(30*Y107)-P107)</f>
-        <v/>
-      </c>
-      <c r="X107">
-        <f>MAX([@[BSR 30 Avg]],C107)</f>
+        <f>MAX(0,(30*H107/30)-AB107)</f>
+        <v/>
+      </c>
+      <c r="P107">
+        <f>N107*O107</f>
         <v/>
       </c>
       <c r="Y107">
         <f>IF(C107=0,0,(C107-X107)/C107)</f>
-        <v/>
-      </c>
-      <c r="Z107">
-        <f>MAX([@[BSR 90 Avg]],C107)</f>
         <v/>
       </c>
       <c r="AA107">
@@ -4667,23 +4411,19 @@
         <v/>
       </c>
       <c r="L108">
-        <f>IF(Y108=0,0,Z108/Y108)</f>
+        <f>IF(H108=0,0,AB108/(H108/30))</f>
         <v/>
       </c>
       <c r="O108">
-        <f>MAX(0,(30*Y108)-P108)</f>
-        <v/>
-      </c>
-      <c r="X108">
-        <f>MAX([@[BSR 30 Avg]],C108)</f>
+        <f>MAX(0,(30*H108/30)-AB108)</f>
+        <v/>
+      </c>
+      <c r="P108">
+        <f>N108*O108</f>
         <v/>
       </c>
       <c r="Y108">
         <f>IF(C108=0,0,(C108-X108)/C108)</f>
-        <v/>
-      </c>
-      <c r="Z108">
-        <f>MAX([@[BSR 90 Avg]],C108)</f>
         <v/>
       </c>
       <c r="AA108">
@@ -4705,23 +4445,19 @@
         <v/>
       </c>
       <c r="L109">
-        <f>IF(Y109=0,0,Z109/Y109)</f>
+        <f>IF(H109=0,0,AB109/(H109/30))</f>
         <v/>
       </c>
       <c r="O109">
-        <f>MAX(0,(30*Y109)-P109)</f>
-        <v/>
-      </c>
-      <c r="X109">
-        <f>MAX([@[BSR 30 Avg]],C109)</f>
+        <f>MAX(0,(30*H109/30)-AB109)</f>
+        <v/>
+      </c>
+      <c r="P109">
+        <f>N109*O109</f>
         <v/>
       </c>
       <c r="Y109">
         <f>IF(C109=0,0,(C109-X109)/C109)</f>
-        <v/>
-      </c>
-      <c r="Z109">
-        <f>MAX([@[BSR 90 Avg]],C109)</f>
         <v/>
       </c>
       <c r="AA109">
@@ -4743,23 +4479,19 @@
         <v/>
       </c>
       <c r="L110">
-        <f>IF(Y110=0,0,Z110/Y110)</f>
+        <f>IF(H110=0,0,AB110/(H110/30))</f>
         <v/>
       </c>
       <c r="O110">
-        <f>MAX(0,(30*Y110)-P110)</f>
-        <v/>
-      </c>
-      <c r="X110">
-        <f>MAX([@[BSR 30 Avg]],C110)</f>
+        <f>MAX(0,(30*H110/30)-AB110)</f>
+        <v/>
+      </c>
+      <c r="P110">
+        <f>N110*O110</f>
         <v/>
       </c>
       <c r="Y110">
         <f>IF(C110=0,0,(C110-X110)/C110)</f>
-        <v/>
-      </c>
-      <c r="Z110">
-        <f>MAX([@[BSR 90 Avg]],C110)</f>
         <v/>
       </c>
       <c r="AA110">
@@ -4781,23 +4513,19 @@
         <v/>
       </c>
       <c r="L111">
-        <f>IF(Y111=0,0,Z111/Y111)</f>
+        <f>IF(H111=0,0,AB111/(H111/30))</f>
         <v/>
       </c>
       <c r="O111">
-        <f>MAX(0,(30*Y111)-P111)</f>
-        <v/>
-      </c>
-      <c r="X111">
-        <f>MAX([@[BSR 30 Avg]],C111)</f>
+        <f>MAX(0,(30*H111/30)-AB111)</f>
+        <v/>
+      </c>
+      <c r="P111">
+        <f>N111*O111</f>
         <v/>
       </c>
       <c r="Y111">
         <f>IF(C111=0,0,(C111-X111)/C111)</f>
-        <v/>
-      </c>
-      <c r="Z111">
-        <f>MAX([@[BSR 90 Avg]],C111)</f>
         <v/>
       </c>
       <c r="AA111">
@@ -4819,23 +4547,19 @@
         <v/>
       </c>
       <c r="L112">
-        <f>IF(Y112=0,0,Z112/Y112)</f>
+        <f>IF(H112=0,0,AB112/(H112/30))</f>
         <v/>
       </c>
       <c r="O112">
-        <f>MAX(0,(30*Y112)-P112)</f>
-        <v/>
-      </c>
-      <c r="X112">
-        <f>MAX([@[BSR 30 Avg]],C112)</f>
+        <f>MAX(0,(30*H112/30)-AB112)</f>
+        <v/>
+      </c>
+      <c r="P112">
+        <f>N112*O112</f>
         <v/>
       </c>
       <c r="Y112">
         <f>IF(C112=0,0,(C112-X112)/C112)</f>
-        <v/>
-      </c>
-      <c r="Z112">
-        <f>MAX([@[BSR 90 Avg]],C112)</f>
         <v/>
       </c>
       <c r="AA112">
@@ -4857,23 +4581,19 @@
         <v/>
       </c>
       <c r="L113">
-        <f>IF(Y113=0,0,Z113/Y113)</f>
+        <f>IF(H113=0,0,AB113/(H113/30))</f>
         <v/>
       </c>
       <c r="O113">
-        <f>MAX(0,(30*Y113)-P113)</f>
-        <v/>
-      </c>
-      <c r="X113">
-        <f>MAX([@[BSR 30 Avg]],C113)</f>
+        <f>MAX(0,(30*H113/30)-AB113)</f>
+        <v/>
+      </c>
+      <c r="P113">
+        <f>N113*O113</f>
         <v/>
       </c>
       <c r="Y113">
         <f>IF(C113=0,0,(C113-X113)/C113)</f>
-        <v/>
-      </c>
-      <c r="Z113">
-        <f>MAX([@[BSR 90 Avg]],C113)</f>
         <v/>
       </c>
       <c r="AA113">
@@ -4895,23 +4615,19 @@
         <v/>
       </c>
       <c r="L114">
-        <f>IF(Y114=0,0,Z114/Y114)</f>
+        <f>IF(H114=0,0,AB114/(H114/30))</f>
         <v/>
       </c>
       <c r="O114">
-        <f>MAX(0,(30*Y114)-P114)</f>
-        <v/>
-      </c>
-      <c r="X114">
-        <f>MAX([@[BSR 30 Avg]],C114)</f>
+        <f>MAX(0,(30*H114/30)-AB114)</f>
+        <v/>
+      </c>
+      <c r="P114">
+        <f>N114*O114</f>
         <v/>
       </c>
       <c r="Y114">
         <f>IF(C114=0,0,(C114-X114)/C114)</f>
-        <v/>
-      </c>
-      <c r="Z114">
-        <f>MAX([@[BSR 90 Avg]],C114)</f>
         <v/>
       </c>
       <c r="AA114">
@@ -4933,23 +4649,19 @@
         <v/>
       </c>
       <c r="L115">
-        <f>IF(Y115=0,0,Z115/Y115)</f>
+        <f>IF(H115=0,0,AB115/(H115/30))</f>
         <v/>
       </c>
       <c r="O115">
-        <f>MAX(0,(30*Y115)-P115)</f>
-        <v/>
-      </c>
-      <c r="X115">
-        <f>MAX([@[BSR 30 Avg]],C115)</f>
+        <f>MAX(0,(30*H115/30)-AB115)</f>
+        <v/>
+      </c>
+      <c r="P115">
+        <f>N115*O115</f>
         <v/>
       </c>
       <c r="Y115">
         <f>IF(C115=0,0,(C115-X115)/C115)</f>
-        <v/>
-      </c>
-      <c r="Z115">
-        <f>MAX([@[BSR 90 Avg]],C115)</f>
         <v/>
       </c>
       <c r="AA115">
@@ -4971,23 +4683,19 @@
         <v/>
       </c>
       <c r="L116">
-        <f>IF(Y116=0,0,Z116/Y116)</f>
+        <f>IF(H116=0,0,AB116/(H116/30))</f>
         <v/>
       </c>
       <c r="O116">
-        <f>MAX(0,(30*Y116)-P116)</f>
-        <v/>
-      </c>
-      <c r="X116">
-        <f>MAX([@[BSR 30 Avg]],C116)</f>
+        <f>MAX(0,(30*H116/30)-AB116)</f>
+        <v/>
+      </c>
+      <c r="P116">
+        <f>N116*O116</f>
         <v/>
       </c>
       <c r="Y116">
         <f>IF(C116=0,0,(C116-X116)/C116)</f>
-        <v/>
-      </c>
-      <c r="Z116">
-        <f>MAX([@[BSR 90 Avg]],C116)</f>
         <v/>
       </c>
       <c r="AA116">
@@ -5009,23 +4717,19 @@
         <v/>
       </c>
       <c r="L117">
-        <f>IF(Y117=0,0,Z117/Y117)</f>
+        <f>IF(H117=0,0,AB117/(H117/30))</f>
         <v/>
       </c>
       <c r="O117">
-        <f>MAX(0,(30*Y117)-P117)</f>
-        <v/>
-      </c>
-      <c r="X117">
-        <f>MAX([@[BSR 30 Avg]],C117)</f>
+        <f>MAX(0,(30*H117/30)-AB117)</f>
+        <v/>
+      </c>
+      <c r="P117">
+        <f>N117*O117</f>
         <v/>
       </c>
       <c r="Y117">
         <f>IF(C117=0,0,(C117-X117)/C117)</f>
-        <v/>
-      </c>
-      <c r="Z117">
-        <f>MAX([@[BSR 90 Avg]],C117)</f>
         <v/>
       </c>
       <c r="AA117">
@@ -5047,23 +4751,19 @@
         <v/>
       </c>
       <c r="L118">
-        <f>IF(Y118=0,0,Z118/Y118)</f>
+        <f>IF(H118=0,0,AB118/(H118/30))</f>
         <v/>
       </c>
       <c r="O118">
-        <f>MAX(0,(30*Y118)-P118)</f>
-        <v/>
-      </c>
-      <c r="X118">
-        <f>MAX([@[BSR 30 Avg]],C118)</f>
+        <f>MAX(0,(30*H118/30)-AB118)</f>
+        <v/>
+      </c>
+      <c r="P118">
+        <f>N118*O118</f>
         <v/>
       </c>
       <c r="Y118">
         <f>IF(C118=0,0,(C118-X118)/C118)</f>
-        <v/>
-      </c>
-      <c r="Z118">
-        <f>MAX([@[BSR 90 Avg]],C118)</f>
         <v/>
       </c>
       <c r="AA118">
@@ -5085,23 +4785,19 @@
         <v/>
       </c>
       <c r="L119">
-        <f>IF(Y119=0,0,Z119/Y119)</f>
+        <f>IF(H119=0,0,AB119/(H119/30))</f>
         <v/>
       </c>
       <c r="O119">
-        <f>MAX(0,(30*Y119)-P119)</f>
-        <v/>
-      </c>
-      <c r="X119">
-        <f>MAX([@[BSR 30 Avg]],C119)</f>
+        <f>MAX(0,(30*H119/30)-AB119)</f>
+        <v/>
+      </c>
+      <c r="P119">
+        <f>N119*O119</f>
         <v/>
       </c>
       <c r="Y119">
         <f>IF(C119=0,0,(C119-X119)/C119)</f>
-        <v/>
-      </c>
-      <c r="Z119">
-        <f>MAX([@[BSR 90 Avg]],C119)</f>
         <v/>
       </c>
       <c r="AA119">
@@ -5123,23 +4819,19 @@
         <v/>
       </c>
       <c r="L120">
-        <f>IF(Y120=0,0,Z120/Y120)</f>
+        <f>IF(H120=0,0,AB120/(H120/30))</f>
         <v/>
       </c>
       <c r="O120">
-        <f>MAX(0,(30*Y120)-P120)</f>
-        <v/>
-      </c>
-      <c r="X120">
-        <f>MAX([@[BSR 30 Avg]],C120)</f>
+        <f>MAX(0,(30*H120/30)-AB120)</f>
+        <v/>
+      </c>
+      <c r="P120">
+        <f>N120*O120</f>
         <v/>
       </c>
       <c r="Y120">
         <f>IF(C120=0,0,(C120-X120)/C120)</f>
-        <v/>
-      </c>
-      <c r="Z120">
-        <f>MAX([@[BSR 90 Avg]],C120)</f>
         <v/>
       </c>
       <c r="AA120">
@@ -5161,23 +4853,19 @@
         <v/>
       </c>
       <c r="L121">
-        <f>IF(Y121=0,0,Z121/Y121)</f>
+        <f>IF(H121=0,0,AB121/(H121/30))</f>
         <v/>
       </c>
       <c r="O121">
-        <f>MAX(0,(30*Y121)-P121)</f>
-        <v/>
-      </c>
-      <c r="X121">
-        <f>MAX([@[BSR 30 Avg]],C121)</f>
+        <f>MAX(0,(30*H121/30)-AB121)</f>
+        <v/>
+      </c>
+      <c r="P121">
+        <f>N121*O121</f>
         <v/>
       </c>
       <c r="Y121">
         <f>IF(C121=0,0,(C121-X121)/C121)</f>
-        <v/>
-      </c>
-      <c r="Z121">
-        <f>MAX([@[BSR 90 Avg]],C121)</f>
         <v/>
       </c>
       <c r="AA121">
@@ -5199,23 +4887,19 @@
         <v/>
       </c>
       <c r="L122">
-        <f>IF(Y122=0,0,Z122/Y122)</f>
+        <f>IF(H122=0,0,AB122/(H122/30))</f>
         <v/>
       </c>
       <c r="O122">
-        <f>MAX(0,(30*Y122)-P122)</f>
-        <v/>
-      </c>
-      <c r="X122">
-        <f>MAX([@[BSR 30 Avg]],C122)</f>
+        <f>MAX(0,(30*H122/30)-AB122)</f>
+        <v/>
+      </c>
+      <c r="P122">
+        <f>N122*O122</f>
         <v/>
       </c>
       <c r="Y122">
         <f>IF(C122=0,0,(C122-X122)/C122)</f>
-        <v/>
-      </c>
-      <c r="Z122">
-        <f>MAX([@[BSR 90 Avg]],C122)</f>
         <v/>
       </c>
       <c r="AA122">
@@ -5237,23 +4921,19 @@
         <v/>
       </c>
       <c r="L123">
-        <f>IF(Y123=0,0,Z123/Y123)</f>
+        <f>IF(H123=0,0,AB123/(H123/30))</f>
         <v/>
       </c>
       <c r="O123">
-        <f>MAX(0,(30*Y123)-P123)</f>
-        <v/>
-      </c>
-      <c r="X123">
-        <f>MAX([@[BSR 30 Avg]],C123)</f>
+        <f>MAX(0,(30*H123/30)-AB123)</f>
+        <v/>
+      </c>
+      <c r="P123">
+        <f>N123*O123</f>
         <v/>
       </c>
       <c r="Y123">
         <f>IF(C123=0,0,(C123-X123)/C123)</f>
-        <v/>
-      </c>
-      <c r="Z123">
-        <f>MAX([@[BSR 90 Avg]],C123)</f>
         <v/>
       </c>
       <c r="AA123">
@@ -5275,23 +4955,19 @@
         <v/>
       </c>
       <c r="L124">
-        <f>IF(Y124=0,0,Z124/Y124)</f>
+        <f>IF(H124=0,0,AB124/(H124/30))</f>
         <v/>
       </c>
       <c r="O124">
-        <f>MAX(0,(30*Y124)-P124)</f>
-        <v/>
-      </c>
-      <c r="X124">
-        <f>MAX([@[BSR 30 Avg]],C124)</f>
+        <f>MAX(0,(30*H124/30)-AB124)</f>
+        <v/>
+      </c>
+      <c r="P124">
+        <f>N124*O124</f>
         <v/>
       </c>
       <c r="Y124">
         <f>IF(C124=0,0,(C124-X124)/C124)</f>
-        <v/>
-      </c>
-      <c r="Z124">
-        <f>MAX([@[BSR 90 Avg]],C124)</f>
         <v/>
       </c>
       <c r="AA124">
@@ -5313,23 +4989,19 @@
         <v/>
       </c>
       <c r="L125">
-        <f>IF(Y125=0,0,Z125/Y125)</f>
+        <f>IF(H125=0,0,AB125/(H125/30))</f>
         <v/>
       </c>
       <c r="O125">
-        <f>MAX(0,(30*Y125)-P125)</f>
-        <v/>
-      </c>
-      <c r="X125">
-        <f>MAX([@[BSR 30 Avg]],C125)</f>
+        <f>MAX(0,(30*H125/30)-AB125)</f>
+        <v/>
+      </c>
+      <c r="P125">
+        <f>N125*O125</f>
         <v/>
       </c>
       <c r="Y125">
         <f>IF(C125=0,0,(C125-X125)/C125)</f>
-        <v/>
-      </c>
-      <c r="Z125">
-        <f>MAX([@[BSR 90 Avg]],C125)</f>
         <v/>
       </c>
       <c r="AA125">
@@ -5351,23 +5023,19 @@
         <v/>
       </c>
       <c r="L126">
-        <f>IF(Y126=0,0,Z126/Y126)</f>
+        <f>IF(H126=0,0,AB126/(H126/30))</f>
         <v/>
       </c>
       <c r="O126">
-        <f>MAX(0,(30*Y126)-P126)</f>
-        <v/>
-      </c>
-      <c r="X126">
-        <f>MAX([@[BSR 30 Avg]],C126)</f>
+        <f>MAX(0,(30*H126/30)-AB126)</f>
+        <v/>
+      </c>
+      <c r="P126">
+        <f>N126*O126</f>
         <v/>
       </c>
       <c r="Y126">
         <f>IF(C126=0,0,(C126-X126)/C126)</f>
-        <v/>
-      </c>
-      <c r="Z126">
-        <f>MAX([@[BSR 90 Avg]],C126)</f>
         <v/>
       </c>
       <c r="AA126">
@@ -5389,23 +5057,19 @@
         <v/>
       </c>
       <c r="L127">
-        <f>IF(Y127=0,0,Z127/Y127)</f>
+        <f>IF(H127=0,0,AB127/(H127/30))</f>
         <v/>
       </c>
       <c r="O127">
-        <f>MAX(0,(30*Y127)-P127)</f>
-        <v/>
-      </c>
-      <c r="X127">
-        <f>MAX([@[BSR 30 Avg]],C127)</f>
+        <f>MAX(0,(30*H127/30)-AB127)</f>
+        <v/>
+      </c>
+      <c r="P127">
+        <f>N127*O127</f>
         <v/>
       </c>
       <c r="Y127">
         <f>IF(C127=0,0,(C127-X127)/C127)</f>
-        <v/>
-      </c>
-      <c r="Z127">
-        <f>MAX([@[BSR 90 Avg]],C127)</f>
         <v/>
       </c>
       <c r="AA127">
@@ -5427,23 +5091,19 @@
         <v/>
       </c>
       <c r="L128">
-        <f>IF(Y128=0,0,Z128/Y128)</f>
+        <f>IF(H128=0,0,AB128/(H128/30))</f>
         <v/>
       </c>
       <c r="O128">
-        <f>MAX(0,(30*Y128)-P128)</f>
-        <v/>
-      </c>
-      <c r="X128">
-        <f>MAX([@[BSR 30 Avg]],C128)</f>
+        <f>MAX(0,(30*H128/30)-AB128)</f>
+        <v/>
+      </c>
+      <c r="P128">
+        <f>N128*O128</f>
         <v/>
       </c>
       <c r="Y128">
         <f>IF(C128=0,0,(C128-X128)/C128)</f>
-        <v/>
-      </c>
-      <c r="Z128">
-        <f>MAX([@[BSR 90 Avg]],C128)</f>
         <v/>
       </c>
       <c r="AA128">
@@ -5465,23 +5125,19 @@
         <v/>
       </c>
       <c r="L129">
-        <f>IF(Y129=0,0,Z129/Y129)</f>
+        <f>IF(H129=0,0,AB129/(H129/30))</f>
         <v/>
       </c>
       <c r="O129">
-        <f>MAX(0,(30*Y129)-P129)</f>
-        <v/>
-      </c>
-      <c r="X129">
-        <f>MAX([@[BSR 30 Avg]],C129)</f>
+        <f>MAX(0,(30*H129/30)-AB129)</f>
+        <v/>
+      </c>
+      <c r="P129">
+        <f>N129*O129</f>
         <v/>
       </c>
       <c r="Y129">
         <f>IF(C129=0,0,(C129-X129)/C129)</f>
-        <v/>
-      </c>
-      <c r="Z129">
-        <f>MAX([@[BSR 90 Avg]],C129)</f>
         <v/>
       </c>
       <c r="AA129">
@@ -5503,23 +5159,19 @@
         <v/>
       </c>
       <c r="L130">
-        <f>IF(Y130=0,0,Z130/Y130)</f>
+        <f>IF(H130=0,0,AB130/(H130/30))</f>
         <v/>
       </c>
       <c r="O130">
-        <f>MAX(0,(30*Y130)-P130)</f>
-        <v/>
-      </c>
-      <c r="X130">
-        <f>MAX([@[BSR 30 Avg]],C130)</f>
+        <f>MAX(0,(30*H130/30)-AB130)</f>
+        <v/>
+      </c>
+      <c r="P130">
+        <f>N130*O130</f>
         <v/>
       </c>
       <c r="Y130">
         <f>IF(C130=0,0,(C130-X130)/C130)</f>
-        <v/>
-      </c>
-      <c r="Z130">
-        <f>MAX([@[BSR 90 Avg]],C130)</f>
         <v/>
       </c>
       <c r="AA130">
@@ -5541,23 +5193,19 @@
         <v/>
       </c>
       <c r="L131">
-        <f>IF(Y131=0,0,Z131/Y131)</f>
+        <f>IF(H131=0,0,AB131/(H131/30))</f>
         <v/>
       </c>
       <c r="O131">
-        <f>MAX(0,(30*Y131)-P131)</f>
-        <v/>
-      </c>
-      <c r="X131">
-        <f>MAX([@[BSR 30 Avg]],C131)</f>
+        <f>MAX(0,(30*H131/30)-AB131)</f>
+        <v/>
+      </c>
+      <c r="P131">
+        <f>N131*O131</f>
         <v/>
       </c>
       <c r="Y131">
         <f>IF(C131=0,0,(C131-X131)/C131)</f>
-        <v/>
-      </c>
-      <c r="Z131">
-        <f>MAX([@[BSR 90 Avg]],C131)</f>
         <v/>
       </c>
       <c r="AA131">
@@ -5579,23 +5227,19 @@
         <v/>
       </c>
       <c r="L132">
-        <f>IF(Y132=0,0,Z132/Y132)</f>
+        <f>IF(H132=0,0,AB132/(H132/30))</f>
         <v/>
       </c>
       <c r="O132">
-        <f>MAX(0,(30*Y132)-P132)</f>
-        <v/>
-      </c>
-      <c r="X132">
-        <f>MAX([@[BSR 30 Avg]],C132)</f>
+        <f>MAX(0,(30*H132/30)-AB132)</f>
+        <v/>
+      </c>
+      <c r="P132">
+        <f>N132*O132</f>
         <v/>
       </c>
       <c r="Y132">
         <f>IF(C132=0,0,(C132-X132)/C132)</f>
-        <v/>
-      </c>
-      <c r="Z132">
-        <f>MAX([@[BSR 90 Avg]],C132)</f>
         <v/>
       </c>
       <c r="AA132">
@@ -5617,23 +5261,19 @@
         <v/>
       </c>
       <c r="L133">
-        <f>IF(Y133=0,0,Z133/Y133)</f>
+        <f>IF(H133=0,0,AB133/(H133/30))</f>
         <v/>
       </c>
       <c r="O133">
-        <f>MAX(0,(30*Y133)-P133)</f>
-        <v/>
-      </c>
-      <c r="X133">
-        <f>MAX([@[BSR 30 Avg]],C133)</f>
+        <f>MAX(0,(30*H133/30)-AB133)</f>
+        <v/>
+      </c>
+      <c r="P133">
+        <f>N133*O133</f>
         <v/>
       </c>
       <c r="Y133">
         <f>IF(C133=0,0,(C133-X133)/C133)</f>
-        <v/>
-      </c>
-      <c r="Z133">
-        <f>MAX([@[BSR 90 Avg]],C133)</f>
         <v/>
       </c>
       <c r="AA133">
@@ -5655,23 +5295,19 @@
         <v/>
       </c>
       <c r="L134">
-        <f>IF(Y134=0,0,Z134/Y134)</f>
+        <f>IF(H134=0,0,AB134/(H134/30))</f>
         <v/>
       </c>
       <c r="O134">
-        <f>MAX(0,(30*Y134)-P134)</f>
-        <v/>
-      </c>
-      <c r="X134">
-        <f>MAX([@[BSR 30 Avg]],C134)</f>
+        <f>MAX(0,(30*H134/30)-AB134)</f>
+        <v/>
+      </c>
+      <c r="P134">
+        <f>N134*O134</f>
         <v/>
       </c>
       <c r="Y134">
         <f>IF(C134=0,0,(C134-X134)/C134)</f>
-        <v/>
-      </c>
-      <c r="Z134">
-        <f>MAX([@[BSR 90 Avg]],C134)</f>
         <v/>
       </c>
       <c r="AA134">
@@ -5693,23 +5329,19 @@
         <v/>
       </c>
       <c r="L135">
-        <f>IF(Y135=0,0,Z135/Y135)</f>
+        <f>IF(H135=0,0,AB135/(H135/30))</f>
         <v/>
       </c>
       <c r="O135">
-        <f>MAX(0,(30*Y135)-P135)</f>
-        <v/>
-      </c>
-      <c r="X135">
-        <f>MAX([@[BSR 30 Avg]],C135)</f>
+        <f>MAX(0,(30*H135/30)-AB135)</f>
+        <v/>
+      </c>
+      <c r="P135">
+        <f>N135*O135</f>
         <v/>
       </c>
       <c r="Y135">
         <f>IF(C135=0,0,(C135-X135)/C135)</f>
-        <v/>
-      </c>
-      <c r="Z135">
-        <f>MAX([@[BSR 90 Avg]],C135)</f>
         <v/>
       </c>
       <c r="AA135">
@@ -5731,23 +5363,19 @@
         <v/>
       </c>
       <c r="L136">
-        <f>IF(Y136=0,0,Z136/Y136)</f>
+        <f>IF(H136=0,0,AB136/(H136/30))</f>
         <v/>
       </c>
       <c r="O136">
-        <f>MAX(0,(30*Y136)-P136)</f>
-        <v/>
-      </c>
-      <c r="X136">
-        <f>MAX([@[BSR 30 Avg]],C136)</f>
+        <f>MAX(0,(30*H136/30)-AB136)</f>
+        <v/>
+      </c>
+      <c r="P136">
+        <f>N136*O136</f>
         <v/>
       </c>
       <c r="Y136">
         <f>IF(C136=0,0,(C136-X136)/C136)</f>
-        <v/>
-      </c>
-      <c r="Z136">
-        <f>MAX([@[BSR 90 Avg]],C136)</f>
         <v/>
       </c>
       <c r="AA136">
@@ -5769,23 +5397,19 @@
         <v/>
       </c>
       <c r="L137">
-        <f>IF(Y137=0,0,Z137/Y137)</f>
+        <f>IF(H137=0,0,AB137/(H137/30))</f>
         <v/>
       </c>
       <c r="O137">
-        <f>MAX(0,(30*Y137)-P137)</f>
-        <v/>
-      </c>
-      <c r="X137">
-        <f>MAX([@[BSR 30 Avg]],C137)</f>
+        <f>MAX(0,(30*H137/30)-AB137)</f>
+        <v/>
+      </c>
+      <c r="P137">
+        <f>N137*O137</f>
         <v/>
       </c>
       <c r="Y137">
         <f>IF(C137=0,0,(C137-X137)/C137)</f>
-        <v/>
-      </c>
-      <c r="Z137">
-        <f>MAX([@[BSR 90 Avg]],C137)</f>
         <v/>
       </c>
       <c r="AA137">
@@ -5807,23 +5431,19 @@
         <v/>
       </c>
       <c r="L138">
-        <f>IF(Y138=0,0,Z138/Y138)</f>
+        <f>IF(H138=0,0,AB138/(H138/30))</f>
         <v/>
       </c>
       <c r="O138">
-        <f>MAX(0,(30*Y138)-P138)</f>
-        <v/>
-      </c>
-      <c r="X138">
-        <f>MAX([@[BSR 30 Avg]],C138)</f>
+        <f>MAX(0,(30*H138/30)-AB138)</f>
+        <v/>
+      </c>
+      <c r="P138">
+        <f>N138*O138</f>
         <v/>
       </c>
       <c r="Y138">
         <f>IF(C138=0,0,(C138-X138)/C138)</f>
-        <v/>
-      </c>
-      <c r="Z138">
-        <f>MAX([@[BSR 90 Avg]],C138)</f>
         <v/>
       </c>
       <c r="AA138">
@@ -5845,23 +5465,19 @@
         <v/>
       </c>
       <c r="L139">
-        <f>IF(Y139=0,0,Z139/Y139)</f>
+        <f>IF(H139=0,0,AB139/(H139/30))</f>
         <v/>
       </c>
       <c r="O139">
-        <f>MAX(0,(30*Y139)-P139)</f>
-        <v/>
-      </c>
-      <c r="X139">
-        <f>MAX([@[BSR 30 Avg]],C139)</f>
+        <f>MAX(0,(30*H139/30)-AB139)</f>
+        <v/>
+      </c>
+      <c r="P139">
+        <f>N139*O139</f>
         <v/>
       </c>
       <c r="Y139">
         <f>IF(C139=0,0,(C139-X139)/C139)</f>
-        <v/>
-      </c>
-      <c r="Z139">
-        <f>MAX([@[BSR 90 Avg]],C139)</f>
         <v/>
       </c>
       <c r="AA139">
@@ -5883,23 +5499,19 @@
         <v/>
       </c>
       <c r="L140">
-        <f>IF(Y140=0,0,Z140/Y140)</f>
+        <f>IF(H140=0,0,AB140/(H140/30))</f>
         <v/>
       </c>
       <c r="O140">
-        <f>MAX(0,(30*Y140)-P140)</f>
-        <v/>
-      </c>
-      <c r="X140">
-        <f>MAX([@[BSR 30 Avg]],C140)</f>
+        <f>MAX(0,(30*H140/30)-AB140)</f>
+        <v/>
+      </c>
+      <c r="P140">
+        <f>N140*O140</f>
         <v/>
       </c>
       <c r="Y140">
         <f>IF(C140=0,0,(C140-X140)/C140)</f>
-        <v/>
-      </c>
-      <c r="Z140">
-        <f>MAX([@[BSR 90 Avg]],C140)</f>
         <v/>
       </c>
       <c r="AA140">
@@ -5921,23 +5533,19 @@
         <v/>
       </c>
       <c r="L141">
-        <f>IF(Y141=0,0,Z141/Y141)</f>
+        <f>IF(H141=0,0,AB141/(H141/30))</f>
         <v/>
       </c>
       <c r="O141">
-        <f>MAX(0,(30*Y141)-P141)</f>
-        <v/>
-      </c>
-      <c r="X141">
-        <f>MAX([@[BSR 30 Avg]],C141)</f>
+        <f>MAX(0,(30*H141/30)-AB141)</f>
+        <v/>
+      </c>
+      <c r="P141">
+        <f>N141*O141</f>
         <v/>
       </c>
       <c r="Y141">
         <f>IF(C141=0,0,(C141-X141)/C141)</f>
-        <v/>
-      </c>
-      <c r="Z141">
-        <f>MAX([@[BSR 90 Avg]],C141)</f>
         <v/>
       </c>
       <c r="AA141">
@@ -5959,23 +5567,19 @@
         <v/>
       </c>
       <c r="L142">
-        <f>IF(Y142=0,0,Z142/Y142)</f>
+        <f>IF(H142=0,0,AB142/(H142/30))</f>
         <v/>
       </c>
       <c r="O142">
-        <f>MAX(0,(30*Y142)-P142)</f>
-        <v/>
-      </c>
-      <c r="X142">
-        <f>MAX([@[BSR 30 Avg]],C142)</f>
+        <f>MAX(0,(30*H142/30)-AB142)</f>
+        <v/>
+      </c>
+      <c r="P142">
+        <f>N142*O142</f>
         <v/>
       </c>
       <c r="Y142">
         <f>IF(C142=0,0,(C142-X142)/C142)</f>
-        <v/>
-      </c>
-      <c r="Z142">
-        <f>MAX([@[BSR 90 Avg]],C142)</f>
         <v/>
       </c>
       <c r="AA142">
@@ -5997,23 +5601,19 @@
         <v/>
       </c>
       <c r="L143">
-        <f>IF(Y143=0,0,Z143/Y143)</f>
+        <f>IF(H143=0,0,AB143/(H143/30))</f>
         <v/>
       </c>
       <c r="O143">
-        <f>MAX(0,(30*Y143)-P143)</f>
-        <v/>
-      </c>
-      <c r="X143">
-        <f>MAX([@[BSR 30 Avg]],C143)</f>
+        <f>MAX(0,(30*H143/30)-AB143)</f>
+        <v/>
+      </c>
+      <c r="P143">
+        <f>N143*O143</f>
         <v/>
       </c>
       <c r="Y143">
         <f>IF(C143=0,0,(C143-X143)/C143)</f>
-        <v/>
-      </c>
-      <c r="Z143">
-        <f>MAX([@[BSR 90 Avg]],C143)</f>
         <v/>
       </c>
       <c r="AA143">
@@ -6035,23 +5635,19 @@
         <v/>
       </c>
       <c r="L144">
-        <f>IF(Y144=0,0,Z144/Y144)</f>
+        <f>IF(H144=0,0,AB144/(H144/30))</f>
         <v/>
       </c>
       <c r="O144">
-        <f>MAX(0,(30*Y144)-P144)</f>
-        <v/>
-      </c>
-      <c r="X144">
-        <f>MAX([@[BSR 30 Avg]],C144)</f>
+        <f>MAX(0,(30*H144/30)-AB144)</f>
+        <v/>
+      </c>
+      <c r="P144">
+        <f>N144*O144</f>
         <v/>
       </c>
       <c r="Y144">
         <f>IF(C144=0,0,(C144-X144)/C144)</f>
-        <v/>
-      </c>
-      <c r="Z144">
-        <f>MAX([@[BSR 90 Avg]],C144)</f>
         <v/>
       </c>
       <c r="AA144">
@@ -6073,23 +5669,19 @@
         <v/>
       </c>
       <c r="L145">
-        <f>IF(Y145=0,0,Z145/Y145)</f>
+        <f>IF(H145=0,0,AB145/(H145/30))</f>
         <v/>
       </c>
       <c r="O145">
-        <f>MAX(0,(30*Y145)-P145)</f>
-        <v/>
-      </c>
-      <c r="X145">
-        <f>MAX([@[BSR 30 Avg]],C145)</f>
+        <f>MAX(0,(30*H145/30)-AB145)</f>
+        <v/>
+      </c>
+      <c r="P145">
+        <f>N145*O145</f>
         <v/>
       </c>
       <c r="Y145">
         <f>IF(C145=0,0,(C145-X145)/C145)</f>
-        <v/>
-      </c>
-      <c r="Z145">
-        <f>MAX([@[BSR 90 Avg]],C145)</f>
         <v/>
       </c>
       <c r="AA145">
@@ -6111,23 +5703,19 @@
         <v/>
       </c>
       <c r="L146">
-        <f>IF(Y146=0,0,Z146/Y146)</f>
+        <f>IF(H146=0,0,AB146/(H146/30))</f>
         <v/>
       </c>
       <c r="O146">
-        <f>MAX(0,(30*Y146)-P146)</f>
-        <v/>
-      </c>
-      <c r="X146">
-        <f>MAX([@[BSR 30 Avg]],C146)</f>
+        <f>MAX(0,(30*H146/30)-AB146)</f>
+        <v/>
+      </c>
+      <c r="P146">
+        <f>N146*O146</f>
         <v/>
       </c>
       <c r="Y146">
         <f>IF(C146=0,0,(C146-X146)/C146)</f>
-        <v/>
-      </c>
-      <c r="Z146">
-        <f>MAX([@[BSR 90 Avg]],C146)</f>
         <v/>
       </c>
       <c r="AA146">
@@ -6149,23 +5737,19 @@
         <v/>
       </c>
       <c r="L147">
-        <f>IF(Y147=0,0,Z147/Y147)</f>
+        <f>IF(H147=0,0,AB147/(H147/30))</f>
         <v/>
       </c>
       <c r="O147">
-        <f>MAX(0,(30*Y147)-P147)</f>
-        <v/>
-      </c>
-      <c r="X147">
-        <f>MAX([@[BSR 30 Avg]],C147)</f>
+        <f>MAX(0,(30*H147/30)-AB147)</f>
+        <v/>
+      </c>
+      <c r="P147">
+        <f>N147*O147</f>
         <v/>
       </c>
       <c r="Y147">
         <f>IF(C147=0,0,(C147-X147)/C147)</f>
-        <v/>
-      </c>
-      <c r="Z147">
-        <f>MAX([@[BSR 90 Avg]],C147)</f>
         <v/>
       </c>
       <c r="AA147">
@@ -6187,23 +5771,19 @@
         <v/>
       </c>
       <c r="L148">
-        <f>IF(Y148=0,0,Z148/Y148)</f>
+        <f>IF(H148=0,0,AB148/(H148/30))</f>
         <v/>
       </c>
       <c r="O148">
-        <f>MAX(0,(30*Y148)-P148)</f>
-        <v/>
-      </c>
-      <c r="X148">
-        <f>MAX([@[BSR 30 Avg]],C148)</f>
+        <f>MAX(0,(30*H148/30)-AB148)</f>
+        <v/>
+      </c>
+      <c r="P148">
+        <f>N148*O148</f>
         <v/>
       </c>
       <c r="Y148">
         <f>IF(C148=0,0,(C148-X148)/C148)</f>
-        <v/>
-      </c>
-      <c r="Z148">
-        <f>MAX([@[BSR 90 Avg]],C148)</f>
         <v/>
       </c>
       <c r="AA148">
@@ -6225,23 +5805,19 @@
         <v/>
       </c>
       <c r="L149">
-        <f>IF(Y149=0,0,Z149/Y149)</f>
+        <f>IF(H149=0,0,AB149/(H149/30))</f>
         <v/>
       </c>
       <c r="O149">
-        <f>MAX(0,(30*Y149)-P149)</f>
-        <v/>
-      </c>
-      <c r="X149">
-        <f>MAX([@[BSR 30 Avg]],C149)</f>
+        <f>MAX(0,(30*H149/30)-AB149)</f>
+        <v/>
+      </c>
+      <c r="P149">
+        <f>N149*O149</f>
         <v/>
       </c>
       <c r="Y149">
         <f>IF(C149=0,0,(C149-X149)/C149)</f>
-        <v/>
-      </c>
-      <c r="Z149">
-        <f>MAX([@[BSR 90 Avg]],C149)</f>
         <v/>
       </c>
       <c r="AA149">
@@ -6263,23 +5839,19 @@
         <v/>
       </c>
       <c r="L150">
-        <f>IF(Y150=0,0,Z150/Y150)</f>
+        <f>IF(H150=0,0,AB150/(H150/30))</f>
         <v/>
       </c>
       <c r="O150">
-        <f>MAX(0,(30*Y150)-P150)</f>
-        <v/>
-      </c>
-      <c r="X150">
-        <f>MAX([@[BSR 30 Avg]],C150)</f>
+        <f>MAX(0,(30*H150/30)-AB150)</f>
+        <v/>
+      </c>
+      <c r="P150">
+        <f>N150*O150</f>
         <v/>
       </c>
       <c r="Y150">
         <f>IF(C150=0,0,(C150-X150)/C150)</f>
-        <v/>
-      </c>
-      <c r="Z150">
-        <f>MAX([@[BSR 90 Avg]],C150)</f>
         <v/>
       </c>
       <c r="AA150">
@@ -6301,23 +5873,19 @@
         <v/>
       </c>
       <c r="L151">
-        <f>IF(Y151=0,0,Z151/Y151)</f>
+        <f>IF(H151=0,0,AB151/(H151/30))</f>
         <v/>
       </c>
       <c r="O151">
-        <f>MAX(0,(30*Y151)-P151)</f>
-        <v/>
-      </c>
-      <c r="X151">
-        <f>MAX([@[BSR 30 Avg]],C151)</f>
+        <f>MAX(0,(30*H151/30)-AB151)</f>
+        <v/>
+      </c>
+      <c r="P151">
+        <f>N151*O151</f>
         <v/>
       </c>
       <c r="Y151">
         <f>IF(C151=0,0,(C151-X151)/C151)</f>
-        <v/>
-      </c>
-      <c r="Z151">
-        <f>MAX([@[BSR 90 Avg]],C151)</f>
         <v/>
       </c>
       <c r="AA151">
@@ -6339,23 +5907,19 @@
         <v/>
       </c>
       <c r="L152">
-        <f>IF(Y152=0,0,Z152/Y152)</f>
+        <f>IF(H152=0,0,AB152/(H152/30))</f>
         <v/>
       </c>
       <c r="O152">
-        <f>MAX(0,(30*Y152)-P152)</f>
-        <v/>
-      </c>
-      <c r="X152">
-        <f>MAX([@[BSR 30 Avg]],C152)</f>
+        <f>MAX(0,(30*H152/30)-AB152)</f>
+        <v/>
+      </c>
+      <c r="P152">
+        <f>N152*O152</f>
         <v/>
       </c>
       <c r="Y152">
         <f>IF(C152=0,0,(C152-X152)/C152)</f>
-        <v/>
-      </c>
-      <c r="Z152">
-        <f>MAX([@[BSR 90 Avg]],C152)</f>
         <v/>
       </c>
       <c r="AA152">
@@ -6377,23 +5941,19 @@
         <v/>
       </c>
       <c r="L153">
-        <f>IF(Y153=0,0,Z153/Y153)</f>
+        <f>IF(H153=0,0,AB153/(H153/30))</f>
         <v/>
       </c>
       <c r="O153">
-        <f>MAX(0,(30*Y153)-P153)</f>
-        <v/>
-      </c>
-      <c r="X153">
-        <f>MAX([@[BSR 30 Avg]],C153)</f>
+        <f>MAX(0,(30*H153/30)-AB153)</f>
+        <v/>
+      </c>
+      <c r="P153">
+        <f>N153*O153</f>
         <v/>
       </c>
       <c r="Y153">
         <f>IF(C153=0,0,(C153-X153)/C153)</f>
-        <v/>
-      </c>
-      <c r="Z153">
-        <f>MAX([@[BSR 90 Avg]],C153)</f>
         <v/>
       </c>
       <c r="AA153">
@@ -6415,23 +5975,19 @@
         <v/>
       </c>
       <c r="L154">
-        <f>IF(Y154=0,0,Z154/Y154)</f>
+        <f>IF(H154=0,0,AB154/(H154/30))</f>
         <v/>
       </c>
       <c r="O154">
-        <f>MAX(0,(30*Y154)-P154)</f>
-        <v/>
-      </c>
-      <c r="X154">
-        <f>MAX([@[BSR 30 Avg]],C154)</f>
+        <f>MAX(0,(30*H154/30)-AB154)</f>
+        <v/>
+      </c>
+      <c r="P154">
+        <f>N154*O154</f>
         <v/>
       </c>
       <c r="Y154">
         <f>IF(C154=0,0,(C154-X154)/C154)</f>
-        <v/>
-      </c>
-      <c r="Z154">
-        <f>MAX([@[BSR 90 Avg]],C154)</f>
         <v/>
       </c>
       <c r="AA154">
@@ -6453,23 +6009,19 @@
         <v/>
       </c>
       <c r="L155">
-        <f>IF(Y155=0,0,Z155/Y155)</f>
+        <f>IF(H155=0,0,AB155/(H155/30))</f>
         <v/>
       </c>
       <c r="O155">
-        <f>MAX(0,(30*Y155)-P155)</f>
-        <v/>
-      </c>
-      <c r="X155">
-        <f>MAX([@[BSR 30 Avg]],C155)</f>
+        <f>MAX(0,(30*H155/30)-AB155)</f>
+        <v/>
+      </c>
+      <c r="P155">
+        <f>N155*O155</f>
         <v/>
       </c>
       <c r="Y155">
         <f>IF(C155=0,0,(C155-X155)/C155)</f>
-        <v/>
-      </c>
-      <c r="Z155">
-        <f>MAX([@[BSR 90 Avg]],C155)</f>
         <v/>
       </c>
       <c r="AA155">
@@ -6491,23 +6043,19 @@
         <v/>
       </c>
       <c r="L156">
-        <f>IF(Y156=0,0,Z156/Y156)</f>
+        <f>IF(H156=0,0,AB156/(H156/30))</f>
         <v/>
       </c>
       <c r="O156">
-        <f>MAX(0,(30*Y156)-P156)</f>
-        <v/>
-      </c>
-      <c r="X156">
-        <f>MAX([@[BSR 30 Avg]],C156)</f>
+        <f>MAX(0,(30*H156/30)-AB156)</f>
+        <v/>
+      </c>
+      <c r="P156">
+        <f>N156*O156</f>
         <v/>
       </c>
       <c r="Y156">
         <f>IF(C156=0,0,(C156-X156)/C156)</f>
-        <v/>
-      </c>
-      <c r="Z156">
-        <f>MAX([@[BSR 90 Avg]],C156)</f>
         <v/>
       </c>
       <c r="AA156">
@@ -6529,23 +6077,19 @@
         <v/>
       </c>
       <c r="L157">
-        <f>IF(Y157=0,0,Z157/Y157)</f>
+        <f>IF(H157=0,0,AB157/(H157/30))</f>
         <v/>
       </c>
       <c r="O157">
-        <f>MAX(0,(30*Y157)-P157)</f>
-        <v/>
-      </c>
-      <c r="X157">
-        <f>MAX([@[BSR 30 Avg]],C157)</f>
+        <f>MAX(0,(30*H157/30)-AB157)</f>
+        <v/>
+      </c>
+      <c r="P157">
+        <f>N157*O157</f>
         <v/>
       </c>
       <c r="Y157">
         <f>IF(C157=0,0,(C157-X157)/C157)</f>
-        <v/>
-      </c>
-      <c r="Z157">
-        <f>MAX([@[BSR 90 Avg]],C157)</f>
         <v/>
       </c>
       <c r="AA157">
@@ -6567,23 +6111,19 @@
         <v/>
       </c>
       <c r="L158">
-        <f>IF(Y158=0,0,Z158/Y158)</f>
+        <f>IF(H158=0,0,AB158/(H158/30))</f>
         <v/>
       </c>
       <c r="O158">
-        <f>MAX(0,(30*Y158)-P158)</f>
-        <v/>
-      </c>
-      <c r="X158">
-        <f>MAX([@[BSR 30 Avg]],C158)</f>
+        <f>MAX(0,(30*H158/30)-AB158)</f>
+        <v/>
+      </c>
+      <c r="P158">
+        <f>N158*O158</f>
         <v/>
       </c>
       <c r="Y158">
         <f>IF(C158=0,0,(C158-X158)/C158)</f>
-        <v/>
-      </c>
-      <c r="Z158">
-        <f>MAX([@[BSR 90 Avg]],C158)</f>
         <v/>
       </c>
       <c r="AA158">
@@ -6605,23 +6145,19 @@
         <v/>
       </c>
       <c r="L159">
-        <f>IF(Y159=0,0,Z159/Y159)</f>
+        <f>IF(H159=0,0,AB159/(H159/30))</f>
         <v/>
       </c>
       <c r="O159">
-        <f>MAX(0,(30*Y159)-P159)</f>
-        <v/>
-      </c>
-      <c r="X159">
-        <f>MAX([@[BSR 30 Avg]],C159)</f>
+        <f>MAX(0,(30*H159/30)-AB159)</f>
+        <v/>
+      </c>
+      <c r="P159">
+        <f>N159*O159</f>
         <v/>
       </c>
       <c r="Y159">
         <f>IF(C159=0,0,(C159-X159)/C159)</f>
-        <v/>
-      </c>
-      <c r="Z159">
-        <f>MAX([@[BSR 90 Avg]],C159)</f>
         <v/>
       </c>
       <c r="AA159">
@@ -6643,23 +6179,19 @@
         <v/>
       </c>
       <c r="L160">
-        <f>IF(Y160=0,0,Z160/Y160)</f>
+        <f>IF(H160=0,0,AB160/(H160/30))</f>
         <v/>
       </c>
       <c r="O160">
-        <f>MAX(0,(30*Y160)-P160)</f>
-        <v/>
-      </c>
-      <c r="X160">
-        <f>MAX([@[BSR 30 Avg]],C160)</f>
+        <f>MAX(0,(30*H160/30)-AB160)</f>
+        <v/>
+      </c>
+      <c r="P160">
+        <f>N160*O160</f>
         <v/>
       </c>
       <c r="Y160">
         <f>IF(C160=0,0,(C160-X160)/C160)</f>
-        <v/>
-      </c>
-      <c r="Z160">
-        <f>MAX([@[BSR 90 Avg]],C160)</f>
         <v/>
       </c>
       <c r="AA160">
@@ -6681,23 +6213,19 @@
         <v/>
       </c>
       <c r="L161">
-        <f>IF(Y161=0,0,Z161/Y161)</f>
+        <f>IF(H161=0,0,AB161/(H161/30))</f>
         <v/>
       </c>
       <c r="O161">
-        <f>MAX(0,(30*Y161)-P161)</f>
-        <v/>
-      </c>
-      <c r="X161">
-        <f>MAX([@[BSR 30 Avg]],C161)</f>
+        <f>MAX(0,(30*H161/30)-AB161)</f>
+        <v/>
+      </c>
+      <c r="P161">
+        <f>N161*O161</f>
         <v/>
       </c>
       <c r="Y161">
         <f>IF(C161=0,0,(C161-X161)/C161)</f>
-        <v/>
-      </c>
-      <c r="Z161">
-        <f>MAX([@[BSR 90 Avg]],C161)</f>
         <v/>
       </c>
       <c r="AA161">
@@ -6719,23 +6247,19 @@
         <v/>
       </c>
       <c r="L162">
-        <f>IF(Y162=0,0,Z162/Y162)</f>
+        <f>IF(H162=0,0,AB162/(H162/30))</f>
         <v/>
       </c>
       <c r="O162">
-        <f>MAX(0,(30*Y162)-P162)</f>
-        <v/>
-      </c>
-      <c r="X162">
-        <f>MAX([@[BSR 30 Avg]],C162)</f>
+        <f>MAX(0,(30*H162/30)-AB162)</f>
+        <v/>
+      </c>
+      <c r="P162">
+        <f>N162*O162</f>
         <v/>
       </c>
       <c r="Y162">
         <f>IF(C162=0,0,(C162-X162)/C162)</f>
-        <v/>
-      </c>
-      <c r="Z162">
-        <f>MAX([@[BSR 90 Avg]],C162)</f>
         <v/>
       </c>
       <c r="AA162">
@@ -6757,23 +6281,19 @@
         <v/>
       </c>
       <c r="L163">
-        <f>IF(Y163=0,0,Z163/Y163)</f>
+        <f>IF(H163=0,0,AB163/(H163/30))</f>
         <v/>
       </c>
       <c r="O163">
-        <f>MAX(0,(30*Y163)-P163)</f>
-        <v/>
-      </c>
-      <c r="X163">
-        <f>MAX([@[BSR 30 Avg]],C163)</f>
+        <f>MAX(0,(30*H163/30)-AB163)</f>
+        <v/>
+      </c>
+      <c r="P163">
+        <f>N163*O163</f>
         <v/>
       </c>
       <c r="Y163">
         <f>IF(C163=0,0,(C163-X163)/C163)</f>
-        <v/>
-      </c>
-      <c r="Z163">
-        <f>MAX([@[BSR 90 Avg]],C163)</f>
         <v/>
       </c>
       <c r="AA163">
@@ -6795,23 +6315,19 @@
         <v/>
       </c>
       <c r="L164">
-        <f>IF(Y164=0,0,Z164/Y164)</f>
+        <f>IF(H164=0,0,AB164/(H164/30))</f>
         <v/>
       </c>
       <c r="O164">
-        <f>MAX(0,(30*Y164)-P164)</f>
-        <v/>
-      </c>
-      <c r="X164">
-        <f>MAX([@[BSR 30 Avg]],C164)</f>
+        <f>MAX(0,(30*H164/30)-AB164)</f>
+        <v/>
+      </c>
+      <c r="P164">
+        <f>N164*O164</f>
         <v/>
       </c>
       <c r="Y164">
         <f>IF(C164=0,0,(C164-X164)/C164)</f>
-        <v/>
-      </c>
-      <c r="Z164">
-        <f>MAX([@[BSR 90 Avg]],C164)</f>
         <v/>
       </c>
       <c r="AA164">
@@ -6833,23 +6349,19 @@
         <v/>
       </c>
       <c r="L165">
-        <f>IF(Y165=0,0,Z165/Y165)</f>
+        <f>IF(H165=0,0,AB165/(H165/30))</f>
         <v/>
       </c>
       <c r="O165">
-        <f>MAX(0,(30*Y165)-P165)</f>
-        <v/>
-      </c>
-      <c r="X165">
-        <f>MAX([@[BSR 30 Avg]],C165)</f>
+        <f>MAX(0,(30*H165/30)-AB165)</f>
+        <v/>
+      </c>
+      <c r="P165">
+        <f>N165*O165</f>
         <v/>
       </c>
       <c r="Y165">
         <f>IF(C165=0,0,(C165-X165)/C165)</f>
-        <v/>
-      </c>
-      <c r="Z165">
-        <f>MAX([@[BSR 90 Avg]],C165)</f>
         <v/>
       </c>
       <c r="AA165">
@@ -6871,23 +6383,19 @@
         <v/>
       </c>
       <c r="L166">
-        <f>IF(Y166=0,0,Z166/Y166)</f>
+        <f>IF(H166=0,0,AB166/(H166/30))</f>
         <v/>
       </c>
       <c r="O166">
-        <f>MAX(0,(30*Y166)-P166)</f>
-        <v/>
-      </c>
-      <c r="X166">
-        <f>MAX([@[BSR 30 Avg]],C166)</f>
+        <f>MAX(0,(30*H166/30)-AB166)</f>
+        <v/>
+      </c>
+      <c r="P166">
+        <f>N166*O166</f>
         <v/>
       </c>
       <c r="Y166">
         <f>IF(C166=0,0,(C166-X166)/C166)</f>
-        <v/>
-      </c>
-      <c r="Z166">
-        <f>MAX([@[BSR 90 Avg]],C166)</f>
         <v/>
       </c>
       <c r="AA166">
@@ -6909,23 +6417,19 @@
         <v/>
       </c>
       <c r="L167">
-        <f>IF(Y167=0,0,Z167/Y167)</f>
+        <f>IF(H167=0,0,AB167/(H167/30))</f>
         <v/>
       </c>
       <c r="O167">
-        <f>MAX(0,(30*Y167)-P167)</f>
-        <v/>
-      </c>
-      <c r="X167">
-        <f>MAX([@[BSR 30 Avg]],C167)</f>
+        <f>MAX(0,(30*H167/30)-AB167)</f>
+        <v/>
+      </c>
+      <c r="P167">
+        <f>N167*O167</f>
         <v/>
       </c>
       <c r="Y167">
         <f>IF(C167=0,0,(C167-X167)/C167)</f>
-        <v/>
-      </c>
-      <c r="Z167">
-        <f>MAX([@[BSR 90 Avg]],C167)</f>
         <v/>
       </c>
       <c r="AA167">
@@ -6947,23 +6451,19 @@
         <v/>
       </c>
       <c r="L168">
-        <f>IF(Y168=0,0,Z168/Y168)</f>
+        <f>IF(H168=0,0,AB168/(H168/30))</f>
         <v/>
       </c>
       <c r="O168">
-        <f>MAX(0,(30*Y168)-P168)</f>
-        <v/>
-      </c>
-      <c r="X168">
-        <f>MAX([@[BSR 30 Avg]],C168)</f>
+        <f>MAX(0,(30*H168/30)-AB168)</f>
+        <v/>
+      </c>
+      <c r="P168">
+        <f>N168*O168</f>
         <v/>
       </c>
       <c r="Y168">
         <f>IF(C168=0,0,(C168-X168)/C168)</f>
-        <v/>
-      </c>
-      <c r="Z168">
-        <f>MAX([@[BSR 90 Avg]],C168)</f>
         <v/>
       </c>
       <c r="AA168">
@@ -6985,23 +6485,19 @@
         <v/>
       </c>
       <c r="L169">
-        <f>IF(Y169=0,0,Z169/Y169)</f>
+        <f>IF(H169=0,0,AB169/(H169/30))</f>
         <v/>
       </c>
       <c r="O169">
-        <f>MAX(0,(30*Y169)-P169)</f>
-        <v/>
-      </c>
-      <c r="X169">
-        <f>MAX([@[BSR 30 Avg]],C169)</f>
+        <f>MAX(0,(30*H169/30)-AB169)</f>
+        <v/>
+      </c>
+      <c r="P169">
+        <f>N169*O169</f>
         <v/>
       </c>
       <c r="Y169">
         <f>IF(C169=0,0,(C169-X169)/C169)</f>
-        <v/>
-      </c>
-      <c r="Z169">
-        <f>MAX([@[BSR 90 Avg]],C169)</f>
         <v/>
       </c>
       <c r="AA169">
@@ -7023,23 +6519,19 @@
         <v/>
       </c>
       <c r="L170">
-        <f>IF(Y170=0,0,Z170/Y170)</f>
+        <f>IF(H170=0,0,AB170/(H170/30))</f>
         <v/>
       </c>
       <c r="O170">
-        <f>MAX(0,(30*Y170)-P170)</f>
-        <v/>
-      </c>
-      <c r="X170">
-        <f>MAX([@[BSR 30 Avg]],C170)</f>
+        <f>MAX(0,(30*H170/30)-AB170)</f>
+        <v/>
+      </c>
+      <c r="P170">
+        <f>N170*O170</f>
         <v/>
       </c>
       <c r="Y170">
         <f>IF(C170=0,0,(C170-X170)/C170)</f>
-        <v/>
-      </c>
-      <c r="Z170">
-        <f>MAX([@[BSR 90 Avg]],C170)</f>
         <v/>
       </c>
       <c r="AA170">
@@ -7061,23 +6553,19 @@
         <v/>
       </c>
       <c r="L171">
-        <f>IF(Y171=0,0,Z171/Y171)</f>
+        <f>IF(H171=0,0,AB171/(H171/30))</f>
         <v/>
       </c>
       <c r="O171">
-        <f>MAX(0,(30*Y171)-P171)</f>
-        <v/>
-      </c>
-      <c r="X171">
-        <f>MAX([@[BSR 30 Avg]],C171)</f>
+        <f>MAX(0,(30*H171/30)-AB171)</f>
+        <v/>
+      </c>
+      <c r="P171">
+        <f>N171*O171</f>
         <v/>
       </c>
       <c r="Y171">
         <f>IF(C171=0,0,(C171-X171)/C171)</f>
-        <v/>
-      </c>
-      <c r="Z171">
-        <f>MAX([@[BSR 90 Avg]],C171)</f>
         <v/>
       </c>
       <c r="AA171">
@@ -7099,23 +6587,19 @@
         <v/>
       </c>
       <c r="L172">
-        <f>IF(Y172=0,0,Z172/Y172)</f>
+        <f>IF(H172=0,0,AB172/(H172/30))</f>
         <v/>
       </c>
       <c r="O172">
-        <f>MAX(0,(30*Y172)-P172)</f>
-        <v/>
-      </c>
-      <c r="X172">
-        <f>MAX([@[BSR 30 Avg]],C172)</f>
+        <f>MAX(0,(30*H172/30)-AB172)</f>
+        <v/>
+      </c>
+      <c r="P172">
+        <f>N172*O172</f>
         <v/>
       </c>
       <c r="Y172">
         <f>IF(C172=0,0,(C172-X172)/C172)</f>
-        <v/>
-      </c>
-      <c r="Z172">
-        <f>MAX([@[BSR 90 Avg]],C172)</f>
         <v/>
       </c>
       <c r="AA172">
@@ -7137,23 +6621,19 @@
         <v/>
       </c>
       <c r="L173">
-        <f>IF(Y173=0,0,Z173/Y173)</f>
+        <f>IF(H173=0,0,AB173/(H173/30))</f>
         <v/>
       </c>
       <c r="O173">
-        <f>MAX(0,(30*Y173)-P173)</f>
-        <v/>
-      </c>
-      <c r="X173">
-        <f>MAX([@[BSR 30 Avg]],C173)</f>
+        <f>MAX(0,(30*H173/30)-AB173)</f>
+        <v/>
+      </c>
+      <c r="P173">
+        <f>N173*O173</f>
         <v/>
       </c>
       <c r="Y173">
         <f>IF(C173=0,0,(C173-X173)/C173)</f>
-        <v/>
-      </c>
-      <c r="Z173">
-        <f>MAX([@[BSR 90 Avg]],C173)</f>
         <v/>
       </c>
       <c r="AA173">
@@ -7175,23 +6655,19 @@
         <v/>
       </c>
       <c r="L174">
-        <f>IF(Y174=0,0,Z174/Y174)</f>
+        <f>IF(H174=0,0,AB174/(H174/30))</f>
         <v/>
       </c>
       <c r="O174">
-        <f>MAX(0,(30*Y174)-P174)</f>
-        <v/>
-      </c>
-      <c r="X174">
-        <f>MAX([@[BSR 30 Avg]],C174)</f>
+        <f>MAX(0,(30*H174/30)-AB174)</f>
+        <v/>
+      </c>
+      <c r="P174">
+        <f>N174*O174</f>
         <v/>
       </c>
       <c r="Y174">
         <f>IF(C174=0,0,(C174-X174)/C174)</f>
-        <v/>
-      </c>
-      <c r="Z174">
-        <f>MAX([@[BSR 90 Avg]],C174)</f>
         <v/>
       </c>
       <c r="AA174">
@@ -7213,23 +6689,19 @@
         <v/>
       </c>
       <c r="L175">
-        <f>IF(Y175=0,0,Z175/Y175)</f>
+        <f>IF(H175=0,0,AB175/(H175/30))</f>
         <v/>
       </c>
       <c r="O175">
-        <f>MAX(0,(30*Y175)-P175)</f>
-        <v/>
-      </c>
-      <c r="X175">
-        <f>MAX([@[BSR 30 Avg]],C175)</f>
+        <f>MAX(0,(30*H175/30)-AB175)</f>
+        <v/>
+      </c>
+      <c r="P175">
+        <f>N175*O175</f>
         <v/>
       </c>
       <c r="Y175">
         <f>IF(C175=0,0,(C175-X175)/C175)</f>
-        <v/>
-      </c>
-      <c r="Z175">
-        <f>MAX([@[BSR 90 Avg]],C175)</f>
         <v/>
       </c>
       <c r="AA175">
@@ -7251,23 +6723,19 @@
         <v/>
       </c>
       <c r="L176">
-        <f>IF(Y176=0,0,Z176/Y176)</f>
+        <f>IF(H176=0,0,AB176/(H176/30))</f>
         <v/>
       </c>
       <c r="O176">
-        <f>MAX(0,(30*Y176)-P176)</f>
-        <v/>
-      </c>
-      <c r="X176">
-        <f>MAX([@[BSR 30 Avg]],C176)</f>
+        <f>MAX(0,(30*H176/30)-AB176)</f>
+        <v/>
+      </c>
+      <c r="P176">
+        <f>N176*O176</f>
         <v/>
       </c>
       <c r="Y176">
         <f>IF(C176=0,0,(C176-X176)/C176)</f>
-        <v/>
-      </c>
-      <c r="Z176">
-        <f>MAX([@[BSR 90 Avg]],C176)</f>
         <v/>
       </c>
       <c r="AA176">
@@ -7289,23 +6757,19 @@
         <v/>
       </c>
       <c r="L177">
-        <f>IF(Y177=0,0,Z177/Y177)</f>
+        <f>IF(H177=0,0,AB177/(H177/30))</f>
         <v/>
       </c>
       <c r="O177">
-        <f>MAX(0,(30*Y177)-P177)</f>
-        <v/>
-      </c>
-      <c r="X177">
-        <f>MAX([@[BSR 30 Avg]],C177)</f>
+        <f>MAX(0,(30*H177/30)-AB177)</f>
+        <v/>
+      </c>
+      <c r="P177">
+        <f>N177*O177</f>
         <v/>
       </c>
       <c r="Y177">
         <f>IF(C177=0,0,(C177-X177)/C177)</f>
-        <v/>
-      </c>
-      <c r="Z177">
-        <f>MAX([@[BSR 90 Avg]],C177)</f>
         <v/>
       </c>
       <c r="AA177">
@@ -7327,23 +6791,19 @@
         <v/>
       </c>
       <c r="L178">
-        <f>IF(Y178=0,0,Z178/Y178)</f>
+        <f>IF(H178=0,0,AB178/(H178/30))</f>
         <v/>
       </c>
       <c r="O178">
-        <f>MAX(0,(30*Y178)-P178)</f>
-        <v/>
-      </c>
-      <c r="X178">
-        <f>MAX([@[BSR 30 Avg]],C178)</f>
+        <f>MAX(0,(30*H178/30)-AB178)</f>
+        <v/>
+      </c>
+      <c r="P178">
+        <f>N178*O178</f>
         <v/>
       </c>
       <c r="Y178">
         <f>IF(C178=0,0,(C178-X178)/C178)</f>
-        <v/>
-      </c>
-      <c r="Z178">
-        <f>MAX([@[BSR 90 Avg]],C178)</f>
         <v/>
       </c>
       <c r="AA178">
@@ -7365,23 +6825,19 @@
         <v/>
       </c>
       <c r="L179">
-        <f>IF(Y179=0,0,Z179/Y179)</f>
+        <f>IF(H179=0,0,AB179/(H179/30))</f>
         <v/>
       </c>
       <c r="O179">
-        <f>MAX(0,(30*Y179)-P179)</f>
-        <v/>
-      </c>
-      <c r="X179">
-        <f>MAX([@[BSR 30 Avg]],C179)</f>
+        <f>MAX(0,(30*H179/30)-AB179)</f>
+        <v/>
+      </c>
+      <c r="P179">
+        <f>N179*O179</f>
         <v/>
       </c>
       <c r="Y179">
         <f>IF(C179=0,0,(C179-X179)/C179)</f>
-        <v/>
-      </c>
-      <c r="Z179">
-        <f>MAX([@[BSR 90 Avg]],C179)</f>
         <v/>
       </c>
       <c r="AA179">
@@ -7403,23 +6859,19 @@
         <v/>
       </c>
       <c r="L180">
-        <f>IF(Y180=0,0,Z180/Y180)</f>
+        <f>IF(H180=0,0,AB180/(H180/30))</f>
         <v/>
       </c>
       <c r="O180">
-        <f>MAX(0,(30*Y180)-P180)</f>
-        <v/>
-      </c>
-      <c r="X180">
-        <f>MAX([@[BSR 30 Avg]],C180)</f>
+        <f>MAX(0,(30*H180/30)-AB180)</f>
+        <v/>
+      </c>
+      <c r="P180">
+        <f>N180*O180</f>
         <v/>
       </c>
       <c r="Y180">
         <f>IF(C180=0,0,(C180-X180)/C180)</f>
-        <v/>
-      </c>
-      <c r="Z180">
-        <f>MAX([@[BSR 90 Avg]],C180)</f>
         <v/>
       </c>
       <c r="AA180">
@@ -7441,23 +6893,19 @@
         <v/>
       </c>
       <c r="L181">
-        <f>IF(Y181=0,0,Z181/Y181)</f>
+        <f>IF(H181=0,0,AB181/(H181/30))</f>
         <v/>
       </c>
       <c r="O181">
-        <f>MAX(0,(30*Y181)-P181)</f>
-        <v/>
-      </c>
-      <c r="X181">
-        <f>MAX([@[BSR 30 Avg]],C181)</f>
+        <f>MAX(0,(30*H181/30)-AB181)</f>
+        <v/>
+      </c>
+      <c r="P181">
+        <f>N181*O181</f>
         <v/>
       </c>
       <c r="Y181">
         <f>IF(C181=0,0,(C181-X181)/C181)</f>
-        <v/>
-      </c>
-      <c r="Z181">
-        <f>MAX([@[BSR 90 Avg]],C181)</f>
         <v/>
       </c>
       <c r="AA181">
@@ -7479,23 +6927,19 @@
         <v/>
       </c>
       <c r="L182">
-        <f>IF(Y182=0,0,Z182/Y182)</f>
+        <f>IF(H182=0,0,AB182/(H182/30))</f>
         <v/>
       </c>
       <c r="O182">
-        <f>MAX(0,(30*Y182)-P182)</f>
-        <v/>
-      </c>
-      <c r="X182">
-        <f>MAX([@[BSR 30 Avg]],C182)</f>
+        <f>MAX(0,(30*H182/30)-AB182)</f>
+        <v/>
+      </c>
+      <c r="P182">
+        <f>N182*O182</f>
         <v/>
       </c>
       <c r="Y182">
         <f>IF(C182=0,0,(C182-X182)/C182)</f>
-        <v/>
-      </c>
-      <c r="Z182">
-        <f>MAX([@[BSR 90 Avg]],C182)</f>
         <v/>
       </c>
       <c r="AA182">
@@ -7517,23 +6961,19 @@
         <v/>
       </c>
       <c r="L183">
-        <f>IF(Y183=0,0,Z183/Y183)</f>
+        <f>IF(H183=0,0,AB183/(H183/30))</f>
         <v/>
       </c>
       <c r="O183">
-        <f>MAX(0,(30*Y183)-P183)</f>
-        <v/>
-      </c>
-      <c r="X183">
-        <f>MAX([@[BSR 30 Avg]],C183)</f>
+        <f>MAX(0,(30*H183/30)-AB183)</f>
+        <v/>
+      </c>
+      <c r="P183">
+        <f>N183*O183</f>
         <v/>
       </c>
       <c r="Y183">
         <f>IF(C183=0,0,(C183-X183)/C183)</f>
-        <v/>
-      </c>
-      <c r="Z183">
-        <f>MAX([@[BSR 90 Avg]],C183)</f>
         <v/>
       </c>
       <c r="AA183">
@@ -7555,23 +6995,19 @@
         <v/>
       </c>
       <c r="L184">
-        <f>IF(Y184=0,0,Z184/Y184)</f>
+        <f>IF(H184=0,0,AB184/(H184/30))</f>
         <v/>
       </c>
       <c r="O184">
-        <f>MAX(0,(30*Y184)-P184)</f>
-        <v/>
-      </c>
-      <c r="X184">
-        <f>MAX([@[BSR 30 Avg]],C184)</f>
+        <f>MAX(0,(30*H184/30)-AB184)</f>
+        <v/>
+      </c>
+      <c r="P184">
+        <f>N184*O184</f>
         <v/>
       </c>
       <c r="Y184">
         <f>IF(C184=0,0,(C184-X184)/C184)</f>
-        <v/>
-      </c>
-      <c r="Z184">
-        <f>MAX([@[BSR 90 Avg]],C184)</f>
         <v/>
       </c>
       <c r="AA184">
@@ -7593,23 +7029,19 @@
         <v/>
       </c>
       <c r="L185">
-        <f>IF(Y185=0,0,Z185/Y185)</f>
+        <f>IF(H185=0,0,AB185/(H185/30))</f>
         <v/>
       </c>
       <c r="O185">
-        <f>MAX(0,(30*Y185)-P185)</f>
-        <v/>
-      </c>
-      <c r="X185">
-        <f>MAX([@[BSR 30 Avg]],C185)</f>
+        <f>MAX(0,(30*H185/30)-AB185)</f>
+        <v/>
+      </c>
+      <c r="P185">
+        <f>N185*O185</f>
         <v/>
       </c>
       <c r="Y185">
         <f>IF(C185=0,0,(C185-X185)/C185)</f>
-        <v/>
-      </c>
-      <c r="Z185">
-        <f>MAX([@[BSR 90 Avg]],C185)</f>
         <v/>
       </c>
       <c r="AA185">
@@ -7631,23 +7063,19 @@
         <v/>
       </c>
       <c r="L186">
-        <f>IF(Y186=0,0,Z186/Y186)</f>
+        <f>IF(H186=0,0,AB186/(H186/30))</f>
         <v/>
       </c>
       <c r="O186">
-        <f>MAX(0,(30*Y186)-P186)</f>
-        <v/>
-      </c>
-      <c r="X186">
-        <f>MAX([@[BSR 30 Avg]],C186)</f>
+        <f>MAX(0,(30*H186/30)-AB186)</f>
+        <v/>
+      </c>
+      <c r="P186">
+        <f>N186*O186</f>
         <v/>
       </c>
       <c r="Y186">
         <f>IF(C186=0,0,(C186-X186)/C186)</f>
-        <v/>
-      </c>
-      <c r="Z186">
-        <f>MAX([@[BSR 90 Avg]],C186)</f>
         <v/>
       </c>
       <c r="AA186">
@@ -7669,23 +7097,19 @@
         <v/>
       </c>
       <c r="L187">
-        <f>IF(Y187=0,0,Z187/Y187)</f>
+        <f>IF(H187=0,0,AB187/(H187/30))</f>
         <v/>
       </c>
       <c r="O187">
-        <f>MAX(0,(30*Y187)-P187)</f>
-        <v/>
-      </c>
-      <c r="X187">
-        <f>MAX([@[BSR 30 Avg]],C187)</f>
+        <f>MAX(0,(30*H187/30)-AB187)</f>
+        <v/>
+      </c>
+      <c r="P187">
+        <f>N187*O187</f>
         <v/>
       </c>
       <c r="Y187">
         <f>IF(C187=0,0,(C187-X187)/C187)</f>
-        <v/>
-      </c>
-      <c r="Z187">
-        <f>MAX([@[BSR 90 Avg]],C187)</f>
         <v/>
       </c>
       <c r="AA187">
@@ -7707,23 +7131,19 @@
         <v/>
       </c>
       <c r="L188">
-        <f>IF(Y188=0,0,Z188/Y188)</f>
+        <f>IF(H188=0,0,AB188/(H188/30))</f>
         <v/>
       </c>
       <c r="O188">
-        <f>MAX(0,(30*Y188)-P188)</f>
-        <v/>
-      </c>
-      <c r="X188">
-        <f>MAX([@[BSR 30 Avg]],C188)</f>
+        <f>MAX(0,(30*H188/30)-AB188)</f>
+        <v/>
+      </c>
+      <c r="P188">
+        <f>N188*O188</f>
         <v/>
       </c>
       <c r="Y188">
         <f>IF(C188=0,0,(C188-X188)/C188)</f>
-        <v/>
-      </c>
-      <c r="Z188">
-        <f>MAX([@[BSR 90 Avg]],C188)</f>
         <v/>
       </c>
       <c r="AA188">
@@ -7745,23 +7165,19 @@
         <v/>
       </c>
       <c r="L189">
-        <f>IF(Y189=0,0,Z189/Y189)</f>
+        <f>IF(H189=0,0,AB189/(H189/30))</f>
         <v/>
       </c>
       <c r="O189">
-        <f>MAX(0,(30*Y189)-P189)</f>
-        <v/>
-      </c>
-      <c r="X189">
-        <f>MAX([@[BSR 30 Avg]],C189)</f>
+        <f>MAX(0,(30*H189/30)-AB189)</f>
+        <v/>
+      </c>
+      <c r="P189">
+        <f>N189*O189</f>
         <v/>
       </c>
       <c r="Y189">
         <f>IF(C189=0,0,(C189-X189)/C189)</f>
-        <v/>
-      </c>
-      <c r="Z189">
-        <f>MAX([@[BSR 90 Avg]],C189)</f>
         <v/>
       </c>
       <c r="AA189">
@@ -7783,23 +7199,19 @@
         <v/>
       </c>
       <c r="L190">
-        <f>IF(Y190=0,0,Z190/Y190)</f>
+        <f>IF(H190=0,0,AB190/(H190/30))</f>
         <v/>
       </c>
       <c r="O190">
-        <f>MAX(0,(30*Y190)-P190)</f>
-        <v/>
-      </c>
-      <c r="X190">
-        <f>MAX([@[BSR 30 Avg]],C190)</f>
+        <f>MAX(0,(30*H190/30)-AB190)</f>
+        <v/>
+      </c>
+      <c r="P190">
+        <f>N190*O190</f>
         <v/>
       </c>
       <c r="Y190">
         <f>IF(C190=0,0,(C190-X190)/C190)</f>
-        <v/>
-      </c>
-      <c r="Z190">
-        <f>MAX([@[BSR 90 Avg]],C190)</f>
         <v/>
       </c>
       <c r="AA190">
@@ -7821,23 +7233,19 @@
         <v/>
       </c>
       <c r="L191">
-        <f>IF(Y191=0,0,Z191/Y191)</f>
+        <f>IF(H191=0,0,AB191/(H191/30))</f>
         <v/>
       </c>
       <c r="O191">
-        <f>MAX(0,(30*Y191)-P191)</f>
-        <v/>
-      </c>
-      <c r="X191">
-        <f>MAX([@[BSR 30 Avg]],C191)</f>
+        <f>MAX(0,(30*H191/30)-AB191)</f>
+        <v/>
+      </c>
+      <c r="P191">
+        <f>N191*O191</f>
         <v/>
       </c>
       <c r="Y191">
         <f>IF(C191=0,0,(C191-X191)/C191)</f>
-        <v/>
-      </c>
-      <c r="Z191">
-        <f>MAX([@[BSR 90 Avg]],C191)</f>
         <v/>
       </c>
       <c r="AA191">
@@ -7859,23 +7267,19 @@
         <v/>
       </c>
       <c r="L192">
-        <f>IF(Y192=0,0,Z192/Y192)</f>
+        <f>IF(H192=0,0,AB192/(H192/30))</f>
         <v/>
       </c>
       <c r="O192">
-        <f>MAX(0,(30*Y192)-P192)</f>
-        <v/>
-      </c>
-      <c r="X192">
-        <f>MAX([@[BSR 30 Avg]],C192)</f>
+        <f>MAX(0,(30*H192/30)-AB192)</f>
+        <v/>
+      </c>
+      <c r="P192">
+        <f>N192*O192</f>
         <v/>
       </c>
       <c r="Y192">
         <f>IF(C192=0,0,(C192-X192)/C192)</f>
-        <v/>
-      </c>
-      <c r="Z192">
-        <f>MAX([@[BSR 90 Avg]],C192)</f>
         <v/>
       </c>
       <c r="AA192">
@@ -7897,23 +7301,19 @@
         <v/>
       </c>
       <c r="L193">
-        <f>IF(Y193=0,0,Z193/Y193)</f>
+        <f>IF(H193=0,0,AB193/(H193/30))</f>
         <v/>
       </c>
       <c r="O193">
-        <f>MAX(0,(30*Y193)-P193)</f>
-        <v/>
-      </c>
-      <c r="X193">
-        <f>MAX([@[BSR 30 Avg]],C193)</f>
+        <f>MAX(0,(30*H193/30)-AB193)</f>
+        <v/>
+      </c>
+      <c r="P193">
+        <f>N193*O193</f>
         <v/>
       </c>
       <c r="Y193">
         <f>IF(C193=0,0,(C193-X193)/C193)</f>
-        <v/>
-      </c>
-      <c r="Z193">
-        <f>MAX([@[BSR 90 Avg]],C193)</f>
         <v/>
       </c>
       <c r="AA193">
@@ -7935,23 +7335,19 @@
         <v/>
       </c>
       <c r="L194">
-        <f>IF(Y194=0,0,Z194/Y194)</f>
+        <f>IF(H194=0,0,AB194/(H194/30))</f>
         <v/>
       </c>
       <c r="O194">
-        <f>MAX(0,(30*Y194)-P194)</f>
-        <v/>
-      </c>
-      <c r="X194">
-        <f>MAX([@[BSR 30 Avg]],C194)</f>
+        <f>MAX(0,(30*H194/30)-AB194)</f>
+        <v/>
+      </c>
+      <c r="P194">
+        <f>N194*O194</f>
         <v/>
       </c>
       <c r="Y194">
         <f>IF(C194=0,0,(C194-X194)/C194)</f>
-        <v/>
-      </c>
-      <c r="Z194">
-        <f>MAX([@[BSR 90 Avg]],C194)</f>
         <v/>
       </c>
       <c r="AA194">
@@ -7973,23 +7369,19 @@
         <v/>
       </c>
       <c r="L195">
-        <f>IF(Y195=0,0,Z195/Y195)</f>
+        <f>IF(H195=0,0,AB195/(H195/30))</f>
         <v/>
       </c>
       <c r="O195">
-        <f>MAX(0,(30*Y195)-P195)</f>
-        <v/>
-      </c>
-      <c r="X195">
-        <f>MAX([@[BSR 30 Avg]],C195)</f>
+        <f>MAX(0,(30*H195/30)-AB195)</f>
+        <v/>
+      </c>
+      <c r="P195">
+        <f>N195*O195</f>
         <v/>
       </c>
       <c r="Y195">
         <f>IF(C195=0,0,(C195-X195)/C195)</f>
-        <v/>
-      </c>
-      <c r="Z195">
-        <f>MAX([@[BSR 90 Avg]],C195)</f>
         <v/>
       </c>
       <c r="AA195">
@@ -8011,23 +7403,19 @@
         <v/>
       </c>
       <c r="L196">
-        <f>IF(Y196=0,0,Z196/Y196)</f>
+        <f>IF(H196=0,0,AB196/(H196/30))</f>
         <v/>
       </c>
       <c r="O196">
-        <f>MAX(0,(30*Y196)-P196)</f>
-        <v/>
-      </c>
-      <c r="X196">
-        <f>MAX([@[BSR 30 Avg]],C196)</f>
+        <f>MAX(0,(30*H196/30)-AB196)</f>
+        <v/>
+      </c>
+      <c r="P196">
+        <f>N196*O196</f>
         <v/>
       </c>
       <c r="Y196">
         <f>IF(C196=0,0,(C196-X196)/C196)</f>
-        <v/>
-      </c>
-      <c r="Z196">
-        <f>MAX([@[BSR 90 Avg]],C196)</f>
         <v/>
       </c>
       <c r="AA196">
@@ -8049,23 +7437,19 @@
         <v/>
       </c>
       <c r="L197">
-        <f>IF(Y197=0,0,Z197/Y197)</f>
+        <f>IF(H197=0,0,AB197/(H197/30))</f>
         <v/>
       </c>
       <c r="O197">
-        <f>MAX(0,(30*Y197)-P197)</f>
-        <v/>
-      </c>
-      <c r="X197">
-        <f>MAX([@[BSR 30 Avg]],C197)</f>
+        <f>MAX(0,(30*H197/30)-AB197)</f>
+        <v/>
+      </c>
+      <c r="P197">
+        <f>N197*O197</f>
         <v/>
       </c>
       <c r="Y197">
         <f>IF(C197=0,0,(C197-X197)/C197)</f>
-        <v/>
-      </c>
-      <c r="Z197">
-        <f>MAX([@[BSR 90 Avg]],C197)</f>
         <v/>
       </c>
       <c r="AA197">
@@ -8087,23 +7471,19 @@
         <v/>
       </c>
       <c r="L198">
-        <f>IF(Y198=0,0,Z198/Y198)</f>
+        <f>IF(H198=0,0,AB198/(H198/30))</f>
         <v/>
       </c>
       <c r="O198">
-        <f>MAX(0,(30*Y198)-P198)</f>
-        <v/>
-      </c>
-      <c r="X198">
-        <f>MAX([@[BSR 30 Avg]],C198)</f>
+        <f>MAX(0,(30*H198/30)-AB198)</f>
+        <v/>
+      </c>
+      <c r="P198">
+        <f>N198*O198</f>
         <v/>
       </c>
       <c r="Y198">
         <f>IF(C198=0,0,(C198-X198)/C198)</f>
-        <v/>
-      </c>
-      <c r="Z198">
-        <f>MAX([@[BSR 90 Avg]],C198)</f>
         <v/>
       </c>
       <c r="AA198">
@@ -8125,23 +7505,19 @@
         <v/>
       </c>
       <c r="L199">
-        <f>IF(Y199=0,0,Z199/Y199)</f>
+        <f>IF(H199=0,0,AB199/(H199/30))</f>
         <v/>
       </c>
       <c r="O199">
-        <f>MAX(0,(30*Y199)-P199)</f>
-        <v/>
-      </c>
-      <c r="X199">
-        <f>MAX([@[BSR 30 Avg]],C199)</f>
+        <f>MAX(0,(30*H199/30)-AB199)</f>
+        <v/>
+      </c>
+      <c r="P199">
+        <f>N199*O199</f>
         <v/>
       </c>
       <c r="Y199">
         <f>IF(C199=0,0,(C199-X199)/C199)</f>
-        <v/>
-      </c>
-      <c r="Z199">
-        <f>MAX([@[BSR 90 Avg]],C199)</f>
         <v/>
       </c>
       <c r="AA199">
@@ -8163,23 +7539,19 @@
         <v/>
       </c>
       <c r="L200">
-        <f>IF(Y200=0,0,Z200/Y200)</f>
+        <f>IF(H200=0,0,AB200/(H200/30))</f>
         <v/>
       </c>
       <c r="O200">
-        <f>MAX(0,(30*Y200)-P200)</f>
-        <v/>
-      </c>
-      <c r="X200">
-        <f>MAX([@[BSR 30 Avg]],C200)</f>
+        <f>MAX(0,(30*H200/30)-AB200)</f>
+        <v/>
+      </c>
+      <c r="P200">
+        <f>N200*O200</f>
         <v/>
       </c>
       <c r="Y200">
         <f>IF(C200=0,0,(C200-X200)/C200)</f>
-        <v/>
-      </c>
-      <c r="Z200">
-        <f>MAX([@[BSR 90 Avg]],C200)</f>
         <v/>
       </c>
       <c r="AA200">
@@ -8201,31 +7573,95 @@
         <v/>
       </c>
       <c r="L201">
-        <f>IF(Y201=0,0,Z201/Y201)</f>
+        <f>IF(H201=0,0,AB201/(H201/30))</f>
         <v/>
       </c>
       <c r="O201">
-        <f>MAX(0,(30*Y201)-P201)</f>
-        <v/>
-      </c>
-      <c r="X201">
-        <f>MAX([@[BSR 30 Avg]],C201)</f>
+        <f>MAX(0,(30*H201/30)-AB201)</f>
+        <v/>
+      </c>
+      <c r="P201">
+        <f>N201*O201</f>
         <v/>
       </c>
       <c r="Y201">
         <f>IF(C201=0,0,(C201-X201)/C201)</f>
         <v/>
       </c>
-      <c r="Z201">
-        <f>MAX([@[BSR 90 Avg]],C201)</f>
-        <v/>
-      </c>
       <c r="AA201">
         <f>IF(C201=0,0,(C201-Z201)/C201)</f>
         <v/>
       </c>
       <c r="AB201">
         <f>IF(D201=0,0,F201/D201)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="202">
+      <c r="F202">
+        <f>D202-N202</f>
+        <v/>
+      </c>
+      <c r="G202">
+        <f>IF(N202=0,0,F202/N202)</f>
+        <v/>
+      </c>
+      <c r="L202">
+        <f>IF(H202=0,0,AB202/(H202/30))</f>
+        <v/>
+      </c>
+      <c r="O202">
+        <f>MAX(0,(30*H202/30)-AB202)</f>
+        <v/>
+      </c>
+      <c r="P202">
+        <f>N202*O202</f>
+        <v/>
+      </c>
+      <c r="Y202">
+        <f>IF(C202=0,0,(C202-X202)/C202)</f>
+        <v/>
+      </c>
+      <c r="AA202">
+        <f>IF(C202=0,0,(C202-Z202)/C202)</f>
+        <v/>
+      </c>
+      <c r="AB202">
+        <f>IF(D202=0,0,F202/D202)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203">
+      <c r="F203">
+        <f>D203-N203</f>
+        <v/>
+      </c>
+      <c r="G203">
+        <f>IF(N203=0,0,F203/N203)</f>
+        <v/>
+      </c>
+      <c r="L203">
+        <f>IF(H203=0,0,AB203/(H203/30))</f>
+        <v/>
+      </c>
+      <c r="O203">
+        <f>MAX(0,(30*H203/30)-AB203)</f>
+        <v/>
+      </c>
+      <c r="P203">
+        <f>N203*O203</f>
+        <v/>
+      </c>
+      <c r="Y203">
+        <f>IF(C203=0,0,(C203-X203)/C203)</f>
+        <v/>
+      </c>
+      <c r="AA203">
+        <f>IF(C203=0,0,(C203-Z203)/C203)</f>
+        <v/>
+      </c>
+      <c r="AB203">
+        <f>IF(D203=0,0,F203/D203)</f>
         <v/>
       </c>
     </row>
@@ -8240,7 +7676,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS1"/>
+  <dimension ref="A1:AS3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8251,225 +7687,251 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Total Items</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n">
+        <v>4389</v>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Matches Found on AMZ</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>4389</v>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Not Found on AMZ</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Product ID</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>Package Quantity</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>Brand</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>Product Group</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>Total Offers</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H3" s="5" t="inlineStr">
         <is>
           <t>Sales Rank</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I3" s="5" t="inlineStr">
         <is>
           <t>Estimated Number of Sales</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J3" s="5" t="inlineStr">
         <is>
           <t>Profit</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K3" s="5" t="inlineStr">
         <is>
           <t>Margin</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L3" s="5" t="inlineStr">
         <is>
           <t>ROI</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M3" s="5" t="inlineStr">
         <is>
           <t>Purchase Price</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N3" s="5" t="inlineStr">
         <is>
           <t>Sell Price</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O3" s="5" t="inlineStr">
         <is>
           <t>Buy Box Landed</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P3" s="5" t="inlineStr">
         <is>
           <t>Seller Proceeds</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q3" s="5" t="inlineStr">
         <is>
           <t>Low New Fba Price</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R3" s="5" t="inlineStr">
         <is>
           <t>Low New Mfn Price</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S3" s="5" t="inlineStr">
         <is>
           <t>Referral Fee</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T3" s="5" t="inlineStr">
         <is>
           <t>Variable Closing Fee</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U3" s="5" t="inlineStr">
         <is>
           <t>Fulfillment Subtotal</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V3" s="5" t="inlineStr">
         <is>
           <t>Cost Sub Total</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W3" s="5" t="inlineStr">
         <is>
           <t>VAT %</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X3" s="5" t="inlineStr">
         <is>
           <t>VAT $</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y3" s="5" t="inlineStr">
         <is>
           <t>Inbound Shipping Estimate</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z3" s="5" t="inlineStr">
         <is>
           <t>Package Weight</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA3" s="5" t="inlineStr">
         <is>
           <t>Package Height</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB3" s="5" t="inlineStr">
         <is>
           <t>Package Length</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC3" s="5" t="inlineStr">
         <is>
           <t>Package Width</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD3" s="5" t="inlineStr">
         <is>
           <t>New FBA Num Offers</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE3" s="5" t="inlineStr">
         <is>
           <t>New MFN Num Offers</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF3" s="5" t="inlineStr">
         <is>
           <t>Keepa</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG3" s="5" t="inlineStr">
         <is>
           <t>CamelCC</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH3" s="5" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI3" s="5" t="inlineStr">
         <is>
           <t>Last Run</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ3" s="5" t="inlineStr">
         <is>
           <t>Item Number</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK3" s="5" t="inlineStr">
         <is>
           <t>PRODUCT</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL3" s="5" t="inlineStr">
         <is>
           <t>SKU #</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AM3" s="5" t="inlineStr">
         <is>
           <t>Size(1)</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AN3" s="5" t="inlineStr">
         <is>
           <t>Case Pk</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AO3" s="5" t="inlineStr">
         <is>
           <t>Salon price / each</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AP3" s="5" t="inlineStr">
         <is>
           <t>Salon price / case</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AQ3" s="5" t="inlineStr">
         <is>
           <t>QTY</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AR3" s="5" t="inlineStr">
         <is>
           <t>YOUR TOTAL COST</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AS3" s="5" t="inlineStr">
         <is>
           <t>CASE COUNT</t>
         </is>
@@ -8495,27 +7957,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Item Code</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Unit Cost</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>Order Qty</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>Total Amount</t>
         </is>
@@ -8532,7 +7994,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU1"/>
+  <dimension ref="A1:AV3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8541,237 +8003,278 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>30 wt</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>90 wt</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>180 wt</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>AMZ Less:</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Baseline</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>BB Avg</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>AMZ Avg</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>wtd avg</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>Variations</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>Review Wt</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H3" s="5" t="inlineStr">
         <is>
           <t>Confidence</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I3" s="5" t="inlineStr">
         <is>
           <t>ASIN_SRC</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J3" s="5" t="inlineStr">
         <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K3" s="5" t="inlineStr">
         <is>
           <t>Buy Box: Current</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L3" s="5" t="inlineStr">
         <is>
           <t>Buy Box: 30 days avg.</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M3" s="5" t="inlineStr">
         <is>
           <t>Buy Box: 30 days drop %</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N3" s="5" t="inlineStr">
         <is>
           <t>Buy Box: 90 days avg.</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O3" s="5" t="inlineStr">
         <is>
           <t>Buy Box: 90 days drop %</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P3" s="5" t="inlineStr">
         <is>
           <t>Buy Box: 180 days avg.</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q3" s="5" t="inlineStr">
         <is>
           <t>Buy Box Seller</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R3" s="5" t="inlineStr">
         <is>
           <t>Amazon: Current</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S3" s="5" t="inlineStr">
         <is>
           <t>Amazon: 30 days avg.</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T3" s="5" t="inlineStr">
         <is>
           <t>Amazon: 30 days drop %</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U3" s="5" t="inlineStr">
         <is>
           <t>Amazon: 90 days avg.</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V3" s="5" t="inlineStr">
         <is>
           <t>Amazon: 90 days drop %</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W3" s="5" t="inlineStr">
         <is>
           <t>Amazon: 180 days avg.</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X3" s="5" t="inlineStr">
         <is>
           <t>Amazon out of stock percentage: 90 days OOS %</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y3" s="5" t="inlineStr">
         <is>
           <t>Sales Rank: Current</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z3" s="5" t="inlineStr">
         <is>
           <t>Sales Rank: 30 days avg.</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA3" s="5" t="inlineStr">
         <is>
           <t>Sales Rank: 30 days drop %</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB3" s="5" t="inlineStr">
         <is>
           <t>Sales Rank: 90 days avg.</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC3" s="5" t="inlineStr">
         <is>
           <t>Sales Rank: 90 days drop %</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD3" s="5" t="inlineStr">
         <is>
           <t>Sales Rank: 180 days avg.</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE3" s="5" t="inlineStr">
         <is>
           <t>Count of retrieved live offers: New, FBA</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF3" s="5" t="inlineStr">
         <is>
           <t>Count of retrieved live offers: New, FBM</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG3" s="5" t="inlineStr">
         <is>
           <t>New Offer Count: Current</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH3" s="5" t="inlineStr">
         <is>
           <t>New Offer Count: 90 days avg.</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI3" s="5" t="inlineStr">
         <is>
           <t>New, 3rd Party FBA: 30 days avg.</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ3" s="5" t="inlineStr">
         <is>
           <t>New, 3rd Party FBA: 90 days avg.</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK3" s="5" t="inlineStr">
         <is>
           <t>New, 3rd Party FBA: 180 days avg.</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL3" s="5" t="inlineStr">
         <is>
           <t>Variation ASINs</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AM3" s="5" t="inlineStr">
         <is>
           <t>Parent ASIN</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AN3" s="5" t="inlineStr">
         <is>
           <t>Reviews: Reviews - Format Specific</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AO3" s="5" t="inlineStr">
         <is>
           <t>Variation Attributes</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AP3" s="5" t="inlineStr">
         <is>
           <t>Reviews: Review Count</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AQ3" s="5" t="inlineStr">
         <is>
           <t>Model</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AR3" s="5" t="inlineStr">
         <is>
           <t>Number of Items</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AS3" s="5" t="inlineStr">
         <is>
           <t>Categories: Root</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>FBA Fees: Referral Fee %</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AT3" s="5" t="inlineStr">
+        <is>
+          <t>FBA Fees:</t>
+        </is>
+      </c>
+      <c r="AU3" s="5" t="inlineStr">
+        <is>
+          <t>Referral Fee %</t>
+        </is>
+      </c>
+      <c r="AV3" s="5" t="inlineStr">
         <is>
           <t>Buy Box out of stock percentage: 90 days OOS %</t>
         </is>
@@ -8797,97 +8300,97 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Image</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>SKU</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>Barcode</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>Cost Price</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>Replenishment</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>To Order</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>Stock</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="5" t="inlineStr">
         <is>
           <t>On Order</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="5" t="inlineStr">
         <is>
           <t>Sales</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="5" t="inlineStr">
         <is>
           <t>Adjusted Sales Velocity/mo</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="5" t="inlineStr">
         <is>
           <t>Lead Time</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="5" t="inlineStr">
         <is>
           <t>Days of Stock</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="5" t="inlineStr">
         <is>
           <t>Vendors</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="5" t="inlineStr">
         <is>
           <t>Brand</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="5" t="inlineStr">
         <is>
           <t>AVG Retail Price</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="5" t="inlineStr">
         <is>
           <t>Replenishable</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="5" t="inlineStr">
         <is>
           <t>In Buy Sheet?</t>
         </is>

--- a/public/excel_templates/BUY_RECOMMENDATIONS.xlsx
+++ b/public/excel_templates/BUY_RECOMMENDATIONS.xlsx
@@ -233,6 +233,64 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="BuyData" displayName="BuyData" ref="A3:AW203" headerRowCount="1">
+  <autoFilter ref="A3:AW203"/>
+  <tableColumns count="49">
+    <tableColumn id="1" name="ASIN"/>
+    <tableColumn id="2" name="AMZ Title"/>
+    <tableColumn id="3" name="Est. Qty"/>
+    <tableColumn id="4" name="New FBA"/>
+    <tableColumn id="5" name="New MFN"/>
+    <tableColumn id="6" name="Total Offers"/>
+    <tableColumn id="7" name="Sell Price"/>
+    <tableColumn id="8" name="Current BSR"/>
+    <tableColumn id="9" name="Referral %"/>
+    <tableColumn id="10" name="S &amp; H"/>
+    <tableColumn id="11" name="Proceeds"/>
+    <tableColumn id="12" name="Profit"/>
+    <tableColumn id="13" name="ROI"/>
+    <tableColumn id="14" name="Sales Opp."/>
+    <tableColumn id="15" name="Suggested Pk"/>
+    <tableColumn id="16" name="Pack Qty"/>
+    <tableColumn id="17" name="Odr Qty (Pk)"/>
+    <tableColumn id="18" name="Item Code"/>
+    <tableColumn id="19" name="Description"/>
+    <tableColumn id="20" name="Cost"/>
+    <tableColumn id="21" name="Order Qty (Unit)"/>
+    <tableColumn id="22" name="Order Amount"/>
+    <tableColumn id="23" name="Var Weight"/>
+    <tableColumn id="24" name="Case Pack"/>
+    <tableColumn id="25" name="IP Qty"/>
+    <tableColumn id="26" name="Stock"/>
+    <tableColumn id="27" name="On Order"/>
+    <tableColumn id="28" name="Velocity"/>
+    <tableColumn id="29" name="Units Sold"/>
+    <tableColumn id="30" name="Offers 90d"/>
+    <tableColumn id="31" name="ROI/Profit"/>
+    <tableColumn id="32" name="Visible"/>
+    <tableColumn id="33" name="Var. Opp."/>
+    <tableColumn id="34" name="Use Qty"/>
+    <tableColumn id="35" name="BSR 30 Avg"/>
+    <tableColumn id="36" name="% Chng30"/>
+    <tableColumn id="37" name="BSR 90 Avg"/>
+    <tableColumn id="38" name="% Chng90"/>
+    <tableColumn id="39" name="Avail. Qty"/>
+    <tableColumn id="40" name="AMZ Boss"/>
+    <tableColumn id="41" name="AMZ OOS"/>
+    <tableColumn id="42" name="Bbox OOS"/>
+    <tableColumn id="43" name="Brand"/>
+    <tableColumn id="44" name="Keepa Link"/>
+    <tableColumn id="45" name="AMZ Product Page"/>
+    <tableColumn id="46" name="Check Gated in SC"/>
+    <tableColumn id="47" name="Extra1"/>
+    <tableColumn id="48" name="Extra2"/>
+    <tableColumn id="49" name="Extra3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1614,7 +1672,7 @@
         <v/>
       </c>
       <c r="AQ4">
-        <f>IFERROR(VLOOKUP(A4, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A4, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR4">
@@ -1797,7 +1855,7 @@
         <v/>
       </c>
       <c r="AQ5">
-        <f>IFERROR(VLOOKUP(A5, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A5, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR5">
@@ -1980,7 +2038,7 @@
         <v/>
       </c>
       <c r="AQ6">
-        <f>IFERROR(VLOOKUP(A6, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A6, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR6">
@@ -2163,7 +2221,7 @@
         <v/>
       </c>
       <c r="AQ7">
-        <f>IFERROR(VLOOKUP(A7, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A7, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR7">
@@ -2346,7 +2404,7 @@
         <v/>
       </c>
       <c r="AQ8">
-        <f>IFERROR(VLOOKUP(A8, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A8, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR8">
@@ -2529,7 +2587,7 @@
         <v/>
       </c>
       <c r="AQ9">
-        <f>IFERROR(VLOOKUP(A9, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A9, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR9">
@@ -2712,7 +2770,7 @@
         <v/>
       </c>
       <c r="AQ10">
-        <f>IFERROR(VLOOKUP(A10, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A10, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR10">
@@ -2895,7 +2953,7 @@
         <v/>
       </c>
       <c r="AQ11">
-        <f>IFERROR(VLOOKUP(A11, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A11, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR11">
@@ -3078,7 +3136,7 @@
         <v/>
       </c>
       <c r="AQ12">
-        <f>IFERROR(VLOOKUP(A12, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A12, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR12">
@@ -3261,7 +3319,7 @@
         <v/>
       </c>
       <c r="AQ13">
-        <f>IFERROR(VLOOKUP(A13, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A13, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR13">
@@ -3444,7 +3502,7 @@
         <v/>
       </c>
       <c r="AQ14">
-        <f>IFERROR(VLOOKUP(A14, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A14, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR14">
@@ -3627,7 +3685,7 @@
         <v/>
       </c>
       <c r="AQ15">
-        <f>IFERROR(VLOOKUP(A15, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A15, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR15">
@@ -3810,7 +3868,7 @@
         <v/>
       </c>
       <c r="AQ16">
-        <f>IFERROR(VLOOKUP(A16, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A16, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR16">
@@ -3993,7 +4051,7 @@
         <v/>
       </c>
       <c r="AQ17">
-        <f>IFERROR(VLOOKUP(A17, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A17, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR17">
@@ -4176,7 +4234,7 @@
         <v/>
       </c>
       <c r="AQ18">
-        <f>IFERROR(VLOOKUP(A18, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A18, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR18">
@@ -4359,7 +4417,7 @@
         <v/>
       </c>
       <c r="AQ19">
-        <f>IFERROR(VLOOKUP(A19, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A19, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR19">
@@ -4542,7 +4600,7 @@
         <v/>
       </c>
       <c r="AQ20">
-        <f>IFERROR(VLOOKUP(A20, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A20, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR20">
@@ -4725,7 +4783,7 @@
         <v/>
       </c>
       <c r="AQ21">
-        <f>IFERROR(VLOOKUP(A21, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A21, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR21">
@@ -4908,7 +4966,7 @@
         <v/>
       </c>
       <c r="AQ22">
-        <f>IFERROR(VLOOKUP(A22, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A22, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR22">
@@ -5091,7 +5149,7 @@
         <v/>
       </c>
       <c r="AQ23">
-        <f>IFERROR(VLOOKUP(A23, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A23, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR23">
@@ -5274,7 +5332,7 @@
         <v/>
       </c>
       <c r="AQ24">
-        <f>IFERROR(VLOOKUP(A24, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A24, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR24">
@@ -5457,7 +5515,7 @@
         <v/>
       </c>
       <c r="AQ25">
-        <f>IFERROR(VLOOKUP(A25, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A25, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR25">
@@ -5640,7 +5698,7 @@
         <v/>
       </c>
       <c r="AQ26">
-        <f>IFERROR(VLOOKUP(A26, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A26, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR26">
@@ -5823,7 +5881,7 @@
         <v/>
       </c>
       <c r="AQ27">
-        <f>IFERROR(VLOOKUP(A27, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A27, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR27">
@@ -6006,7 +6064,7 @@
         <v/>
       </c>
       <c r="AQ28">
-        <f>IFERROR(VLOOKUP(A28, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A28, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR28">
@@ -6189,7 +6247,7 @@
         <v/>
       </c>
       <c r="AQ29">
-        <f>IFERROR(VLOOKUP(A29, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A29, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR29">
@@ -6372,7 +6430,7 @@
         <v/>
       </c>
       <c r="AQ30">
-        <f>IFERROR(VLOOKUP(A30, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A30, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR30">
@@ -6555,7 +6613,7 @@
         <v/>
       </c>
       <c r="AQ31">
-        <f>IFERROR(VLOOKUP(A31, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A31, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR31">
@@ -6738,7 +6796,7 @@
         <v/>
       </c>
       <c r="AQ32">
-        <f>IFERROR(VLOOKUP(A32, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A32, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR32">
@@ -6921,7 +6979,7 @@
         <v/>
       </c>
       <c r="AQ33">
-        <f>IFERROR(VLOOKUP(A33, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A33, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR33">
@@ -7104,7 +7162,7 @@
         <v/>
       </c>
       <c r="AQ34">
-        <f>IFERROR(VLOOKUP(A34, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A34, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR34">
@@ -7287,7 +7345,7 @@
         <v/>
       </c>
       <c r="AQ35">
-        <f>IFERROR(VLOOKUP(A35, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A35, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR35">
@@ -7470,7 +7528,7 @@
         <v/>
       </c>
       <c r="AQ36">
-        <f>IFERROR(VLOOKUP(A36, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A36, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR36">
@@ -7653,7 +7711,7 @@
         <v/>
       </c>
       <c r="AQ37">
-        <f>IFERROR(VLOOKUP(A37, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A37, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR37">
@@ -7836,7 +7894,7 @@
         <v/>
       </c>
       <c r="AQ38">
-        <f>IFERROR(VLOOKUP(A38, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A38, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR38">
@@ -8019,7 +8077,7 @@
         <v/>
       </c>
       <c r="AQ39">
-        <f>IFERROR(VLOOKUP(A39, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A39, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR39">
@@ -8202,7 +8260,7 @@
         <v/>
       </c>
       <c r="AQ40">
-        <f>IFERROR(VLOOKUP(A40, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A40, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR40">
@@ -8385,7 +8443,7 @@
         <v/>
       </c>
       <c r="AQ41">
-        <f>IFERROR(VLOOKUP(A41, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A41, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR41">
@@ -8568,7 +8626,7 @@
         <v/>
       </c>
       <c r="AQ42">
-        <f>IFERROR(VLOOKUP(A42, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A42, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR42">
@@ -8751,7 +8809,7 @@
         <v/>
       </c>
       <c r="AQ43">
-        <f>IFERROR(VLOOKUP(A43, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A43, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR43">
@@ -8934,7 +8992,7 @@
         <v/>
       </c>
       <c r="AQ44">
-        <f>IFERROR(VLOOKUP(A44, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A44, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR44">
@@ -9117,7 +9175,7 @@
         <v/>
       </c>
       <c r="AQ45">
-        <f>IFERROR(VLOOKUP(A45, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A45, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR45">
@@ -9300,7 +9358,7 @@
         <v/>
       </c>
       <c r="AQ46">
-        <f>IFERROR(VLOOKUP(A46, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A46, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR46">
@@ -9483,7 +9541,7 @@
         <v/>
       </c>
       <c r="AQ47">
-        <f>IFERROR(VLOOKUP(A47, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A47, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR47">
@@ -9666,7 +9724,7 @@
         <v/>
       </c>
       <c r="AQ48">
-        <f>IFERROR(VLOOKUP(A48, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A48, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR48">
@@ -9849,7 +9907,7 @@
         <v/>
       </c>
       <c r="AQ49">
-        <f>IFERROR(VLOOKUP(A49, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A49, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR49">
@@ -10032,7 +10090,7 @@
         <v/>
       </c>
       <c r="AQ50">
-        <f>IFERROR(VLOOKUP(A50, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A50, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR50">
@@ -10215,7 +10273,7 @@
         <v/>
       </c>
       <c r="AQ51">
-        <f>IFERROR(VLOOKUP(A51, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A51, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR51">
@@ -10398,7 +10456,7 @@
         <v/>
       </c>
       <c r="AQ52">
-        <f>IFERROR(VLOOKUP(A52, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A52, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR52">
@@ -10581,7 +10639,7 @@
         <v/>
       </c>
       <c r="AQ53">
-        <f>IFERROR(VLOOKUP(A53, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A53, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR53">
@@ -10764,7 +10822,7 @@
         <v/>
       </c>
       <c r="AQ54">
-        <f>IFERROR(VLOOKUP(A54, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A54, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR54">
@@ -10947,7 +11005,7 @@
         <v/>
       </c>
       <c r="AQ55">
-        <f>IFERROR(VLOOKUP(A55, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A55, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR55">
@@ -11130,7 +11188,7 @@
         <v/>
       </c>
       <c r="AQ56">
-        <f>IFERROR(VLOOKUP(A56, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A56, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR56">
@@ -11313,7 +11371,7 @@
         <v/>
       </c>
       <c r="AQ57">
-        <f>IFERROR(VLOOKUP(A57, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A57, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR57">
@@ -11496,7 +11554,7 @@
         <v/>
       </c>
       <c r="AQ58">
-        <f>IFERROR(VLOOKUP(A58, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A58, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR58">
@@ -11679,7 +11737,7 @@
         <v/>
       </c>
       <c r="AQ59">
-        <f>IFERROR(VLOOKUP(A59, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A59, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR59">
@@ -11862,7 +11920,7 @@
         <v/>
       </c>
       <c r="AQ60">
-        <f>IFERROR(VLOOKUP(A60, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A60, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR60">
@@ -12045,7 +12103,7 @@
         <v/>
       </c>
       <c r="AQ61">
-        <f>IFERROR(VLOOKUP(A61, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A61, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR61">
@@ -12228,7 +12286,7 @@
         <v/>
       </c>
       <c r="AQ62">
-        <f>IFERROR(VLOOKUP(A62, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A62, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR62">
@@ -12411,7 +12469,7 @@
         <v/>
       </c>
       <c r="AQ63">
-        <f>IFERROR(VLOOKUP(A63, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A63, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR63">
@@ -12594,7 +12652,7 @@
         <v/>
       </c>
       <c r="AQ64">
-        <f>IFERROR(VLOOKUP(A64, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A64, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR64">
@@ -12777,7 +12835,7 @@
         <v/>
       </c>
       <c r="AQ65">
-        <f>IFERROR(VLOOKUP(A65, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A65, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR65">
@@ -12960,7 +13018,7 @@
         <v/>
       </c>
       <c r="AQ66">
-        <f>IFERROR(VLOOKUP(A66, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A66, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR66">
@@ -13143,7 +13201,7 @@
         <v/>
       </c>
       <c r="AQ67">
-        <f>IFERROR(VLOOKUP(A67, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A67, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR67">
@@ -13326,7 +13384,7 @@
         <v/>
       </c>
       <c r="AQ68">
-        <f>IFERROR(VLOOKUP(A68, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A68, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR68">
@@ -13509,7 +13567,7 @@
         <v/>
       </c>
       <c r="AQ69">
-        <f>IFERROR(VLOOKUP(A69, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A69, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR69">
@@ -13692,7 +13750,7 @@
         <v/>
       </c>
       <c r="AQ70">
-        <f>IFERROR(VLOOKUP(A70, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A70, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR70">
@@ -13875,7 +13933,7 @@
         <v/>
       </c>
       <c r="AQ71">
-        <f>IFERROR(VLOOKUP(A71, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A71, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR71">
@@ -14058,7 +14116,7 @@
         <v/>
       </c>
       <c r="AQ72">
-        <f>IFERROR(VLOOKUP(A72, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A72, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR72">
@@ -14241,7 +14299,7 @@
         <v/>
       </c>
       <c r="AQ73">
-        <f>IFERROR(VLOOKUP(A73, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A73, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR73">
@@ -14424,7 +14482,7 @@
         <v/>
       </c>
       <c r="AQ74">
-        <f>IFERROR(VLOOKUP(A74, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A74, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR74">
@@ -14607,7 +14665,7 @@
         <v/>
       </c>
       <c r="AQ75">
-        <f>IFERROR(VLOOKUP(A75, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A75, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR75">
@@ -14790,7 +14848,7 @@
         <v/>
       </c>
       <c r="AQ76">
-        <f>IFERROR(VLOOKUP(A76, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A76, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR76">
@@ -14973,7 +15031,7 @@
         <v/>
       </c>
       <c r="AQ77">
-        <f>IFERROR(VLOOKUP(A77, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A77, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR77">
@@ -15156,7 +15214,7 @@
         <v/>
       </c>
       <c r="AQ78">
-        <f>IFERROR(VLOOKUP(A78, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A78, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR78">
@@ -15339,7 +15397,7 @@
         <v/>
       </c>
       <c r="AQ79">
-        <f>IFERROR(VLOOKUP(A79, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A79, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR79">
@@ -15522,7 +15580,7 @@
         <v/>
       </c>
       <c r="AQ80">
-        <f>IFERROR(VLOOKUP(A80, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A80, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR80">
@@ -15705,7 +15763,7 @@
         <v/>
       </c>
       <c r="AQ81">
-        <f>IFERROR(VLOOKUP(A81, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A81, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR81">
@@ -15888,7 +15946,7 @@
         <v/>
       </c>
       <c r="AQ82">
-        <f>IFERROR(VLOOKUP(A82, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A82, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR82">
@@ -16071,7 +16129,7 @@
         <v/>
       </c>
       <c r="AQ83">
-        <f>IFERROR(VLOOKUP(A83, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A83, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR83">
@@ -16254,7 +16312,7 @@
         <v/>
       </c>
       <c r="AQ84">
-        <f>IFERROR(VLOOKUP(A84, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A84, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR84">
@@ -16437,7 +16495,7 @@
         <v/>
       </c>
       <c r="AQ85">
-        <f>IFERROR(VLOOKUP(A85, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A85, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR85">
@@ -16620,7 +16678,7 @@
         <v/>
       </c>
       <c r="AQ86">
-        <f>IFERROR(VLOOKUP(A86, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A86, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR86">
@@ -16803,7 +16861,7 @@
         <v/>
       </c>
       <c r="AQ87">
-        <f>IFERROR(VLOOKUP(A87, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A87, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR87">
@@ -16986,7 +17044,7 @@
         <v/>
       </c>
       <c r="AQ88">
-        <f>IFERROR(VLOOKUP(A88, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A88, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR88">
@@ -17169,7 +17227,7 @@
         <v/>
       </c>
       <c r="AQ89">
-        <f>IFERROR(VLOOKUP(A89, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A89, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR89">
@@ -17352,7 +17410,7 @@
         <v/>
       </c>
       <c r="AQ90">
-        <f>IFERROR(VLOOKUP(A90, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A90, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR90">
@@ -17535,7 +17593,7 @@
         <v/>
       </c>
       <c r="AQ91">
-        <f>IFERROR(VLOOKUP(A91, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A91, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR91">
@@ -17718,7 +17776,7 @@
         <v/>
       </c>
       <c r="AQ92">
-        <f>IFERROR(VLOOKUP(A92, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A92, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR92">
@@ -17901,7 +17959,7 @@
         <v/>
       </c>
       <c r="AQ93">
-        <f>IFERROR(VLOOKUP(A93, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A93, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR93">
@@ -18084,7 +18142,7 @@
         <v/>
       </c>
       <c r="AQ94">
-        <f>IFERROR(VLOOKUP(A94, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A94, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR94">
@@ -18267,7 +18325,7 @@
         <v/>
       </c>
       <c r="AQ95">
-        <f>IFERROR(VLOOKUP(A95, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A95, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR95">
@@ -18450,7 +18508,7 @@
         <v/>
       </c>
       <c r="AQ96">
-        <f>IFERROR(VLOOKUP(A96, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A96, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR96">
@@ -18633,7 +18691,7 @@
         <v/>
       </c>
       <c r="AQ97">
-        <f>IFERROR(VLOOKUP(A97, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A97, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR97">
@@ -18816,7 +18874,7 @@
         <v/>
       </c>
       <c r="AQ98">
-        <f>IFERROR(VLOOKUP(A98, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A98, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR98">
@@ -18999,7 +19057,7 @@
         <v/>
       </c>
       <c r="AQ99">
-        <f>IFERROR(VLOOKUP(A99, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A99, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR99">
@@ -19182,7 +19240,7 @@
         <v/>
       </c>
       <c r="AQ100">
-        <f>IFERROR(VLOOKUP(A100, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A100, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR100">
@@ -19365,7 +19423,7 @@
         <v/>
       </c>
       <c r="AQ101">
-        <f>IFERROR(VLOOKUP(A101, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A101, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR101">
@@ -19548,7 +19606,7 @@
         <v/>
       </c>
       <c r="AQ102">
-        <f>IFERROR(VLOOKUP(A102, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A102, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR102">
@@ -19731,7 +19789,7 @@
         <v/>
       </c>
       <c r="AQ103">
-        <f>IFERROR(VLOOKUP(A103, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A103, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR103">
@@ -19914,7 +19972,7 @@
         <v/>
       </c>
       <c r="AQ104">
-        <f>IFERROR(VLOOKUP(A104, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A104, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR104">
@@ -20097,7 +20155,7 @@
         <v/>
       </c>
       <c r="AQ105">
-        <f>IFERROR(VLOOKUP(A105, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A105, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR105">
@@ -20280,7 +20338,7 @@
         <v/>
       </c>
       <c r="AQ106">
-        <f>IFERROR(VLOOKUP(A106, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A106, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR106">
@@ -20463,7 +20521,7 @@
         <v/>
       </c>
       <c r="AQ107">
-        <f>IFERROR(VLOOKUP(A107, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A107, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR107">
@@ -20646,7 +20704,7 @@
         <v/>
       </c>
       <c r="AQ108">
-        <f>IFERROR(VLOOKUP(A108, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A108, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR108">
@@ -20829,7 +20887,7 @@
         <v/>
       </c>
       <c r="AQ109">
-        <f>IFERROR(VLOOKUP(A109, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A109, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR109">
@@ -21012,7 +21070,7 @@
         <v/>
       </c>
       <c r="AQ110">
-        <f>IFERROR(VLOOKUP(A110, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A110, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR110">
@@ -21195,7 +21253,7 @@
         <v/>
       </c>
       <c r="AQ111">
-        <f>IFERROR(VLOOKUP(A111, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A111, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR111">
@@ -21378,7 +21436,7 @@
         <v/>
       </c>
       <c r="AQ112">
-        <f>IFERROR(VLOOKUP(A112, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A112, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR112">
@@ -21561,7 +21619,7 @@
         <v/>
       </c>
       <c r="AQ113">
-        <f>IFERROR(VLOOKUP(A113, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A113, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR113">
@@ -21744,7 +21802,7 @@
         <v/>
       </c>
       <c r="AQ114">
-        <f>IFERROR(VLOOKUP(A114, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A114, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR114">
@@ -21927,7 +21985,7 @@
         <v/>
       </c>
       <c r="AQ115">
-        <f>IFERROR(VLOOKUP(A115, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A115, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR115">
@@ -22110,7 +22168,7 @@
         <v/>
       </c>
       <c r="AQ116">
-        <f>IFERROR(VLOOKUP(A116, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A116, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR116">
@@ -22293,7 +22351,7 @@
         <v/>
       </c>
       <c r="AQ117">
-        <f>IFERROR(VLOOKUP(A117, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A117, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR117">
@@ -22476,7 +22534,7 @@
         <v/>
       </c>
       <c r="AQ118">
-        <f>IFERROR(VLOOKUP(A118, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A118, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR118">
@@ -22659,7 +22717,7 @@
         <v/>
       </c>
       <c r="AQ119">
-        <f>IFERROR(VLOOKUP(A119, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A119, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR119">
@@ -22842,7 +22900,7 @@
         <v/>
       </c>
       <c r="AQ120">
-        <f>IFERROR(VLOOKUP(A120, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A120, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR120">
@@ -23025,7 +23083,7 @@
         <v/>
       </c>
       <c r="AQ121">
-        <f>IFERROR(VLOOKUP(A121, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A121, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR121">
@@ -23208,7 +23266,7 @@
         <v/>
       </c>
       <c r="AQ122">
-        <f>IFERROR(VLOOKUP(A122, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A122, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR122">
@@ -23391,7 +23449,7 @@
         <v/>
       </c>
       <c r="AQ123">
-        <f>IFERROR(VLOOKUP(A123, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A123, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR123">
@@ -23574,7 +23632,7 @@
         <v/>
       </c>
       <c r="AQ124">
-        <f>IFERROR(VLOOKUP(A124, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A124, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR124">
@@ -23757,7 +23815,7 @@
         <v/>
       </c>
       <c r="AQ125">
-        <f>IFERROR(VLOOKUP(A125, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A125, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR125">
@@ -23940,7 +23998,7 @@
         <v/>
       </c>
       <c r="AQ126">
-        <f>IFERROR(VLOOKUP(A126, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A126, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR126">
@@ -24123,7 +24181,7 @@
         <v/>
       </c>
       <c r="AQ127">
-        <f>IFERROR(VLOOKUP(A127, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A127, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR127">
@@ -24306,7 +24364,7 @@
         <v/>
       </c>
       <c r="AQ128">
-        <f>IFERROR(VLOOKUP(A128, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A128, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR128">
@@ -24489,7 +24547,7 @@
         <v/>
       </c>
       <c r="AQ129">
-        <f>IFERROR(VLOOKUP(A129, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A129, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR129">
@@ -24672,7 +24730,7 @@
         <v/>
       </c>
       <c r="AQ130">
-        <f>IFERROR(VLOOKUP(A130, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A130, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR130">
@@ -24855,7 +24913,7 @@
         <v/>
       </c>
       <c r="AQ131">
-        <f>IFERROR(VLOOKUP(A131, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A131, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR131">
@@ -25038,7 +25096,7 @@
         <v/>
       </c>
       <c r="AQ132">
-        <f>IFERROR(VLOOKUP(A132, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A132, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR132">
@@ -25221,7 +25279,7 @@
         <v/>
       </c>
       <c r="AQ133">
-        <f>IFERROR(VLOOKUP(A133, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A133, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR133">
@@ -25404,7 +25462,7 @@
         <v/>
       </c>
       <c r="AQ134">
-        <f>IFERROR(VLOOKUP(A134, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A134, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR134">
@@ -25587,7 +25645,7 @@
         <v/>
       </c>
       <c r="AQ135">
-        <f>IFERROR(VLOOKUP(A135, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A135, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR135">
@@ -25770,7 +25828,7 @@
         <v/>
       </c>
       <c r="AQ136">
-        <f>IFERROR(VLOOKUP(A136, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A136, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR136">
@@ -25953,7 +26011,7 @@
         <v/>
       </c>
       <c r="AQ137">
-        <f>IFERROR(VLOOKUP(A137, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A137, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR137">
@@ -26136,7 +26194,7 @@
         <v/>
       </c>
       <c r="AQ138">
-        <f>IFERROR(VLOOKUP(A138, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A138, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR138">
@@ -26319,7 +26377,7 @@
         <v/>
       </c>
       <c r="AQ139">
-        <f>IFERROR(VLOOKUP(A139, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A139, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR139">
@@ -26502,7 +26560,7 @@
         <v/>
       </c>
       <c r="AQ140">
-        <f>IFERROR(VLOOKUP(A140, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A140, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR140">
@@ -26685,7 +26743,7 @@
         <v/>
       </c>
       <c r="AQ141">
-        <f>IFERROR(VLOOKUP(A141, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A141, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR141">
@@ -26868,7 +26926,7 @@
         <v/>
       </c>
       <c r="AQ142">
-        <f>IFERROR(VLOOKUP(A142, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A142, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR142">
@@ -27051,7 +27109,7 @@
         <v/>
       </c>
       <c r="AQ143">
-        <f>IFERROR(VLOOKUP(A143, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A143, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR143">
@@ -27234,7 +27292,7 @@
         <v/>
       </c>
       <c r="AQ144">
-        <f>IFERROR(VLOOKUP(A144, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A144, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR144">
@@ -27417,7 +27475,7 @@
         <v/>
       </c>
       <c r="AQ145">
-        <f>IFERROR(VLOOKUP(A145, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A145, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR145">
@@ -27600,7 +27658,7 @@
         <v/>
       </c>
       <c r="AQ146">
-        <f>IFERROR(VLOOKUP(A146, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A146, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR146">
@@ -27783,7 +27841,7 @@
         <v/>
       </c>
       <c r="AQ147">
-        <f>IFERROR(VLOOKUP(A147, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A147, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR147">
@@ -27966,7 +28024,7 @@
         <v/>
       </c>
       <c r="AQ148">
-        <f>IFERROR(VLOOKUP(A148, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A148, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR148">
@@ -28149,7 +28207,7 @@
         <v/>
       </c>
       <c r="AQ149">
-        <f>IFERROR(VLOOKUP(A149, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A149, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR149">
@@ -28332,7 +28390,7 @@
         <v/>
       </c>
       <c r="AQ150">
-        <f>IFERROR(VLOOKUP(A150, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A150, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR150">
@@ -28515,7 +28573,7 @@
         <v/>
       </c>
       <c r="AQ151">
-        <f>IFERROR(VLOOKUP(A151, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A151, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR151">
@@ -28698,7 +28756,7 @@
         <v/>
       </c>
       <c r="AQ152">
-        <f>IFERROR(VLOOKUP(A152, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A152, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR152">
@@ -28881,7 +28939,7 @@
         <v/>
       </c>
       <c r="AQ153">
-        <f>IFERROR(VLOOKUP(A153, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A153, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR153">
@@ -29064,7 +29122,7 @@
         <v/>
       </c>
       <c r="AQ154">
-        <f>IFERROR(VLOOKUP(A154, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A154, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR154">
@@ -29247,7 +29305,7 @@
         <v/>
       </c>
       <c r="AQ155">
-        <f>IFERROR(VLOOKUP(A155, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A155, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR155">
@@ -29430,7 +29488,7 @@
         <v/>
       </c>
       <c r="AQ156">
-        <f>IFERROR(VLOOKUP(A156, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A156, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR156">
@@ -29613,7 +29671,7 @@
         <v/>
       </c>
       <c r="AQ157">
-        <f>IFERROR(VLOOKUP(A157, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A157, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR157">
@@ -29796,7 +29854,7 @@
         <v/>
       </c>
       <c r="AQ158">
-        <f>IFERROR(VLOOKUP(A158, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A158, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR158">
@@ -29979,7 +30037,7 @@
         <v/>
       </c>
       <c r="AQ159">
-        <f>IFERROR(VLOOKUP(A159, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A159, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR159">
@@ -30162,7 +30220,7 @@
         <v/>
       </c>
       <c r="AQ160">
-        <f>IFERROR(VLOOKUP(A160, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A160, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR160">
@@ -30345,7 +30403,7 @@
         <v/>
       </c>
       <c r="AQ161">
-        <f>IFERROR(VLOOKUP(A161, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A161, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR161">
@@ -30528,7 +30586,7 @@
         <v/>
       </c>
       <c r="AQ162">
-        <f>IFERROR(VLOOKUP(A162, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A162, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR162">
@@ -30711,7 +30769,7 @@
         <v/>
       </c>
       <c r="AQ163">
-        <f>IFERROR(VLOOKUP(A163, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A163, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR163">
@@ -30894,7 +30952,7 @@
         <v/>
       </c>
       <c r="AQ164">
-        <f>IFERROR(VLOOKUP(A164, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A164, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR164">
@@ -31077,7 +31135,7 @@
         <v/>
       </c>
       <c r="AQ165">
-        <f>IFERROR(VLOOKUP(A165, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A165, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR165">
@@ -31260,7 +31318,7 @@
         <v/>
       </c>
       <c r="AQ166">
-        <f>IFERROR(VLOOKUP(A166, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A166, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR166">
@@ -31443,7 +31501,7 @@
         <v/>
       </c>
       <c r="AQ167">
-        <f>IFERROR(VLOOKUP(A167, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A167, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR167">
@@ -31626,7 +31684,7 @@
         <v/>
       </c>
       <c r="AQ168">
-        <f>IFERROR(VLOOKUP(A168, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A168, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR168">
@@ -31809,7 +31867,7 @@
         <v/>
       </c>
       <c r="AQ169">
-        <f>IFERROR(VLOOKUP(A169, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A169, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR169">
@@ -31992,7 +32050,7 @@
         <v/>
       </c>
       <c r="AQ170">
-        <f>IFERROR(VLOOKUP(A170, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A170, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR170">
@@ -32175,7 +32233,7 @@
         <v/>
       </c>
       <c r="AQ171">
-        <f>IFERROR(VLOOKUP(A171, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A171, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR171">
@@ -32358,7 +32416,7 @@
         <v/>
       </c>
       <c r="AQ172">
-        <f>IFERROR(VLOOKUP(A172, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A172, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR172">
@@ -32541,7 +32599,7 @@
         <v/>
       </c>
       <c r="AQ173">
-        <f>IFERROR(VLOOKUP(A173, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A173, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR173">
@@ -32724,7 +32782,7 @@
         <v/>
       </c>
       <c r="AQ174">
-        <f>IFERROR(VLOOKUP(A174, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A174, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR174">
@@ -32907,7 +32965,7 @@
         <v/>
       </c>
       <c r="AQ175">
-        <f>IFERROR(VLOOKUP(A175, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A175, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR175">
@@ -33090,7 +33148,7 @@
         <v/>
       </c>
       <c r="AQ176">
-        <f>IFERROR(VLOOKUP(A176, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A176, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR176">
@@ -33273,7 +33331,7 @@
         <v/>
       </c>
       <c r="AQ177">
-        <f>IFERROR(VLOOKUP(A177, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A177, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR177">
@@ -33456,7 +33514,7 @@
         <v/>
       </c>
       <c r="AQ178">
-        <f>IFERROR(VLOOKUP(A178, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A178, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR178">
@@ -33639,7 +33697,7 @@
         <v/>
       </c>
       <c r="AQ179">
-        <f>IFERROR(VLOOKUP(A179, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A179, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR179">
@@ -33822,7 +33880,7 @@
         <v/>
       </c>
       <c r="AQ180">
-        <f>IFERROR(VLOOKUP(A180, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A180, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR180">
@@ -34005,7 +34063,7 @@
         <v/>
       </c>
       <c r="AQ181">
-        <f>IFERROR(VLOOKUP(A181, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A181, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR181">
@@ -34188,7 +34246,7 @@
         <v/>
       </c>
       <c r="AQ182">
-        <f>IFERROR(VLOOKUP(A182, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A182, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR182">
@@ -34371,7 +34429,7 @@
         <v/>
       </c>
       <c r="AQ183">
-        <f>IFERROR(VLOOKUP(A183, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A183, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR183">
@@ -34554,7 +34612,7 @@
         <v/>
       </c>
       <c r="AQ184">
-        <f>IFERROR(VLOOKUP(A184, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A184, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR184">
@@ -34737,7 +34795,7 @@
         <v/>
       </c>
       <c r="AQ185">
-        <f>IFERROR(VLOOKUP(A185, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A185, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR185">
@@ -34920,7 +34978,7 @@
         <v/>
       </c>
       <c r="AQ186">
-        <f>IFERROR(VLOOKUP(A186, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A186, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR186">
@@ -35103,7 +35161,7 @@
         <v/>
       </c>
       <c r="AQ187">
-        <f>IFERROR(VLOOKUP(A187, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A187, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR187">
@@ -35286,7 +35344,7 @@
         <v/>
       </c>
       <c r="AQ188">
-        <f>IFERROR(VLOOKUP(A188, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A188, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR188">
@@ -35469,7 +35527,7 @@
         <v/>
       </c>
       <c r="AQ189">
-        <f>IFERROR(VLOOKUP(A189, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A189, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR189">
@@ -35652,7 +35710,7 @@
         <v/>
       </c>
       <c r="AQ190">
-        <f>IFERROR(VLOOKUP(A190, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A190, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR190">
@@ -35835,7 +35893,7 @@
         <v/>
       </c>
       <c r="AQ191">
-        <f>IFERROR(VLOOKUP(A191, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A191, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR191">
@@ -36018,7 +36076,7 @@
         <v/>
       </c>
       <c r="AQ192">
-        <f>IFERROR(VLOOKUP(A192, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A192, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR192">
@@ -36201,7 +36259,7 @@
         <v/>
       </c>
       <c r="AQ193">
-        <f>IFERROR(VLOOKUP(A193, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A193, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR193">
@@ -36384,7 +36442,7 @@
         <v/>
       </c>
       <c r="AQ194">
-        <f>IFERROR(VLOOKUP(A194, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A194, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR194">
@@ -36567,7 +36625,7 @@
         <v/>
       </c>
       <c r="AQ195">
-        <f>IFERROR(VLOOKUP(A195, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A195, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR195">
@@ -36750,7 +36808,7 @@
         <v/>
       </c>
       <c r="AQ196">
-        <f>IFERROR(VLOOKUP(A196, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A196, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR196">
@@ -36933,7 +36991,7 @@
         <v/>
       </c>
       <c r="AQ197">
-        <f>IFERROR(VLOOKUP(A197, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A197, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR197">
@@ -37116,7 +37174,7 @@
         <v/>
       </c>
       <c r="AQ198">
-        <f>IFERROR(VLOOKUP(A198, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A198, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR198">
@@ -37299,7 +37357,7 @@
         <v/>
       </c>
       <c r="AQ199">
-        <f>IFERROR(VLOOKUP(A199, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A199, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR199">
@@ -37482,7 +37540,7 @@
         <v/>
       </c>
       <c r="AQ200">
-        <f>IFERROR(VLOOKUP(A200, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A200, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR200">
@@ -37665,7 +37723,7 @@
         <v/>
       </c>
       <c r="AQ201">
-        <f>IFERROR(VLOOKUP(A201, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A201, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR201">
@@ -37848,7 +37906,7 @@
         <v/>
       </c>
       <c r="AQ202">
-        <f>IFERROR(VLOOKUP(A202, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A202, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR202">
@@ -38031,7 +38089,7 @@
         <v/>
       </c>
       <c r="AQ203">
-        <f>IFERROR(VLOOKUP(A203, AZInsight_Data!$A:$AS, 5, FALSE), "SL")</f>
+        <f>IFERROR(VLOOKUP(A203, AZInsight_Data!$A:$AS, 5, FALSE), "")</f>
         <v/>
       </c>
       <c r="AR203">
@@ -38078,6 +38136,9 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -44488,4403 +44549,1020 @@
     </row>
     <row r="2">
       <c r="A2">
-        <f>IF(BUY!U4&gt;0, BUY!A4, "")</f>
+        <f>IFERROR(UNIQUE(FILTER(BuyData[Item Code], (BuyData[Order Qty (Unit)]&gt;0)*(BuyData[Item Code]&lt;&gt;""))), "No Orders")</f>
         <v/>
       </c>
       <c r="B2">
-        <f>IF(BUY!U4&gt;0, BUY!S4, "")</f>
+        <f>IF(A2="No Orders", "", XLOOKUP(A2#, BuyData[Item Code], BuyData[Description], ""))</f>
         <v/>
       </c>
       <c r="C2" s="17">
-        <f>IF(BUY!U4&gt;0, BUY!T4, "")</f>
+        <f>IF(A2="No Orders", "", XLOOKUP(A2#, BuyData[Item Code], BuyData[Cost], 0))</f>
         <v/>
       </c>
       <c r="D2" s="13">
-        <f>IF(BUY!U4&gt;0, BUY!U4, "")</f>
+        <f>IF(A2="No Orders", "", SUMIFS(BuyData[Order Qty (Unit)], BuyData[Item Code], A2#))</f>
         <v/>
       </c>
       <c r="E2" s="15">
-        <f>IF(BUY!U4&gt;0, BUY!V4, "")</f>
+        <f>IF(A2="No Orders", "", SUMIFS(BuyData[Order Amount], BuyData[Item Code], A2#))</f>
         <v/>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <f>IF(BUY!U5&gt;0, BUY!A5, "")</f>
-        <v/>
-      </c>
-      <c r="B3">
-        <f>IF(BUY!U5&gt;0, BUY!S5, "")</f>
-        <v/>
-      </c>
-      <c r="C3" s="17">
-        <f>IF(BUY!U5&gt;0, BUY!T5, "")</f>
-        <v/>
-      </c>
-      <c r="D3" s="13">
-        <f>IF(BUY!U5&gt;0, BUY!U5, "")</f>
-        <v/>
-      </c>
-      <c r="E3" s="15">
-        <f>IF(BUY!U5&gt;0, BUY!V5, "")</f>
-        <v/>
-      </c>
+      <c r="C3" s="17" t="n"/>
+      <c r="D3" s="13" t="n"/>
+      <c r="E3" s="15" t="n"/>
     </row>
     <row r="4">
-      <c r="A4">
-        <f>IF(BUY!U6&gt;0, BUY!A6, "")</f>
-        <v/>
-      </c>
-      <c r="B4">
-        <f>IF(BUY!U6&gt;0, BUY!S6, "")</f>
-        <v/>
-      </c>
-      <c r="C4" s="17">
-        <f>IF(BUY!U6&gt;0, BUY!T6, "")</f>
-        <v/>
-      </c>
-      <c r="D4" s="13">
-        <f>IF(BUY!U6&gt;0, BUY!U6, "")</f>
-        <v/>
-      </c>
-      <c r="E4" s="15">
-        <f>IF(BUY!U6&gt;0, BUY!V6, "")</f>
-        <v/>
-      </c>
+      <c r="C4" s="17" t="n"/>
+      <c r="D4" s="13" t="n"/>
+      <c r="E4" s="15" t="n"/>
     </row>
     <row r="5">
-      <c r="A5">
-        <f>IF(BUY!U7&gt;0, BUY!A7, "")</f>
-        <v/>
-      </c>
-      <c r="B5">
-        <f>IF(BUY!U7&gt;0, BUY!S7, "")</f>
-        <v/>
-      </c>
-      <c r="C5" s="17">
-        <f>IF(BUY!U7&gt;0, BUY!T7, "")</f>
-        <v/>
-      </c>
-      <c r="D5" s="13">
-        <f>IF(BUY!U7&gt;0, BUY!U7, "")</f>
-        <v/>
-      </c>
-      <c r="E5" s="15">
-        <f>IF(BUY!U7&gt;0, BUY!V7, "")</f>
-        <v/>
-      </c>
+      <c r="C5" s="17" t="n"/>
+      <c r="D5" s="13" t="n"/>
+      <c r="E5" s="15" t="n"/>
     </row>
     <row r="6">
-      <c r="A6">
-        <f>IF(BUY!U8&gt;0, BUY!A8, "")</f>
-        <v/>
-      </c>
-      <c r="B6">
-        <f>IF(BUY!U8&gt;0, BUY!S8, "")</f>
-        <v/>
-      </c>
-      <c r="C6" s="17">
-        <f>IF(BUY!U8&gt;0, BUY!T8, "")</f>
-        <v/>
-      </c>
-      <c r="D6" s="13">
-        <f>IF(BUY!U8&gt;0, BUY!U8, "")</f>
-        <v/>
-      </c>
-      <c r="E6" s="15">
-        <f>IF(BUY!U8&gt;0, BUY!V8, "")</f>
-        <v/>
-      </c>
+      <c r="C6" s="17" t="n"/>
+      <c r="D6" s="13" t="n"/>
+      <c r="E6" s="15" t="n"/>
     </row>
     <row r="7">
-      <c r="A7">
-        <f>IF(BUY!U9&gt;0, BUY!A9, "")</f>
-        <v/>
-      </c>
-      <c r="B7">
-        <f>IF(BUY!U9&gt;0, BUY!S9, "")</f>
-        <v/>
-      </c>
-      <c r="C7" s="17">
-        <f>IF(BUY!U9&gt;0, BUY!T9, "")</f>
-        <v/>
-      </c>
-      <c r="D7" s="13">
-        <f>IF(BUY!U9&gt;0, BUY!U9, "")</f>
-        <v/>
-      </c>
-      <c r="E7" s="15">
-        <f>IF(BUY!U9&gt;0, BUY!V9, "")</f>
-        <v/>
-      </c>
+      <c r="C7" s="17" t="n"/>
+      <c r="D7" s="13" t="n"/>
+      <c r="E7" s="15" t="n"/>
     </row>
     <row r="8">
-      <c r="A8">
-        <f>IF(BUY!U10&gt;0, BUY!A10, "")</f>
-        <v/>
-      </c>
-      <c r="B8">
-        <f>IF(BUY!U10&gt;0, BUY!S10, "")</f>
-        <v/>
-      </c>
-      <c r="C8" s="17">
-        <f>IF(BUY!U10&gt;0, BUY!T10, "")</f>
-        <v/>
-      </c>
-      <c r="D8" s="13">
-        <f>IF(BUY!U10&gt;0, BUY!U10, "")</f>
-        <v/>
-      </c>
-      <c r="E8" s="15">
-        <f>IF(BUY!U10&gt;0, BUY!V10, "")</f>
-        <v/>
-      </c>
+      <c r="C8" s="17" t="n"/>
+      <c r="D8" s="13" t="n"/>
+      <c r="E8" s="15" t="n"/>
     </row>
     <row r="9">
-      <c r="A9">
-        <f>IF(BUY!U11&gt;0, BUY!A11, "")</f>
-        <v/>
-      </c>
-      <c r="B9">
-        <f>IF(BUY!U11&gt;0, BUY!S11, "")</f>
-        <v/>
-      </c>
-      <c r="C9" s="17">
-        <f>IF(BUY!U11&gt;0, BUY!T11, "")</f>
-        <v/>
-      </c>
-      <c r="D9" s="13">
-        <f>IF(BUY!U11&gt;0, BUY!U11, "")</f>
-        <v/>
-      </c>
-      <c r="E9" s="15">
-        <f>IF(BUY!U11&gt;0, BUY!V11, "")</f>
-        <v/>
-      </c>
+      <c r="C9" s="17" t="n"/>
+      <c r="D9" s="13" t="n"/>
+      <c r="E9" s="15" t="n"/>
     </row>
     <row r="10">
-      <c r="A10">
-        <f>IF(BUY!U12&gt;0, BUY!A12, "")</f>
-        <v/>
-      </c>
-      <c r="B10">
-        <f>IF(BUY!U12&gt;0, BUY!S12, "")</f>
-        <v/>
-      </c>
-      <c r="C10" s="17">
-        <f>IF(BUY!U12&gt;0, BUY!T12, "")</f>
-        <v/>
-      </c>
-      <c r="D10" s="13">
-        <f>IF(BUY!U12&gt;0, BUY!U12, "")</f>
-        <v/>
-      </c>
-      <c r="E10" s="15">
-        <f>IF(BUY!U12&gt;0, BUY!V12, "")</f>
-        <v/>
-      </c>
+      <c r="C10" s="17" t="n"/>
+      <c r="D10" s="13" t="n"/>
+      <c r="E10" s="15" t="n"/>
     </row>
     <row r="11">
-      <c r="A11">
-        <f>IF(BUY!U13&gt;0, BUY!A13, "")</f>
-        <v/>
-      </c>
-      <c r="B11">
-        <f>IF(BUY!U13&gt;0, BUY!S13, "")</f>
-        <v/>
-      </c>
-      <c r="C11" s="17">
-        <f>IF(BUY!U13&gt;0, BUY!T13, "")</f>
-        <v/>
-      </c>
-      <c r="D11" s="13">
-        <f>IF(BUY!U13&gt;0, BUY!U13, "")</f>
-        <v/>
-      </c>
-      <c r="E11" s="15">
-        <f>IF(BUY!U13&gt;0, BUY!V13, "")</f>
-        <v/>
-      </c>
+      <c r="C11" s="17" t="n"/>
+      <c r="D11" s="13" t="n"/>
+      <c r="E11" s="15" t="n"/>
     </row>
     <row r="12">
-      <c r="A12">
-        <f>IF(BUY!U14&gt;0, BUY!A14, "")</f>
-        <v/>
-      </c>
-      <c r="B12">
-        <f>IF(BUY!U14&gt;0, BUY!S14, "")</f>
-        <v/>
-      </c>
-      <c r="C12" s="17">
-        <f>IF(BUY!U14&gt;0, BUY!T14, "")</f>
-        <v/>
-      </c>
-      <c r="D12" s="13">
-        <f>IF(BUY!U14&gt;0, BUY!U14, "")</f>
-        <v/>
-      </c>
-      <c r="E12" s="15">
-        <f>IF(BUY!U14&gt;0, BUY!V14, "")</f>
-        <v/>
-      </c>
+      <c r="C12" s="17" t="n"/>
+      <c r="D12" s="13" t="n"/>
+      <c r="E12" s="15" t="n"/>
     </row>
     <row r="13">
-      <c r="A13">
-        <f>IF(BUY!U15&gt;0, BUY!A15, "")</f>
-        <v/>
-      </c>
-      <c r="B13">
-        <f>IF(BUY!U15&gt;0, BUY!S15, "")</f>
-        <v/>
-      </c>
-      <c r="C13" s="17">
-        <f>IF(BUY!U15&gt;0, BUY!T15, "")</f>
-        <v/>
-      </c>
-      <c r="D13" s="13">
-        <f>IF(BUY!U15&gt;0, BUY!U15, "")</f>
-        <v/>
-      </c>
-      <c r="E13" s="15">
-        <f>IF(BUY!U15&gt;0, BUY!V15, "")</f>
-        <v/>
-      </c>
+      <c r="C13" s="17" t="n"/>
+      <c r="D13" s="13" t="n"/>
+      <c r="E13" s="15" t="n"/>
     </row>
     <row r="14">
-      <c r="A14">
-        <f>IF(BUY!U16&gt;0, BUY!A16, "")</f>
-        <v/>
-      </c>
-      <c r="B14">
-        <f>IF(BUY!U16&gt;0, BUY!S16, "")</f>
-        <v/>
-      </c>
-      <c r="C14" s="17">
-        <f>IF(BUY!U16&gt;0, BUY!T16, "")</f>
-        <v/>
-      </c>
-      <c r="D14" s="13">
-        <f>IF(BUY!U16&gt;0, BUY!U16, "")</f>
-        <v/>
-      </c>
-      <c r="E14" s="15">
-        <f>IF(BUY!U16&gt;0, BUY!V16, "")</f>
-        <v/>
-      </c>
+      <c r="C14" s="17" t="n"/>
+      <c r="D14" s="13" t="n"/>
+      <c r="E14" s="15" t="n"/>
     </row>
     <row r="15">
-      <c r="A15">
-        <f>IF(BUY!U17&gt;0, BUY!A17, "")</f>
-        <v/>
-      </c>
-      <c r="B15">
-        <f>IF(BUY!U17&gt;0, BUY!S17, "")</f>
-        <v/>
-      </c>
-      <c r="C15" s="17">
-        <f>IF(BUY!U17&gt;0, BUY!T17, "")</f>
-        <v/>
-      </c>
-      <c r="D15" s="13">
-        <f>IF(BUY!U17&gt;0, BUY!U17, "")</f>
-        <v/>
-      </c>
-      <c r="E15" s="15">
-        <f>IF(BUY!U17&gt;0, BUY!V17, "")</f>
-        <v/>
-      </c>
+      <c r="C15" s="17" t="n"/>
+      <c r="D15" s="13" t="n"/>
+      <c r="E15" s="15" t="n"/>
     </row>
     <row r="16">
-      <c r="A16">
-        <f>IF(BUY!U18&gt;0, BUY!A18, "")</f>
-        <v/>
-      </c>
-      <c r="B16">
-        <f>IF(BUY!U18&gt;0, BUY!S18, "")</f>
-        <v/>
-      </c>
-      <c r="C16" s="17">
-        <f>IF(BUY!U18&gt;0, BUY!T18, "")</f>
-        <v/>
-      </c>
-      <c r="D16" s="13">
-        <f>IF(BUY!U18&gt;0, BUY!U18, "")</f>
-        <v/>
-      </c>
-      <c r="E16" s="15">
-        <f>IF(BUY!U18&gt;0, BUY!V18, "")</f>
-        <v/>
-      </c>
+      <c r="C16" s="17" t="n"/>
+      <c r="D16" s="13" t="n"/>
+      <c r="E16" s="15" t="n"/>
     </row>
     <row r="17">
-      <c r="A17">
-        <f>IF(BUY!U19&gt;0, BUY!A19, "")</f>
-        <v/>
-      </c>
-      <c r="B17">
-        <f>IF(BUY!U19&gt;0, BUY!S19, "")</f>
-        <v/>
-      </c>
-      <c r="C17" s="17">
-        <f>IF(BUY!U19&gt;0, BUY!T19, "")</f>
-        <v/>
-      </c>
-      <c r="D17" s="13">
-        <f>IF(BUY!U19&gt;0, BUY!U19, "")</f>
-        <v/>
-      </c>
-      <c r="E17" s="15">
-        <f>IF(BUY!U19&gt;0, BUY!V19, "")</f>
-        <v/>
-      </c>
+      <c r="C17" s="17" t="n"/>
+      <c r="D17" s="13" t="n"/>
+      <c r="E17" s="15" t="n"/>
     </row>
     <row r="18">
-      <c r="A18">
-        <f>IF(BUY!U20&gt;0, BUY!A20, "")</f>
-        <v/>
-      </c>
-      <c r="B18">
-        <f>IF(BUY!U20&gt;0, BUY!S20, "")</f>
-        <v/>
-      </c>
-      <c r="C18" s="17">
-        <f>IF(BUY!U20&gt;0, BUY!T20, "")</f>
-        <v/>
-      </c>
-      <c r="D18" s="13">
-        <f>IF(BUY!U20&gt;0, BUY!U20, "")</f>
-        <v/>
-      </c>
-      <c r="E18" s="15">
-        <f>IF(BUY!U20&gt;0, BUY!V20, "")</f>
-        <v/>
-      </c>
+      <c r="C18" s="17" t="n"/>
+      <c r="D18" s="13" t="n"/>
+      <c r="E18" s="15" t="n"/>
     </row>
     <row r="19">
-      <c r="A19">
-        <f>IF(BUY!U21&gt;0, BUY!A21, "")</f>
-        <v/>
-      </c>
-      <c r="B19">
-        <f>IF(BUY!U21&gt;0, BUY!S21, "")</f>
-        <v/>
-      </c>
-      <c r="C19" s="17">
-        <f>IF(BUY!U21&gt;0, BUY!T21, "")</f>
-        <v/>
-      </c>
-      <c r="D19" s="13">
-        <f>IF(BUY!U21&gt;0, BUY!U21, "")</f>
-        <v/>
-      </c>
-      <c r="E19" s="15">
-        <f>IF(BUY!U21&gt;0, BUY!V21, "")</f>
-        <v/>
-      </c>
+      <c r="C19" s="17" t="n"/>
+      <c r="D19" s="13" t="n"/>
+      <c r="E19" s="15" t="n"/>
     </row>
     <row r="20">
-      <c r="A20">
-        <f>IF(BUY!U22&gt;0, BUY!A22, "")</f>
-        <v/>
-      </c>
-      <c r="B20">
-        <f>IF(BUY!U22&gt;0, BUY!S22, "")</f>
-        <v/>
-      </c>
-      <c r="C20" s="17">
-        <f>IF(BUY!U22&gt;0, BUY!T22, "")</f>
-        <v/>
-      </c>
-      <c r="D20" s="13">
-        <f>IF(BUY!U22&gt;0, BUY!U22, "")</f>
-        <v/>
-      </c>
-      <c r="E20" s="15">
-        <f>IF(BUY!U22&gt;0, BUY!V22, "")</f>
-        <v/>
-      </c>
+      <c r="C20" s="17" t="n"/>
+      <c r="D20" s="13" t="n"/>
+      <c r="E20" s="15" t="n"/>
     </row>
     <row r="21">
-      <c r="A21">
-        <f>IF(BUY!U23&gt;0, BUY!A23, "")</f>
-        <v/>
-      </c>
-      <c r="B21">
-        <f>IF(BUY!U23&gt;0, BUY!S23, "")</f>
-        <v/>
-      </c>
-      <c r="C21" s="17">
-        <f>IF(BUY!U23&gt;0, BUY!T23, "")</f>
-        <v/>
-      </c>
-      <c r="D21" s="13">
-        <f>IF(BUY!U23&gt;0, BUY!U23, "")</f>
-        <v/>
-      </c>
-      <c r="E21" s="15">
-        <f>IF(BUY!U23&gt;0, BUY!V23, "")</f>
-        <v/>
-      </c>
+      <c r="C21" s="17" t="n"/>
+      <c r="D21" s="13" t="n"/>
+      <c r="E21" s="15" t="n"/>
     </row>
     <row r="22">
-      <c r="A22">
-        <f>IF(BUY!U24&gt;0, BUY!A24, "")</f>
-        <v/>
-      </c>
-      <c r="B22">
-        <f>IF(BUY!U24&gt;0, BUY!S24, "")</f>
-        <v/>
-      </c>
-      <c r="C22" s="17">
-        <f>IF(BUY!U24&gt;0, BUY!T24, "")</f>
-        <v/>
-      </c>
-      <c r="D22" s="13">
-        <f>IF(BUY!U24&gt;0, BUY!U24, "")</f>
-        <v/>
-      </c>
-      <c r="E22" s="15">
-        <f>IF(BUY!U24&gt;0, BUY!V24, "")</f>
-        <v/>
-      </c>
+      <c r="C22" s="17" t="n"/>
+      <c r="D22" s="13" t="n"/>
+      <c r="E22" s="15" t="n"/>
     </row>
     <row r="23">
-      <c r="A23">
-        <f>IF(BUY!U25&gt;0, BUY!A25, "")</f>
-        <v/>
-      </c>
-      <c r="B23">
-        <f>IF(BUY!U25&gt;0, BUY!S25, "")</f>
-        <v/>
-      </c>
-      <c r="C23" s="17">
-        <f>IF(BUY!U25&gt;0, BUY!T25, "")</f>
-        <v/>
-      </c>
-      <c r="D23" s="13">
-        <f>IF(BUY!U25&gt;0, BUY!U25, "")</f>
-        <v/>
-      </c>
-      <c r="E23" s="15">
-        <f>IF(BUY!U25&gt;0, BUY!V25, "")</f>
-        <v/>
-      </c>
+      <c r="C23" s="17" t="n"/>
+      <c r="D23" s="13" t="n"/>
+      <c r="E23" s="15" t="n"/>
     </row>
     <row r="24">
-      <c r="A24">
-        <f>IF(BUY!U26&gt;0, BUY!A26, "")</f>
-        <v/>
-      </c>
-      <c r="B24">
-        <f>IF(BUY!U26&gt;0, BUY!S26, "")</f>
-        <v/>
-      </c>
-      <c r="C24" s="17">
-        <f>IF(BUY!U26&gt;0, BUY!T26, "")</f>
-        <v/>
-      </c>
-      <c r="D24" s="13">
-        <f>IF(BUY!U26&gt;0, BUY!U26, "")</f>
-        <v/>
-      </c>
-      <c r="E24" s="15">
-        <f>IF(BUY!U26&gt;0, BUY!V26, "")</f>
-        <v/>
-      </c>
+      <c r="C24" s="17" t="n"/>
+      <c r="D24" s="13" t="n"/>
+      <c r="E24" s="15" t="n"/>
     </row>
     <row r="25">
-      <c r="A25">
-        <f>IF(BUY!U27&gt;0, BUY!A27, "")</f>
-        <v/>
-      </c>
-      <c r="B25">
-        <f>IF(BUY!U27&gt;0, BUY!S27, "")</f>
-        <v/>
-      </c>
-      <c r="C25" s="17">
-        <f>IF(BUY!U27&gt;0, BUY!T27, "")</f>
-        <v/>
-      </c>
-      <c r="D25" s="13">
-        <f>IF(BUY!U27&gt;0, BUY!U27, "")</f>
-        <v/>
-      </c>
-      <c r="E25" s="15">
-        <f>IF(BUY!U27&gt;0, BUY!V27, "")</f>
-        <v/>
-      </c>
+      <c r="C25" s="17" t="n"/>
+      <c r="D25" s="13" t="n"/>
+      <c r="E25" s="15" t="n"/>
     </row>
     <row r="26">
-      <c r="A26">
-        <f>IF(BUY!U28&gt;0, BUY!A28, "")</f>
-        <v/>
-      </c>
-      <c r="B26">
-        <f>IF(BUY!U28&gt;0, BUY!S28, "")</f>
-        <v/>
-      </c>
-      <c r="C26" s="17">
-        <f>IF(BUY!U28&gt;0, BUY!T28, "")</f>
-        <v/>
-      </c>
-      <c r="D26" s="13">
-        <f>IF(BUY!U28&gt;0, BUY!U28, "")</f>
-        <v/>
-      </c>
-      <c r="E26" s="15">
-        <f>IF(BUY!U28&gt;0, BUY!V28, "")</f>
-        <v/>
-      </c>
+      <c r="C26" s="17" t="n"/>
+      <c r="D26" s="13" t="n"/>
+      <c r="E26" s="15" t="n"/>
     </row>
     <row r="27">
-      <c r="A27">
-        <f>IF(BUY!U29&gt;0, BUY!A29, "")</f>
-        <v/>
-      </c>
-      <c r="B27">
-        <f>IF(BUY!U29&gt;0, BUY!S29, "")</f>
-        <v/>
-      </c>
-      <c r="C27" s="17">
-        <f>IF(BUY!U29&gt;0, BUY!T29, "")</f>
-        <v/>
-      </c>
-      <c r="D27" s="13">
-        <f>IF(BUY!U29&gt;0, BUY!U29, "")</f>
-        <v/>
-      </c>
-      <c r="E27" s="15">
-        <f>IF(BUY!U29&gt;0, BUY!V29, "")</f>
-        <v/>
-      </c>
+      <c r="C27" s="17" t="n"/>
+      <c r="D27" s="13" t="n"/>
+      <c r="E27" s="15" t="n"/>
     </row>
     <row r="28">
-      <c r="A28">
-        <f>IF(BUY!U30&gt;0, BUY!A30, "")</f>
-        <v/>
-      </c>
-      <c r="B28">
-        <f>IF(BUY!U30&gt;0, BUY!S30, "")</f>
-        <v/>
-      </c>
-      <c r="C28" s="17">
-        <f>IF(BUY!U30&gt;0, BUY!T30, "")</f>
-        <v/>
-      </c>
-      <c r="D28" s="13">
-        <f>IF(BUY!U30&gt;0, BUY!U30, "")</f>
-        <v/>
-      </c>
-      <c r="E28" s="15">
-        <f>IF(BUY!U30&gt;0, BUY!V30, "")</f>
-        <v/>
-      </c>
+      <c r="C28" s="17" t="n"/>
+      <c r="D28" s="13" t="n"/>
+      <c r="E28" s="15" t="n"/>
     </row>
     <row r="29">
-      <c r="A29">
-        <f>IF(BUY!U31&gt;0, BUY!A31, "")</f>
-        <v/>
-      </c>
-      <c r="B29">
-        <f>IF(BUY!U31&gt;0, BUY!S31, "")</f>
-        <v/>
-      </c>
-      <c r="C29" s="17">
-        <f>IF(BUY!U31&gt;0, BUY!T31, "")</f>
-        <v/>
-      </c>
-      <c r="D29" s="13">
-        <f>IF(BUY!U31&gt;0, BUY!U31, "")</f>
-        <v/>
-      </c>
-      <c r="E29" s="15">
-        <f>IF(BUY!U31&gt;0, BUY!V31, "")</f>
-        <v/>
-      </c>
+      <c r="C29" s="17" t="n"/>
+      <c r="D29" s="13" t="n"/>
+      <c r="E29" s="15" t="n"/>
     </row>
     <row r="30">
-      <c r="A30">
-        <f>IF(BUY!U32&gt;0, BUY!A32, "")</f>
-        <v/>
-      </c>
-      <c r="B30">
-        <f>IF(BUY!U32&gt;0, BUY!S32, "")</f>
-        <v/>
-      </c>
-      <c r="C30" s="17">
-        <f>IF(BUY!U32&gt;0, BUY!T32, "")</f>
-        <v/>
-      </c>
-      <c r="D30" s="13">
-        <f>IF(BUY!U32&gt;0, BUY!U32, "")</f>
-        <v/>
-      </c>
-      <c r="E30" s="15">
-        <f>IF(BUY!U32&gt;0, BUY!V32, "")</f>
-        <v/>
-      </c>
+      <c r="C30" s="17" t="n"/>
+      <c r="D30" s="13" t="n"/>
+      <c r="E30" s="15" t="n"/>
     </row>
     <row r="31">
-      <c r="A31">
-        <f>IF(BUY!U33&gt;0, BUY!A33, "")</f>
-        <v/>
-      </c>
-      <c r="B31">
-        <f>IF(BUY!U33&gt;0, BUY!S33, "")</f>
-        <v/>
-      </c>
-      <c r="C31" s="17">
-        <f>IF(BUY!U33&gt;0, BUY!T33, "")</f>
-        <v/>
-      </c>
-      <c r="D31" s="13">
-        <f>IF(BUY!U33&gt;0, BUY!U33, "")</f>
-        <v/>
-      </c>
-      <c r="E31" s="15">
-        <f>IF(BUY!U33&gt;0, BUY!V33, "")</f>
-        <v/>
-      </c>
+      <c r="C31" s="17" t="n"/>
+      <c r="D31" s="13" t="n"/>
+      <c r="E31" s="15" t="n"/>
     </row>
     <row r="32">
-      <c r="A32">
-        <f>IF(BUY!U34&gt;0, BUY!A34, "")</f>
-        <v/>
-      </c>
-      <c r="B32">
-        <f>IF(BUY!U34&gt;0, BUY!S34, "")</f>
-        <v/>
-      </c>
-      <c r="C32" s="17">
-        <f>IF(BUY!U34&gt;0, BUY!T34, "")</f>
-        <v/>
-      </c>
-      <c r="D32" s="13">
-        <f>IF(BUY!U34&gt;0, BUY!U34, "")</f>
-        <v/>
-      </c>
-      <c r="E32" s="15">
-        <f>IF(BUY!U34&gt;0, BUY!V34, "")</f>
-        <v/>
-      </c>
+      <c r="C32" s="17" t="n"/>
+      <c r="D32" s="13" t="n"/>
+      <c r="E32" s="15" t="n"/>
     </row>
     <row r="33">
-      <c r="A33">
-        <f>IF(BUY!U35&gt;0, BUY!A35, "")</f>
-        <v/>
-      </c>
-      <c r="B33">
-        <f>IF(BUY!U35&gt;0, BUY!S35, "")</f>
-        <v/>
-      </c>
-      <c r="C33" s="17">
-        <f>IF(BUY!U35&gt;0, BUY!T35, "")</f>
-        <v/>
-      </c>
-      <c r="D33" s="13">
-        <f>IF(BUY!U35&gt;0, BUY!U35, "")</f>
-        <v/>
-      </c>
-      <c r="E33" s="15">
-        <f>IF(BUY!U35&gt;0, BUY!V35, "")</f>
-        <v/>
-      </c>
+      <c r="C33" s="17" t="n"/>
+      <c r="D33" s="13" t="n"/>
+      <c r="E33" s="15" t="n"/>
     </row>
     <row r="34">
-      <c r="A34">
-        <f>IF(BUY!U36&gt;0, BUY!A36, "")</f>
-        <v/>
-      </c>
-      <c r="B34">
-        <f>IF(BUY!U36&gt;0, BUY!S36, "")</f>
-        <v/>
-      </c>
-      <c r="C34" s="17">
-        <f>IF(BUY!U36&gt;0, BUY!T36, "")</f>
-        <v/>
-      </c>
-      <c r="D34" s="13">
-        <f>IF(BUY!U36&gt;0, BUY!U36, "")</f>
-        <v/>
-      </c>
-      <c r="E34" s="15">
-        <f>IF(BUY!U36&gt;0, BUY!V36, "")</f>
-        <v/>
-      </c>
+      <c r="C34" s="17" t="n"/>
+      <c r="D34" s="13" t="n"/>
+      <c r="E34" s="15" t="n"/>
     </row>
     <row r="35">
-      <c r="A35">
-        <f>IF(BUY!U37&gt;0, BUY!A37, "")</f>
-        <v/>
-      </c>
-      <c r="B35">
-        <f>IF(BUY!U37&gt;0, BUY!S37, "")</f>
-        <v/>
-      </c>
-      <c r="C35" s="17">
-        <f>IF(BUY!U37&gt;0, BUY!T37, "")</f>
-        <v/>
-      </c>
-      <c r="D35" s="13">
-        <f>IF(BUY!U37&gt;0, BUY!U37, "")</f>
-        <v/>
-      </c>
-      <c r="E35" s="15">
-        <f>IF(BUY!U37&gt;0, BUY!V37, "")</f>
-        <v/>
-      </c>
+      <c r="C35" s="17" t="n"/>
+      <c r="D35" s="13" t="n"/>
+      <c r="E35" s="15" t="n"/>
     </row>
     <row r="36">
-      <c r="A36">
-        <f>IF(BUY!U38&gt;0, BUY!A38, "")</f>
-        <v/>
-      </c>
-      <c r="B36">
-        <f>IF(BUY!U38&gt;0, BUY!S38, "")</f>
-        <v/>
-      </c>
-      <c r="C36" s="17">
-        <f>IF(BUY!U38&gt;0, BUY!T38, "")</f>
-        <v/>
-      </c>
-      <c r="D36" s="13">
-        <f>IF(BUY!U38&gt;0, BUY!U38, "")</f>
-        <v/>
-      </c>
-      <c r="E36" s="15">
-        <f>IF(BUY!U38&gt;0, BUY!V38, "")</f>
-        <v/>
-      </c>
+      <c r="C36" s="17" t="n"/>
+      <c r="D36" s="13" t="n"/>
+      <c r="E36" s="15" t="n"/>
     </row>
     <row r="37">
-      <c r="A37">
-        <f>IF(BUY!U39&gt;0, BUY!A39, "")</f>
-        <v/>
-      </c>
-      <c r="B37">
-        <f>IF(BUY!U39&gt;0, BUY!S39, "")</f>
-        <v/>
-      </c>
-      <c r="C37" s="17">
-        <f>IF(BUY!U39&gt;0, BUY!T39, "")</f>
-        <v/>
-      </c>
-      <c r="D37" s="13">
-        <f>IF(BUY!U39&gt;0, BUY!U39, "")</f>
-        <v/>
-      </c>
-      <c r="E37" s="15">
-        <f>IF(BUY!U39&gt;0, BUY!V39, "")</f>
-        <v/>
-      </c>
+      <c r="C37" s="17" t="n"/>
+      <c r="D37" s="13" t="n"/>
+      <c r="E37" s="15" t="n"/>
     </row>
     <row r="38">
-      <c r="A38">
-        <f>IF(BUY!U40&gt;0, BUY!A40, "")</f>
-        <v/>
-      </c>
-      <c r="B38">
-        <f>IF(BUY!U40&gt;0, BUY!S40, "")</f>
-        <v/>
-      </c>
-      <c r="C38" s="17">
-        <f>IF(BUY!U40&gt;0, BUY!T40, "")</f>
-        <v/>
-      </c>
-      <c r="D38" s="13">
-        <f>IF(BUY!U40&gt;0, BUY!U40, "")</f>
-        <v/>
-      </c>
-      <c r="E38" s="15">
-        <f>IF(BUY!U40&gt;0, BUY!V40, "")</f>
-        <v/>
-      </c>
+      <c r="C38" s="17" t="n"/>
+      <c r="D38" s="13" t="n"/>
+      <c r="E38" s="15" t="n"/>
     </row>
     <row r="39">
-      <c r="A39">
-        <f>IF(BUY!U41&gt;0, BUY!A41, "")</f>
-        <v/>
-      </c>
-      <c r="B39">
-        <f>IF(BUY!U41&gt;0, BUY!S41, "")</f>
-        <v/>
-      </c>
-      <c r="C39" s="17">
-        <f>IF(BUY!U41&gt;0, BUY!T41, "")</f>
-        <v/>
-      </c>
-      <c r="D39" s="13">
-        <f>IF(BUY!U41&gt;0, BUY!U41, "")</f>
-        <v/>
-      </c>
-      <c r="E39" s="15">
-        <f>IF(BUY!U41&gt;0, BUY!V41, "")</f>
-        <v/>
-      </c>
+      <c r="C39" s="17" t="n"/>
+      <c r="D39" s="13" t="n"/>
+      <c r="E39" s="15" t="n"/>
     </row>
     <row r="40">
-      <c r="A40">
-        <f>IF(BUY!U42&gt;0, BUY!A42, "")</f>
-        <v/>
-      </c>
-      <c r="B40">
-        <f>IF(BUY!U42&gt;0, BUY!S42, "")</f>
-        <v/>
-      </c>
-      <c r="C40" s="17">
-        <f>IF(BUY!U42&gt;0, BUY!T42, "")</f>
-        <v/>
-      </c>
-      <c r="D40" s="13">
-        <f>IF(BUY!U42&gt;0, BUY!U42, "")</f>
-        <v/>
-      </c>
-      <c r="E40" s="15">
-        <f>IF(BUY!U42&gt;0, BUY!V42, "")</f>
-        <v/>
-      </c>
+      <c r="C40" s="17" t="n"/>
+      <c r="D40" s="13" t="n"/>
+      <c r="E40" s="15" t="n"/>
     </row>
     <row r="41">
-      <c r="A41">
-        <f>IF(BUY!U43&gt;0, BUY!A43, "")</f>
-        <v/>
-      </c>
-      <c r="B41">
-        <f>IF(BUY!U43&gt;0, BUY!S43, "")</f>
-        <v/>
-      </c>
-      <c r="C41" s="17">
-        <f>IF(BUY!U43&gt;0, BUY!T43, "")</f>
-        <v/>
-      </c>
-      <c r="D41" s="13">
-        <f>IF(BUY!U43&gt;0, BUY!U43, "")</f>
-        <v/>
-      </c>
-      <c r="E41" s="15">
-        <f>IF(BUY!U43&gt;0, BUY!V43, "")</f>
-        <v/>
-      </c>
+      <c r="C41" s="17" t="n"/>
+      <c r="D41" s="13" t="n"/>
+      <c r="E41" s="15" t="n"/>
     </row>
     <row r="42">
-      <c r="A42">
-        <f>IF(BUY!U44&gt;0, BUY!A44, "")</f>
-        <v/>
-      </c>
-      <c r="B42">
-        <f>IF(BUY!U44&gt;0, BUY!S44, "")</f>
-        <v/>
-      </c>
-      <c r="C42" s="17">
-        <f>IF(BUY!U44&gt;0, BUY!T44, "")</f>
-        <v/>
-      </c>
-      <c r="D42" s="13">
-        <f>IF(BUY!U44&gt;0, BUY!U44, "")</f>
-        <v/>
-      </c>
-      <c r="E42" s="15">
-        <f>IF(BUY!U44&gt;0, BUY!V44, "")</f>
-        <v/>
-      </c>
+      <c r="C42" s="17" t="n"/>
+      <c r="D42" s="13" t="n"/>
+      <c r="E42" s="15" t="n"/>
     </row>
     <row r="43">
-      <c r="A43">
-        <f>IF(BUY!U45&gt;0, BUY!A45, "")</f>
-        <v/>
-      </c>
-      <c r="B43">
-        <f>IF(BUY!U45&gt;0, BUY!S45, "")</f>
-        <v/>
-      </c>
-      <c r="C43" s="17">
-        <f>IF(BUY!U45&gt;0, BUY!T45, "")</f>
-        <v/>
-      </c>
-      <c r="D43" s="13">
-        <f>IF(BUY!U45&gt;0, BUY!U45, "")</f>
-        <v/>
-      </c>
-      <c r="E43" s="15">
-        <f>IF(BUY!U45&gt;0, BUY!V45, "")</f>
-        <v/>
-      </c>
+      <c r="C43" s="17" t="n"/>
+      <c r="D43" s="13" t="n"/>
+      <c r="E43" s="15" t="n"/>
     </row>
     <row r="44">
-      <c r="A44">
-        <f>IF(BUY!U46&gt;0, BUY!A46, "")</f>
-        <v/>
-      </c>
-      <c r="B44">
-        <f>IF(BUY!U46&gt;0, BUY!S46, "")</f>
-        <v/>
-      </c>
-      <c r="C44" s="17">
-        <f>IF(BUY!U46&gt;0, BUY!T46, "")</f>
-        <v/>
-      </c>
-      <c r="D44" s="13">
-        <f>IF(BUY!U46&gt;0, BUY!U46, "")</f>
-        <v/>
-      </c>
-      <c r="E44" s="15">
-        <f>IF(BUY!U46&gt;0, BUY!V46, "")</f>
-        <v/>
-      </c>
+      <c r="C44" s="17" t="n"/>
+      <c r="D44" s="13" t="n"/>
+      <c r="E44" s="15" t="n"/>
     </row>
     <row r="45">
-      <c r="A45">
-        <f>IF(BUY!U47&gt;0, BUY!A47, "")</f>
-        <v/>
-      </c>
-      <c r="B45">
-        <f>IF(BUY!U47&gt;0, BUY!S47, "")</f>
-        <v/>
-      </c>
-      <c r="C45" s="17">
-        <f>IF(BUY!U47&gt;0, BUY!T47, "")</f>
-        <v/>
-      </c>
-      <c r="D45" s="13">
-        <f>IF(BUY!U47&gt;0, BUY!U47, "")</f>
-        <v/>
-      </c>
-      <c r="E45" s="15">
-        <f>IF(BUY!U47&gt;0, BUY!V47, "")</f>
-        <v/>
-      </c>
+      <c r="C45" s="17" t="n"/>
+      <c r="D45" s="13" t="n"/>
+      <c r="E45" s="15" t="n"/>
     </row>
     <row r="46">
-      <c r="A46">
-        <f>IF(BUY!U48&gt;0, BUY!A48, "")</f>
-        <v/>
-      </c>
-      <c r="B46">
-        <f>IF(BUY!U48&gt;0, BUY!S48, "")</f>
-        <v/>
-      </c>
-      <c r="C46" s="17">
-        <f>IF(BUY!U48&gt;0, BUY!T48, "")</f>
-        <v/>
-      </c>
-      <c r="D46" s="13">
-        <f>IF(BUY!U48&gt;0, BUY!U48, "")</f>
-        <v/>
-      </c>
-      <c r="E46" s="15">
-        <f>IF(BUY!U48&gt;0, BUY!V48, "")</f>
-        <v/>
-      </c>
+      <c r="C46" s="17" t="n"/>
+      <c r="D46" s="13" t="n"/>
+      <c r="E46" s="15" t="n"/>
     </row>
     <row r="47">
-      <c r="A47">
-        <f>IF(BUY!U49&gt;0, BUY!A49, "")</f>
-        <v/>
-      </c>
-      <c r="B47">
-        <f>IF(BUY!U49&gt;0, BUY!S49, "")</f>
-        <v/>
-      </c>
-      <c r="C47" s="17">
-        <f>IF(BUY!U49&gt;0, BUY!T49, "")</f>
-        <v/>
-      </c>
-      <c r="D47" s="13">
-        <f>IF(BUY!U49&gt;0, BUY!U49, "")</f>
-        <v/>
-      </c>
-      <c r="E47" s="15">
-        <f>IF(BUY!U49&gt;0, BUY!V49, "")</f>
-        <v/>
-      </c>
+      <c r="C47" s="17" t="n"/>
+      <c r="D47" s="13" t="n"/>
+      <c r="E47" s="15" t="n"/>
     </row>
     <row r="48">
-      <c r="A48">
-        <f>IF(BUY!U50&gt;0, BUY!A50, "")</f>
-        <v/>
-      </c>
-      <c r="B48">
-        <f>IF(BUY!U50&gt;0, BUY!S50, "")</f>
-        <v/>
-      </c>
-      <c r="C48" s="17">
-        <f>IF(BUY!U50&gt;0, BUY!T50, "")</f>
-        <v/>
-      </c>
-      <c r="D48" s="13">
-        <f>IF(BUY!U50&gt;0, BUY!U50, "")</f>
-        <v/>
-      </c>
-      <c r="E48" s="15">
-        <f>IF(BUY!U50&gt;0, BUY!V50, "")</f>
-        <v/>
-      </c>
+      <c r="C48" s="17" t="n"/>
+      <c r="D48" s="13" t="n"/>
+      <c r="E48" s="15" t="n"/>
     </row>
     <row r="49">
-      <c r="A49">
-        <f>IF(BUY!U51&gt;0, BUY!A51, "")</f>
-        <v/>
-      </c>
-      <c r="B49">
-        <f>IF(BUY!U51&gt;0, BUY!S51, "")</f>
-        <v/>
-      </c>
-      <c r="C49" s="17">
-        <f>IF(BUY!U51&gt;0, BUY!T51, "")</f>
-        <v/>
-      </c>
-      <c r="D49" s="13">
-        <f>IF(BUY!U51&gt;0, BUY!U51, "")</f>
-        <v/>
-      </c>
-      <c r="E49" s="15">
-        <f>IF(BUY!U51&gt;0, BUY!V51, "")</f>
-        <v/>
-      </c>
+      <c r="C49" s="17" t="n"/>
+      <c r="D49" s="13" t="n"/>
+      <c r="E49" s="15" t="n"/>
     </row>
     <row r="50">
-      <c r="A50">
-        <f>IF(BUY!U52&gt;0, BUY!A52, "")</f>
-        <v/>
-      </c>
-      <c r="B50">
-        <f>IF(BUY!U52&gt;0, BUY!S52, "")</f>
-        <v/>
-      </c>
-      <c r="C50" s="17">
-        <f>IF(BUY!U52&gt;0, BUY!T52, "")</f>
-        <v/>
-      </c>
-      <c r="D50" s="13">
-        <f>IF(BUY!U52&gt;0, BUY!U52, "")</f>
-        <v/>
-      </c>
-      <c r="E50" s="15">
-        <f>IF(BUY!U52&gt;0, BUY!V52, "")</f>
-        <v/>
-      </c>
+      <c r="C50" s="17" t="n"/>
+      <c r="D50" s="13" t="n"/>
+      <c r="E50" s="15" t="n"/>
     </row>
     <row r="51">
-      <c r="A51">
-        <f>IF(BUY!U53&gt;0, BUY!A53, "")</f>
-        <v/>
-      </c>
-      <c r="B51">
-        <f>IF(BUY!U53&gt;0, BUY!S53, "")</f>
-        <v/>
-      </c>
-      <c r="C51" s="17">
-        <f>IF(BUY!U53&gt;0, BUY!T53, "")</f>
-        <v/>
-      </c>
-      <c r="D51" s="13">
-        <f>IF(BUY!U53&gt;0, BUY!U53, "")</f>
-        <v/>
-      </c>
-      <c r="E51" s="15">
-        <f>IF(BUY!U53&gt;0, BUY!V53, "")</f>
-        <v/>
-      </c>
+      <c r="C51" s="17" t="n"/>
+      <c r="D51" s="13" t="n"/>
+      <c r="E51" s="15" t="n"/>
     </row>
     <row r="52">
-      <c r="A52">
-        <f>IF(BUY!U54&gt;0, BUY!A54, "")</f>
-        <v/>
-      </c>
-      <c r="B52">
-        <f>IF(BUY!U54&gt;0, BUY!S54, "")</f>
-        <v/>
-      </c>
-      <c r="C52" s="17">
-        <f>IF(BUY!U54&gt;0, BUY!T54, "")</f>
-        <v/>
-      </c>
-      <c r="D52" s="13">
-        <f>IF(BUY!U54&gt;0, BUY!U54, "")</f>
-        <v/>
-      </c>
-      <c r="E52" s="15">
-        <f>IF(BUY!U54&gt;0, BUY!V54, "")</f>
-        <v/>
-      </c>
+      <c r="C52" s="17" t="n"/>
+      <c r="D52" s="13" t="n"/>
+      <c r="E52" s="15" t="n"/>
     </row>
     <row r="53">
-      <c r="A53">
-        <f>IF(BUY!U55&gt;0, BUY!A55, "")</f>
-        <v/>
-      </c>
-      <c r="B53">
-        <f>IF(BUY!U55&gt;0, BUY!S55, "")</f>
-        <v/>
-      </c>
-      <c r="C53" s="17">
-        <f>IF(BUY!U55&gt;0, BUY!T55, "")</f>
-        <v/>
-      </c>
-      <c r="D53" s="13">
-        <f>IF(BUY!U55&gt;0, BUY!U55, "")</f>
-        <v/>
-      </c>
-      <c r="E53" s="15">
-        <f>IF(BUY!U55&gt;0, BUY!V55, "")</f>
-        <v/>
-      </c>
+      <c r="C53" s="17" t="n"/>
+      <c r="D53" s="13" t="n"/>
+      <c r="E53" s="15" t="n"/>
     </row>
     <row r="54">
-      <c r="A54">
-        <f>IF(BUY!U56&gt;0, BUY!A56, "")</f>
-        <v/>
-      </c>
-      <c r="B54">
-        <f>IF(BUY!U56&gt;0, BUY!S56, "")</f>
-        <v/>
-      </c>
-      <c r="C54" s="17">
-        <f>IF(BUY!U56&gt;0, BUY!T56, "")</f>
-        <v/>
-      </c>
-      <c r="D54" s="13">
-        <f>IF(BUY!U56&gt;0, BUY!U56, "")</f>
-        <v/>
-      </c>
-      <c r="E54" s="15">
-        <f>IF(BUY!U56&gt;0, BUY!V56, "")</f>
-        <v/>
-      </c>
+      <c r="C54" s="17" t="n"/>
+      <c r="D54" s="13" t="n"/>
+      <c r="E54" s="15" t="n"/>
     </row>
     <row r="55">
-      <c r="A55">
-        <f>IF(BUY!U57&gt;0, BUY!A57, "")</f>
-        <v/>
-      </c>
-      <c r="B55">
-        <f>IF(BUY!U57&gt;0, BUY!S57, "")</f>
-        <v/>
-      </c>
-      <c r="C55" s="17">
-        <f>IF(BUY!U57&gt;0, BUY!T57, "")</f>
-        <v/>
-      </c>
-      <c r="D55" s="13">
-        <f>IF(BUY!U57&gt;0, BUY!U57, "")</f>
-        <v/>
-      </c>
-      <c r="E55" s="15">
-        <f>IF(BUY!U57&gt;0, BUY!V57, "")</f>
-        <v/>
-      </c>
+      <c r="C55" s="17" t="n"/>
+      <c r="D55" s="13" t="n"/>
+      <c r="E55" s="15" t="n"/>
     </row>
     <row r="56">
-      <c r="A56">
-        <f>IF(BUY!U58&gt;0, BUY!A58, "")</f>
-        <v/>
-      </c>
-      <c r="B56">
-        <f>IF(BUY!U58&gt;0, BUY!S58, "")</f>
-        <v/>
-      </c>
-      <c r="C56" s="17">
-        <f>IF(BUY!U58&gt;0, BUY!T58, "")</f>
-        <v/>
-      </c>
-      <c r="D56" s="13">
-        <f>IF(BUY!U58&gt;0, BUY!U58, "")</f>
-        <v/>
-      </c>
-      <c r="E56" s="15">
-        <f>IF(BUY!U58&gt;0, BUY!V58, "")</f>
-        <v/>
-      </c>
+      <c r="C56" s="17" t="n"/>
+      <c r="D56" s="13" t="n"/>
+      <c r="E56" s="15" t="n"/>
     </row>
     <row r="57">
-      <c r="A57">
-        <f>IF(BUY!U59&gt;0, BUY!A59, "")</f>
-        <v/>
-      </c>
-      <c r="B57">
-        <f>IF(BUY!U59&gt;0, BUY!S59, "")</f>
-        <v/>
-      </c>
-      <c r="C57" s="17">
-        <f>IF(BUY!U59&gt;0, BUY!T59, "")</f>
-        <v/>
-      </c>
-      <c r="D57" s="13">
-        <f>IF(BUY!U59&gt;0, BUY!U59, "")</f>
-        <v/>
-      </c>
-      <c r="E57" s="15">
-        <f>IF(BUY!U59&gt;0, BUY!V59, "")</f>
-        <v/>
-      </c>
+      <c r="C57" s="17" t="n"/>
+      <c r="D57" s="13" t="n"/>
+      <c r="E57" s="15" t="n"/>
     </row>
     <row r="58">
-      <c r="A58">
-        <f>IF(BUY!U60&gt;0, BUY!A60, "")</f>
-        <v/>
-      </c>
-      <c r="B58">
-        <f>IF(BUY!U60&gt;0, BUY!S60, "")</f>
-        <v/>
-      </c>
-      <c r="C58" s="17">
-        <f>IF(BUY!U60&gt;0, BUY!T60, "")</f>
-        <v/>
-      </c>
-      <c r="D58" s="13">
-        <f>IF(BUY!U60&gt;0, BUY!U60, "")</f>
-        <v/>
-      </c>
-      <c r="E58" s="15">
-        <f>IF(BUY!U60&gt;0, BUY!V60, "")</f>
-        <v/>
-      </c>
+      <c r="C58" s="17" t="n"/>
+      <c r="D58" s="13" t="n"/>
+      <c r="E58" s="15" t="n"/>
     </row>
     <row r="59">
-      <c r="A59">
-        <f>IF(BUY!U61&gt;0, BUY!A61, "")</f>
-        <v/>
-      </c>
-      <c r="B59">
-        <f>IF(BUY!U61&gt;0, BUY!S61, "")</f>
-        <v/>
-      </c>
-      <c r="C59" s="17">
-        <f>IF(BUY!U61&gt;0, BUY!T61, "")</f>
-        <v/>
-      </c>
-      <c r="D59" s="13">
-        <f>IF(BUY!U61&gt;0, BUY!U61, "")</f>
-        <v/>
-      </c>
-      <c r="E59" s="15">
-        <f>IF(BUY!U61&gt;0, BUY!V61, "")</f>
-        <v/>
-      </c>
+      <c r="C59" s="17" t="n"/>
+      <c r="D59" s="13" t="n"/>
+      <c r="E59" s="15" t="n"/>
     </row>
     <row r="60">
-      <c r="A60">
-        <f>IF(BUY!U62&gt;0, BUY!A62, "")</f>
-        <v/>
-      </c>
-      <c r="B60">
-        <f>IF(BUY!U62&gt;0, BUY!S62, "")</f>
-        <v/>
-      </c>
-      <c r="C60" s="17">
-        <f>IF(BUY!U62&gt;0, BUY!T62, "")</f>
-        <v/>
-      </c>
-      <c r="D60" s="13">
-        <f>IF(BUY!U62&gt;0, BUY!U62, "")</f>
-        <v/>
-      </c>
-      <c r="E60" s="15">
-        <f>IF(BUY!U62&gt;0, BUY!V62, "")</f>
-        <v/>
-      </c>
+      <c r="C60" s="17" t="n"/>
+      <c r="D60" s="13" t="n"/>
+      <c r="E60" s="15" t="n"/>
     </row>
     <row r="61">
-      <c r="A61">
-        <f>IF(BUY!U63&gt;0, BUY!A63, "")</f>
-        <v/>
-      </c>
-      <c r="B61">
-        <f>IF(BUY!U63&gt;0, BUY!S63, "")</f>
-        <v/>
-      </c>
-      <c r="C61" s="17">
-        <f>IF(BUY!U63&gt;0, BUY!T63, "")</f>
-        <v/>
-      </c>
-      <c r="D61" s="13">
-        <f>IF(BUY!U63&gt;0, BUY!U63, "")</f>
-        <v/>
-      </c>
-      <c r="E61" s="15">
-        <f>IF(BUY!U63&gt;0, BUY!V63, "")</f>
-        <v/>
-      </c>
+      <c r="C61" s="17" t="n"/>
+      <c r="D61" s="13" t="n"/>
+      <c r="E61" s="15" t="n"/>
     </row>
     <row r="62">
-      <c r="A62">
-        <f>IF(BUY!U64&gt;0, BUY!A64, "")</f>
-        <v/>
-      </c>
-      <c r="B62">
-        <f>IF(BUY!U64&gt;0, BUY!S64, "")</f>
-        <v/>
-      </c>
-      <c r="C62" s="17">
-        <f>IF(BUY!U64&gt;0, BUY!T64, "")</f>
-        <v/>
-      </c>
-      <c r="D62" s="13">
-        <f>IF(BUY!U64&gt;0, BUY!U64, "")</f>
-        <v/>
-      </c>
-      <c r="E62" s="15">
-        <f>IF(BUY!U64&gt;0, BUY!V64, "")</f>
-        <v/>
-      </c>
+      <c r="C62" s="17" t="n"/>
+      <c r="D62" s="13" t="n"/>
+      <c r="E62" s="15" t="n"/>
     </row>
     <row r="63">
-      <c r="A63">
-        <f>IF(BUY!U65&gt;0, BUY!A65, "")</f>
-        <v/>
-      </c>
-      <c r="B63">
-        <f>IF(BUY!U65&gt;0, BUY!S65, "")</f>
-        <v/>
-      </c>
-      <c r="C63" s="17">
-        <f>IF(BUY!U65&gt;0, BUY!T65, "")</f>
-        <v/>
-      </c>
-      <c r="D63" s="13">
-        <f>IF(BUY!U65&gt;0, BUY!U65, "")</f>
-        <v/>
-      </c>
-      <c r="E63" s="15">
-        <f>IF(BUY!U65&gt;0, BUY!V65, "")</f>
-        <v/>
-      </c>
+      <c r="C63" s="17" t="n"/>
+      <c r="D63" s="13" t="n"/>
+      <c r="E63" s="15" t="n"/>
     </row>
     <row r="64">
-      <c r="A64">
-        <f>IF(BUY!U66&gt;0, BUY!A66, "")</f>
-        <v/>
-      </c>
-      <c r="B64">
-        <f>IF(BUY!U66&gt;0, BUY!S66, "")</f>
-        <v/>
-      </c>
-      <c r="C64" s="17">
-        <f>IF(BUY!U66&gt;0, BUY!T66, "")</f>
-        <v/>
-      </c>
-      <c r="D64" s="13">
-        <f>IF(BUY!U66&gt;0, BUY!U66, "")</f>
-        <v/>
-      </c>
-      <c r="E64" s="15">
-        <f>IF(BUY!U66&gt;0, BUY!V66, "")</f>
-        <v/>
-      </c>
+      <c r="C64" s="17" t="n"/>
+      <c r="D64" s="13" t="n"/>
+      <c r="E64" s="15" t="n"/>
     </row>
     <row r="65">
-      <c r="A65">
-        <f>IF(BUY!U67&gt;0, BUY!A67, "")</f>
-        <v/>
-      </c>
-      <c r="B65">
-        <f>IF(BUY!U67&gt;0, BUY!S67, "")</f>
-        <v/>
-      </c>
-      <c r="C65" s="17">
-        <f>IF(BUY!U67&gt;0, BUY!T67, "")</f>
-        <v/>
-      </c>
-      <c r="D65" s="13">
-        <f>IF(BUY!U67&gt;0, BUY!U67, "")</f>
-        <v/>
-      </c>
-      <c r="E65" s="15">
-        <f>IF(BUY!U67&gt;0, BUY!V67, "")</f>
-        <v/>
-      </c>
+      <c r="C65" s="17" t="n"/>
+      <c r="D65" s="13" t="n"/>
+      <c r="E65" s="15" t="n"/>
     </row>
     <row r="66">
-      <c r="A66">
-        <f>IF(BUY!U68&gt;0, BUY!A68, "")</f>
-        <v/>
-      </c>
-      <c r="B66">
-        <f>IF(BUY!U68&gt;0, BUY!S68, "")</f>
-        <v/>
-      </c>
-      <c r="C66" s="17">
-        <f>IF(BUY!U68&gt;0, BUY!T68, "")</f>
-        <v/>
-      </c>
-      <c r="D66" s="13">
-        <f>IF(BUY!U68&gt;0, BUY!U68, "")</f>
-        <v/>
-      </c>
-      <c r="E66" s="15">
-        <f>IF(BUY!U68&gt;0, BUY!V68, "")</f>
-        <v/>
-      </c>
+      <c r="C66" s="17" t="n"/>
+      <c r="D66" s="13" t="n"/>
+      <c r="E66" s="15" t="n"/>
     </row>
     <row r="67">
-      <c r="A67">
-        <f>IF(BUY!U69&gt;0, BUY!A69, "")</f>
-        <v/>
-      </c>
-      <c r="B67">
-        <f>IF(BUY!U69&gt;0, BUY!S69, "")</f>
-        <v/>
-      </c>
-      <c r="C67" s="17">
-        <f>IF(BUY!U69&gt;0, BUY!T69, "")</f>
-        <v/>
-      </c>
-      <c r="D67" s="13">
-        <f>IF(BUY!U69&gt;0, BUY!U69, "")</f>
-        <v/>
-      </c>
-      <c r="E67" s="15">
-        <f>IF(BUY!U69&gt;0, BUY!V69, "")</f>
-        <v/>
-      </c>
+      <c r="C67" s="17" t="n"/>
+      <c r="D67" s="13" t="n"/>
+      <c r="E67" s="15" t="n"/>
     </row>
     <row r="68">
-      <c r="A68">
-        <f>IF(BUY!U70&gt;0, BUY!A70, "")</f>
-        <v/>
-      </c>
-      <c r="B68">
-        <f>IF(BUY!U70&gt;0, BUY!S70, "")</f>
-        <v/>
-      </c>
-      <c r="C68" s="17">
-        <f>IF(BUY!U70&gt;0, BUY!T70, "")</f>
-        <v/>
-      </c>
-      <c r="D68" s="13">
-        <f>IF(BUY!U70&gt;0, BUY!U70, "")</f>
-        <v/>
-      </c>
-      <c r="E68" s="15">
-        <f>IF(BUY!U70&gt;0, BUY!V70, "")</f>
-        <v/>
-      </c>
+      <c r="C68" s="17" t="n"/>
+      <c r="D68" s="13" t="n"/>
+      <c r="E68" s="15" t="n"/>
     </row>
     <row r="69">
-      <c r="A69">
-        <f>IF(BUY!U71&gt;0, BUY!A71, "")</f>
-        <v/>
-      </c>
-      <c r="B69">
-        <f>IF(BUY!U71&gt;0, BUY!S71, "")</f>
-        <v/>
-      </c>
-      <c r="C69" s="17">
-        <f>IF(BUY!U71&gt;0, BUY!T71, "")</f>
-        <v/>
-      </c>
-      <c r="D69" s="13">
-        <f>IF(BUY!U71&gt;0, BUY!U71, "")</f>
-        <v/>
-      </c>
-      <c r="E69" s="15">
-        <f>IF(BUY!U71&gt;0, BUY!V71, "")</f>
-        <v/>
-      </c>
+      <c r="C69" s="17" t="n"/>
+      <c r="D69" s="13" t="n"/>
+      <c r="E69" s="15" t="n"/>
     </row>
     <row r="70">
-      <c r="A70">
-        <f>IF(BUY!U72&gt;0, BUY!A72, "")</f>
-        <v/>
-      </c>
-      <c r="B70">
-        <f>IF(BUY!U72&gt;0, BUY!S72, "")</f>
-        <v/>
-      </c>
-      <c r="C70" s="17">
-        <f>IF(BUY!U72&gt;0, BUY!T72, "")</f>
-        <v/>
-      </c>
-      <c r="D70" s="13">
-        <f>IF(BUY!U72&gt;0, BUY!U72, "")</f>
-        <v/>
-      </c>
-      <c r="E70" s="15">
-        <f>IF(BUY!U72&gt;0, BUY!V72, "")</f>
-        <v/>
-      </c>
+      <c r="C70" s="17" t="n"/>
+      <c r="D70" s="13" t="n"/>
+      <c r="E70" s="15" t="n"/>
     </row>
     <row r="71">
-      <c r="A71">
-        <f>IF(BUY!U73&gt;0, BUY!A73, "")</f>
-        <v/>
-      </c>
-      <c r="B71">
-        <f>IF(BUY!U73&gt;0, BUY!S73, "")</f>
-        <v/>
-      </c>
-      <c r="C71" s="17">
-        <f>IF(BUY!U73&gt;0, BUY!T73, "")</f>
-        <v/>
-      </c>
-      <c r="D71" s="13">
-        <f>IF(BUY!U73&gt;0, BUY!U73, "")</f>
-        <v/>
-      </c>
-      <c r="E71" s="15">
-        <f>IF(BUY!U73&gt;0, BUY!V73, "")</f>
-        <v/>
-      </c>
+      <c r="C71" s="17" t="n"/>
+      <c r="D71" s="13" t="n"/>
+      <c r="E71" s="15" t="n"/>
     </row>
     <row r="72">
-      <c r="A72">
-        <f>IF(BUY!U74&gt;0, BUY!A74, "")</f>
-        <v/>
-      </c>
-      <c r="B72">
-        <f>IF(BUY!U74&gt;0, BUY!S74, "")</f>
-        <v/>
-      </c>
-      <c r="C72" s="17">
-        <f>IF(BUY!U74&gt;0, BUY!T74, "")</f>
-        <v/>
-      </c>
-      <c r="D72" s="13">
-        <f>IF(BUY!U74&gt;0, BUY!U74, "")</f>
-        <v/>
-      </c>
-      <c r="E72" s="15">
-        <f>IF(BUY!U74&gt;0, BUY!V74, "")</f>
-        <v/>
-      </c>
+      <c r="C72" s="17" t="n"/>
+      <c r="D72" s="13" t="n"/>
+      <c r="E72" s="15" t="n"/>
     </row>
     <row r="73">
-      <c r="A73">
-        <f>IF(BUY!U75&gt;0, BUY!A75, "")</f>
-        <v/>
-      </c>
-      <c r="B73">
-        <f>IF(BUY!U75&gt;0, BUY!S75, "")</f>
-        <v/>
-      </c>
-      <c r="C73" s="17">
-        <f>IF(BUY!U75&gt;0, BUY!T75, "")</f>
-        <v/>
-      </c>
-      <c r="D73" s="13">
-        <f>IF(BUY!U75&gt;0, BUY!U75, "")</f>
-        <v/>
-      </c>
-      <c r="E73" s="15">
-        <f>IF(BUY!U75&gt;0, BUY!V75, "")</f>
-        <v/>
-      </c>
+      <c r="C73" s="17" t="n"/>
+      <c r="D73" s="13" t="n"/>
+      <c r="E73" s="15" t="n"/>
     </row>
     <row r="74">
-      <c r="A74">
-        <f>IF(BUY!U76&gt;0, BUY!A76, "")</f>
-        <v/>
-      </c>
-      <c r="B74">
-        <f>IF(BUY!U76&gt;0, BUY!S76, "")</f>
-        <v/>
-      </c>
-      <c r="C74" s="17">
-        <f>IF(BUY!U76&gt;0, BUY!T76, "")</f>
-        <v/>
-      </c>
-      <c r="D74" s="13">
-        <f>IF(BUY!U76&gt;0, BUY!U76, "")</f>
-        <v/>
-      </c>
-      <c r="E74" s="15">
-        <f>IF(BUY!U76&gt;0, BUY!V76, "")</f>
-        <v/>
-      </c>
+      <c r="C74" s="17" t="n"/>
+      <c r="D74" s="13" t="n"/>
+      <c r="E74" s="15" t="n"/>
     </row>
     <row r="75">
-      <c r="A75">
-        <f>IF(BUY!U77&gt;0, BUY!A77, "")</f>
-        <v/>
-      </c>
-      <c r="B75">
-        <f>IF(BUY!U77&gt;0, BUY!S77, "")</f>
-        <v/>
-      </c>
-      <c r="C75" s="17">
-        <f>IF(BUY!U77&gt;0, BUY!T77, "")</f>
-        <v/>
-      </c>
-      <c r="D75" s="13">
-        <f>IF(BUY!U77&gt;0, BUY!U77, "")</f>
-        <v/>
-      </c>
-      <c r="E75" s="15">
-        <f>IF(BUY!U77&gt;0, BUY!V77, "")</f>
-        <v/>
-      </c>
+      <c r="C75" s="17" t="n"/>
+      <c r="D75" s="13" t="n"/>
+      <c r="E75" s="15" t="n"/>
     </row>
     <row r="76">
-      <c r="A76">
-        <f>IF(BUY!U78&gt;0, BUY!A78, "")</f>
-        <v/>
-      </c>
-      <c r="B76">
-        <f>IF(BUY!U78&gt;0, BUY!S78, "")</f>
-        <v/>
-      </c>
-      <c r="C76" s="17">
-        <f>IF(BUY!U78&gt;0, BUY!T78, "")</f>
-        <v/>
-      </c>
-      <c r="D76" s="13">
-        <f>IF(BUY!U78&gt;0, BUY!U78, "")</f>
-        <v/>
-      </c>
-      <c r="E76" s="15">
-        <f>IF(BUY!U78&gt;0, BUY!V78, "")</f>
-        <v/>
-      </c>
+      <c r="C76" s="17" t="n"/>
+      <c r="D76" s="13" t="n"/>
+      <c r="E76" s="15" t="n"/>
     </row>
     <row r="77">
-      <c r="A77">
-        <f>IF(BUY!U79&gt;0, BUY!A79, "")</f>
-        <v/>
-      </c>
-      <c r="B77">
-        <f>IF(BUY!U79&gt;0, BUY!S79, "")</f>
-        <v/>
-      </c>
-      <c r="C77" s="17">
-        <f>IF(BUY!U79&gt;0, BUY!T79, "")</f>
-        <v/>
-      </c>
-      <c r="D77" s="13">
-        <f>IF(BUY!U79&gt;0, BUY!U79, "")</f>
-        <v/>
-      </c>
-      <c r="E77" s="15">
-        <f>IF(BUY!U79&gt;0, BUY!V79, "")</f>
-        <v/>
-      </c>
+      <c r="C77" s="17" t="n"/>
+      <c r="D77" s="13" t="n"/>
+      <c r="E77" s="15" t="n"/>
     </row>
     <row r="78">
-      <c r="A78">
-        <f>IF(BUY!U80&gt;0, BUY!A80, "")</f>
-        <v/>
-      </c>
-      <c r="B78">
-        <f>IF(BUY!U80&gt;0, BUY!S80, "")</f>
-        <v/>
-      </c>
-      <c r="C78" s="17">
-        <f>IF(BUY!U80&gt;0, BUY!T80, "")</f>
-        <v/>
-      </c>
-      <c r="D78" s="13">
-        <f>IF(BUY!U80&gt;0, BUY!U80, "")</f>
-        <v/>
-      </c>
-      <c r="E78" s="15">
-        <f>IF(BUY!U80&gt;0, BUY!V80, "")</f>
-        <v/>
-      </c>
+      <c r="C78" s="17" t="n"/>
+      <c r="D78" s="13" t="n"/>
+      <c r="E78" s="15" t="n"/>
     </row>
     <row r="79">
-      <c r="A79">
-        <f>IF(BUY!U81&gt;0, BUY!A81, "")</f>
-        <v/>
-      </c>
-      <c r="B79">
-        <f>IF(BUY!U81&gt;0, BUY!S81, "")</f>
-        <v/>
-      </c>
-      <c r="C79" s="17">
-        <f>IF(BUY!U81&gt;0, BUY!T81, "")</f>
-        <v/>
-      </c>
-      <c r="D79" s="13">
-        <f>IF(BUY!U81&gt;0, BUY!U81, "")</f>
-        <v/>
-      </c>
-      <c r="E79" s="15">
-        <f>IF(BUY!U81&gt;0, BUY!V81, "")</f>
-        <v/>
-      </c>
+      <c r="C79" s="17" t="n"/>
+      <c r="D79" s="13" t="n"/>
+      <c r="E79" s="15" t="n"/>
     </row>
     <row r="80">
-      <c r="A80">
-        <f>IF(BUY!U82&gt;0, BUY!A82, "")</f>
-        <v/>
-      </c>
-      <c r="B80">
-        <f>IF(BUY!U82&gt;0, BUY!S82, "")</f>
-        <v/>
-      </c>
-      <c r="C80" s="17">
-        <f>IF(BUY!U82&gt;0, BUY!T82, "")</f>
-        <v/>
-      </c>
-      <c r="D80" s="13">
-        <f>IF(BUY!U82&gt;0, BUY!U82, "")</f>
-        <v/>
-      </c>
-      <c r="E80" s="15">
-        <f>IF(BUY!U82&gt;0, BUY!V82, "")</f>
-        <v/>
-      </c>
+      <c r="C80" s="17" t="n"/>
+      <c r="D80" s="13" t="n"/>
+      <c r="E80" s="15" t="n"/>
     </row>
     <row r="81">
-      <c r="A81">
-        <f>IF(BUY!U83&gt;0, BUY!A83, "")</f>
-        <v/>
-      </c>
-      <c r="B81">
-        <f>IF(BUY!U83&gt;0, BUY!S83, "")</f>
-        <v/>
-      </c>
-      <c r="C81" s="17">
-        <f>IF(BUY!U83&gt;0, BUY!T83, "")</f>
-        <v/>
-      </c>
-      <c r="D81" s="13">
-        <f>IF(BUY!U83&gt;0, BUY!U83, "")</f>
-        <v/>
-      </c>
-      <c r="E81" s="15">
-        <f>IF(BUY!U83&gt;0, BUY!V83, "")</f>
-        <v/>
-      </c>
+      <c r="C81" s="17" t="n"/>
+      <c r="D81" s="13" t="n"/>
+      <c r="E81" s="15" t="n"/>
     </row>
     <row r="82">
-      <c r="A82">
-        <f>IF(BUY!U84&gt;0, BUY!A84, "")</f>
-        <v/>
-      </c>
-      <c r="B82">
-        <f>IF(BUY!U84&gt;0, BUY!S84, "")</f>
-        <v/>
-      </c>
-      <c r="C82" s="17">
-        <f>IF(BUY!U84&gt;0, BUY!T84, "")</f>
-        <v/>
-      </c>
-      <c r="D82" s="13">
-        <f>IF(BUY!U84&gt;0, BUY!U84, "")</f>
-        <v/>
-      </c>
-      <c r="E82" s="15">
-        <f>IF(BUY!U84&gt;0, BUY!V84, "")</f>
-        <v/>
-      </c>
+      <c r="C82" s="17" t="n"/>
+      <c r="D82" s="13" t="n"/>
+      <c r="E82" s="15" t="n"/>
     </row>
     <row r="83">
-      <c r="A83">
-        <f>IF(BUY!U85&gt;0, BUY!A85, "")</f>
-        <v/>
-      </c>
-      <c r="B83">
-        <f>IF(BUY!U85&gt;0, BUY!S85, "")</f>
-        <v/>
-      </c>
-      <c r="C83" s="17">
-        <f>IF(BUY!U85&gt;0, BUY!T85, "")</f>
-        <v/>
-      </c>
-      <c r="D83" s="13">
-        <f>IF(BUY!U85&gt;0, BUY!U85, "")</f>
-        <v/>
-      </c>
-      <c r="E83" s="15">
-        <f>IF(BUY!U85&gt;0, BUY!V85, "")</f>
-        <v/>
-      </c>
+      <c r="C83" s="17" t="n"/>
+      <c r="D83" s="13" t="n"/>
+      <c r="E83" s="15" t="n"/>
     </row>
     <row r="84">
-      <c r="A84">
-        <f>IF(BUY!U86&gt;0, BUY!A86, "")</f>
-        <v/>
-      </c>
-      <c r="B84">
-        <f>IF(BUY!U86&gt;0, BUY!S86, "")</f>
-        <v/>
-      </c>
-      <c r="C84" s="17">
-        <f>IF(BUY!U86&gt;0, BUY!T86, "")</f>
-        <v/>
-      </c>
-      <c r="D84" s="13">
-        <f>IF(BUY!U86&gt;0, BUY!U86, "")</f>
-        <v/>
-      </c>
-      <c r="E84" s="15">
-        <f>IF(BUY!U86&gt;0, BUY!V86, "")</f>
-        <v/>
-      </c>
+      <c r="C84" s="17" t="n"/>
+      <c r="D84" s="13" t="n"/>
+      <c r="E84" s="15" t="n"/>
     </row>
     <row r="85">
-      <c r="A85">
-        <f>IF(BUY!U87&gt;0, BUY!A87, "")</f>
-        <v/>
-      </c>
-      <c r="B85">
-        <f>IF(BUY!U87&gt;0, BUY!S87, "")</f>
-        <v/>
-      </c>
-      <c r="C85" s="17">
-        <f>IF(BUY!U87&gt;0, BUY!T87, "")</f>
-        <v/>
-      </c>
-      <c r="D85" s="13">
-        <f>IF(BUY!U87&gt;0, BUY!U87, "")</f>
-        <v/>
-      </c>
-      <c r="E85" s="15">
-        <f>IF(BUY!U87&gt;0, BUY!V87, "")</f>
-        <v/>
-      </c>
+      <c r="C85" s="17" t="n"/>
+      <c r="D85" s="13" t="n"/>
+      <c r="E85" s="15" t="n"/>
     </row>
     <row r="86">
-      <c r="A86">
-        <f>IF(BUY!U88&gt;0, BUY!A88, "")</f>
-        <v/>
-      </c>
-      <c r="B86">
-        <f>IF(BUY!U88&gt;0, BUY!S88, "")</f>
-        <v/>
-      </c>
-      <c r="C86" s="17">
-        <f>IF(BUY!U88&gt;0, BUY!T88, "")</f>
-        <v/>
-      </c>
-      <c r="D86" s="13">
-        <f>IF(BUY!U88&gt;0, BUY!U88, "")</f>
-        <v/>
-      </c>
-      <c r="E86" s="15">
-        <f>IF(BUY!U88&gt;0, BUY!V88, "")</f>
-        <v/>
-      </c>
+      <c r="C86" s="17" t="n"/>
+      <c r="D86" s="13" t="n"/>
+      <c r="E86" s="15" t="n"/>
     </row>
     <row r="87">
-      <c r="A87">
-        <f>IF(BUY!U89&gt;0, BUY!A89, "")</f>
-        <v/>
-      </c>
-      <c r="B87">
-        <f>IF(BUY!U89&gt;0, BUY!S89, "")</f>
-        <v/>
-      </c>
-      <c r="C87" s="17">
-        <f>IF(BUY!U89&gt;0, BUY!T89, "")</f>
-        <v/>
-      </c>
-      <c r="D87" s="13">
-        <f>IF(BUY!U89&gt;0, BUY!U89, "")</f>
-        <v/>
-      </c>
-      <c r="E87" s="15">
-        <f>IF(BUY!U89&gt;0, BUY!V89, "")</f>
-        <v/>
-      </c>
+      <c r="C87" s="17" t="n"/>
+      <c r="D87" s="13" t="n"/>
+      <c r="E87" s="15" t="n"/>
     </row>
     <row r="88">
-      <c r="A88">
-        <f>IF(BUY!U90&gt;0, BUY!A90, "")</f>
-        <v/>
-      </c>
-      <c r="B88">
-        <f>IF(BUY!U90&gt;0, BUY!S90, "")</f>
-        <v/>
-      </c>
-      <c r="C88" s="17">
-        <f>IF(BUY!U90&gt;0, BUY!T90, "")</f>
-        <v/>
-      </c>
-      <c r="D88" s="13">
-        <f>IF(BUY!U90&gt;0, BUY!U90, "")</f>
-        <v/>
-      </c>
-      <c r="E88" s="15">
-        <f>IF(BUY!U90&gt;0, BUY!V90, "")</f>
-        <v/>
-      </c>
+      <c r="C88" s="17" t="n"/>
+      <c r="D88" s="13" t="n"/>
+      <c r="E88" s="15" t="n"/>
     </row>
     <row r="89">
-      <c r="A89">
-        <f>IF(BUY!U91&gt;0, BUY!A91, "")</f>
-        <v/>
-      </c>
-      <c r="B89">
-        <f>IF(BUY!U91&gt;0, BUY!S91, "")</f>
-        <v/>
-      </c>
-      <c r="C89" s="17">
-        <f>IF(BUY!U91&gt;0, BUY!T91, "")</f>
-        <v/>
-      </c>
-      <c r="D89" s="13">
-        <f>IF(BUY!U91&gt;0, BUY!U91, "")</f>
-        <v/>
-      </c>
-      <c r="E89" s="15">
-        <f>IF(BUY!U91&gt;0, BUY!V91, "")</f>
-        <v/>
-      </c>
+      <c r="C89" s="17" t="n"/>
+      <c r="D89" s="13" t="n"/>
+      <c r="E89" s="15" t="n"/>
     </row>
     <row r="90">
-      <c r="A90">
-        <f>IF(BUY!U92&gt;0, BUY!A92, "")</f>
-        <v/>
-      </c>
-      <c r="B90">
-        <f>IF(BUY!U92&gt;0, BUY!S92, "")</f>
-        <v/>
-      </c>
-      <c r="C90" s="17">
-        <f>IF(BUY!U92&gt;0, BUY!T92, "")</f>
-        <v/>
-      </c>
-      <c r="D90" s="13">
-        <f>IF(BUY!U92&gt;0, BUY!U92, "")</f>
-        <v/>
-      </c>
-      <c r="E90" s="15">
-        <f>IF(BUY!U92&gt;0, BUY!V92, "")</f>
-        <v/>
-      </c>
+      <c r="C90" s="17" t="n"/>
+      <c r="D90" s="13" t="n"/>
+      <c r="E90" s="15" t="n"/>
     </row>
     <row r="91">
-      <c r="A91">
-        <f>IF(BUY!U93&gt;0, BUY!A93, "")</f>
-        <v/>
-      </c>
-      <c r="B91">
-        <f>IF(BUY!U93&gt;0, BUY!S93, "")</f>
-        <v/>
-      </c>
-      <c r="C91" s="17">
-        <f>IF(BUY!U93&gt;0, BUY!T93, "")</f>
-        <v/>
-      </c>
-      <c r="D91" s="13">
-        <f>IF(BUY!U93&gt;0, BUY!U93, "")</f>
-        <v/>
-      </c>
-      <c r="E91" s="15">
-        <f>IF(BUY!U93&gt;0, BUY!V93, "")</f>
-        <v/>
-      </c>
+      <c r="C91" s="17" t="n"/>
+      <c r="D91" s="13" t="n"/>
+      <c r="E91" s="15" t="n"/>
     </row>
     <row r="92">
-      <c r="A92">
-        <f>IF(BUY!U94&gt;0, BUY!A94, "")</f>
-        <v/>
-      </c>
-      <c r="B92">
-        <f>IF(BUY!U94&gt;0, BUY!S94, "")</f>
-        <v/>
-      </c>
-      <c r="C92" s="17">
-        <f>IF(BUY!U94&gt;0, BUY!T94, "")</f>
-        <v/>
-      </c>
-      <c r="D92" s="13">
-        <f>IF(BUY!U94&gt;0, BUY!U94, "")</f>
-        <v/>
-      </c>
-      <c r="E92" s="15">
-        <f>IF(BUY!U94&gt;0, BUY!V94, "")</f>
-        <v/>
-      </c>
+      <c r="C92" s="17" t="n"/>
+      <c r="D92" s="13" t="n"/>
+      <c r="E92" s="15" t="n"/>
     </row>
     <row r="93">
-      <c r="A93">
-        <f>IF(BUY!U95&gt;0, BUY!A95, "")</f>
-        <v/>
-      </c>
-      <c r="B93">
-        <f>IF(BUY!U95&gt;0, BUY!S95, "")</f>
-        <v/>
-      </c>
-      <c r="C93" s="17">
-        <f>IF(BUY!U95&gt;0, BUY!T95, "")</f>
-        <v/>
-      </c>
-      <c r="D93" s="13">
-        <f>IF(BUY!U95&gt;0, BUY!U95, "")</f>
-        <v/>
-      </c>
-      <c r="E93" s="15">
-        <f>IF(BUY!U95&gt;0, BUY!V95, "")</f>
-        <v/>
-      </c>
+      <c r="C93" s="17" t="n"/>
+      <c r="D93" s="13" t="n"/>
+      <c r="E93" s="15" t="n"/>
     </row>
     <row r="94">
-      <c r="A94">
-        <f>IF(BUY!U96&gt;0, BUY!A96, "")</f>
-        <v/>
-      </c>
-      <c r="B94">
-        <f>IF(BUY!U96&gt;0, BUY!S96, "")</f>
-        <v/>
-      </c>
-      <c r="C94" s="17">
-        <f>IF(BUY!U96&gt;0, BUY!T96, "")</f>
-        <v/>
-      </c>
-      <c r="D94" s="13">
-        <f>IF(BUY!U96&gt;0, BUY!U96, "")</f>
-        <v/>
-      </c>
-      <c r="E94" s="15">
-        <f>IF(BUY!U96&gt;0, BUY!V96, "")</f>
-        <v/>
-      </c>
+      <c r="C94" s="17" t="n"/>
+      <c r="D94" s="13" t="n"/>
+      <c r="E94" s="15" t="n"/>
     </row>
     <row r="95">
-      <c r="A95">
-        <f>IF(BUY!U97&gt;0, BUY!A97, "")</f>
-        <v/>
-      </c>
-      <c r="B95">
-        <f>IF(BUY!U97&gt;0, BUY!S97, "")</f>
-        <v/>
-      </c>
-      <c r="C95" s="17">
-        <f>IF(BUY!U97&gt;0, BUY!T97, "")</f>
-        <v/>
-      </c>
-      <c r="D95" s="13">
-        <f>IF(BUY!U97&gt;0, BUY!U97, "")</f>
-        <v/>
-      </c>
-      <c r="E95" s="15">
-        <f>IF(BUY!U97&gt;0, BUY!V97, "")</f>
-        <v/>
-      </c>
+      <c r="C95" s="17" t="n"/>
+      <c r="D95" s="13" t="n"/>
+      <c r="E95" s="15" t="n"/>
     </row>
     <row r="96">
-      <c r="A96">
-        <f>IF(BUY!U98&gt;0, BUY!A98, "")</f>
-        <v/>
-      </c>
-      <c r="B96">
-        <f>IF(BUY!U98&gt;0, BUY!S98, "")</f>
-        <v/>
-      </c>
-      <c r="C96" s="17">
-        <f>IF(BUY!U98&gt;0, BUY!T98, "")</f>
-        <v/>
-      </c>
-      <c r="D96" s="13">
-        <f>IF(BUY!U98&gt;0, BUY!U98, "")</f>
-        <v/>
-      </c>
-      <c r="E96" s="15">
-        <f>IF(BUY!U98&gt;0, BUY!V98, "")</f>
-        <v/>
-      </c>
+      <c r="C96" s="17" t="n"/>
+      <c r="D96" s="13" t="n"/>
+      <c r="E96" s="15" t="n"/>
     </row>
     <row r="97">
-      <c r="A97">
-        <f>IF(BUY!U99&gt;0, BUY!A99, "")</f>
-        <v/>
-      </c>
-      <c r="B97">
-        <f>IF(BUY!U99&gt;0, BUY!S99, "")</f>
-        <v/>
-      </c>
-      <c r="C97" s="17">
-        <f>IF(BUY!U99&gt;0, BUY!T99, "")</f>
-        <v/>
-      </c>
-      <c r="D97" s="13">
-        <f>IF(BUY!U99&gt;0, BUY!U99, "")</f>
-        <v/>
-      </c>
-      <c r="E97" s="15">
-        <f>IF(BUY!U99&gt;0, BUY!V99, "")</f>
-        <v/>
-      </c>
+      <c r="C97" s="17" t="n"/>
+      <c r="D97" s="13" t="n"/>
+      <c r="E97" s="15" t="n"/>
     </row>
     <row r="98">
-      <c r="A98">
-        <f>IF(BUY!U100&gt;0, BUY!A100, "")</f>
-        <v/>
-      </c>
-      <c r="B98">
-        <f>IF(BUY!U100&gt;0, BUY!S100, "")</f>
-        <v/>
-      </c>
-      <c r="C98" s="17">
-        <f>IF(BUY!U100&gt;0, BUY!T100, "")</f>
-        <v/>
-      </c>
-      <c r="D98" s="13">
-        <f>IF(BUY!U100&gt;0, BUY!U100, "")</f>
-        <v/>
-      </c>
-      <c r="E98" s="15">
-        <f>IF(BUY!U100&gt;0, BUY!V100, "")</f>
-        <v/>
-      </c>
+      <c r="C98" s="17" t="n"/>
+      <c r="D98" s="13" t="n"/>
+      <c r="E98" s="15" t="n"/>
     </row>
     <row r="99">
-      <c r="A99">
-        <f>IF(BUY!U101&gt;0, BUY!A101, "")</f>
-        <v/>
-      </c>
-      <c r="B99">
-        <f>IF(BUY!U101&gt;0, BUY!S101, "")</f>
-        <v/>
-      </c>
-      <c r="C99" s="17">
-        <f>IF(BUY!U101&gt;0, BUY!T101, "")</f>
-        <v/>
-      </c>
-      <c r="D99" s="13">
-        <f>IF(BUY!U101&gt;0, BUY!U101, "")</f>
-        <v/>
-      </c>
-      <c r="E99" s="15">
-        <f>IF(BUY!U101&gt;0, BUY!V101, "")</f>
-        <v/>
-      </c>
+      <c r="C99" s="17" t="n"/>
+      <c r="D99" s="13" t="n"/>
+      <c r="E99" s="15" t="n"/>
     </row>
     <row r="100">
-      <c r="A100">
-        <f>IF(BUY!U102&gt;0, BUY!A102, "")</f>
-        <v/>
-      </c>
-      <c r="B100">
-        <f>IF(BUY!U102&gt;0, BUY!S102, "")</f>
-        <v/>
-      </c>
-      <c r="C100" s="17">
-        <f>IF(BUY!U102&gt;0, BUY!T102, "")</f>
-        <v/>
-      </c>
-      <c r="D100" s="13">
-        <f>IF(BUY!U102&gt;0, BUY!U102, "")</f>
-        <v/>
-      </c>
-      <c r="E100" s="15">
-        <f>IF(BUY!U102&gt;0, BUY!V102, "")</f>
-        <v/>
-      </c>
+      <c r="C100" s="17" t="n"/>
+      <c r="D100" s="13" t="n"/>
+      <c r="E100" s="15" t="n"/>
     </row>
     <row r="101">
-      <c r="A101">
-        <f>IF(BUY!U103&gt;0, BUY!A103, "")</f>
-        <v/>
-      </c>
-      <c r="B101">
-        <f>IF(BUY!U103&gt;0, BUY!S103, "")</f>
-        <v/>
-      </c>
-      <c r="C101" s="17">
-        <f>IF(BUY!U103&gt;0, BUY!T103, "")</f>
-        <v/>
-      </c>
-      <c r="D101" s="13">
-        <f>IF(BUY!U103&gt;0, BUY!U103, "")</f>
-        <v/>
-      </c>
-      <c r="E101" s="15">
-        <f>IF(BUY!U103&gt;0, BUY!V103, "")</f>
-        <v/>
-      </c>
+      <c r="C101" s="17" t="n"/>
+      <c r="D101" s="13" t="n"/>
+      <c r="E101" s="15" t="n"/>
     </row>
     <row r="102">
-      <c r="A102">
-        <f>IF(BUY!U104&gt;0, BUY!A104, "")</f>
-        <v/>
-      </c>
-      <c r="B102">
-        <f>IF(BUY!U104&gt;0, BUY!S104, "")</f>
-        <v/>
-      </c>
-      <c r="C102" s="17">
-        <f>IF(BUY!U104&gt;0, BUY!T104, "")</f>
-        <v/>
-      </c>
-      <c r="D102" s="13">
-        <f>IF(BUY!U104&gt;0, BUY!U104, "")</f>
-        <v/>
-      </c>
-      <c r="E102" s="15">
-        <f>IF(BUY!U104&gt;0, BUY!V104, "")</f>
-        <v/>
-      </c>
+      <c r="C102" s="17" t="n"/>
+      <c r="D102" s="13" t="n"/>
+      <c r="E102" s="15" t="n"/>
     </row>
     <row r="103">
-      <c r="A103">
-        <f>IF(BUY!U105&gt;0, BUY!A105, "")</f>
-        <v/>
-      </c>
-      <c r="B103">
-        <f>IF(BUY!U105&gt;0, BUY!S105, "")</f>
-        <v/>
-      </c>
-      <c r="C103" s="17">
-        <f>IF(BUY!U105&gt;0, BUY!T105, "")</f>
-        <v/>
-      </c>
-      <c r="D103" s="13">
-        <f>IF(BUY!U105&gt;0, BUY!U105, "")</f>
-        <v/>
-      </c>
-      <c r="E103" s="15">
-        <f>IF(BUY!U105&gt;0, BUY!V105, "")</f>
-        <v/>
-      </c>
+      <c r="C103" s="17" t="n"/>
+      <c r="D103" s="13" t="n"/>
+      <c r="E103" s="15" t="n"/>
     </row>
     <row r="104">
-      <c r="A104">
-        <f>IF(BUY!U106&gt;0, BUY!A106, "")</f>
-        <v/>
-      </c>
-      <c r="B104">
-        <f>IF(BUY!U106&gt;0, BUY!S106, "")</f>
-        <v/>
-      </c>
-      <c r="C104" s="17">
-        <f>IF(BUY!U106&gt;0, BUY!T106, "")</f>
-        <v/>
-      </c>
-      <c r="D104" s="13">
-        <f>IF(BUY!U106&gt;0, BUY!U106, "")</f>
-        <v/>
-      </c>
-      <c r="E104" s="15">
-        <f>IF(BUY!U106&gt;0, BUY!V106, "")</f>
-        <v/>
-      </c>
+      <c r="C104" s="17" t="n"/>
+      <c r="D104" s="13" t="n"/>
+      <c r="E104" s="15" t="n"/>
     </row>
     <row r="105">
-      <c r="A105">
-        <f>IF(BUY!U107&gt;0, BUY!A107, "")</f>
-        <v/>
-      </c>
-      <c r="B105">
-        <f>IF(BUY!U107&gt;0, BUY!S107, "")</f>
-        <v/>
-      </c>
-      <c r="C105" s="17">
-        <f>IF(BUY!U107&gt;0, BUY!T107, "")</f>
-        <v/>
-      </c>
-      <c r="D105" s="13">
-        <f>IF(BUY!U107&gt;0, BUY!U107, "")</f>
-        <v/>
-      </c>
-      <c r="E105" s="15">
-        <f>IF(BUY!U107&gt;0, BUY!V107, "")</f>
-        <v/>
-      </c>
+      <c r="C105" s="17" t="n"/>
+      <c r="D105" s="13" t="n"/>
+      <c r="E105" s="15" t="n"/>
     </row>
     <row r="106">
-      <c r="A106">
-        <f>IF(BUY!U108&gt;0, BUY!A108, "")</f>
-        <v/>
-      </c>
-      <c r="B106">
-        <f>IF(BUY!U108&gt;0, BUY!S108, "")</f>
-        <v/>
-      </c>
-      <c r="C106" s="17">
-        <f>IF(BUY!U108&gt;0, BUY!T108, "")</f>
-        <v/>
-      </c>
-      <c r="D106" s="13">
-        <f>IF(BUY!U108&gt;0, BUY!U108, "")</f>
-        <v/>
-      </c>
-      <c r="E106" s="15">
-        <f>IF(BUY!U108&gt;0, BUY!V108, "")</f>
-        <v/>
-      </c>
+      <c r="C106" s="17" t="n"/>
+      <c r="D106" s="13" t="n"/>
+      <c r="E106" s="15" t="n"/>
     </row>
     <row r="107">
-      <c r="A107">
-        <f>IF(BUY!U109&gt;0, BUY!A109, "")</f>
-        <v/>
-      </c>
-      <c r="B107">
-        <f>IF(BUY!U109&gt;0, BUY!S109, "")</f>
-        <v/>
-      </c>
-      <c r="C107" s="17">
-        <f>IF(BUY!U109&gt;0, BUY!T109, "")</f>
-        <v/>
-      </c>
-      <c r="D107" s="13">
-        <f>IF(BUY!U109&gt;0, BUY!U109, "")</f>
-        <v/>
-      </c>
-      <c r="E107" s="15">
-        <f>IF(BUY!U109&gt;0, BUY!V109, "")</f>
-        <v/>
-      </c>
+      <c r="C107" s="17" t="n"/>
+      <c r="D107" s="13" t="n"/>
+      <c r="E107" s="15" t="n"/>
     </row>
     <row r="108">
-      <c r="A108">
-        <f>IF(BUY!U110&gt;0, BUY!A110, "")</f>
-        <v/>
-      </c>
-      <c r="B108">
-        <f>IF(BUY!U110&gt;0, BUY!S110, "")</f>
-        <v/>
-      </c>
-      <c r="C108" s="17">
-        <f>IF(BUY!U110&gt;0, BUY!T110, "")</f>
-        <v/>
-      </c>
-      <c r="D108" s="13">
-        <f>IF(BUY!U110&gt;0, BUY!U110, "")</f>
-        <v/>
-      </c>
-      <c r="E108" s="15">
-        <f>IF(BUY!U110&gt;0, BUY!V110, "")</f>
-        <v/>
-      </c>
+      <c r="C108" s="17" t="n"/>
+      <c r="D108" s="13" t="n"/>
+      <c r="E108" s="15" t="n"/>
     </row>
     <row r="109">
-      <c r="A109">
-        <f>IF(BUY!U111&gt;0, BUY!A111, "")</f>
-        <v/>
-      </c>
-      <c r="B109">
-        <f>IF(BUY!U111&gt;0, BUY!S111, "")</f>
-        <v/>
-      </c>
-      <c r="C109" s="17">
-        <f>IF(BUY!U111&gt;0, BUY!T111, "")</f>
-        <v/>
-      </c>
-      <c r="D109" s="13">
-        <f>IF(BUY!U111&gt;0, BUY!U111, "")</f>
-        <v/>
-      </c>
-      <c r="E109" s="15">
-        <f>IF(BUY!U111&gt;0, BUY!V111, "")</f>
-        <v/>
-      </c>
+      <c r="C109" s="17" t="n"/>
+      <c r="D109" s="13" t="n"/>
+      <c r="E109" s="15" t="n"/>
     </row>
     <row r="110">
-      <c r="A110">
-        <f>IF(BUY!U112&gt;0, BUY!A112, "")</f>
-        <v/>
-      </c>
-      <c r="B110">
-        <f>IF(BUY!U112&gt;0, BUY!S112, "")</f>
-        <v/>
-      </c>
-      <c r="C110" s="17">
-        <f>IF(BUY!U112&gt;0, BUY!T112, "")</f>
-        <v/>
-      </c>
-      <c r="D110" s="13">
-        <f>IF(BUY!U112&gt;0, BUY!U112, "")</f>
-        <v/>
-      </c>
-      <c r="E110" s="15">
-        <f>IF(BUY!U112&gt;0, BUY!V112, "")</f>
-        <v/>
-      </c>
+      <c r="C110" s="17" t="n"/>
+      <c r="D110" s="13" t="n"/>
+      <c r="E110" s="15" t="n"/>
     </row>
     <row r="111">
-      <c r="A111">
-        <f>IF(BUY!U113&gt;0, BUY!A113, "")</f>
-        <v/>
-      </c>
-      <c r="B111">
-        <f>IF(BUY!U113&gt;0, BUY!S113, "")</f>
-        <v/>
-      </c>
-      <c r="C111" s="17">
-        <f>IF(BUY!U113&gt;0, BUY!T113, "")</f>
-        <v/>
-      </c>
-      <c r="D111" s="13">
-        <f>IF(BUY!U113&gt;0, BUY!U113, "")</f>
-        <v/>
-      </c>
-      <c r="E111" s="15">
-        <f>IF(BUY!U113&gt;0, BUY!V113, "")</f>
-        <v/>
-      </c>
+      <c r="C111" s="17" t="n"/>
+      <c r="D111" s="13" t="n"/>
+      <c r="E111" s="15" t="n"/>
     </row>
     <row r="112">
-      <c r="A112">
-        <f>IF(BUY!U114&gt;0, BUY!A114, "")</f>
-        <v/>
-      </c>
-      <c r="B112">
-        <f>IF(BUY!U114&gt;0, BUY!S114, "")</f>
-        <v/>
-      </c>
-      <c r="C112" s="17">
-        <f>IF(BUY!U114&gt;0, BUY!T114, "")</f>
-        <v/>
-      </c>
-      <c r="D112" s="13">
-        <f>IF(BUY!U114&gt;0, BUY!U114, "")</f>
-        <v/>
-      </c>
-      <c r="E112" s="15">
-        <f>IF(BUY!U114&gt;0, BUY!V114, "")</f>
-        <v/>
-      </c>
+      <c r="C112" s="17" t="n"/>
+      <c r="D112" s="13" t="n"/>
+      <c r="E112" s="15" t="n"/>
     </row>
     <row r="113">
-      <c r="A113">
-        <f>IF(BUY!U115&gt;0, BUY!A115, "")</f>
-        <v/>
-      </c>
-      <c r="B113">
-        <f>IF(BUY!U115&gt;0, BUY!S115, "")</f>
-        <v/>
-      </c>
-      <c r="C113" s="17">
-        <f>IF(BUY!U115&gt;0, BUY!T115, "")</f>
-        <v/>
-      </c>
-      <c r="D113" s="13">
-        <f>IF(BUY!U115&gt;0, BUY!U115, "")</f>
-        <v/>
-      </c>
-      <c r="E113" s="15">
-        <f>IF(BUY!U115&gt;0, BUY!V115, "")</f>
-        <v/>
-      </c>
+      <c r="C113" s="17" t="n"/>
+      <c r="D113" s="13" t="n"/>
+      <c r="E113" s="15" t="n"/>
     </row>
     <row r="114">
-      <c r="A114">
-        <f>IF(BUY!U116&gt;0, BUY!A116, "")</f>
-        <v/>
-      </c>
-      <c r="B114">
-        <f>IF(BUY!U116&gt;0, BUY!S116, "")</f>
-        <v/>
-      </c>
-      <c r="C114" s="17">
-        <f>IF(BUY!U116&gt;0, BUY!T116, "")</f>
-        <v/>
-      </c>
-      <c r="D114" s="13">
-        <f>IF(BUY!U116&gt;0, BUY!U116, "")</f>
-        <v/>
-      </c>
-      <c r="E114" s="15">
-        <f>IF(BUY!U116&gt;0, BUY!V116, "")</f>
-        <v/>
-      </c>
+      <c r="C114" s="17" t="n"/>
+      <c r="D114" s="13" t="n"/>
+      <c r="E114" s="15" t="n"/>
     </row>
     <row r="115">
-      <c r="A115">
-        <f>IF(BUY!U117&gt;0, BUY!A117, "")</f>
-        <v/>
-      </c>
-      <c r="B115">
-        <f>IF(BUY!U117&gt;0, BUY!S117, "")</f>
-        <v/>
-      </c>
-      <c r="C115" s="17">
-        <f>IF(BUY!U117&gt;0, BUY!T117, "")</f>
-        <v/>
-      </c>
-      <c r="D115" s="13">
-        <f>IF(BUY!U117&gt;0, BUY!U117, "")</f>
-        <v/>
-      </c>
-      <c r="E115" s="15">
-        <f>IF(BUY!U117&gt;0, BUY!V117, "")</f>
-        <v/>
-      </c>
+      <c r="C115" s="17" t="n"/>
+      <c r="D115" s="13" t="n"/>
+      <c r="E115" s="15" t="n"/>
     </row>
     <row r="116">
-      <c r="A116">
-        <f>IF(BUY!U118&gt;0, BUY!A118, "")</f>
-        <v/>
-      </c>
-      <c r="B116">
-        <f>IF(BUY!U118&gt;0, BUY!S118, "")</f>
-        <v/>
-      </c>
-      <c r="C116" s="17">
-        <f>IF(BUY!U118&gt;0, BUY!T118, "")</f>
-        <v/>
-      </c>
-      <c r="D116" s="13">
-        <f>IF(BUY!U118&gt;0, BUY!U118, "")</f>
-        <v/>
-      </c>
-      <c r="E116" s="15">
-        <f>IF(BUY!U118&gt;0, BUY!V118, "")</f>
-        <v/>
-      </c>
+      <c r="C116" s="17" t="n"/>
+      <c r="D116" s="13" t="n"/>
+      <c r="E116" s="15" t="n"/>
     </row>
     <row r="117">
-      <c r="A117">
-        <f>IF(BUY!U119&gt;0, BUY!A119, "")</f>
-        <v/>
-      </c>
-      <c r="B117">
-        <f>IF(BUY!U119&gt;0, BUY!S119, "")</f>
-        <v/>
-      </c>
-      <c r="C117" s="17">
-        <f>IF(BUY!U119&gt;0, BUY!T119, "")</f>
-        <v/>
-      </c>
-      <c r="D117" s="13">
-        <f>IF(BUY!U119&gt;0, BUY!U119, "")</f>
-        <v/>
-      </c>
-      <c r="E117" s="15">
-        <f>IF(BUY!U119&gt;0, BUY!V119, "")</f>
-        <v/>
-      </c>
+      <c r="C117" s="17" t="n"/>
+      <c r="D117" s="13" t="n"/>
+      <c r="E117" s="15" t="n"/>
     </row>
     <row r="118">
-      <c r="A118">
-        <f>IF(BUY!U120&gt;0, BUY!A120, "")</f>
-        <v/>
-      </c>
-      <c r="B118">
-        <f>IF(BUY!U120&gt;0, BUY!S120, "")</f>
-        <v/>
-      </c>
-      <c r="C118" s="17">
-        <f>IF(BUY!U120&gt;0, BUY!T120, "")</f>
-        <v/>
-      </c>
-      <c r="D118" s="13">
-        <f>IF(BUY!U120&gt;0, BUY!U120, "")</f>
-        <v/>
-      </c>
-      <c r="E118" s="15">
-        <f>IF(BUY!U120&gt;0, BUY!V120, "")</f>
-        <v/>
-      </c>
+      <c r="C118" s="17" t="n"/>
+      <c r="D118" s="13" t="n"/>
+      <c r="E118" s="15" t="n"/>
     </row>
     <row r="119">
-      <c r="A119">
-        <f>IF(BUY!U121&gt;0, BUY!A121, "")</f>
-        <v/>
-      </c>
-      <c r="B119">
-        <f>IF(BUY!U121&gt;0, BUY!S121, "")</f>
-        <v/>
-      </c>
-      <c r="C119" s="17">
-        <f>IF(BUY!U121&gt;0, BUY!T121, "")</f>
-        <v/>
-      </c>
-      <c r="D119" s="13">
-        <f>IF(BUY!U121&gt;0, BUY!U121, "")</f>
-        <v/>
-      </c>
-      <c r="E119" s="15">
-        <f>IF(BUY!U121&gt;0, BUY!V121, "")</f>
-        <v/>
-      </c>
+      <c r="C119" s="17" t="n"/>
+      <c r="D119" s="13" t="n"/>
+      <c r="E119" s="15" t="n"/>
     </row>
     <row r="120">
-      <c r="A120">
-        <f>IF(BUY!U122&gt;0, BUY!A122, "")</f>
-        <v/>
-      </c>
-      <c r="B120">
-        <f>IF(BUY!U122&gt;0, BUY!S122, "")</f>
-        <v/>
-      </c>
-      <c r="C120" s="17">
-        <f>IF(BUY!U122&gt;0, BUY!T122, "")</f>
-        <v/>
-      </c>
-      <c r="D120" s="13">
-        <f>IF(BUY!U122&gt;0, BUY!U122, "")</f>
-        <v/>
-      </c>
-      <c r="E120" s="15">
-        <f>IF(BUY!U122&gt;0, BUY!V122, "")</f>
-        <v/>
-      </c>
+      <c r="C120" s="17" t="n"/>
+      <c r="D120" s="13" t="n"/>
+      <c r="E120" s="15" t="n"/>
     </row>
     <row r="121">
-      <c r="A121">
-        <f>IF(BUY!U123&gt;0, BUY!A123, "")</f>
-        <v/>
-      </c>
-      <c r="B121">
-        <f>IF(BUY!U123&gt;0, BUY!S123, "")</f>
-        <v/>
-      </c>
-      <c r="C121" s="17">
-        <f>IF(BUY!U123&gt;0, BUY!T123, "")</f>
-        <v/>
-      </c>
-      <c r="D121" s="13">
-        <f>IF(BUY!U123&gt;0, BUY!U123, "")</f>
-        <v/>
-      </c>
-      <c r="E121" s="15">
-        <f>IF(BUY!U123&gt;0, BUY!V123, "")</f>
-        <v/>
-      </c>
+      <c r="C121" s="17" t="n"/>
+      <c r="D121" s="13" t="n"/>
+      <c r="E121" s="15" t="n"/>
     </row>
     <row r="122">
-      <c r="A122">
-        <f>IF(BUY!U124&gt;0, BUY!A124, "")</f>
-        <v/>
-      </c>
-      <c r="B122">
-        <f>IF(BUY!U124&gt;0, BUY!S124, "")</f>
-        <v/>
-      </c>
-      <c r="C122" s="17">
-        <f>IF(BUY!U124&gt;0, BUY!T124, "")</f>
-        <v/>
-      </c>
-      <c r="D122" s="13">
-        <f>IF(BUY!U124&gt;0, BUY!U124, "")</f>
-        <v/>
-      </c>
-      <c r="E122" s="15">
-        <f>IF(BUY!U124&gt;0, BUY!V124, "")</f>
-        <v/>
-      </c>
+      <c r="C122" s="17" t="n"/>
+      <c r="D122" s="13" t="n"/>
+      <c r="E122" s="15" t="n"/>
     </row>
     <row r="123">
-      <c r="A123">
-        <f>IF(BUY!U125&gt;0, BUY!A125, "")</f>
-        <v/>
-      </c>
-      <c r="B123">
-        <f>IF(BUY!U125&gt;0, BUY!S125, "")</f>
-        <v/>
-      </c>
-      <c r="C123" s="17">
-        <f>IF(BUY!U125&gt;0, BUY!T125, "")</f>
-        <v/>
-      </c>
-      <c r="D123" s="13">
-        <f>IF(BUY!U125&gt;0, BUY!U125, "")</f>
-        <v/>
-      </c>
-      <c r="E123" s="15">
-        <f>IF(BUY!U125&gt;0, BUY!V125, "")</f>
-        <v/>
-      </c>
+      <c r="C123" s="17" t="n"/>
+      <c r="D123" s="13" t="n"/>
+      <c r="E123" s="15" t="n"/>
     </row>
     <row r="124">
-      <c r="A124">
-        <f>IF(BUY!U126&gt;0, BUY!A126, "")</f>
-        <v/>
-      </c>
-      <c r="B124">
-        <f>IF(BUY!U126&gt;0, BUY!S126, "")</f>
-        <v/>
-      </c>
-      <c r="C124" s="17">
-        <f>IF(BUY!U126&gt;0, BUY!T126, "")</f>
-        <v/>
-      </c>
-      <c r="D124" s="13">
-        <f>IF(BUY!U126&gt;0, BUY!U126, "")</f>
-        <v/>
-      </c>
-      <c r="E124" s="15">
-        <f>IF(BUY!U126&gt;0, BUY!V126, "")</f>
-        <v/>
-      </c>
+      <c r="C124" s="17" t="n"/>
+      <c r="D124" s="13" t="n"/>
+      <c r="E124" s="15" t="n"/>
     </row>
     <row r="125">
-      <c r="A125">
-        <f>IF(BUY!U127&gt;0, BUY!A127, "")</f>
-        <v/>
-      </c>
-      <c r="B125">
-        <f>IF(BUY!U127&gt;0, BUY!S127, "")</f>
-        <v/>
-      </c>
-      <c r="C125" s="17">
-        <f>IF(BUY!U127&gt;0, BUY!T127, "")</f>
-        <v/>
-      </c>
-      <c r="D125" s="13">
-        <f>IF(BUY!U127&gt;0, BUY!U127, "")</f>
-        <v/>
-      </c>
-      <c r="E125" s="15">
-        <f>IF(BUY!U127&gt;0, BUY!V127, "")</f>
-        <v/>
-      </c>
+      <c r="C125" s="17" t="n"/>
+      <c r="D125" s="13" t="n"/>
+      <c r="E125" s="15" t="n"/>
     </row>
     <row r="126">
-      <c r="A126">
-        <f>IF(BUY!U128&gt;0, BUY!A128, "")</f>
-        <v/>
-      </c>
-      <c r="B126">
-        <f>IF(BUY!U128&gt;0, BUY!S128, "")</f>
-        <v/>
-      </c>
-      <c r="C126" s="17">
-        <f>IF(BUY!U128&gt;0, BUY!T128, "")</f>
-        <v/>
-      </c>
-      <c r="D126" s="13">
-        <f>IF(BUY!U128&gt;0, BUY!U128, "")</f>
-        <v/>
-      </c>
-      <c r="E126" s="15">
-        <f>IF(BUY!U128&gt;0, BUY!V128, "")</f>
-        <v/>
-      </c>
+      <c r="C126" s="17" t="n"/>
+      <c r="D126" s="13" t="n"/>
+      <c r="E126" s="15" t="n"/>
     </row>
     <row r="127">
-      <c r="A127">
-        <f>IF(BUY!U129&gt;0, BUY!A129, "")</f>
-        <v/>
-      </c>
-      <c r="B127">
-        <f>IF(BUY!U129&gt;0, BUY!S129, "")</f>
-        <v/>
-      </c>
-      <c r="C127" s="17">
-        <f>IF(BUY!U129&gt;0, BUY!T129, "")</f>
-        <v/>
-      </c>
-      <c r="D127" s="13">
-        <f>IF(BUY!U129&gt;0, BUY!U129, "")</f>
-        <v/>
-      </c>
-      <c r="E127" s="15">
-        <f>IF(BUY!U129&gt;0, BUY!V129, "")</f>
-        <v/>
-      </c>
+      <c r="C127" s="17" t="n"/>
+      <c r="D127" s="13" t="n"/>
+      <c r="E127" s="15" t="n"/>
     </row>
     <row r="128">
-      <c r="A128">
-        <f>IF(BUY!U130&gt;0, BUY!A130, "")</f>
-        <v/>
-      </c>
-      <c r="B128">
-        <f>IF(BUY!U130&gt;0, BUY!S130, "")</f>
-        <v/>
-      </c>
-      <c r="C128" s="17">
-        <f>IF(BUY!U130&gt;0, BUY!T130, "")</f>
-        <v/>
-      </c>
-      <c r="D128" s="13">
-        <f>IF(BUY!U130&gt;0, BUY!U130, "")</f>
-        <v/>
-      </c>
-      <c r="E128" s="15">
-        <f>IF(BUY!U130&gt;0, BUY!V130, "")</f>
-        <v/>
-      </c>
+      <c r="C128" s="17" t="n"/>
+      <c r="D128" s="13" t="n"/>
+      <c r="E128" s="15" t="n"/>
     </row>
     <row r="129">
-      <c r="A129">
-        <f>IF(BUY!U131&gt;0, BUY!A131, "")</f>
-        <v/>
-      </c>
-      <c r="B129">
-        <f>IF(BUY!U131&gt;0, BUY!S131, "")</f>
-        <v/>
-      </c>
-      <c r="C129" s="17">
-        <f>IF(BUY!U131&gt;0, BUY!T131, "")</f>
-        <v/>
-      </c>
-      <c r="D129" s="13">
-        <f>IF(BUY!U131&gt;0, BUY!U131, "")</f>
-        <v/>
-      </c>
-      <c r="E129" s="15">
-        <f>IF(BUY!U131&gt;0, BUY!V131, "")</f>
-        <v/>
-      </c>
+      <c r="C129" s="17" t="n"/>
+      <c r="D129" s="13" t="n"/>
+      <c r="E129" s="15" t="n"/>
     </row>
     <row r="130">
-      <c r="A130">
-        <f>IF(BUY!U132&gt;0, BUY!A132, "")</f>
-        <v/>
-      </c>
-      <c r="B130">
-        <f>IF(BUY!U132&gt;0, BUY!S132, "")</f>
-        <v/>
-      </c>
-      <c r="C130" s="17">
-        <f>IF(BUY!U132&gt;0, BUY!T132, "")</f>
-        <v/>
-      </c>
-      <c r="D130" s="13">
-        <f>IF(BUY!U132&gt;0, BUY!U132, "")</f>
-        <v/>
-      </c>
-      <c r="E130" s="15">
-        <f>IF(BUY!U132&gt;0, BUY!V132, "")</f>
-        <v/>
-      </c>
+      <c r="C130" s="17" t="n"/>
+      <c r="D130" s="13" t="n"/>
+      <c r="E130" s="15" t="n"/>
     </row>
     <row r="131">
-      <c r="A131">
-        <f>IF(BUY!U133&gt;0, BUY!A133, "")</f>
-        <v/>
-      </c>
-      <c r="B131">
-        <f>IF(BUY!U133&gt;0, BUY!S133, "")</f>
-        <v/>
-      </c>
-      <c r="C131" s="17">
-        <f>IF(BUY!U133&gt;0, BUY!T133, "")</f>
-        <v/>
-      </c>
-      <c r="D131" s="13">
-        <f>IF(BUY!U133&gt;0, BUY!U133, "")</f>
-        <v/>
-      </c>
-      <c r="E131" s="15">
-        <f>IF(BUY!U133&gt;0, BUY!V133, "")</f>
-        <v/>
-      </c>
+      <c r="C131" s="17" t="n"/>
+      <c r="D131" s="13" t="n"/>
+      <c r="E131" s="15" t="n"/>
     </row>
     <row r="132">
-      <c r="A132">
-        <f>IF(BUY!U134&gt;0, BUY!A134, "")</f>
-        <v/>
-      </c>
-      <c r="B132">
-        <f>IF(BUY!U134&gt;0, BUY!S134, "")</f>
-        <v/>
-      </c>
-      <c r="C132" s="17">
-        <f>IF(BUY!U134&gt;0, BUY!T134, "")</f>
-        <v/>
-      </c>
-      <c r="D132" s="13">
-        <f>IF(BUY!U134&gt;0, BUY!U134, "")</f>
-        <v/>
-      </c>
-      <c r="E132" s="15">
-        <f>IF(BUY!U134&gt;0, BUY!V134, "")</f>
-        <v/>
-      </c>
+      <c r="C132" s="17" t="n"/>
+      <c r="D132" s="13" t="n"/>
+      <c r="E132" s="15" t="n"/>
     </row>
     <row r="133">
-      <c r="A133">
-        <f>IF(BUY!U135&gt;0, BUY!A135, "")</f>
-        <v/>
-      </c>
-      <c r="B133">
-        <f>IF(BUY!U135&gt;0, BUY!S135, "")</f>
-        <v/>
-      </c>
-      <c r="C133" s="17">
-        <f>IF(BUY!U135&gt;0, BUY!T135, "")</f>
-        <v/>
-      </c>
-      <c r="D133" s="13">
-        <f>IF(BUY!U135&gt;0, BUY!U135, "")</f>
-        <v/>
-      </c>
-      <c r="E133" s="15">
-        <f>IF(BUY!U135&gt;0, BUY!V135, "")</f>
-        <v/>
-      </c>
+      <c r="C133" s="17" t="n"/>
+      <c r="D133" s="13" t="n"/>
+      <c r="E133" s="15" t="n"/>
     </row>
     <row r="134">
-      <c r="A134">
-        <f>IF(BUY!U136&gt;0, BUY!A136, "")</f>
-        <v/>
-      </c>
-      <c r="B134">
-        <f>IF(BUY!U136&gt;0, BUY!S136, "")</f>
-        <v/>
-      </c>
-      <c r="C134" s="17">
-        <f>IF(BUY!U136&gt;0, BUY!T136, "")</f>
-        <v/>
-      </c>
-      <c r="D134" s="13">
-        <f>IF(BUY!U136&gt;0, BUY!U136, "")</f>
-        <v/>
-      </c>
-      <c r="E134" s="15">
-        <f>IF(BUY!U136&gt;0, BUY!V136, "")</f>
-        <v/>
-      </c>
+      <c r="C134" s="17" t="n"/>
+      <c r="D134" s="13" t="n"/>
+      <c r="E134" s="15" t="n"/>
     </row>
     <row r="135">
-      <c r="A135">
-        <f>IF(BUY!U137&gt;0, BUY!A137, "")</f>
-        <v/>
-      </c>
-      <c r="B135">
-        <f>IF(BUY!U137&gt;0, BUY!S137, "")</f>
-        <v/>
-      </c>
-      <c r="C135" s="17">
-        <f>IF(BUY!U137&gt;0, BUY!T137, "")</f>
-        <v/>
-      </c>
-      <c r="D135" s="13">
-        <f>IF(BUY!U137&gt;0, BUY!U137, "")</f>
-        <v/>
-      </c>
-      <c r="E135" s="15">
-        <f>IF(BUY!U137&gt;0, BUY!V137, "")</f>
-        <v/>
-      </c>
+      <c r="C135" s="17" t="n"/>
+      <c r="D135" s="13" t="n"/>
+      <c r="E135" s="15" t="n"/>
     </row>
     <row r="136">
-      <c r="A136">
-        <f>IF(BUY!U138&gt;0, BUY!A138, "")</f>
-        <v/>
-      </c>
-      <c r="B136">
-        <f>IF(BUY!U138&gt;0, BUY!S138, "")</f>
-        <v/>
-      </c>
-      <c r="C136" s="17">
-        <f>IF(BUY!U138&gt;0, BUY!T138, "")</f>
-        <v/>
-      </c>
-      <c r="D136" s="13">
-        <f>IF(BUY!U138&gt;0, BUY!U138, "")</f>
-        <v/>
-      </c>
-      <c r="E136" s="15">
-        <f>IF(BUY!U138&gt;0, BUY!V138, "")</f>
-        <v/>
-      </c>
+      <c r="C136" s="17" t="n"/>
+      <c r="D136" s="13" t="n"/>
+      <c r="E136" s="15" t="n"/>
     </row>
     <row r="137">
-      <c r="A137">
-        <f>IF(BUY!U139&gt;0, BUY!A139, "")</f>
-        <v/>
-      </c>
-      <c r="B137">
-        <f>IF(BUY!U139&gt;0, BUY!S139, "")</f>
-        <v/>
-      </c>
-      <c r="C137" s="17">
-        <f>IF(BUY!U139&gt;0, BUY!T139, "")</f>
-        <v/>
-      </c>
-      <c r="D137" s="13">
-        <f>IF(BUY!U139&gt;0, BUY!U139, "")</f>
-        <v/>
-      </c>
-      <c r="E137" s="15">
-        <f>IF(BUY!U139&gt;0, BUY!V139, "")</f>
-        <v/>
-      </c>
+      <c r="C137" s="17" t="n"/>
+      <c r="D137" s="13" t="n"/>
+      <c r="E137" s="15" t="n"/>
     </row>
     <row r="138">
-      <c r="A138">
-        <f>IF(BUY!U140&gt;0, BUY!A140, "")</f>
-        <v/>
-      </c>
-      <c r="B138">
-        <f>IF(BUY!U140&gt;0, BUY!S140, "")</f>
-        <v/>
-      </c>
-      <c r="C138" s="17">
-        <f>IF(BUY!U140&gt;0, BUY!T140, "")</f>
-        <v/>
-      </c>
-      <c r="D138" s="13">
-        <f>IF(BUY!U140&gt;0, BUY!U140, "")</f>
-        <v/>
-      </c>
-      <c r="E138" s="15">
-        <f>IF(BUY!U140&gt;0, BUY!V140, "")</f>
-        <v/>
-      </c>
+      <c r="C138" s="17" t="n"/>
+      <c r="D138" s="13" t="n"/>
+      <c r="E138" s="15" t="n"/>
     </row>
     <row r="139">
-      <c r="A139">
-        <f>IF(BUY!U141&gt;0, BUY!A141, "")</f>
-        <v/>
-      </c>
-      <c r="B139">
-        <f>IF(BUY!U141&gt;0, BUY!S141, "")</f>
-        <v/>
-      </c>
-      <c r="C139" s="17">
-        <f>IF(BUY!U141&gt;0, BUY!T141, "")</f>
-        <v/>
-      </c>
-      <c r="D139" s="13">
-        <f>IF(BUY!U141&gt;0, BUY!U141, "")</f>
-        <v/>
-      </c>
-      <c r="E139" s="15">
-        <f>IF(BUY!U141&gt;0, BUY!V141, "")</f>
-        <v/>
-      </c>
+      <c r="C139" s="17" t="n"/>
+      <c r="D139" s="13" t="n"/>
+      <c r="E139" s="15" t="n"/>
     </row>
     <row r="140">
-      <c r="A140">
-        <f>IF(BUY!U142&gt;0, BUY!A142, "")</f>
-        <v/>
-      </c>
-      <c r="B140">
-        <f>IF(BUY!U142&gt;0, BUY!S142, "")</f>
-        <v/>
-      </c>
-      <c r="C140" s="17">
-        <f>IF(BUY!U142&gt;0, BUY!T142, "")</f>
-        <v/>
-      </c>
-      <c r="D140" s="13">
-        <f>IF(BUY!U142&gt;0, BUY!U142, "")</f>
-        <v/>
-      </c>
-      <c r="E140" s="15">
-        <f>IF(BUY!U142&gt;0, BUY!V142, "")</f>
-        <v/>
-      </c>
+      <c r="C140" s="17" t="n"/>
+      <c r="D140" s="13" t="n"/>
+      <c r="E140" s="15" t="n"/>
     </row>
     <row r="141">
-      <c r="A141">
-        <f>IF(BUY!U143&gt;0, BUY!A143, "")</f>
-        <v/>
-      </c>
-      <c r="B141">
-        <f>IF(BUY!U143&gt;0, BUY!S143, "")</f>
-        <v/>
-      </c>
-      <c r="C141" s="17">
-        <f>IF(BUY!U143&gt;0, BUY!T143, "")</f>
-        <v/>
-      </c>
-      <c r="D141" s="13">
-        <f>IF(BUY!U143&gt;0, BUY!U143, "")</f>
-        <v/>
-      </c>
-      <c r="E141" s="15">
-        <f>IF(BUY!U143&gt;0, BUY!V143, "")</f>
-        <v/>
-      </c>
+      <c r="C141" s="17" t="n"/>
+      <c r="D141" s="13" t="n"/>
+      <c r="E141" s="15" t="n"/>
     </row>
     <row r="142">
-      <c r="A142">
-        <f>IF(BUY!U144&gt;0, BUY!A144, "")</f>
-        <v/>
-      </c>
-      <c r="B142">
-        <f>IF(BUY!U144&gt;0, BUY!S144, "")</f>
-        <v/>
-      </c>
-      <c r="C142" s="17">
-        <f>IF(BUY!U144&gt;0, BUY!T144, "")</f>
-        <v/>
-      </c>
-      <c r="D142" s="13">
-        <f>IF(BUY!U144&gt;0, BUY!U144, "")</f>
-        <v/>
-      </c>
-      <c r="E142" s="15">
-        <f>IF(BUY!U144&gt;0, BUY!V144, "")</f>
-        <v/>
-      </c>
+      <c r="C142" s="17" t="n"/>
+      <c r="D142" s="13" t="n"/>
+      <c r="E142" s="15" t="n"/>
     </row>
     <row r="143">
-      <c r="A143">
-        <f>IF(BUY!U145&gt;0, BUY!A145, "")</f>
-        <v/>
-      </c>
-      <c r="B143">
-        <f>IF(BUY!U145&gt;0, BUY!S145, "")</f>
-        <v/>
-      </c>
-      <c r="C143" s="17">
-        <f>IF(BUY!U145&gt;0, BUY!T145, "")</f>
-        <v/>
-      </c>
-      <c r="D143" s="13">
-        <f>IF(BUY!U145&gt;0, BUY!U145, "")</f>
-        <v/>
-      </c>
-      <c r="E143" s="15">
-        <f>IF(BUY!U145&gt;0, BUY!V145, "")</f>
-        <v/>
-      </c>
+      <c r="C143" s="17" t="n"/>
+      <c r="D143" s="13" t="n"/>
+      <c r="E143" s="15" t="n"/>
     </row>
     <row r="144">
-      <c r="A144">
-        <f>IF(BUY!U146&gt;0, BUY!A146, "")</f>
-        <v/>
-      </c>
-      <c r="B144">
-        <f>IF(BUY!U146&gt;0, BUY!S146, "")</f>
-        <v/>
-      </c>
-      <c r="C144" s="17">
-        <f>IF(BUY!U146&gt;0, BUY!T146, "")</f>
-        <v/>
-      </c>
-      <c r="D144" s="13">
-        <f>IF(BUY!U146&gt;0, BUY!U146, "")</f>
-        <v/>
-      </c>
-      <c r="E144" s="15">
-        <f>IF(BUY!U146&gt;0, BUY!V146, "")</f>
-        <v/>
-      </c>
+      <c r="C144" s="17" t="n"/>
+      <c r="D144" s="13" t="n"/>
+      <c r="E144" s="15" t="n"/>
     </row>
     <row r="145">
-      <c r="A145">
-        <f>IF(BUY!U147&gt;0, BUY!A147, "")</f>
-        <v/>
-      </c>
-      <c r="B145">
-        <f>IF(BUY!U147&gt;0, BUY!S147, "")</f>
-        <v/>
-      </c>
-      <c r="C145" s="17">
-        <f>IF(BUY!U147&gt;0, BUY!T147, "")</f>
-        <v/>
-      </c>
-      <c r="D145" s="13">
-        <f>IF(BUY!U147&gt;0, BUY!U147, "")</f>
-        <v/>
-      </c>
-      <c r="E145" s="15">
-        <f>IF(BUY!U147&gt;0, BUY!V147, "")</f>
-        <v/>
-      </c>
+      <c r="C145" s="17" t="n"/>
+      <c r="D145" s="13" t="n"/>
+      <c r="E145" s="15" t="n"/>
     </row>
     <row r="146">
-      <c r="A146">
-        <f>IF(BUY!U148&gt;0, BUY!A148, "")</f>
-        <v/>
-      </c>
-      <c r="B146">
-        <f>IF(BUY!U148&gt;0, BUY!S148, "")</f>
-        <v/>
-      </c>
-      <c r="C146" s="17">
-        <f>IF(BUY!U148&gt;0, BUY!T148, "")</f>
-        <v/>
-      </c>
-      <c r="D146" s="13">
-        <f>IF(BUY!U148&gt;0, BUY!U148, "")</f>
-        <v/>
-      </c>
-      <c r="E146" s="15">
-        <f>IF(BUY!U148&gt;0, BUY!V148, "")</f>
-        <v/>
-      </c>
+      <c r="C146" s="17" t="n"/>
+      <c r="D146" s="13" t="n"/>
+      <c r="E146" s="15" t="n"/>
     </row>
     <row r="147">
-      <c r="A147">
-        <f>IF(BUY!U149&gt;0, BUY!A149, "")</f>
-        <v/>
-      </c>
-      <c r="B147">
-        <f>IF(BUY!U149&gt;0, BUY!S149, "")</f>
-        <v/>
-      </c>
-      <c r="C147" s="17">
-        <f>IF(BUY!U149&gt;0, BUY!T149, "")</f>
-        <v/>
-      </c>
-      <c r="D147" s="13">
-        <f>IF(BUY!U149&gt;0, BUY!U149, "")</f>
-        <v/>
-      </c>
-      <c r="E147" s="15">
-        <f>IF(BUY!U149&gt;0, BUY!V149, "")</f>
-        <v/>
-      </c>
+      <c r="C147" s="17" t="n"/>
+      <c r="D147" s="13" t="n"/>
+      <c r="E147" s="15" t="n"/>
     </row>
     <row r="148">
-      <c r="A148">
-        <f>IF(BUY!U150&gt;0, BUY!A150, "")</f>
-        <v/>
-      </c>
-      <c r="B148">
-        <f>IF(BUY!U150&gt;0, BUY!S150, "")</f>
-        <v/>
-      </c>
-      <c r="C148" s="17">
-        <f>IF(BUY!U150&gt;0, BUY!T150, "")</f>
-        <v/>
-      </c>
-      <c r="D148" s="13">
-        <f>IF(BUY!U150&gt;0, BUY!U150, "")</f>
-        <v/>
-      </c>
-      <c r="E148" s="15">
-        <f>IF(BUY!U150&gt;0, BUY!V150, "")</f>
-        <v/>
-      </c>
+      <c r="C148" s="17" t="n"/>
+      <c r="D148" s="13" t="n"/>
+      <c r="E148" s="15" t="n"/>
     </row>
     <row r="149">
-      <c r="A149">
-        <f>IF(BUY!U151&gt;0, BUY!A151, "")</f>
-        <v/>
-      </c>
-      <c r="B149">
-        <f>IF(BUY!U151&gt;0, BUY!S151, "")</f>
-        <v/>
-      </c>
-      <c r="C149" s="17">
-        <f>IF(BUY!U151&gt;0, BUY!T151, "")</f>
-        <v/>
-      </c>
-      <c r="D149" s="13">
-        <f>IF(BUY!U151&gt;0, BUY!U151, "")</f>
-        <v/>
-      </c>
-      <c r="E149" s="15">
-        <f>IF(BUY!U151&gt;0, BUY!V151, "")</f>
-        <v/>
-      </c>
+      <c r="C149" s="17" t="n"/>
+      <c r="D149" s="13" t="n"/>
+      <c r="E149" s="15" t="n"/>
     </row>
     <row r="150">
-      <c r="A150">
-        <f>IF(BUY!U152&gt;0, BUY!A152, "")</f>
-        <v/>
-      </c>
-      <c r="B150">
-        <f>IF(BUY!U152&gt;0, BUY!S152, "")</f>
-        <v/>
-      </c>
-      <c r="C150" s="17">
-        <f>IF(BUY!U152&gt;0, BUY!T152, "")</f>
-        <v/>
-      </c>
-      <c r="D150" s="13">
-        <f>IF(BUY!U152&gt;0, BUY!U152, "")</f>
-        <v/>
-      </c>
-      <c r="E150" s="15">
-        <f>IF(BUY!U152&gt;0, BUY!V152, "")</f>
-        <v/>
-      </c>
+      <c r="C150" s="17" t="n"/>
+      <c r="D150" s="13" t="n"/>
+      <c r="E150" s="15" t="n"/>
     </row>
     <row r="151">
-      <c r="A151">
-        <f>IF(BUY!U153&gt;0, BUY!A153, "")</f>
-        <v/>
-      </c>
-      <c r="B151">
-        <f>IF(BUY!U153&gt;0, BUY!S153, "")</f>
-        <v/>
-      </c>
-      <c r="C151" s="17">
-        <f>IF(BUY!U153&gt;0, BUY!T153, "")</f>
-        <v/>
-      </c>
-      <c r="D151" s="13">
-        <f>IF(BUY!U153&gt;0, BUY!U153, "")</f>
-        <v/>
-      </c>
-      <c r="E151" s="15">
-        <f>IF(BUY!U153&gt;0, BUY!V153, "")</f>
-        <v/>
-      </c>
+      <c r="C151" s="17" t="n"/>
+      <c r="D151" s="13" t="n"/>
+      <c r="E151" s="15" t="n"/>
     </row>
     <row r="152">
-      <c r="A152">
-        <f>IF(BUY!U154&gt;0, BUY!A154, "")</f>
-        <v/>
-      </c>
-      <c r="B152">
-        <f>IF(BUY!U154&gt;0, BUY!S154, "")</f>
-        <v/>
-      </c>
-      <c r="C152" s="17">
-        <f>IF(BUY!U154&gt;0, BUY!T154, "")</f>
-        <v/>
-      </c>
-      <c r="D152" s="13">
-        <f>IF(BUY!U154&gt;0, BUY!U154, "")</f>
-        <v/>
-      </c>
-      <c r="E152" s="15">
-        <f>IF(BUY!U154&gt;0, BUY!V154, "")</f>
-        <v/>
-      </c>
+      <c r="C152" s="17" t="n"/>
+      <c r="D152" s="13" t="n"/>
+      <c r="E152" s="15" t="n"/>
     </row>
     <row r="153">
-      <c r="A153">
-        <f>IF(BUY!U155&gt;0, BUY!A155, "")</f>
-        <v/>
-      </c>
-      <c r="B153">
-        <f>IF(BUY!U155&gt;0, BUY!S155, "")</f>
-        <v/>
-      </c>
-      <c r="C153" s="17">
-        <f>IF(BUY!U155&gt;0, BUY!T155, "")</f>
-        <v/>
-      </c>
-      <c r="D153" s="13">
-        <f>IF(BUY!U155&gt;0, BUY!U155, "")</f>
-        <v/>
-      </c>
-      <c r="E153" s="15">
-        <f>IF(BUY!U155&gt;0, BUY!V155, "")</f>
-        <v/>
-      </c>
+      <c r="C153" s="17" t="n"/>
+      <c r="D153" s="13" t="n"/>
+      <c r="E153" s="15" t="n"/>
     </row>
     <row r="154">
-      <c r="A154">
-        <f>IF(BUY!U156&gt;0, BUY!A156, "")</f>
-        <v/>
-      </c>
-      <c r="B154">
-        <f>IF(BUY!U156&gt;0, BUY!S156, "")</f>
-        <v/>
-      </c>
-      <c r="C154" s="17">
-        <f>IF(BUY!U156&gt;0, BUY!T156, "")</f>
-        <v/>
-      </c>
-      <c r="D154" s="13">
-        <f>IF(BUY!U156&gt;0, BUY!U156, "")</f>
-        <v/>
-      </c>
-      <c r="E154" s="15">
-        <f>IF(BUY!U156&gt;0, BUY!V156, "")</f>
-        <v/>
-      </c>
+      <c r="C154" s="17" t="n"/>
+      <c r="D154" s="13" t="n"/>
+      <c r="E154" s="15" t="n"/>
     </row>
     <row r="155">
-      <c r="A155">
-        <f>IF(BUY!U157&gt;0, BUY!A157, "")</f>
-        <v/>
-      </c>
-      <c r="B155">
-        <f>IF(BUY!U157&gt;0, BUY!S157, "")</f>
-        <v/>
-      </c>
-      <c r="C155" s="17">
-        <f>IF(BUY!U157&gt;0, BUY!T157, "")</f>
-        <v/>
-      </c>
-      <c r="D155" s="13">
-        <f>IF(BUY!U157&gt;0, BUY!U157, "")</f>
-        <v/>
-      </c>
-      <c r="E155" s="15">
-        <f>IF(BUY!U157&gt;0, BUY!V157, "")</f>
-        <v/>
-      </c>
+      <c r="C155" s="17" t="n"/>
+      <c r="D155" s="13" t="n"/>
+      <c r="E155" s="15" t="n"/>
     </row>
     <row r="156">
-      <c r="A156">
-        <f>IF(BUY!U158&gt;0, BUY!A158, "")</f>
-        <v/>
-      </c>
-      <c r="B156">
-        <f>IF(BUY!U158&gt;0, BUY!S158, "")</f>
-        <v/>
-      </c>
-      <c r="C156" s="17">
-        <f>IF(BUY!U158&gt;0, BUY!T158, "")</f>
-        <v/>
-      </c>
-      <c r="D156" s="13">
-        <f>IF(BUY!U158&gt;0, BUY!U158, "")</f>
-        <v/>
-      </c>
-      <c r="E156" s="15">
-        <f>IF(BUY!U158&gt;0, BUY!V158, "")</f>
-        <v/>
-      </c>
+      <c r="C156" s="17" t="n"/>
+      <c r="D156" s="13" t="n"/>
+      <c r="E156" s="15" t="n"/>
     </row>
     <row r="157">
-      <c r="A157">
-        <f>IF(BUY!U159&gt;0, BUY!A159, "")</f>
-        <v/>
-      </c>
-      <c r="B157">
-        <f>IF(BUY!U159&gt;0, BUY!S159, "")</f>
-        <v/>
-      </c>
-      <c r="C157" s="17">
-        <f>IF(BUY!U159&gt;0, BUY!T159, "")</f>
-        <v/>
-      </c>
-      <c r="D157" s="13">
-        <f>IF(BUY!U159&gt;0, BUY!U159, "")</f>
-        <v/>
-      </c>
-      <c r="E157" s="15">
-        <f>IF(BUY!U159&gt;0, BUY!V159, "")</f>
-        <v/>
-      </c>
+      <c r="C157" s="17" t="n"/>
+      <c r="D157" s="13" t="n"/>
+      <c r="E157" s="15" t="n"/>
     </row>
     <row r="158">
-      <c r="A158">
-        <f>IF(BUY!U160&gt;0, BUY!A160, "")</f>
-        <v/>
-      </c>
-      <c r="B158">
-        <f>IF(BUY!U160&gt;0, BUY!S160, "")</f>
-        <v/>
-      </c>
-      <c r="C158" s="17">
-        <f>IF(BUY!U160&gt;0, BUY!T160, "")</f>
-        <v/>
-      </c>
-      <c r="D158" s="13">
-        <f>IF(BUY!U160&gt;0, BUY!U160, "")</f>
-        <v/>
-      </c>
-      <c r="E158" s="15">
-        <f>IF(BUY!U160&gt;0, BUY!V160, "")</f>
-        <v/>
-      </c>
+      <c r="C158" s="17" t="n"/>
+      <c r="D158" s="13" t="n"/>
+      <c r="E158" s="15" t="n"/>
     </row>
     <row r="159">
-      <c r="A159">
-        <f>IF(BUY!U161&gt;0, BUY!A161, "")</f>
-        <v/>
-      </c>
-      <c r="B159">
-        <f>IF(BUY!U161&gt;0, BUY!S161, "")</f>
-        <v/>
-      </c>
-      <c r="C159" s="17">
-        <f>IF(BUY!U161&gt;0, BUY!T161, "")</f>
-        <v/>
-      </c>
-      <c r="D159" s="13">
-        <f>IF(BUY!U161&gt;0, BUY!U161, "")</f>
-        <v/>
-      </c>
-      <c r="E159" s="15">
-        <f>IF(BUY!U161&gt;0, BUY!V161, "")</f>
-        <v/>
-      </c>
+      <c r="C159" s="17" t="n"/>
+      <c r="D159" s="13" t="n"/>
+      <c r="E159" s="15" t="n"/>
     </row>
     <row r="160">
-      <c r="A160">
-        <f>IF(BUY!U162&gt;0, BUY!A162, "")</f>
-        <v/>
-      </c>
-      <c r="B160">
-        <f>IF(BUY!U162&gt;0, BUY!S162, "")</f>
-        <v/>
-      </c>
-      <c r="C160" s="17">
-        <f>IF(BUY!U162&gt;0, BUY!T162, "")</f>
-        <v/>
-      </c>
-      <c r="D160" s="13">
-        <f>IF(BUY!U162&gt;0, BUY!U162, "")</f>
-        <v/>
-      </c>
-      <c r="E160" s="15">
-        <f>IF(BUY!U162&gt;0, BUY!V162, "")</f>
-        <v/>
-      </c>
+      <c r="C160" s="17" t="n"/>
+      <c r="D160" s="13" t="n"/>
+      <c r="E160" s="15" t="n"/>
     </row>
     <row r="161">
-      <c r="A161">
-        <f>IF(BUY!U163&gt;0, BUY!A163, "")</f>
-        <v/>
-      </c>
-      <c r="B161">
-        <f>IF(BUY!U163&gt;0, BUY!S163, "")</f>
-        <v/>
-      </c>
-      <c r="C161" s="17">
-        <f>IF(BUY!U163&gt;0, BUY!T163, "")</f>
-        <v/>
-      </c>
-      <c r="D161" s="13">
-        <f>IF(BUY!U163&gt;0, BUY!U163, "")</f>
-        <v/>
-      </c>
-      <c r="E161" s="15">
-        <f>IF(BUY!U163&gt;0, BUY!V163, "")</f>
-        <v/>
-      </c>
+      <c r="C161" s="17" t="n"/>
+      <c r="D161" s="13" t="n"/>
+      <c r="E161" s="15" t="n"/>
     </row>
     <row r="162">
-      <c r="A162">
-        <f>IF(BUY!U164&gt;0, BUY!A164, "")</f>
-        <v/>
-      </c>
-      <c r="B162">
-        <f>IF(BUY!U164&gt;0, BUY!S164, "")</f>
-        <v/>
-      </c>
-      <c r="C162" s="17">
-        <f>IF(BUY!U164&gt;0, BUY!T164, "")</f>
-        <v/>
-      </c>
-      <c r="D162" s="13">
-        <f>IF(BUY!U164&gt;0, BUY!U164, "")</f>
-        <v/>
-      </c>
-      <c r="E162" s="15">
-        <f>IF(BUY!U164&gt;0, BUY!V164, "")</f>
-        <v/>
-      </c>
+      <c r="C162" s="17" t="n"/>
+      <c r="D162" s="13" t="n"/>
+      <c r="E162" s="15" t="n"/>
     </row>
     <row r="163">
-      <c r="A163">
-        <f>IF(BUY!U165&gt;0, BUY!A165, "")</f>
-        <v/>
-      </c>
-      <c r="B163">
-        <f>IF(BUY!U165&gt;0, BUY!S165, "")</f>
-        <v/>
-      </c>
-      <c r="C163" s="17">
-        <f>IF(BUY!U165&gt;0, BUY!T165, "")</f>
-        <v/>
-      </c>
-      <c r="D163" s="13">
-        <f>IF(BUY!U165&gt;0, BUY!U165, "")</f>
-        <v/>
-      </c>
-      <c r="E163" s="15">
-        <f>IF(BUY!U165&gt;0, BUY!V165, "")</f>
-        <v/>
-      </c>
+      <c r="C163" s="17" t="n"/>
+      <c r="D163" s="13" t="n"/>
+      <c r="E163" s="15" t="n"/>
     </row>
     <row r="164">
-      <c r="A164">
-        <f>IF(BUY!U166&gt;0, BUY!A166, "")</f>
-        <v/>
-      </c>
-      <c r="B164">
-        <f>IF(BUY!U166&gt;0, BUY!S166, "")</f>
-        <v/>
-      </c>
-      <c r="C164" s="17">
-        <f>IF(BUY!U166&gt;0, BUY!T166, "")</f>
-        <v/>
-      </c>
-      <c r="D164" s="13">
-        <f>IF(BUY!U166&gt;0, BUY!U166, "")</f>
-        <v/>
-      </c>
-      <c r="E164" s="15">
-        <f>IF(BUY!U166&gt;0, BUY!V166, "")</f>
-        <v/>
-      </c>
+      <c r="C164" s="17" t="n"/>
+      <c r="D164" s="13" t="n"/>
+      <c r="E164" s="15" t="n"/>
     </row>
     <row r="165">
-      <c r="A165">
-        <f>IF(BUY!U167&gt;0, BUY!A167, "")</f>
-        <v/>
-      </c>
-      <c r="B165">
-        <f>IF(BUY!U167&gt;0, BUY!S167, "")</f>
-        <v/>
-      </c>
-      <c r="C165" s="17">
-        <f>IF(BUY!U167&gt;0, BUY!T167, "")</f>
-        <v/>
-      </c>
-      <c r="D165" s="13">
-        <f>IF(BUY!U167&gt;0, BUY!U167, "")</f>
-        <v/>
-      </c>
-      <c r="E165" s="15">
-        <f>IF(BUY!U167&gt;0, BUY!V167, "")</f>
-        <v/>
-      </c>
+      <c r="C165" s="17" t="n"/>
+      <c r="D165" s="13" t="n"/>
+      <c r="E165" s="15" t="n"/>
     </row>
     <row r="166">
-      <c r="A166">
-        <f>IF(BUY!U168&gt;0, BUY!A168, "")</f>
-        <v/>
-      </c>
-      <c r="B166">
-        <f>IF(BUY!U168&gt;0, BUY!S168, "")</f>
-        <v/>
-      </c>
-      <c r="C166" s="17">
-        <f>IF(BUY!U168&gt;0, BUY!T168, "")</f>
-        <v/>
-      </c>
-      <c r="D166" s="13">
-        <f>IF(BUY!U168&gt;0, BUY!U168, "")</f>
-        <v/>
-      </c>
-      <c r="E166" s="15">
-        <f>IF(BUY!U168&gt;0, BUY!V168, "")</f>
-        <v/>
-      </c>
+      <c r="C166" s="17" t="n"/>
+      <c r="D166" s="13" t="n"/>
+      <c r="E166" s="15" t="n"/>
     </row>
     <row r="167">
-      <c r="A167">
-        <f>IF(BUY!U169&gt;0, BUY!A169, "")</f>
-        <v/>
-      </c>
-      <c r="B167">
-        <f>IF(BUY!U169&gt;0, BUY!S169, "")</f>
-        <v/>
-      </c>
-      <c r="C167" s="17">
-        <f>IF(BUY!U169&gt;0, BUY!T169, "")</f>
-        <v/>
-      </c>
-      <c r="D167" s="13">
-        <f>IF(BUY!U169&gt;0, BUY!U169, "")</f>
-        <v/>
-      </c>
-      <c r="E167" s="15">
-        <f>IF(BUY!U169&gt;0, BUY!V169, "")</f>
-        <v/>
-      </c>
+      <c r="C167" s="17" t="n"/>
+      <c r="D167" s="13" t="n"/>
+      <c r="E167" s="15" t="n"/>
     </row>
     <row r="168">
-      <c r="A168">
-        <f>IF(BUY!U170&gt;0, BUY!A170, "")</f>
-        <v/>
-      </c>
-      <c r="B168">
-        <f>IF(BUY!U170&gt;0, BUY!S170, "")</f>
-        <v/>
-      </c>
-      <c r="C168" s="17">
-        <f>IF(BUY!U170&gt;0, BUY!T170, "")</f>
-        <v/>
-      </c>
-      <c r="D168" s="13">
-        <f>IF(BUY!U170&gt;0, BUY!U170, "")</f>
-        <v/>
-      </c>
-      <c r="E168" s="15">
-        <f>IF(BUY!U170&gt;0, BUY!V170, "")</f>
-        <v/>
-      </c>
+      <c r="C168" s="17" t="n"/>
+      <c r="D168" s="13" t="n"/>
+      <c r="E168" s="15" t="n"/>
     </row>
     <row r="169">
-      <c r="A169">
-        <f>IF(BUY!U171&gt;0, BUY!A171, "")</f>
-        <v/>
-      </c>
-      <c r="B169">
-        <f>IF(BUY!U171&gt;0, BUY!S171, "")</f>
-        <v/>
-      </c>
-      <c r="C169" s="17">
-        <f>IF(BUY!U171&gt;0, BUY!T171, "")</f>
-        <v/>
-      </c>
-      <c r="D169" s="13">
-        <f>IF(BUY!U171&gt;0, BUY!U171, "")</f>
-        <v/>
-      </c>
-      <c r="E169" s="15">
-        <f>IF(BUY!U171&gt;0, BUY!V171, "")</f>
-        <v/>
-      </c>
+      <c r="C169" s="17" t="n"/>
+      <c r="D169" s="13" t="n"/>
+      <c r="E169" s="15" t="n"/>
     </row>
     <row r="170">
-      <c r="A170">
-        <f>IF(BUY!U172&gt;0, BUY!A172, "")</f>
-        <v/>
-      </c>
-      <c r="B170">
-        <f>IF(BUY!U172&gt;0, BUY!S172, "")</f>
-        <v/>
-      </c>
-      <c r="C170" s="17">
-        <f>IF(BUY!U172&gt;0, BUY!T172, "")</f>
-        <v/>
-      </c>
-      <c r="D170" s="13">
-        <f>IF(BUY!U172&gt;0, BUY!U172, "")</f>
-        <v/>
-      </c>
-      <c r="E170" s="15">
-        <f>IF(BUY!U172&gt;0, BUY!V172, "")</f>
-        <v/>
-      </c>
+      <c r="C170" s="17" t="n"/>
+      <c r="D170" s="13" t="n"/>
+      <c r="E170" s="15" t="n"/>
     </row>
     <row r="171">
-      <c r="A171">
-        <f>IF(BUY!U173&gt;0, BUY!A173, "")</f>
-        <v/>
-      </c>
-      <c r="B171">
-        <f>IF(BUY!U173&gt;0, BUY!S173, "")</f>
-        <v/>
-      </c>
-      <c r="C171" s="17">
-        <f>IF(BUY!U173&gt;0, BUY!T173, "")</f>
-        <v/>
-      </c>
-      <c r="D171" s="13">
-        <f>IF(BUY!U173&gt;0, BUY!U173, "")</f>
-        <v/>
-      </c>
-      <c r="E171" s="15">
-        <f>IF(BUY!U173&gt;0, BUY!V173, "")</f>
-        <v/>
-      </c>
+      <c r="C171" s="17" t="n"/>
+      <c r="D171" s="13" t="n"/>
+      <c r="E171" s="15" t="n"/>
     </row>
     <row r="172">
-      <c r="A172">
-        <f>IF(BUY!U174&gt;0, BUY!A174, "")</f>
-        <v/>
-      </c>
-      <c r="B172">
-        <f>IF(BUY!U174&gt;0, BUY!S174, "")</f>
-        <v/>
-      </c>
-      <c r="C172" s="17">
-        <f>IF(BUY!U174&gt;0, BUY!T174, "")</f>
-        <v/>
-      </c>
-      <c r="D172" s="13">
-        <f>IF(BUY!U174&gt;0, BUY!U174, "")</f>
-        <v/>
-      </c>
-      <c r="E172" s="15">
-        <f>IF(BUY!U174&gt;0, BUY!V174, "")</f>
-        <v/>
-      </c>
+      <c r="C172" s="17" t="n"/>
+      <c r="D172" s="13" t="n"/>
+      <c r="E172" s="15" t="n"/>
     </row>
     <row r="173">
-      <c r="A173">
-        <f>IF(BUY!U175&gt;0, BUY!A175, "")</f>
-        <v/>
-      </c>
-      <c r="B173">
-        <f>IF(BUY!U175&gt;0, BUY!S175, "")</f>
-        <v/>
-      </c>
-      <c r="C173" s="17">
-        <f>IF(BUY!U175&gt;0, BUY!T175, "")</f>
-        <v/>
-      </c>
-      <c r="D173" s="13">
-        <f>IF(BUY!U175&gt;0, BUY!U175, "")</f>
-        <v/>
-      </c>
-      <c r="E173" s="15">
-        <f>IF(BUY!U175&gt;0, BUY!V175, "")</f>
-        <v/>
-      </c>
+      <c r="C173" s="17" t="n"/>
+      <c r="D173" s="13" t="n"/>
+      <c r="E173" s="15" t="n"/>
     </row>
     <row r="174">
-      <c r="A174">
-        <f>IF(BUY!U176&gt;0, BUY!A176, "")</f>
-        <v/>
-      </c>
-      <c r="B174">
-        <f>IF(BUY!U176&gt;0, BUY!S176, "")</f>
-        <v/>
-      </c>
-      <c r="C174" s="17">
-        <f>IF(BUY!U176&gt;0, BUY!T176, "")</f>
-        <v/>
-      </c>
-      <c r="D174" s="13">
-        <f>IF(BUY!U176&gt;0, BUY!U176, "")</f>
-        <v/>
-      </c>
-      <c r="E174" s="15">
-        <f>IF(BUY!U176&gt;0, BUY!V176, "")</f>
-        <v/>
-      </c>
+      <c r="C174" s="17" t="n"/>
+      <c r="D174" s="13" t="n"/>
+      <c r="E174" s="15" t="n"/>
     </row>
     <row r="175">
-      <c r="A175">
-        <f>IF(BUY!U177&gt;0, BUY!A177, "")</f>
-        <v/>
-      </c>
-      <c r="B175">
-        <f>IF(BUY!U177&gt;0, BUY!S177, "")</f>
-        <v/>
-      </c>
-      <c r="C175" s="17">
-        <f>IF(BUY!U177&gt;0, BUY!T177, "")</f>
-        <v/>
-      </c>
-      <c r="D175" s="13">
-        <f>IF(BUY!U177&gt;0, BUY!U177, "")</f>
-        <v/>
-      </c>
-      <c r="E175" s="15">
-        <f>IF(BUY!U177&gt;0, BUY!V177, "")</f>
-        <v/>
-      </c>
+      <c r="C175" s="17" t="n"/>
+      <c r="D175" s="13" t="n"/>
+      <c r="E175" s="15" t="n"/>
     </row>
     <row r="176">
-      <c r="A176">
-        <f>IF(BUY!U178&gt;0, BUY!A178, "")</f>
-        <v/>
-      </c>
-      <c r="B176">
-        <f>IF(BUY!U178&gt;0, BUY!S178, "")</f>
-        <v/>
-      </c>
-      <c r="C176" s="17">
-        <f>IF(BUY!U178&gt;0, BUY!T178, "")</f>
-        <v/>
-      </c>
-      <c r="D176" s="13">
-        <f>IF(BUY!U178&gt;0, BUY!U178, "")</f>
-        <v/>
-      </c>
-      <c r="E176" s="15">
-        <f>IF(BUY!U178&gt;0, BUY!V178, "")</f>
-        <v/>
-      </c>
+      <c r="C176" s="17" t="n"/>
+      <c r="D176" s="13" t="n"/>
+      <c r="E176" s="15" t="n"/>
     </row>
     <row r="177">
-      <c r="A177">
-        <f>IF(BUY!U179&gt;0, BUY!A179, "")</f>
-        <v/>
-      </c>
-      <c r="B177">
-        <f>IF(BUY!U179&gt;0, BUY!S179, "")</f>
-        <v/>
-      </c>
-      <c r="C177" s="17">
-        <f>IF(BUY!U179&gt;0, BUY!T179, "")</f>
-        <v/>
-      </c>
-      <c r="D177" s="13">
-        <f>IF(BUY!U179&gt;0, BUY!U179, "")</f>
-        <v/>
-      </c>
-      <c r="E177" s="15">
-        <f>IF(BUY!U179&gt;0, BUY!V179, "")</f>
-        <v/>
-      </c>
+      <c r="C177" s="17" t="n"/>
+      <c r="D177" s="13" t="n"/>
+      <c r="E177" s="15" t="n"/>
     </row>
     <row r="178">
-      <c r="A178">
-        <f>IF(BUY!U180&gt;0, BUY!A180, "")</f>
-        <v/>
-      </c>
-      <c r="B178">
-        <f>IF(BUY!U180&gt;0, BUY!S180, "")</f>
-        <v/>
-      </c>
-      <c r="C178" s="17">
-        <f>IF(BUY!U180&gt;0, BUY!T180, "")</f>
-        <v/>
-      </c>
-      <c r="D178" s="13">
-        <f>IF(BUY!U180&gt;0, BUY!U180, "")</f>
-        <v/>
-      </c>
-      <c r="E178" s="15">
-        <f>IF(BUY!U180&gt;0, BUY!V180, "")</f>
-        <v/>
-      </c>
+      <c r="C178" s="17" t="n"/>
+      <c r="D178" s="13" t="n"/>
+      <c r="E178" s="15" t="n"/>
     </row>
     <row r="179">
-      <c r="A179">
-        <f>IF(BUY!U181&gt;0, BUY!A181, "")</f>
-        <v/>
-      </c>
-      <c r="B179">
-        <f>IF(BUY!U181&gt;0, BUY!S181, "")</f>
-        <v/>
-      </c>
-      <c r="C179" s="17">
-        <f>IF(BUY!U181&gt;0, BUY!T181, "")</f>
-        <v/>
-      </c>
-      <c r="D179" s="13">
-        <f>IF(BUY!U181&gt;0, BUY!U181, "")</f>
-        <v/>
-      </c>
-      <c r="E179" s="15">
-        <f>IF(BUY!U181&gt;0, BUY!V181, "")</f>
-        <v/>
-      </c>
+      <c r="C179" s="17" t="n"/>
+      <c r="D179" s="13" t="n"/>
+      <c r="E179" s="15" t="n"/>
     </row>
     <row r="180">
-      <c r="A180">
-        <f>IF(BUY!U182&gt;0, BUY!A182, "")</f>
-        <v/>
-      </c>
-      <c r="B180">
-        <f>IF(BUY!U182&gt;0, BUY!S182, "")</f>
-        <v/>
-      </c>
-      <c r="C180" s="17">
-        <f>IF(BUY!U182&gt;0, BUY!T182, "")</f>
-        <v/>
-      </c>
-      <c r="D180" s="13">
-        <f>IF(BUY!U182&gt;0, BUY!U182, "")</f>
-        <v/>
-      </c>
-      <c r="E180" s="15">
-        <f>IF(BUY!U182&gt;0, BUY!V182, "")</f>
-        <v/>
-      </c>
+      <c r="C180" s="17" t="n"/>
+      <c r="D180" s="13" t="n"/>
+      <c r="E180" s="15" t="n"/>
     </row>
     <row r="181">
-      <c r="A181">
-        <f>IF(BUY!U183&gt;0, BUY!A183, "")</f>
-        <v/>
-      </c>
-      <c r="B181">
-        <f>IF(BUY!U183&gt;0, BUY!S183, "")</f>
-        <v/>
-      </c>
-      <c r="C181" s="17">
-        <f>IF(BUY!U183&gt;0, BUY!T183, "")</f>
-        <v/>
-      </c>
-      <c r="D181" s="13">
-        <f>IF(BUY!U183&gt;0, BUY!U183, "")</f>
-        <v/>
-      </c>
-      <c r="E181" s="15">
-        <f>IF(BUY!U183&gt;0, BUY!V183, "")</f>
-        <v/>
-      </c>
+      <c r="C181" s="17" t="n"/>
+      <c r="D181" s="13" t="n"/>
+      <c r="E181" s="15" t="n"/>
     </row>
     <row r="182">
-      <c r="A182">
-        <f>IF(BUY!U184&gt;0, BUY!A184, "")</f>
-        <v/>
-      </c>
-      <c r="B182">
-        <f>IF(BUY!U184&gt;0, BUY!S184, "")</f>
-        <v/>
-      </c>
-      <c r="C182" s="17">
-        <f>IF(BUY!U184&gt;0, BUY!T184, "")</f>
-        <v/>
-      </c>
-      <c r="D182" s="13">
-        <f>IF(BUY!U184&gt;0, BUY!U184, "")</f>
-        <v/>
-      </c>
-      <c r="E182" s="15">
-        <f>IF(BUY!U184&gt;0, BUY!V184, "")</f>
-        <v/>
-      </c>
+      <c r="C182" s="17" t="n"/>
+      <c r="D182" s="13" t="n"/>
+      <c r="E182" s="15" t="n"/>
     </row>
     <row r="183">
-      <c r="A183">
-        <f>IF(BUY!U185&gt;0, BUY!A185, "")</f>
-        <v/>
-      </c>
-      <c r="B183">
-        <f>IF(BUY!U185&gt;0, BUY!S185, "")</f>
-        <v/>
-      </c>
-      <c r="C183" s="17">
-        <f>IF(BUY!U185&gt;0, BUY!T185, "")</f>
-        <v/>
-      </c>
-      <c r="D183" s="13">
-        <f>IF(BUY!U185&gt;0, BUY!U185, "")</f>
-        <v/>
-      </c>
-      <c r="E183" s="15">
-        <f>IF(BUY!U185&gt;0, BUY!V185, "")</f>
-        <v/>
-      </c>
+      <c r="C183" s="17" t="n"/>
+      <c r="D183" s="13" t="n"/>
+      <c r="E183" s="15" t="n"/>
     </row>
     <row r="184">
-      <c r="A184">
-        <f>IF(BUY!U186&gt;0, BUY!A186, "")</f>
-        <v/>
-      </c>
-      <c r="B184">
-        <f>IF(BUY!U186&gt;0, BUY!S186, "")</f>
-        <v/>
-      </c>
-      <c r="C184" s="17">
-        <f>IF(BUY!U186&gt;0, BUY!T186, "")</f>
-        <v/>
-      </c>
-      <c r="D184" s="13">
-        <f>IF(BUY!U186&gt;0, BUY!U186, "")</f>
-        <v/>
-      </c>
-      <c r="E184" s="15">
-        <f>IF(BUY!U186&gt;0, BUY!V186, "")</f>
-        <v/>
-      </c>
+      <c r="C184" s="17" t="n"/>
+      <c r="D184" s="13" t="n"/>
+      <c r="E184" s="15" t="n"/>
     </row>
     <row r="185">
-      <c r="A185">
-        <f>IF(BUY!U187&gt;0, BUY!A187, "")</f>
-        <v/>
-      </c>
-      <c r="B185">
-        <f>IF(BUY!U187&gt;0, BUY!S187, "")</f>
-        <v/>
-      </c>
-      <c r="C185" s="17">
-        <f>IF(BUY!U187&gt;0, BUY!T187, "")</f>
-        <v/>
-      </c>
-      <c r="D185" s="13">
-        <f>IF(BUY!U187&gt;0, BUY!U187, "")</f>
-        <v/>
-      </c>
-      <c r="E185" s="15">
-        <f>IF(BUY!U187&gt;0, BUY!V187, "")</f>
-        <v/>
-      </c>
+      <c r="C185" s="17" t="n"/>
+      <c r="D185" s="13" t="n"/>
+      <c r="E185" s="15" t="n"/>
     </row>
     <row r="186">
-      <c r="A186">
-        <f>IF(BUY!U188&gt;0, BUY!A188, "")</f>
-        <v/>
-      </c>
-      <c r="B186">
-        <f>IF(BUY!U188&gt;0, BUY!S188, "")</f>
-        <v/>
-      </c>
-      <c r="C186" s="17">
-        <f>IF(BUY!U188&gt;0, BUY!T188, "")</f>
-        <v/>
-      </c>
-      <c r="D186" s="13">
-        <f>IF(BUY!U188&gt;0, BUY!U188, "")</f>
-        <v/>
-      </c>
-      <c r="E186" s="15">
-        <f>IF(BUY!U188&gt;0, BUY!V188, "")</f>
-        <v/>
-      </c>
+      <c r="C186" s="17" t="n"/>
+      <c r="D186" s="13" t="n"/>
+      <c r="E186" s="15" t="n"/>
     </row>
     <row r="187">
-      <c r="A187">
-        <f>IF(BUY!U189&gt;0, BUY!A189, "")</f>
-        <v/>
-      </c>
-      <c r="B187">
-        <f>IF(BUY!U189&gt;0, BUY!S189, "")</f>
-        <v/>
-      </c>
-      <c r="C187" s="17">
-        <f>IF(BUY!U189&gt;0, BUY!T189, "")</f>
-        <v/>
-      </c>
-      <c r="D187" s="13">
-        <f>IF(BUY!U189&gt;0, BUY!U189, "")</f>
-        <v/>
-      </c>
-      <c r="E187" s="15">
-        <f>IF(BUY!U189&gt;0, BUY!V189, "")</f>
-        <v/>
-      </c>
+      <c r="C187" s="17" t="n"/>
+      <c r="D187" s="13" t="n"/>
+      <c r="E187" s="15" t="n"/>
     </row>
     <row r="188">
-      <c r="A188">
-        <f>IF(BUY!U190&gt;0, BUY!A190, "")</f>
-        <v/>
-      </c>
-      <c r="B188">
-        <f>IF(BUY!U190&gt;0, BUY!S190, "")</f>
-        <v/>
-      </c>
-      <c r="C188" s="17">
-        <f>IF(BUY!U190&gt;0, BUY!T190, "")</f>
-        <v/>
-      </c>
-      <c r="D188" s="13">
-        <f>IF(BUY!U190&gt;0, BUY!U190, "")</f>
-        <v/>
-      </c>
-      <c r="E188" s="15">
-        <f>IF(BUY!U190&gt;0, BUY!V190, "")</f>
-        <v/>
-      </c>
+      <c r="C188" s="17" t="n"/>
+      <c r="D188" s="13" t="n"/>
+      <c r="E188" s="15" t="n"/>
     </row>
     <row r="189">
-      <c r="A189">
-        <f>IF(BUY!U191&gt;0, BUY!A191, "")</f>
-        <v/>
-      </c>
-      <c r="B189">
-        <f>IF(BUY!U191&gt;0, BUY!S191, "")</f>
-        <v/>
-      </c>
-      <c r="C189" s="17">
-        <f>IF(BUY!U191&gt;0, BUY!T191, "")</f>
-        <v/>
-      </c>
-      <c r="D189" s="13">
-        <f>IF(BUY!U191&gt;0, BUY!U191, "")</f>
-        <v/>
-      </c>
-      <c r="E189" s="15">
-        <f>IF(BUY!U191&gt;0, BUY!V191, "")</f>
-        <v/>
-      </c>
+      <c r="C189" s="17" t="n"/>
+      <c r="D189" s="13" t="n"/>
+      <c r="E189" s="15" t="n"/>
     </row>
     <row r="190">
-      <c r="A190">
-        <f>IF(BUY!U192&gt;0, BUY!A192, "")</f>
-        <v/>
-      </c>
-      <c r="B190">
-        <f>IF(BUY!U192&gt;0, BUY!S192, "")</f>
-        <v/>
-      </c>
-      <c r="C190" s="17">
-        <f>IF(BUY!U192&gt;0, BUY!T192, "")</f>
-        <v/>
-      </c>
-      <c r="D190" s="13">
-        <f>IF(BUY!U192&gt;0, BUY!U192, "")</f>
-        <v/>
-      </c>
-      <c r="E190" s="15">
-        <f>IF(BUY!U192&gt;0, BUY!V192, "")</f>
-        <v/>
-      </c>
+      <c r="C190" s="17" t="n"/>
+      <c r="D190" s="13" t="n"/>
+      <c r="E190" s="15" t="n"/>
     </row>
     <row r="191">
-      <c r="A191">
-        <f>IF(BUY!U193&gt;0, BUY!A193, "")</f>
-        <v/>
-      </c>
-      <c r="B191">
-        <f>IF(BUY!U193&gt;0, BUY!S193, "")</f>
-        <v/>
-      </c>
-      <c r="C191" s="17">
-        <f>IF(BUY!U193&gt;0, BUY!T193, "")</f>
-        <v/>
-      </c>
-      <c r="D191" s="13">
-        <f>IF(BUY!U193&gt;0, BUY!U193, "")</f>
-        <v/>
-      </c>
-      <c r="E191" s="15">
-        <f>IF(BUY!U193&gt;0, BUY!V193, "")</f>
-        <v/>
-      </c>
+      <c r="C191" s="17" t="n"/>
+      <c r="D191" s="13" t="n"/>
+      <c r="E191" s="15" t="n"/>
     </row>
     <row r="192">
-      <c r="A192">
-        <f>IF(BUY!U194&gt;0, BUY!A194, "")</f>
-        <v/>
-      </c>
-      <c r="B192">
-        <f>IF(BUY!U194&gt;0, BUY!S194, "")</f>
-        <v/>
-      </c>
-      <c r="C192" s="17">
-        <f>IF(BUY!U194&gt;0, BUY!T194, "")</f>
-        <v/>
-      </c>
-      <c r="D192" s="13">
-        <f>IF(BUY!U194&gt;0, BUY!U194, "")</f>
-        <v/>
-      </c>
-      <c r="E192" s="15">
-        <f>IF(BUY!U194&gt;0, BUY!V194, "")</f>
-        <v/>
-      </c>
+      <c r="C192" s="17" t="n"/>
+      <c r="D192" s="13" t="n"/>
+      <c r="E192" s="15" t="n"/>
     </row>
     <row r="193">
-      <c r="A193">
-        <f>IF(BUY!U195&gt;0, BUY!A195, "")</f>
-        <v/>
-      </c>
-      <c r="B193">
-        <f>IF(BUY!U195&gt;0, BUY!S195, "")</f>
-        <v/>
-      </c>
-      <c r="C193" s="17">
-        <f>IF(BUY!U195&gt;0, BUY!T195, "")</f>
-        <v/>
-      </c>
-      <c r="D193" s="13">
-        <f>IF(BUY!U195&gt;0, BUY!U195, "")</f>
-        <v/>
-      </c>
-      <c r="E193" s="15">
-        <f>IF(BUY!U195&gt;0, BUY!V195, "")</f>
-        <v/>
-      </c>
+      <c r="C193" s="17" t="n"/>
+      <c r="D193" s="13" t="n"/>
+      <c r="E193" s="15" t="n"/>
     </row>
     <row r="194">
-      <c r="A194">
-        <f>IF(BUY!U196&gt;0, BUY!A196, "")</f>
-        <v/>
-      </c>
-      <c r="B194">
-        <f>IF(BUY!U196&gt;0, BUY!S196, "")</f>
-        <v/>
-      </c>
-      <c r="C194" s="17">
-        <f>IF(BUY!U196&gt;0, BUY!T196, "")</f>
-        <v/>
-      </c>
-      <c r="D194" s="13">
-        <f>IF(BUY!U196&gt;0, BUY!U196, "")</f>
-        <v/>
-      </c>
-      <c r="E194" s="15">
-        <f>IF(BUY!U196&gt;0, BUY!V196, "")</f>
-        <v/>
-      </c>
+      <c r="C194" s="17" t="n"/>
+      <c r="D194" s="13" t="n"/>
+      <c r="E194" s="15" t="n"/>
     </row>
     <row r="195">
-      <c r="A195">
-        <f>IF(BUY!U197&gt;0, BUY!A197, "")</f>
-        <v/>
-      </c>
-      <c r="B195">
-        <f>IF(BUY!U197&gt;0, BUY!S197, "")</f>
-        <v/>
-      </c>
-      <c r="C195" s="17">
-        <f>IF(BUY!U197&gt;0, BUY!T197, "")</f>
-        <v/>
-      </c>
-      <c r="D195" s="13">
-        <f>IF(BUY!U197&gt;0, BUY!U197, "")</f>
-        <v/>
-      </c>
-      <c r="E195" s="15">
-        <f>IF(BUY!U197&gt;0, BUY!V197, "")</f>
-        <v/>
-      </c>
+      <c r="C195" s="17" t="n"/>
+      <c r="D195" s="13" t="n"/>
+      <c r="E195" s="15" t="n"/>
     </row>
     <row r="196">
-      <c r="A196">
-        <f>IF(BUY!U198&gt;0, BUY!A198, "")</f>
-        <v/>
-      </c>
-      <c r="B196">
-        <f>IF(BUY!U198&gt;0, BUY!S198, "")</f>
-        <v/>
-      </c>
-      <c r="C196" s="17">
-        <f>IF(BUY!U198&gt;0, BUY!T198, "")</f>
-        <v/>
-      </c>
-      <c r="D196" s="13">
-        <f>IF(BUY!U198&gt;0, BUY!U198, "")</f>
-        <v/>
-      </c>
-      <c r="E196" s="15">
-        <f>IF(BUY!U198&gt;0, BUY!V198, "")</f>
-        <v/>
-      </c>
+      <c r="C196" s="17" t="n"/>
+      <c r="D196" s="13" t="n"/>
+      <c r="E196" s="15" t="n"/>
     </row>
     <row r="197">
-      <c r="A197">
-        <f>IF(BUY!U199&gt;0, BUY!A199, "")</f>
-        <v/>
-      </c>
-      <c r="B197">
-        <f>IF(BUY!U199&gt;0, BUY!S199, "")</f>
-        <v/>
-      </c>
-      <c r="C197" s="17">
-        <f>IF(BUY!U199&gt;0, BUY!T199, "")</f>
-        <v/>
-      </c>
-      <c r="D197" s="13">
-        <f>IF(BUY!U199&gt;0, BUY!U199, "")</f>
-        <v/>
-      </c>
-      <c r="E197" s="15">
-        <f>IF(BUY!U199&gt;0, BUY!V199, "")</f>
-        <v/>
-      </c>
+      <c r="C197" s="17" t="n"/>
+      <c r="D197" s="13" t="n"/>
+      <c r="E197" s="15" t="n"/>
     </row>
     <row r="198">
-      <c r="A198">
-        <f>IF(BUY!U200&gt;0, BUY!A200, "")</f>
-        <v/>
-      </c>
-      <c r="B198">
-        <f>IF(BUY!U200&gt;0, BUY!S200, "")</f>
-        <v/>
-      </c>
-      <c r="C198" s="17">
-        <f>IF(BUY!U200&gt;0, BUY!T200, "")</f>
-        <v/>
-      </c>
-      <c r="D198" s="13">
-        <f>IF(BUY!U200&gt;0, BUY!U200, "")</f>
-        <v/>
-      </c>
-      <c r="E198" s="15">
-        <f>IF(BUY!U200&gt;0, BUY!V200, "")</f>
-        <v/>
-      </c>
+      <c r="C198" s="17" t="n"/>
+      <c r="D198" s="13" t="n"/>
+      <c r="E198" s="15" t="n"/>
     </row>
     <row r="199">
-      <c r="A199">
-        <f>IF(BUY!U201&gt;0, BUY!A201, "")</f>
-        <v/>
-      </c>
-      <c r="B199">
-        <f>IF(BUY!U201&gt;0, BUY!S201, "")</f>
-        <v/>
-      </c>
-      <c r="C199" s="17">
-        <f>IF(BUY!U201&gt;0, BUY!T201, "")</f>
-        <v/>
-      </c>
-      <c r="D199" s="13">
-        <f>IF(BUY!U201&gt;0, BUY!U201, "")</f>
-        <v/>
-      </c>
-      <c r="E199" s="15">
-        <f>IF(BUY!U201&gt;0, BUY!V201, "")</f>
-        <v/>
-      </c>
+      <c r="C199" s="17" t="n"/>
+      <c r="D199" s="13" t="n"/>
+      <c r="E199" s="15" t="n"/>
     </row>
     <row r="200">
-      <c r="A200">
-        <f>IF(BUY!U202&gt;0, BUY!A202, "")</f>
-        <v/>
-      </c>
-      <c r="B200">
-        <f>IF(BUY!U202&gt;0, BUY!S202, "")</f>
-        <v/>
-      </c>
-      <c r="C200" s="17">
-        <f>IF(BUY!U202&gt;0, BUY!T202, "")</f>
-        <v/>
-      </c>
-      <c r="D200" s="13">
-        <f>IF(BUY!U202&gt;0, BUY!U202, "")</f>
-        <v/>
-      </c>
-      <c r="E200" s="15">
-        <f>IF(BUY!U202&gt;0, BUY!V202, "")</f>
-        <v/>
-      </c>
+      <c r="C200" s="17" t="n"/>
+      <c r="D200" s="13" t="n"/>
+      <c r="E200" s="15" t="n"/>
     </row>
     <row r="201">
-      <c r="A201">
-        <f>IF(BUY!U203&gt;0, BUY!A203, "")</f>
-        <v/>
-      </c>
-      <c r="B201">
-        <f>IF(BUY!U203&gt;0, BUY!S203, "")</f>
-        <v/>
-      </c>
-      <c r="C201" s="17">
-        <f>IF(BUY!U203&gt;0, BUY!T203, "")</f>
-        <v/>
-      </c>
-      <c r="D201" s="13">
-        <f>IF(BUY!U203&gt;0, BUY!U203, "")</f>
-        <v/>
-      </c>
-      <c r="E201" s="15">
-        <f>IF(BUY!U203&gt;0, BUY!V203, "")</f>
-        <v/>
-      </c>
+      <c r="C201" s="17" t="n"/>
+      <c r="D201" s="13" t="n"/>
+      <c r="E201" s="15" t="n"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="0" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="C79C"/>
